--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/输入文档/11.16程序员客栈项目开发报价单（因卓二期-整包）(移除APP端项目经理修改版).xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/输入文档/11.16程序员客栈项目开发报价单（因卓二期-整包）(移除APP端项目经理修改版).xlsx
@@ -2204,254 +2204,254 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3649,8 +3649,8 @@
   <dimension ref="A1:P274"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q196" sqref="Q196"/>
+      <pane ySplit="3" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K271" sqref="K271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -3674,44 +3674,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
     </row>
     <row r="2" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="78" t="s">
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="140"/>
     </row>
     <row r="3" spans="1:16" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3761,7 +3761,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="131" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -3775,30 +3775,30 @@
       </c>
       <c r="G4" s="45"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74">
+      <c r="I4" s="93"/>
+      <c r="J4" s="93">
         <v>3</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="93">
         <v>3</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74">
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93">
         <v>6</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="51"/>
     </row>
     <row r="5" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="149" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="45" t="s">
@@ -3809,19 +3809,19 @@
       </c>
       <c r="G5" s="45"/>
       <c r="H5" s="42"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
       <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
       <c r="E6" s="45" t="s">
         <v>34</v>
       </c>
@@ -3830,19 +3830,19 @@
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
       <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
       <c r="E7" s="45" t="s">
         <v>36</v>
       </c>
@@ -3851,19 +3851,19 @@
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
       <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="150"/>
       <c r="E8" s="45" t="s">
         <v>38</v>
       </c>
@@ -3872,19 +3872,19 @@
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
       <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="150"/>
       <c r="E9" s="45" t="s">
         <v>40</v>
       </c>
@@ -3893,19 +3893,19 @@
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
       <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
       <c r="E10" s="45" t="s">
         <v>42</v>
       </c>
@@ -3914,38 +3914,38 @@
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
       <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
       <c r="E11" s="45" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
       <c r="O11" s="42"/>
     </row>
     <row r="12" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150"/>
       <c r="E12" s="45" t="s">
         <v>45</v>
       </c>
@@ -3954,18 +3954,18 @@
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
       <c r="O12" s="42"/>
     </row>
     <row r="13" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="89"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="45" t="s">
         <v>47</v>
       </c>
@@ -3975,18 +3975,18 @@
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
       <c r="O13" s="42"/>
     </row>
     <row r="14" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="89"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="45" t="s">
         <v>49</v>
       </c>
@@ -3996,18 +3996,18 @@
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
       <c r="O14" s="42"/>
     </row>
     <row r="15" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="89"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="45" t="s">
         <v>51</v>
       </c>
@@ -4017,18 +4017,18 @@
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="89"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="25" t="s">
         <v>53</v>
       </c>
@@ -4038,18 +4038,18 @@
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
       <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="89" t="s">
+      <c r="A17" s="121"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="149" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="45" t="s">
@@ -4061,18 +4061,18 @@
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
       <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="90"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="150"/>
       <c r="D18" s="45" t="s">
         <v>58</v>
       </c>
@@ -4082,23 +4082,23 @@
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
       <c r="O18" s="42"/>
     </row>
     <row r="19" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="91" t="s">
+      <c r="A19" s="121"/>
+      <c r="B19" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="135" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="47" t="s">
@@ -4109,26 +4109,26 @@
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74">
+      <c r="I19" s="93"/>
+      <c r="J19" s="93">
         <v>1</v>
       </c>
-      <c r="K19" s="74">
+      <c r="K19" s="93">
         <v>2</v>
       </c>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74">
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93">
         <v>2</v>
       </c>
       <c r="O19" s="42"/>
-      <c r="P19" s="145"/>
+      <c r="P19" s="73"/>
     </row>
     <row r="20" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="47" t="s">
         <v>65</v>
       </c>
@@ -4137,19 +4137,19 @@
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
       <c r="O20" s="42"/>
-      <c r="P20" s="146"/>
+      <c r="P20" s="74"/>
     </row>
     <row r="21" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="151"/>
       <c r="D21" s="44" t="s">
         <v>432</v>
       </c>
@@ -4159,19 +4159,19 @@
       </c>
       <c r="G21" s="47"/>
       <c r="H21" s="43"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
       <c r="O21" s="43"/>
-      <c r="P21" s="146"/>
+      <c r="P21" s="74"/>
     </row>
     <row r="22" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="93"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="151"/>
       <c r="D22" s="44" t="s">
         <v>434</v>
       </c>
@@ -4181,19 +4181,19 @@
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
       <c r="O22" s="43"/>
-      <c r="P22" s="146"/>
+      <c r="P22" s="74"/>
     </row>
     <row r="23" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="94"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="33" t="s">
         <v>67</v>
       </c>
@@ -4201,18 +4201,18 @@
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
       <c r="O23" s="42"/>
-      <c r="P23" s="146"/>
+      <c r="P23" s="74"/>
     </row>
     <row r="24" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="91"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="47" t="s">
         <v>68</v>
       </c>
@@ -4225,22 +4225,22 @@
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
       <c r="O24" s="42"/>
-      <c r="P24" s="146"/>
+      <c r="P24" s="74"/>
     </row>
     <row r="25" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="71" t="s">
+      <c r="A25" s="121"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="135" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="47" t="s">
@@ -4251,20 +4251,20 @@
       </c>
       <c r="G25" s="47"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
       <c r="O25" s="42"/>
-      <c r="P25" s="146"/>
+      <c r="P25" s="74"/>
     </row>
     <row r="26" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="91"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="128"/>
       <c r="E26" s="47" t="s">
         <v>75</v>
       </c>
@@ -4273,20 +4273,20 @@
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
       <c r="O26" s="42"/>
-      <c r="P26" s="146"/>
+      <c r="P26" s="74"/>
     </row>
     <row r="27" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="91"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="128"/>
       <c r="E27" s="47" t="s">
         <v>77</v>
       </c>
@@ -4295,20 +4295,20 @@
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
       <c r="O27" s="42"/>
-      <c r="P27" s="146"/>
+      <c r="P27" s="74"/>
     </row>
     <row r="28" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="94"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="47" t="s">
         <v>79</v>
       </c>
@@ -4317,19 +4317,19 @@
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
       <c r="O28" s="42"/>
-      <c r="P28" s="146"/>
+      <c r="P28" s="74"/>
     </row>
     <row r="29" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="71" t="s">
+      <c r="A29" s="121"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="136" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="47" t="s">
@@ -4341,19 +4341,19 @@
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
       <c r="O29" s="42"/>
-      <c r="P29" s="146"/>
+      <c r="P29" s="74"/>
     </row>
     <row r="30" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="71"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="47" t="s">
         <v>67</v>
       </c>
@@ -4363,24 +4363,24 @@
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
       <c r="O30" s="42"/>
-      <c r="P30" s="146"/>
+      <c r="P30" s="74"/>
     </row>
     <row r="31" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="121"/>
+      <c r="B31" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="135" t="s">
         <v>86</v>
       </c>
       <c r="E31" s="47" t="s">
@@ -4391,26 +4391,26 @@
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74">
+      <c r="I31" s="93"/>
+      <c r="J31" s="93">
         <v>6</v>
       </c>
-      <c r="K31" s="74">
+      <c r="K31" s="93">
         <v>10</v>
       </c>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74">
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93">
         <v>12</v>
       </c>
       <c r="O31" s="42"/>
-      <c r="P31" s="147"/>
+      <c r="P31" s="75"/>
     </row>
     <row r="32" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="94"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="47" t="s">
         <v>89</v>
       </c>
@@ -4419,20 +4419,20 @@
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="42"/>
-      <c r="P32" s="148"/>
+      <c r="P32" s="76"/>
     </row>
     <row r="33" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71" t="s">
+      <c r="A33" s="121"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="47" t="s">
@@ -4443,20 +4443,20 @@
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
       <c r="O33" s="42"/>
-      <c r="P33" s="148"/>
+      <c r="P33" s="76"/>
     </row>
     <row r="34" spans="1:16" s="46" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
       <c r="E34" s="47" t="s">
         <v>94</v>
       </c>
@@ -4467,20 +4467,20 @@
         <v>96</v>
       </c>
       <c r="H34" s="42"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
       <c r="O34" s="42"/>
-      <c r="P34" s="148"/>
+      <c r="P34" s="76"/>
     </row>
     <row r="35" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
       <c r="E35" s="47" t="s">
         <v>97</v>
       </c>
@@ -4489,20 +4489,20 @@
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
       <c r="O35" s="42"/>
-      <c r="P35" s="148"/>
+      <c r="P35" s="76"/>
     </row>
     <row r="36" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71" t="s">
+      <c r="A36" s="121"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="47" t="s">
@@ -4513,20 +4513,20 @@
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
       <c r="O36" s="42"/>
-      <c r="P36" s="148"/>
+      <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
       <c r="E37" s="47" t="s">
         <v>94</v>
       </c>
@@ -4535,20 +4535,20 @@
       </c>
       <c r="G37" s="47"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
       <c r="O37" s="42"/>
-      <c r="P37" s="148"/>
+      <c r="P37" s="76"/>
     </row>
     <row r="38" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
       <c r="E38" s="47" t="s">
         <v>97</v>
       </c>
@@ -4557,19 +4557,19 @@
       </c>
       <c r="G38" s="47"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
       <c r="O38" s="42"/>
-      <c r="P38" s="148"/>
+      <c r="P38" s="76"/>
     </row>
     <row r="39" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="47" t="s">
         <v>100</v>
       </c>
@@ -4579,19 +4579,19 @@
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
       <c r="O39" s="42"/>
-      <c r="P39" s="148"/>
+      <c r="P39" s="76"/>
     </row>
     <row r="40" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
       <c r="D40" s="47" t="s">
         <v>102</v>
       </c>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
       <c r="O40" s="42"/>
-      <c r="P40" s="148"/>
+      <c r="P40" s="76"/>
     </row>
     <row r="41" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136" t="s">
         <v>104</v>
       </c>
       <c r="E41" s="47" t="s">
@@ -4625,20 +4625,20 @@
       </c>
       <c r="G41" s="47"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
       <c r="O41" s="42"/>
-      <c r="P41" s="148"/>
+      <c r="P41" s="76"/>
     </row>
     <row r="42" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
       <c r="E42" s="47" t="s">
         <v>107</v>
       </c>
@@ -4647,20 +4647,20 @@
       </c>
       <c r="G42" s="47"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
       <c r="O42" s="42"/>
-      <c r="P42" s="148"/>
+      <c r="P42" s="76"/>
     </row>
     <row r="43" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71" t="s">
+      <c r="A43" s="121"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136" t="s">
         <v>109</v>
       </c>
       <c r="E43" s="47" t="s">
@@ -4671,20 +4671,20 @@
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
       <c r="O43" s="42"/>
-      <c r="P43" s="148"/>
+      <c r="P43" s="76"/>
     </row>
     <row r="44" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
       <c r="E44" s="47" t="s">
         <v>112</v>
       </c>
@@ -4693,40 +4693,40 @@
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
       <c r="O44" s="42"/>
-      <c r="P44" s="148"/>
+      <c r="P44" s="76"/>
     </row>
     <row r="45" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A45" s="106"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
+      <c r="A45" s="121"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
       <c r="E45" s="47" t="s">
         <v>114</v>
       </c>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
       <c r="O45" s="42"/>
-      <c r="P45" s="148"/>
+      <c r="P45" s="76"/>
     </row>
     <row r="46" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
       <c r="E46" s="47" t="s">
         <v>115</v>
       </c>
@@ -4735,20 +4735,20 @@
       </c>
       <c r="G46" s="47"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
       <c r="O46" s="42"/>
-      <c r="P46" s="148"/>
+      <c r="P46" s="76"/>
     </row>
     <row r="47" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="106"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
       <c r="E47" s="47" t="s">
         <v>117</v>
       </c>
@@ -4757,20 +4757,20 @@
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="42"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
       <c r="O47" s="42"/>
-      <c r="P47" s="148"/>
+      <c r="P47" s="76"/>
     </row>
     <row r="48" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="106"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
+      <c r="A48" s="121"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
       <c r="E48" s="47" t="s">
         <v>119</v>
       </c>
@@ -4779,20 +4779,20 @@
       </c>
       <c r="G48" s="47"/>
       <c r="H48" s="42"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
       <c r="O48" s="42"/>
-      <c r="P48" s="148"/>
+      <c r="P48" s="76"/>
     </row>
     <row r="49" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71" t="s">
+      <c r="A49" s="121"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136" t="s">
         <v>121</v>
       </c>
       <c r="E49" s="47" t="s">
@@ -4801,60 +4801,60 @@
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
       <c r="H49" s="42"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
       <c r="O49" s="42"/>
-      <c r="P49" s="148"/>
+      <c r="P49" s="76"/>
     </row>
     <row r="50" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A50" s="106"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
       <c r="E50" s="47" t="s">
         <v>123</v>
       </c>
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
       <c r="H50" s="42"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
       <c r="O50" s="42"/>
-      <c r="P50" s="148"/>
+      <c r="P50" s="76"/>
     </row>
     <row r="51" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="106"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
+      <c r="A51" s="121"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
       <c r="E51" s="47" t="s">
         <v>124</v>
       </c>
       <c r="F51" s="47"/>
       <c r="G51" s="47"/>
       <c r="H51" s="42"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
       <c r="O51" s="42"/>
-      <c r="P51" s="148"/>
+      <c r="P51" s="76"/>
     </row>
     <row r="52" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="106"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71" t="s">
+      <c r="A52" s="121"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136" t="s">
         <v>125</v>
       </c>
       <c r="E52" s="47" t="s">
@@ -4865,20 +4865,20 @@
       </c>
       <c r="G52" s="47"/>
       <c r="H52" s="42"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="94"/>
       <c r="O52" s="42"/>
-      <c r="P52" s="148"/>
+      <c r="P52" s="76"/>
     </row>
     <row r="53" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A53" s="106"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
+      <c r="A53" s="121"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
       <c r="E53" s="47" t="s">
         <v>128</v>
       </c>
@@ -4887,20 +4887,20 @@
       </c>
       <c r="G53" s="47"/>
       <c r="H53" s="42"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="94"/>
       <c r="O53" s="42"/>
-      <c r="P53" s="148"/>
+      <c r="P53" s="76"/>
     </row>
     <row r="54" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="106"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71" t="s">
+      <c r="A54" s="121"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136" t="s">
         <v>130</v>
       </c>
       <c r="E54" s="47" t="s">
@@ -4909,60 +4909,60 @@
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="94"/>
+      <c r="N54" s="94"/>
       <c r="O54" s="42"/>
-      <c r="P54" s="148"/>
+      <c r="P54" s="76"/>
     </row>
     <row r="55" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="106"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
       <c r="E55" s="47" t="s">
         <v>132</v>
       </c>
       <c r="F55" s="47"/>
       <c r="G55" s="47"/>
       <c r="H55" s="42"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="94"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="94"/>
       <c r="O55" s="42"/>
-      <c r="P55" s="148"/>
+      <c r="P55" s="76"/>
     </row>
     <row r="56" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="106"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
+      <c r="A56" s="121"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
       <c r="E56" s="47" t="s">
         <v>133</v>
       </c>
       <c r="F56" s="47"/>
       <c r="G56" s="47"/>
       <c r="H56" s="42"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="94"/>
       <c r="O56" s="42"/>
-      <c r="P56" s="148"/>
+      <c r="P56" s="76"/>
     </row>
     <row r="57" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="106"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
+      <c r="A57" s="121"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
       <c r="E57" s="47" t="s">
         <v>134</v>
       </c>
@@ -4971,19 +4971,19 @@
       </c>
       <c r="G57" s="47"/>
       <c r="H57" s="42"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
       <c r="O57" s="42"/>
-      <c r="P57" s="148"/>
+      <c r="P57" s="76"/>
     </row>
     <row r="58" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A58" s="106"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71" t="s">
+      <c r="A58" s="121"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136" t="s">
         <v>136</v>
       </c>
       <c r="D58" s="47" t="s">
@@ -4995,26 +4995,26 @@
       </c>
       <c r="G58" s="47"/>
       <c r="H58" s="42"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74">
+      <c r="I58" s="93"/>
+      <c r="J58" s="93">
         <v>3</v>
       </c>
-      <c r="K58" s="74">
+      <c r="K58" s="93">
         <v>5</v>
       </c>
-      <c r="L58" s="74"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74">
+      <c r="L58" s="93"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="93">
         <v>6</v>
       </c>
       <c r="O58" s="42"/>
-      <c r="P58" s="147"/>
+      <c r="P58" s="75"/>
     </row>
     <row r="59" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A59" s="106"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71" t="s">
+      <c r="A59" s="121"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136" t="s">
         <v>138</v>
       </c>
       <c r="E59" s="47" t="s">
@@ -5025,20 +5025,20 @@
       </c>
       <c r="G59" s="47"/>
       <c r="H59" s="42"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="94"/>
+      <c r="M59" s="94"/>
+      <c r="N59" s="94"/>
       <c r="O59" s="42"/>
-      <c r="P59" s="148"/>
+      <c r="P59" s="76"/>
     </row>
     <row r="60" spans="1:16" s="46" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="106"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
+      <c r="A60" s="121"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
       <c r="E60" s="47" t="s">
         <v>94</v>
       </c>
@@ -5049,20 +5049,20 @@
         <v>141</v>
       </c>
       <c r="H60" s="42"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
       <c r="O60" s="42"/>
-      <c r="P60" s="148"/>
+      <c r="P60" s="76"/>
     </row>
     <row r="61" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="106"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
+      <c r="A61" s="121"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="136"/>
       <c r="E61" s="47" t="s">
         <v>142</v>
       </c>
@@ -5071,20 +5071,20 @@
       </c>
       <c r="G61" s="47"/>
       <c r="H61" s="42"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="94"/>
+      <c r="K61" s="94"/>
+      <c r="L61" s="94"/>
+      <c r="M61" s="94"/>
+      <c r="N61" s="94"/>
       <c r="O61" s="42"/>
-      <c r="P61" s="148"/>
+      <c r="P61" s="76"/>
     </row>
     <row r="62" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A62" s="106"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71" t="s">
+      <c r="A62" s="121"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136" t="s">
         <v>143</v>
       </c>
       <c r="E62" s="47" t="s">
@@ -5095,20 +5095,20 @@
       </c>
       <c r="G62" s="47"/>
       <c r="H62" s="42"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="94"/>
+      <c r="K62" s="94"/>
+      <c r="L62" s="94"/>
+      <c r="M62" s="94"/>
+      <c r="N62" s="94"/>
       <c r="O62" s="42"/>
-      <c r="P62" s="148"/>
+      <c r="P62" s="76"/>
     </row>
     <row r="63" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A63" s="106"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
       <c r="E63" s="47" t="s">
         <v>94</v>
       </c>
@@ -5117,20 +5117,20 @@
       </c>
       <c r="G63" s="47"/>
       <c r="H63" s="42"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
+      <c r="I63" s="94"/>
+      <c r="J63" s="94"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="94"/>
+      <c r="M63" s="94"/>
+      <c r="N63" s="94"/>
       <c r="O63" s="42"/>
-      <c r="P63" s="148"/>
+      <c r="P63" s="76"/>
     </row>
     <row r="64" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="106"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
+      <c r="A64" s="121"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="136"/>
       <c r="E64" s="47" t="s">
         <v>142</v>
       </c>
@@ -5139,19 +5139,19 @@
       </c>
       <c r="G64" s="47"/>
       <c r="H64" s="42"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
+      <c r="I64" s="94"/>
+      <c r="J64" s="94"/>
+      <c r="K64" s="94"/>
+      <c r="L64" s="94"/>
+      <c r="M64" s="94"/>
+      <c r="N64" s="94"/>
       <c r="O64" s="42"/>
-      <c r="P64" s="148"/>
+      <c r="P64" s="76"/>
     </row>
     <row r="65" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
+      <c r="A65" s="121"/>
+      <c r="B65" s="136"/>
+      <c r="C65" s="136"/>
       <c r="D65" s="47" t="s">
         <v>144</v>
       </c>
@@ -5161,19 +5161,19 @@
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="42"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="75"/>
+      <c r="I65" s="94"/>
+      <c r="J65" s="94"/>
+      <c r="K65" s="94"/>
+      <c r="L65" s="94"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="94"/>
       <c r="O65" s="42"/>
-      <c r="P65" s="148"/>
+      <c r="P65" s="76"/>
     </row>
     <row r="66" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
+      <c r="A66" s="121"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="136"/>
       <c r="D66" s="47" t="s">
         <v>102</v>
       </c>
@@ -5183,20 +5183,20 @@
       </c>
       <c r="G66" s="47"/>
       <c r="H66" s="42"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="75"/>
+      <c r="I66" s="94"/>
+      <c r="J66" s="94"/>
+      <c r="K66" s="94"/>
+      <c r="L66" s="94"/>
+      <c r="M66" s="94"/>
+      <c r="N66" s="94"/>
       <c r="O66" s="42"/>
-      <c r="P66" s="148"/>
+      <c r="P66" s="76"/>
     </row>
     <row r="67" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A67" s="106"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71" t="s">
+      <c r="A67" s="121"/>
+      <c r="B67" s="136"/>
+      <c r="C67" s="136"/>
+      <c r="D67" s="136" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="47" t="s">
@@ -5207,20 +5207,20 @@
       </c>
       <c r="G67" s="47"/>
       <c r="H67" s="42"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="94"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="94"/>
       <c r="O67" s="42"/>
-      <c r="P67" s="148"/>
+      <c r="P67" s="76"/>
     </row>
     <row r="68" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="106"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
+      <c r="A68" s="121"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="136"/>
       <c r="E68" s="47" t="s">
         <v>107</v>
       </c>
@@ -5229,20 +5229,20 @@
       </c>
       <c r="G68" s="47"/>
       <c r="H68" s="42"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
+      <c r="I68" s="94"/>
+      <c r="J68" s="94"/>
+      <c r="K68" s="94"/>
+      <c r="L68" s="94"/>
+      <c r="M68" s="94"/>
+      <c r="N68" s="94"/>
       <c r="O68" s="42"/>
-      <c r="P68" s="148"/>
+      <c r="P68" s="76"/>
     </row>
     <row r="69" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71" t="s">
+      <c r="A69" s="121"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="136" t="s">
         <v>109</v>
       </c>
       <c r="E69" s="47" t="s">
@@ -5253,20 +5253,20 @@
       </c>
       <c r="G69" s="47"/>
       <c r="H69" s="42"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="94"/>
+      <c r="K69" s="94"/>
+      <c r="L69" s="94"/>
+      <c r="M69" s="94"/>
+      <c r="N69" s="94"/>
       <c r="O69" s="42"/>
-      <c r="P69" s="148"/>
+      <c r="P69" s="76"/>
     </row>
     <row r="70" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
+      <c r="A70" s="121"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="136"/>
+      <c r="D70" s="136"/>
       <c r="E70" s="47" t="s">
         <v>112</v>
       </c>
@@ -5275,40 +5275,40 @@
       </c>
       <c r="G70" s="47"/>
       <c r="H70" s="42"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="94"/>
+      <c r="N70" s="94"/>
       <c r="O70" s="42"/>
-      <c r="P70" s="148"/>
+      <c r="P70" s="76"/>
     </row>
     <row r="71" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A71" s="106"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
+      <c r="A71" s="121"/>
+      <c r="B71" s="136"/>
+      <c r="C71" s="136"/>
+      <c r="D71" s="136"/>
       <c r="E71" s="47" t="s">
         <v>114</v>
       </c>
       <c r="F71" s="47"/>
       <c r="G71" s="47"/>
       <c r="H71" s="42"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="75"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="94"/>
       <c r="O71" s="42"/>
-      <c r="P71" s="148"/>
+      <c r="P71" s="76"/>
     </row>
     <row r="72" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A72" s="106"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
+      <c r="A72" s="121"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="136"/>
       <c r="E72" s="47" t="s">
         <v>115</v>
       </c>
@@ -5317,20 +5317,20 @@
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="42"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="75"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
       <c r="O72" s="42"/>
-      <c r="P72" s="148"/>
+      <c r="P72" s="76"/>
     </row>
     <row r="73" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
+      <c r="A73" s="121"/>
+      <c r="B73" s="136"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="136"/>
       <c r="E73" s="47" t="s">
         <v>149</v>
       </c>
@@ -5339,20 +5339,20 @@
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="42"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="94"/>
       <c r="O73" s="42"/>
-      <c r="P73" s="148"/>
+      <c r="P73" s="76"/>
     </row>
     <row r="74" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
+      <c r="A74" s="121"/>
+      <c r="B74" s="136"/>
+      <c r="C74" s="136"/>
+      <c r="D74" s="136"/>
       <c r="E74" s="47" t="s">
         <v>119</v>
       </c>
@@ -5361,20 +5361,20 @@
       </c>
       <c r="G74" s="47"/>
       <c r="H74" s="42"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="75"/>
-      <c r="K74" s="75"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="75"/>
-      <c r="N74" s="75"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="94"/>
+      <c r="K74" s="94"/>
+      <c r="L74" s="94"/>
+      <c r="M74" s="94"/>
+      <c r="N74" s="94"/>
       <c r="O74" s="42"/>
-      <c r="P74" s="148"/>
+      <c r="P74" s="76"/>
     </row>
     <row r="75" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A75" s="106"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71" t="s">
+      <c r="A75" s="121"/>
+      <c r="B75" s="136"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="136" t="s">
         <v>121</v>
       </c>
       <c r="E75" s="47" t="s">
@@ -5383,60 +5383,60 @@
       <c r="F75" s="47"/>
       <c r="G75" s="47"/>
       <c r="H75" s="42"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="75"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="75"/>
-      <c r="N75" s="75"/>
+      <c r="I75" s="94"/>
+      <c r="J75" s="94"/>
+      <c r="K75" s="94"/>
+      <c r="L75" s="94"/>
+      <c r="M75" s="94"/>
+      <c r="N75" s="94"/>
       <c r="O75" s="42"/>
-      <c r="P75" s="148"/>
+      <c r="P75" s="76"/>
     </row>
     <row r="76" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A76" s="106"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
+      <c r="A76" s="121"/>
+      <c r="B76" s="136"/>
+      <c r="C76" s="136"/>
+      <c r="D76" s="136"/>
       <c r="E76" s="47" t="s">
         <v>123</v>
       </c>
       <c r="F76" s="47"/>
       <c r="G76" s="47"/>
       <c r="H76" s="42"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="75"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="94"/>
+      <c r="K76" s="94"/>
+      <c r="L76" s="94"/>
+      <c r="M76" s="94"/>
+      <c r="N76" s="94"/>
       <c r="O76" s="42"/>
-      <c r="P76" s="148"/>
+      <c r="P76" s="76"/>
     </row>
     <row r="77" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="106"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
+      <c r="A77" s="121"/>
+      <c r="B77" s="136"/>
+      <c r="C77" s="136"/>
+      <c r="D77" s="136"/>
       <c r="E77" s="47" t="s">
         <v>124</v>
       </c>
       <c r="F77" s="47"/>
       <c r="G77" s="47"/>
       <c r="H77" s="42"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="75"/>
-      <c r="N77" s="75"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="94"/>
+      <c r="K77" s="94"/>
+      <c r="L77" s="94"/>
+      <c r="M77" s="94"/>
+      <c r="N77" s="94"/>
       <c r="O77" s="42"/>
-      <c r="P77" s="148"/>
+      <c r="P77" s="76"/>
     </row>
     <row r="78" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="106"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71" t="s">
+      <c r="A78" s="121"/>
+      <c r="B78" s="136"/>
+      <c r="C78" s="136"/>
+      <c r="D78" s="136" t="s">
         <v>125</v>
       </c>
       <c r="E78" s="47" t="s">
@@ -5447,20 +5447,20 @@
       </c>
       <c r="G78" s="47"/>
       <c r="H78" s="42"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="75"/>
-      <c r="N78" s="75"/>
+      <c r="I78" s="94"/>
+      <c r="J78" s="94"/>
+      <c r="K78" s="94"/>
+      <c r="L78" s="94"/>
+      <c r="M78" s="94"/>
+      <c r="N78" s="94"/>
       <c r="O78" s="42"/>
-      <c r="P78" s="148"/>
+      <c r="P78" s="76"/>
     </row>
     <row r="79" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A79" s="106"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
+      <c r="A79" s="121"/>
+      <c r="B79" s="136"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="136"/>
       <c r="E79" s="47" t="s">
         <v>128</v>
       </c>
@@ -5469,19 +5469,19 @@
       </c>
       <c r="G79" s="47"/>
       <c r="H79" s="42"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="76"/>
-      <c r="K79" s="76"/>
-      <c r="L79" s="76"/>
-      <c r="M79" s="76"/>
-      <c r="N79" s="76"/>
+      <c r="I79" s="95"/>
+      <c r="J79" s="95"/>
+      <c r="K79" s="95"/>
+      <c r="L79" s="95"/>
+      <c r="M79" s="95"/>
+      <c r="N79" s="95"/>
       <c r="O79" s="42"/>
-      <c r="P79" s="148"/>
+      <c r="P79" s="76"/>
     </row>
     <row r="80" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A80" s="106"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71" t="s">
+      <c r="A80" s="121"/>
+      <c r="B80" s="136"/>
+      <c r="C80" s="136" t="s">
         <v>150</v>
       </c>
       <c r="D80" s="47" t="s">
@@ -5493,26 +5493,26 @@
       </c>
       <c r="G80" s="47"/>
       <c r="H80" s="42"/>
-      <c r="I80" s="74"/>
-      <c r="J80" s="74">
+      <c r="I80" s="93"/>
+      <c r="J80" s="93">
         <v>3</v>
       </c>
-      <c r="K80" s="74">
+      <c r="K80" s="93">
         <v>5</v>
       </c>
-      <c r="L80" s="74"/>
-      <c r="M80" s="74"/>
-      <c r="N80" s="74">
+      <c r="L80" s="93"/>
+      <c r="M80" s="93"/>
+      <c r="N80" s="93">
         <v>6</v>
       </c>
       <c r="O80" s="42"/>
-      <c r="P80" s="149"/>
+      <c r="P80" s="77"/>
     </row>
     <row r="81" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A81" s="106"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71" t="s">
+      <c r="A81" s="121"/>
+      <c r="B81" s="136"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136" t="s">
         <v>151</v>
       </c>
       <c r="E81" s="47" t="s">
@@ -5523,20 +5523,20 @@
       </c>
       <c r="G81" s="47"/>
       <c r="H81" s="42"/>
-      <c r="I81" s="75"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="75"/>
-      <c r="L81" s="75"/>
-      <c r="M81" s="75"/>
-      <c r="N81" s="75"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="94"/>
+      <c r="K81" s="94"/>
+      <c r="L81" s="94"/>
+      <c r="M81" s="94"/>
+      <c r="N81" s="94"/>
       <c r="O81" s="42"/>
-      <c r="P81" s="150"/>
+      <c r="P81" s="78"/>
     </row>
     <row r="82" spans="1:16" s="46" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="106"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
+      <c r="A82" s="121"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="136"/>
+      <c r="D82" s="136"/>
       <c r="E82" s="47" t="s">
         <v>94</v>
       </c>
@@ -5547,20 +5547,20 @@
         <v>141</v>
       </c>
       <c r="H82" s="42"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
+      <c r="I82" s="94"/>
+      <c r="J82" s="94"/>
+      <c r="K82" s="94"/>
+      <c r="L82" s="94"/>
+      <c r="M82" s="94"/>
+      <c r="N82" s="94"/>
       <c r="O82" s="42"/>
-      <c r="P82" s="150"/>
+      <c r="P82" s="78"/>
     </row>
     <row r="83" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="106"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="71"/>
+      <c r="A83" s="121"/>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
       <c r="E83" s="47" t="s">
         <v>142</v>
       </c>
@@ -5569,20 +5569,20 @@
       </c>
       <c r="G83" s="47"/>
       <c r="H83" s="42"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
+      <c r="I83" s="94"/>
+      <c r="J83" s="94"/>
+      <c r="K83" s="94"/>
+      <c r="L83" s="94"/>
+      <c r="M83" s="94"/>
+      <c r="N83" s="94"/>
       <c r="O83" s="42"/>
-      <c r="P83" s="150"/>
+      <c r="P83" s="78"/>
     </row>
     <row r="84" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A84" s="106"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71" t="s">
+      <c r="A84" s="121"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136" t="s">
         <v>152</v>
       </c>
       <c r="E84" s="47" t="s">
@@ -5593,20 +5593,20 @@
       </c>
       <c r="G84" s="47"/>
       <c r="H84" s="42"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
+      <c r="I84" s="94"/>
+      <c r="J84" s="94"/>
+      <c r="K84" s="94"/>
+      <c r="L84" s="94"/>
+      <c r="M84" s="94"/>
+      <c r="N84" s="94"/>
       <c r="O84" s="42"/>
-      <c r="P84" s="150"/>
+      <c r="P84" s="78"/>
     </row>
     <row r="85" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A85" s="106"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
+      <c r="A85" s="121"/>
+      <c r="B85" s="136"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
       <c r="E85" s="47" t="s">
         <v>94</v>
       </c>
@@ -5615,20 +5615,20 @@
       </c>
       <c r="G85" s="47"/>
       <c r="H85" s="42"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
+      <c r="I85" s="94"/>
+      <c r="J85" s="94"/>
+      <c r="K85" s="94"/>
+      <c r="L85" s="94"/>
+      <c r="M85" s="94"/>
+      <c r="N85" s="94"/>
       <c r="O85" s="42"/>
-      <c r="P85" s="150"/>
+      <c r="P85" s="78"/>
     </row>
     <row r="86" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="106"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
+      <c r="A86" s="121"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
       <c r="E86" s="47" t="s">
         <v>142</v>
       </c>
@@ -5637,19 +5637,19 @@
       </c>
       <c r="G86" s="47"/>
       <c r="H86" s="42"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
+      <c r="I86" s="94"/>
+      <c r="J86" s="94"/>
+      <c r="K86" s="94"/>
+      <c r="L86" s="94"/>
+      <c r="M86" s="94"/>
+      <c r="N86" s="94"/>
       <c r="O86" s="42"/>
-      <c r="P86" s="150"/>
+      <c r="P86" s="78"/>
     </row>
     <row r="87" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="106"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
+      <c r="A87" s="121"/>
+      <c r="B87" s="136"/>
+      <c r="C87" s="136"/>
       <c r="D87" s="47" t="s">
         <v>153</v>
       </c>
@@ -5659,19 +5659,19 @@
       </c>
       <c r="G87" s="47"/>
       <c r="H87" s="42"/>
-      <c r="I87" s="75"/>
-      <c r="J87" s="75"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="75"/>
-      <c r="M87" s="75"/>
-      <c r="N87" s="75"/>
+      <c r="I87" s="94"/>
+      <c r="J87" s="94"/>
+      <c r="K87" s="94"/>
+      <c r="L87" s="94"/>
+      <c r="M87" s="94"/>
+      <c r="N87" s="94"/>
       <c r="O87" s="42"/>
-      <c r="P87" s="150"/>
+      <c r="P87" s="78"/>
     </row>
     <row r="88" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="106"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
+      <c r="A88" s="121"/>
+      <c r="B88" s="136"/>
+      <c r="C88" s="136"/>
       <c r="D88" s="47" t="s">
         <v>102</v>
       </c>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="G88" s="47"/>
       <c r="H88" s="42"/>
-      <c r="I88" s="75"/>
-      <c r="J88" s="75"/>
-      <c r="K88" s="75"/>
-      <c r="L88" s="75"/>
-      <c r="M88" s="75"/>
-      <c r="N88" s="75"/>
+      <c r="I88" s="94"/>
+      <c r="J88" s="94"/>
+      <c r="K88" s="94"/>
+      <c r="L88" s="94"/>
+      <c r="M88" s="94"/>
+      <c r="N88" s="94"/>
       <c r="O88" s="42"/>
-      <c r="P88" s="150"/>
+      <c r="P88" s="78"/>
     </row>
     <row r="89" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A89" s="106"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71" t="s">
+      <c r="A89" s="121"/>
+      <c r="B89" s="136"/>
+      <c r="C89" s="136"/>
+      <c r="D89" s="136" t="s">
         <v>104</v>
       </c>
       <c r="E89" s="47" t="s">
@@ -5705,20 +5705,20 @@
       </c>
       <c r="G89" s="47"/>
       <c r="H89" s="42"/>
-      <c r="I89" s="75"/>
-      <c r="J89" s="75"/>
-      <c r="K89" s="75"/>
-      <c r="L89" s="75"/>
-      <c r="M89" s="75"/>
-      <c r="N89" s="75"/>
+      <c r="I89" s="94"/>
+      <c r="J89" s="94"/>
+      <c r="K89" s="94"/>
+      <c r="L89" s="94"/>
+      <c r="M89" s="94"/>
+      <c r="N89" s="94"/>
       <c r="O89" s="42"/>
-      <c r="P89" s="150"/>
+      <c r="P89" s="78"/>
     </row>
     <row r="90" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="106"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
+      <c r="A90" s="121"/>
+      <c r="B90" s="136"/>
+      <c r="C90" s="136"/>
+      <c r="D90" s="136"/>
       <c r="E90" s="47" t="s">
         <v>107</v>
       </c>
@@ -5727,20 +5727,20 @@
       </c>
       <c r="G90" s="47"/>
       <c r="H90" s="42"/>
-      <c r="I90" s="75"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="75"/>
-      <c r="L90" s="75"/>
-      <c r="M90" s="75"/>
-      <c r="N90" s="75"/>
+      <c r="I90" s="94"/>
+      <c r="J90" s="94"/>
+      <c r="K90" s="94"/>
+      <c r="L90" s="94"/>
+      <c r="M90" s="94"/>
+      <c r="N90" s="94"/>
       <c r="O90" s="42"/>
-      <c r="P90" s="150"/>
+      <c r="P90" s="78"/>
     </row>
     <row r="91" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71" t="s">
+      <c r="A91" s="121"/>
+      <c r="B91" s="136"/>
+      <c r="C91" s="136"/>
+      <c r="D91" s="136" t="s">
         <v>109</v>
       </c>
       <c r="E91" s="47" t="s">
@@ -5751,20 +5751,20 @@
       </c>
       <c r="G91" s="47"/>
       <c r="H91" s="42"/>
-      <c r="I91" s="75"/>
-      <c r="J91" s="75"/>
-      <c r="K91" s="75"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
+      <c r="I91" s="94"/>
+      <c r="J91" s="94"/>
+      <c r="K91" s="94"/>
+      <c r="L91" s="94"/>
+      <c r="M91" s="94"/>
+      <c r="N91" s="94"/>
       <c r="O91" s="42"/>
-      <c r="P91" s="150"/>
+      <c r="P91" s="78"/>
     </row>
     <row r="92" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="106"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
+      <c r="A92" s="121"/>
+      <c r="B92" s="136"/>
+      <c r="C92" s="136"/>
+      <c r="D92" s="136"/>
       <c r="E92" s="47" t="s">
         <v>112</v>
       </c>
@@ -5773,40 +5773,40 @@
       </c>
       <c r="G92" s="47"/>
       <c r="H92" s="42"/>
-      <c r="I92" s="75"/>
-      <c r="J92" s="75"/>
-      <c r="K92" s="75"/>
-      <c r="L92" s="75"/>
-      <c r="M92" s="75"/>
-      <c r="N92" s="75"/>
+      <c r="I92" s="94"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="94"/>
+      <c r="L92" s="94"/>
+      <c r="M92" s="94"/>
+      <c r="N92" s="94"/>
       <c r="O92" s="42"/>
-      <c r="P92" s="150"/>
+      <c r="P92" s="78"/>
     </row>
     <row r="93" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A93" s="106"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="71"/>
+      <c r="A93" s="121"/>
+      <c r="B93" s="136"/>
+      <c r="C93" s="136"/>
+      <c r="D93" s="136"/>
       <c r="E93" s="47" t="s">
         <v>114</v>
       </c>
       <c r="F93" s="47"/>
       <c r="G93" s="47"/>
       <c r="H93" s="42"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
-      <c r="K93" s="75"/>
-      <c r="L93" s="75"/>
-      <c r="M93" s="75"/>
-      <c r="N93" s="75"/>
+      <c r="I93" s="94"/>
+      <c r="J93" s="94"/>
+      <c r="K93" s="94"/>
+      <c r="L93" s="94"/>
+      <c r="M93" s="94"/>
+      <c r="N93" s="94"/>
       <c r="O93" s="42"/>
-      <c r="P93" s="150"/>
+      <c r="P93" s="78"/>
     </row>
     <row r="94" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A94" s="106"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
+      <c r="A94" s="121"/>
+      <c r="B94" s="136"/>
+      <c r="C94" s="136"/>
+      <c r="D94" s="136"/>
       <c r="E94" s="47" t="s">
         <v>115</v>
       </c>
@@ -5815,20 +5815,20 @@
       </c>
       <c r="G94" s="47"/>
       <c r="H94" s="42"/>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="75"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
+      <c r="I94" s="94"/>
+      <c r="J94" s="94"/>
+      <c r="K94" s="94"/>
+      <c r="L94" s="94"/>
+      <c r="M94" s="94"/>
+      <c r="N94" s="94"/>
       <c r="O94" s="42"/>
-      <c r="P94" s="150"/>
+      <c r="P94" s="78"/>
     </row>
     <row r="95" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="106"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="71"/>
+      <c r="A95" s="121"/>
+      <c r="B95" s="136"/>
+      <c r="C95" s="136"/>
+      <c r="D95" s="136"/>
       <c r="E95" s="47" t="s">
         <v>117</v>
       </c>
@@ -5837,20 +5837,20 @@
       </c>
       <c r="G95" s="47"/>
       <c r="H95" s="42"/>
-      <c r="I95" s="75"/>
-      <c r="J95" s="75"/>
-      <c r="K95" s="75"/>
-      <c r="L95" s="75"/>
-      <c r="M95" s="75"/>
-      <c r="N95" s="75"/>
+      <c r="I95" s="94"/>
+      <c r="J95" s="94"/>
+      <c r="K95" s="94"/>
+      <c r="L95" s="94"/>
+      <c r="M95" s="94"/>
+      <c r="N95" s="94"/>
       <c r="O95" s="42"/>
-      <c r="P95" s="150"/>
+      <c r="P95" s="78"/>
     </row>
     <row r="96" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="106"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
+      <c r="A96" s="121"/>
+      <c r="B96" s="136"/>
+      <c r="C96" s="136"/>
+      <c r="D96" s="136"/>
       <c r="E96" s="47" t="s">
         <v>119</v>
       </c>
@@ -5859,20 +5859,20 @@
       </c>
       <c r="G96" s="47"/>
       <c r="H96" s="42"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="75"/>
-      <c r="K96" s="75"/>
-      <c r="L96" s="75"/>
-      <c r="M96" s="75"/>
-      <c r="N96" s="75"/>
+      <c r="I96" s="94"/>
+      <c r="J96" s="94"/>
+      <c r="K96" s="94"/>
+      <c r="L96" s="94"/>
+      <c r="M96" s="94"/>
+      <c r="N96" s="94"/>
       <c r="O96" s="42"/>
-      <c r="P96" s="150"/>
+      <c r="P96" s="78"/>
     </row>
     <row r="97" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A97" s="106"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="71"/>
-      <c r="D97" s="71" t="s">
+      <c r="A97" s="121"/>
+      <c r="B97" s="136"/>
+      <c r="C97" s="136"/>
+      <c r="D97" s="136" t="s">
         <v>121</v>
       </c>
       <c r="E97" s="47" t="s">
@@ -5881,60 +5881,60 @@
       <c r="F97" s="47"/>
       <c r="G97" s="47"/>
       <c r="H97" s="42"/>
-      <c r="I97" s="75"/>
-      <c r="J97" s="75"/>
-      <c r="K97" s="75"/>
-      <c r="L97" s="75"/>
-      <c r="M97" s="75"/>
-      <c r="N97" s="75"/>
+      <c r="I97" s="94"/>
+      <c r="J97" s="94"/>
+      <c r="K97" s="94"/>
+      <c r="L97" s="94"/>
+      <c r="M97" s="94"/>
+      <c r="N97" s="94"/>
       <c r="O97" s="42"/>
-      <c r="P97" s="150"/>
+      <c r="P97" s="78"/>
     </row>
     <row r="98" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A98" s="106"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
+      <c r="A98" s="121"/>
+      <c r="B98" s="136"/>
+      <c r="C98" s="136"/>
+      <c r="D98" s="136"/>
       <c r="E98" s="47" t="s">
         <v>123</v>
       </c>
       <c r="F98" s="47"/>
       <c r="G98" s="47"/>
       <c r="H98" s="42"/>
-      <c r="I98" s="75"/>
-      <c r="J98" s="75"/>
-      <c r="K98" s="75"/>
-      <c r="L98" s="75"/>
-      <c r="M98" s="75"/>
-      <c r="N98" s="75"/>
+      <c r="I98" s="94"/>
+      <c r="J98" s="94"/>
+      <c r="K98" s="94"/>
+      <c r="L98" s="94"/>
+      <c r="M98" s="94"/>
+      <c r="N98" s="94"/>
       <c r="O98" s="42"/>
-      <c r="P98" s="150"/>
+      <c r="P98" s="78"/>
     </row>
     <row r="99" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="106"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="71"/>
+      <c r="A99" s="121"/>
+      <c r="B99" s="136"/>
+      <c r="C99" s="136"/>
+      <c r="D99" s="136"/>
       <c r="E99" s="47" t="s">
         <v>124</v>
       </c>
       <c r="F99" s="47"/>
       <c r="G99" s="47"/>
       <c r="H99" s="42"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
-      <c r="K99" s="75"/>
-      <c r="L99" s="75"/>
-      <c r="M99" s="75"/>
-      <c r="N99" s="75"/>
+      <c r="I99" s="94"/>
+      <c r="J99" s="94"/>
+      <c r="K99" s="94"/>
+      <c r="L99" s="94"/>
+      <c r="M99" s="94"/>
+      <c r="N99" s="94"/>
       <c r="O99" s="42"/>
-      <c r="P99" s="150"/>
+      <c r="P99" s="78"/>
     </row>
     <row r="100" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="106"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="71" t="s">
+      <c r="A100" s="121"/>
+      <c r="B100" s="136"/>
+      <c r="C100" s="136"/>
+      <c r="D100" s="136" t="s">
         <v>125</v>
       </c>
       <c r="E100" s="47" t="s">
@@ -5945,20 +5945,20 @@
       </c>
       <c r="G100" s="47"/>
       <c r="H100" s="42"/>
-      <c r="I100" s="75"/>
-      <c r="J100" s="75"/>
-      <c r="K100" s="75"/>
-      <c r="L100" s="75"/>
-      <c r="M100" s="75"/>
-      <c r="N100" s="75"/>
+      <c r="I100" s="94"/>
+      <c r="J100" s="94"/>
+      <c r="K100" s="94"/>
+      <c r="L100" s="94"/>
+      <c r="M100" s="94"/>
+      <c r="N100" s="94"/>
       <c r="O100" s="42"/>
-      <c r="P100" s="150"/>
+      <c r="P100" s="78"/>
     </row>
     <row r="101" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A101" s="106"/>
-      <c r="B101" s="71"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="71"/>
+      <c r="A101" s="121"/>
+      <c r="B101" s="136"/>
+      <c r="C101" s="136"/>
+      <c r="D101" s="136"/>
       <c r="E101" s="47" t="s">
         <v>128</v>
       </c>
@@ -5967,21 +5967,21 @@
       </c>
       <c r="G101" s="47"/>
       <c r="H101" s="42"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="76"/>
-      <c r="L101" s="76"/>
-      <c r="M101" s="76"/>
-      <c r="N101" s="76"/>
+      <c r="I101" s="95"/>
+      <c r="J101" s="95"/>
+      <c r="K101" s="95"/>
+      <c r="L101" s="95"/>
+      <c r="M101" s="95"/>
+      <c r="N101" s="95"/>
       <c r="O101" s="42"/>
-      <c r="P101" s="151"/>
+      <c r="P101" s="79"/>
     </row>
     <row r="102" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="106"/>
-      <c r="B102" s="92" t="s">
+      <c r="A102" s="121"/>
+      <c r="B102" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="C102" s="92" t="s">
+      <c r="C102" s="135" t="s">
         <v>158</v>
       </c>
       <c r="D102" s="47" t="s">
@@ -5993,25 +5993,25 @@
       </c>
       <c r="G102" s="47"/>
       <c r="H102" s="42"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74">
+      <c r="I102" s="93"/>
+      <c r="J102" s="93">
         <v>4</v>
       </c>
-      <c r="K102" s="74">
+      <c r="K102" s="93">
         <v>8</v>
       </c>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74">
+      <c r="L102" s="93"/>
+      <c r="M102" s="93"/>
+      <c r="N102" s="93">
         <v>2</v>
       </c>
       <c r="O102" s="42"/>
-      <c r="P102" s="149"/>
+      <c r="P102" s="77"/>
     </row>
     <row r="103" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="106"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="94"/>
+      <c r="A103" s="121"/>
+      <c r="B103" s="128"/>
+      <c r="C103" s="129"/>
       <c r="D103" s="47" t="s">
         <v>159</v>
       </c>
@@ -6021,19 +6021,19 @@
       </c>
       <c r="G103" s="47"/>
       <c r="H103" s="42"/>
-      <c r="I103" s="75"/>
-      <c r="J103" s="75"/>
-      <c r="K103" s="75"/>
-      <c r="L103" s="75"/>
-      <c r="M103" s="75"/>
-      <c r="N103" s="75"/>
+      <c r="I103" s="94"/>
+      <c r="J103" s="94"/>
+      <c r="K103" s="94"/>
+      <c r="L103" s="94"/>
+      <c r="M103" s="94"/>
+      <c r="N103" s="94"/>
       <c r="O103" s="42"/>
-      <c r="P103" s="150"/>
+      <c r="P103" s="78"/>
     </row>
     <row r="104" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="106"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="95" t="s">
+      <c r="A104" s="121"/>
+      <c r="B104" s="128"/>
+      <c r="C104" s="130" t="s">
         <v>161</v>
       </c>
       <c r="D104" s="34" t="s">
@@ -6043,19 +6043,19 @@
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
       <c r="H104" s="42"/>
-      <c r="I104" s="75"/>
-      <c r="J104" s="75"/>
-      <c r="K104" s="75"/>
-      <c r="L104" s="75"/>
-      <c r="M104" s="75"/>
-      <c r="N104" s="75"/>
+      <c r="I104" s="94"/>
+      <c r="J104" s="94"/>
+      <c r="K104" s="94"/>
+      <c r="L104" s="94"/>
+      <c r="M104" s="94"/>
+      <c r="N104" s="94"/>
       <c r="O104" s="42"/>
-      <c r="P104" s="150"/>
+      <c r="P104" s="78"/>
     </row>
     <row r="105" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="106"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="95"/>
+      <c r="A105" s="121"/>
+      <c r="B105" s="128"/>
+      <c r="C105" s="130"/>
       <c r="D105" s="34" t="s">
         <v>163</v>
       </c>
@@ -6063,19 +6063,19 @@
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
       <c r="H105" s="42"/>
-      <c r="I105" s="75"/>
-      <c r="J105" s="75"/>
-      <c r="K105" s="75"/>
-      <c r="L105" s="75"/>
-      <c r="M105" s="75"/>
-      <c r="N105" s="75"/>
+      <c r="I105" s="94"/>
+      <c r="J105" s="94"/>
+      <c r="K105" s="94"/>
+      <c r="L105" s="94"/>
+      <c r="M105" s="94"/>
+      <c r="N105" s="94"/>
       <c r="O105" s="42"/>
-      <c r="P105" s="150"/>
+      <c r="P105" s="78"/>
     </row>
     <row r="106" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="106"/>
-      <c r="B106" s="91"/>
-      <c r="C106" s="95" t="s">
+      <c r="A106" s="121"/>
+      <c r="B106" s="128"/>
+      <c r="C106" s="130" t="s">
         <v>164</v>
       </c>
       <c r="D106" s="34" t="s">
@@ -6085,19 +6085,19 @@
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
       <c r="H106" s="42"/>
-      <c r="I106" s="75"/>
-      <c r="J106" s="75"/>
-      <c r="K106" s="75"/>
-      <c r="L106" s="75"/>
-      <c r="M106" s="75"/>
-      <c r="N106" s="75"/>
+      <c r="I106" s="94"/>
+      <c r="J106" s="94"/>
+      <c r="K106" s="94"/>
+      <c r="L106" s="94"/>
+      <c r="M106" s="94"/>
+      <c r="N106" s="94"/>
       <c r="O106" s="42"/>
-      <c r="P106" s="150"/>
+      <c r="P106" s="78"/>
     </row>
     <row r="107" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A107" s="106"/>
-      <c r="B107" s="91"/>
-      <c r="C107" s="95"/>
+      <c r="A107" s="121"/>
+      <c r="B107" s="128"/>
+      <c r="C107" s="130"/>
       <c r="D107" s="34" t="s">
         <v>165</v>
       </c>
@@ -6107,20 +6107,20 @@
       </c>
       <c r="G107" s="34"/>
       <c r="H107" s="42"/>
-      <c r="I107" s="75"/>
-      <c r="J107" s="75"/>
-      <c r="K107" s="75"/>
-      <c r="L107" s="75"/>
-      <c r="M107" s="75"/>
-      <c r="N107" s="75"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="94"/>
+      <c r="K107" s="94"/>
+      <c r="L107" s="94"/>
+      <c r="M107" s="94"/>
+      <c r="N107" s="94"/>
       <c r="O107" s="42"/>
-      <c r="P107" s="150"/>
+      <c r="P107" s="78"/>
     </row>
     <row r="108" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="106"/>
-      <c r="B108" s="91"/>
-      <c r="C108" s="95"/>
-      <c r="D108" s="95" t="s">
+      <c r="A108" s="121"/>
+      <c r="B108" s="128"/>
+      <c r="C108" s="130"/>
+      <c r="D108" s="130" t="s">
         <v>167</v>
       </c>
       <c r="E108" s="34" t="s">
@@ -6131,20 +6131,20 @@
       </c>
       <c r="G108" s="34"/>
       <c r="H108" s="42"/>
-      <c r="I108" s="75"/>
-      <c r="J108" s="75"/>
-      <c r="K108" s="75"/>
-      <c r="L108" s="75"/>
-      <c r="M108" s="75"/>
-      <c r="N108" s="75"/>
+      <c r="I108" s="94"/>
+      <c r="J108" s="94"/>
+      <c r="K108" s="94"/>
+      <c r="L108" s="94"/>
+      <c r="M108" s="94"/>
+      <c r="N108" s="94"/>
       <c r="O108" s="42"/>
-      <c r="P108" s="150"/>
+      <c r="P108" s="78"/>
     </row>
     <row r="109" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A109" s="106"/>
-      <c r="B109" s="91"/>
-      <c r="C109" s="95"/>
-      <c r="D109" s="95"/>
+      <c r="A109" s="121"/>
+      <c r="B109" s="128"/>
+      <c r="C109" s="130"/>
+      <c r="D109" s="130"/>
       <c r="E109" s="34" t="s">
         <v>170</v>
       </c>
@@ -6153,20 +6153,20 @@
       </c>
       <c r="G109" s="34"/>
       <c r="H109" s="42"/>
-      <c r="I109" s="75"/>
-      <c r="J109" s="75"/>
-      <c r="K109" s="75"/>
-      <c r="L109" s="75"/>
-      <c r="M109" s="75"/>
-      <c r="N109" s="75"/>
+      <c r="I109" s="94"/>
+      <c r="J109" s="94"/>
+      <c r="K109" s="94"/>
+      <c r="L109" s="94"/>
+      <c r="M109" s="94"/>
+      <c r="N109" s="94"/>
       <c r="O109" s="42"/>
-      <c r="P109" s="150"/>
+      <c r="P109" s="78"/>
     </row>
     <row r="110" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A110" s="106"/>
-      <c r="B110" s="91"/>
-      <c r="C110" s="95"/>
-      <c r="D110" s="95"/>
+      <c r="A110" s="121"/>
+      <c r="B110" s="128"/>
+      <c r="C110" s="130"/>
+      <c r="D110" s="130"/>
       <c r="E110" s="34" t="s">
         <v>172</v>
       </c>
@@ -6175,20 +6175,20 @@
       </c>
       <c r="G110" s="34"/>
       <c r="H110" s="42"/>
-      <c r="I110" s="75"/>
-      <c r="J110" s="75"/>
-      <c r="K110" s="75"/>
-      <c r="L110" s="75"/>
-      <c r="M110" s="75"/>
-      <c r="N110" s="75"/>
+      <c r="I110" s="94"/>
+      <c r="J110" s="94"/>
+      <c r="K110" s="94"/>
+      <c r="L110" s="94"/>
+      <c r="M110" s="94"/>
+      <c r="N110" s="94"/>
       <c r="O110" s="42"/>
-      <c r="P110" s="150"/>
+      <c r="P110" s="78"/>
     </row>
     <row r="111" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A111" s="106"/>
-      <c r="B111" s="91"/>
-      <c r="C111" s="95"/>
-      <c r="D111" s="95"/>
+      <c r="A111" s="121"/>
+      <c r="B111" s="128"/>
+      <c r="C111" s="130"/>
+      <c r="D111" s="130"/>
       <c r="E111" s="34" t="s">
         <v>174</v>
       </c>
@@ -6197,20 +6197,20 @@
       </c>
       <c r="G111" s="34"/>
       <c r="H111" s="42"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
-      <c r="K111" s="75"/>
-      <c r="L111" s="75"/>
-      <c r="M111" s="75"/>
-      <c r="N111" s="75"/>
+      <c r="I111" s="94"/>
+      <c r="J111" s="94"/>
+      <c r="K111" s="94"/>
+      <c r="L111" s="94"/>
+      <c r="M111" s="94"/>
+      <c r="N111" s="94"/>
       <c r="O111" s="42"/>
-      <c r="P111" s="150"/>
+      <c r="P111" s="78"/>
     </row>
     <row r="112" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="106"/>
-      <c r="B112" s="91"/>
-      <c r="C112" s="95"/>
-      <c r="D112" s="95"/>
+      <c r="A112" s="121"/>
+      <c r="B112" s="128"/>
+      <c r="C112" s="130"/>
+      <c r="D112" s="130"/>
       <c r="E112" s="34" t="s">
         <v>176</v>
       </c>
@@ -6219,20 +6219,20 @@
       </c>
       <c r="G112" s="34"/>
       <c r="H112" s="42"/>
-      <c r="I112" s="75"/>
-      <c r="J112" s="75"/>
-      <c r="K112" s="75"/>
-      <c r="L112" s="75"/>
-      <c r="M112" s="75"/>
-      <c r="N112" s="75"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="94"/>
+      <c r="K112" s="94"/>
+      <c r="L112" s="94"/>
+      <c r="M112" s="94"/>
+      <c r="N112" s="94"/>
       <c r="O112" s="42"/>
-      <c r="P112" s="150"/>
+      <c r="P112" s="78"/>
     </row>
     <row r="113" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="106"/>
-      <c r="B113" s="91"/>
-      <c r="C113" s="95"/>
-      <c r="D113" s="95"/>
+      <c r="A113" s="121"/>
+      <c r="B113" s="128"/>
+      <c r="C113" s="130"/>
+      <c r="D113" s="130"/>
       <c r="E113" s="34" t="s">
         <v>178</v>
       </c>
@@ -6241,20 +6241,20 @@
       </c>
       <c r="G113" s="34"/>
       <c r="H113" s="42"/>
-      <c r="I113" s="75"/>
-      <c r="J113" s="75"/>
-      <c r="K113" s="75"/>
-      <c r="L113" s="75"/>
-      <c r="M113" s="75"/>
-      <c r="N113" s="75"/>
+      <c r="I113" s="94"/>
+      <c r="J113" s="94"/>
+      <c r="K113" s="94"/>
+      <c r="L113" s="94"/>
+      <c r="M113" s="94"/>
+      <c r="N113" s="94"/>
       <c r="O113" s="42"/>
-      <c r="P113" s="150"/>
+      <c r="P113" s="78"/>
     </row>
     <row r="114" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A114" s="106"/>
-      <c r="B114" s="91"/>
-      <c r="C114" s="95"/>
-      <c r="D114" s="95"/>
+      <c r="A114" s="121"/>
+      <c r="B114" s="128"/>
+      <c r="C114" s="130"/>
+      <c r="D114" s="130"/>
       <c r="E114" s="34" t="s">
         <v>180</v>
       </c>
@@ -6263,40 +6263,40 @@
       </c>
       <c r="G114" s="34"/>
       <c r="H114" s="42"/>
-      <c r="I114" s="75"/>
-      <c r="J114" s="75"/>
-      <c r="K114" s="75"/>
-      <c r="L114" s="75"/>
-      <c r="M114" s="75"/>
-      <c r="N114" s="75"/>
+      <c r="I114" s="94"/>
+      <c r="J114" s="94"/>
+      <c r="K114" s="94"/>
+      <c r="L114" s="94"/>
+      <c r="M114" s="94"/>
+      <c r="N114" s="94"/>
       <c r="O114" s="42"/>
-      <c r="P114" s="150"/>
+      <c r="P114" s="78"/>
     </row>
     <row r="115" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A115" s="106"/>
-      <c r="B115" s="91"/>
-      <c r="C115" s="95"/>
-      <c r="D115" s="95"/>
+      <c r="A115" s="121"/>
+      <c r="B115" s="128"/>
+      <c r="C115" s="130"/>
+      <c r="D115" s="130"/>
       <c r="E115" s="34" t="s">
         <v>182</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
       <c r="H115" s="42"/>
-      <c r="I115" s="75"/>
-      <c r="J115" s="75"/>
-      <c r="K115" s="75"/>
-      <c r="L115" s="75"/>
-      <c r="M115" s="75"/>
-      <c r="N115" s="75"/>
+      <c r="I115" s="94"/>
+      <c r="J115" s="94"/>
+      <c r="K115" s="94"/>
+      <c r="L115" s="94"/>
+      <c r="M115" s="94"/>
+      <c r="N115" s="94"/>
       <c r="O115" s="42"/>
-      <c r="P115" s="150"/>
+      <c r="P115" s="78"/>
     </row>
     <row r="116" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A116" s="106"/>
-      <c r="B116" s="91"/>
-      <c r="C116" s="95"/>
-      <c r="D116" s="95"/>
+      <c r="A116" s="121"/>
+      <c r="B116" s="128"/>
+      <c r="C116" s="130"/>
+      <c r="D116" s="130"/>
       <c r="E116" s="34" t="s">
         <v>183</v>
       </c>
@@ -6305,19 +6305,19 @@
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="42"/>
-      <c r="I116" s="75"/>
-      <c r="J116" s="75"/>
-      <c r="K116" s="75"/>
-      <c r="L116" s="75"/>
-      <c r="M116" s="75"/>
-      <c r="N116" s="75"/>
+      <c r="I116" s="94"/>
+      <c r="J116" s="94"/>
+      <c r="K116" s="94"/>
+      <c r="L116" s="94"/>
+      <c r="M116" s="94"/>
+      <c r="N116" s="94"/>
       <c r="O116" s="42"/>
-      <c r="P116" s="150"/>
+      <c r="P116" s="78"/>
     </row>
     <row r="117" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="106"/>
-      <c r="B117" s="91"/>
-      <c r="C117" s="95"/>
+      <c r="A117" s="121"/>
+      <c r="B117" s="128"/>
+      <c r="C117" s="130"/>
       <c r="D117" s="34" t="s">
         <v>185</v>
       </c>
@@ -6327,19 +6327,19 @@
       </c>
       <c r="G117" s="34"/>
       <c r="H117" s="21"/>
-      <c r="I117" s="75"/>
-      <c r="J117" s="75"/>
-      <c r="K117" s="75"/>
-      <c r="L117" s="75"/>
-      <c r="M117" s="75"/>
-      <c r="N117" s="75"/>
+      <c r="I117" s="94"/>
+      <c r="J117" s="94"/>
+      <c r="K117" s="94"/>
+      <c r="L117" s="94"/>
+      <c r="M117" s="94"/>
+      <c r="N117" s="94"/>
       <c r="O117" s="14"/>
-      <c r="P117" s="150"/>
+      <c r="P117" s="78"/>
     </row>
     <row r="118" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="106"/>
-      <c r="B118" s="91"/>
-      <c r="C118" s="95"/>
+      <c r="A118" s="121"/>
+      <c r="B118" s="128"/>
+      <c r="C118" s="130"/>
       <c r="D118" s="34" t="s">
         <v>187</v>
       </c>
@@ -6349,19 +6349,19 @@
       </c>
       <c r="G118" s="34"/>
       <c r="H118" s="22"/>
-      <c r="I118" s="75"/>
-      <c r="J118" s="75"/>
-      <c r="K118" s="75"/>
-      <c r="L118" s="75"/>
-      <c r="M118" s="75"/>
-      <c r="N118" s="75"/>
+      <c r="I118" s="94"/>
+      <c r="J118" s="94"/>
+      <c r="K118" s="94"/>
+      <c r="L118" s="94"/>
+      <c r="M118" s="94"/>
+      <c r="N118" s="94"/>
       <c r="O118" s="14"/>
-      <c r="P118" s="150"/>
+      <c r="P118" s="78"/>
     </row>
     <row r="119" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="106"/>
-      <c r="B119" s="91"/>
-      <c r="C119" s="95" t="s">
+      <c r="A119" s="121"/>
+      <c r="B119" s="128"/>
+      <c r="C119" s="130" t="s">
         <v>189</v>
       </c>
       <c r="D119" s="34" t="s">
@@ -6373,19 +6373,19 @@
       </c>
       <c r="G119" s="34"/>
       <c r="H119" s="22"/>
-      <c r="I119" s="75"/>
-      <c r="J119" s="75"/>
-      <c r="K119" s="75"/>
-      <c r="L119" s="75"/>
-      <c r="M119" s="75"/>
-      <c r="N119" s="75"/>
+      <c r="I119" s="94"/>
+      <c r="J119" s="94"/>
+      <c r="K119" s="94"/>
+      <c r="L119" s="94"/>
+      <c r="M119" s="94"/>
+      <c r="N119" s="94"/>
       <c r="O119" s="14"/>
-      <c r="P119" s="150"/>
+      <c r="P119" s="78"/>
     </row>
     <row r="120" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="106"/>
-      <c r="B120" s="91"/>
-      <c r="C120" s="95"/>
+      <c r="A120" s="121"/>
+      <c r="B120" s="128"/>
+      <c r="C120" s="130"/>
       <c r="D120" s="34" t="s">
         <v>192</v>
       </c>
@@ -6393,19 +6393,19 @@
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
       <c r="H120" s="22"/>
-      <c r="I120" s="75"/>
-      <c r="J120" s="75"/>
-      <c r="K120" s="75"/>
-      <c r="L120" s="75"/>
-      <c r="M120" s="75"/>
-      <c r="N120" s="75"/>
+      <c r="I120" s="94"/>
+      <c r="J120" s="94"/>
+      <c r="K120" s="94"/>
+      <c r="L120" s="94"/>
+      <c r="M120" s="94"/>
+      <c r="N120" s="94"/>
       <c r="O120" s="14"/>
-      <c r="P120" s="150"/>
+      <c r="P120" s="78"/>
     </row>
     <row r="121" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="106"/>
-      <c r="B121" s="91"/>
-      <c r="C121" s="95"/>
+      <c r="A121" s="121"/>
+      <c r="B121" s="128"/>
+      <c r="C121" s="130"/>
       <c r="D121" s="34" t="s">
         <v>193</v>
       </c>
@@ -6413,19 +6413,19 @@
       <c r="F121" s="34"/>
       <c r="G121" s="34"/>
       <c r="H121" s="22"/>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="75"/>
-      <c r="L121" s="75"/>
-      <c r="M121" s="75"/>
-      <c r="N121" s="75"/>
+      <c r="I121" s="94"/>
+      <c r="J121" s="94"/>
+      <c r="K121" s="94"/>
+      <c r="L121" s="94"/>
+      <c r="M121" s="94"/>
+      <c r="N121" s="94"/>
       <c r="O121" s="14"/>
-      <c r="P121" s="150"/>
+      <c r="P121" s="78"/>
     </row>
     <row r="122" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="106"/>
-      <c r="B122" s="94"/>
-      <c r="C122" s="95"/>
+      <c r="A122" s="121"/>
+      <c r="B122" s="129"/>
+      <c r="C122" s="130"/>
       <c r="D122" s="34" t="s">
         <v>194</v>
       </c>
@@ -6435,21 +6435,21 @@
       </c>
       <c r="G122" s="34"/>
       <c r="H122" s="22"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="76"/>
-      <c r="K122" s="76"/>
-      <c r="L122" s="76"/>
-      <c r="M122" s="76"/>
-      <c r="N122" s="76"/>
+      <c r="I122" s="95"/>
+      <c r="J122" s="95"/>
+      <c r="K122" s="95"/>
+      <c r="L122" s="95"/>
+      <c r="M122" s="95"/>
+      <c r="N122" s="95"/>
       <c r="O122" s="14"/>
-      <c r="P122" s="151"/>
+      <c r="P122" s="79"/>
     </row>
     <row r="123" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="106"/>
-      <c r="B123" s="71" t="s">
+      <c r="A123" s="121"/>
+      <c r="B123" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="C123" s="71" t="s">
+      <c r="C123" s="136" t="s">
         <v>197</v>
       </c>
       <c r="D123" s="47" t="s">
@@ -6461,25 +6461,25 @@
       </c>
       <c r="G123" s="47"/>
       <c r="H123" s="22"/>
-      <c r="I123" s="115"/>
-      <c r="J123" s="115">
+      <c r="I123" s="82"/>
+      <c r="J123" s="82">
         <v>1</v>
       </c>
-      <c r="K123" s="115">
+      <c r="K123" s="82">
         <v>2</v>
       </c>
-      <c r="L123" s="115"/>
-      <c r="M123" s="115"/>
-      <c r="N123" s="115">
+      <c r="L123" s="82"/>
+      <c r="M123" s="82"/>
+      <c r="N123" s="82">
         <v>4</v>
       </c>
       <c r="O123" s="14"/>
-      <c r="P123" s="153"/>
+      <c r="P123" s="81"/>
     </row>
     <row r="124" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="106"/>
-      <c r="B124" s="71"/>
-      <c r="C124" s="71"/>
+      <c r="A124" s="121"/>
+      <c r="B124" s="136"/>
+      <c r="C124" s="136"/>
       <c r="D124" s="47" t="s">
         <v>199</v>
       </c>
@@ -6491,19 +6491,19 @@
         <v>201</v>
       </c>
       <c r="H124" s="22"/>
-      <c r="I124" s="116"/>
-      <c r="J124" s="116"/>
-      <c r="K124" s="116"/>
-      <c r="L124" s="116"/>
-      <c r="M124" s="116"/>
-      <c r="N124" s="116"/>
+      <c r="I124" s="88"/>
+      <c r="J124" s="88"/>
+      <c r="K124" s="88"/>
+      <c r="L124" s="88"/>
+      <c r="M124" s="88"/>
+      <c r="N124" s="88"/>
       <c r="O124" s="14"/>
-      <c r="P124" s="148"/>
+      <c r="P124" s="76"/>
     </row>
     <row r="125" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="106"/>
-      <c r="B125" s="71"/>
-      <c r="C125" s="71"/>
+      <c r="A125" s="121"/>
+      <c r="B125" s="136"/>
+      <c r="C125" s="136"/>
       <c r="D125" s="47" t="s">
         <v>202</v>
       </c>
@@ -6515,19 +6515,19 @@
         <v>204</v>
       </c>
       <c r="H125" s="22"/>
-      <c r="I125" s="116"/>
-      <c r="J125" s="116"/>
-      <c r="K125" s="116"/>
-      <c r="L125" s="116"/>
-      <c r="M125" s="116"/>
-      <c r="N125" s="116"/>
+      <c r="I125" s="88"/>
+      <c r="J125" s="88"/>
+      <c r="K125" s="88"/>
+      <c r="L125" s="88"/>
+      <c r="M125" s="88"/>
+      <c r="N125" s="88"/>
       <c r="O125" s="14"/>
-      <c r="P125" s="148"/>
+      <c r="P125" s="76"/>
     </row>
     <row r="126" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="106"/>
-      <c r="B126" s="71"/>
-      <c r="C126" s="71"/>
+      <c r="A126" s="121"/>
+      <c r="B126" s="136"/>
+      <c r="C126" s="136"/>
       <c r="D126" s="47" t="s">
         <v>205</v>
       </c>
@@ -6537,18 +6537,18 @@
       </c>
       <c r="G126" s="47"/>
       <c r="H126" s="22"/>
-      <c r="I126" s="116"/>
-      <c r="J126" s="116"/>
-      <c r="K126" s="116"/>
-      <c r="L126" s="116"/>
-      <c r="M126" s="116"/>
-      <c r="N126" s="116"/>
+      <c r="I126" s="88"/>
+      <c r="J126" s="88"/>
+      <c r="K126" s="88"/>
+      <c r="L126" s="88"/>
+      <c r="M126" s="88"/>
+      <c r="N126" s="88"/>
       <c r="O126" s="14"/>
-      <c r="P126" s="148"/>
+      <c r="P126" s="76"/>
     </row>
     <row r="127" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="106"/>
-      <c r="B127" s="71"/>
+      <c r="A127" s="121"/>
+      <c r="B127" s="136"/>
       <c r="C127" s="47" t="s">
         <v>207</v>
       </c>
@@ -6559,18 +6559,18 @@
       </c>
       <c r="G127" s="47"/>
       <c r="H127" s="22"/>
-      <c r="I127" s="116"/>
-      <c r="J127" s="116"/>
-      <c r="K127" s="116"/>
-      <c r="L127" s="116"/>
-      <c r="M127" s="116"/>
-      <c r="N127" s="116"/>
+      <c r="I127" s="88"/>
+      <c r="J127" s="88"/>
+      <c r="K127" s="88"/>
+      <c r="L127" s="88"/>
+      <c r="M127" s="88"/>
+      <c r="N127" s="88"/>
       <c r="O127" s="14"/>
-      <c r="P127" s="148"/>
+      <c r="P127" s="76"/>
     </row>
     <row r="128" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="106"/>
-      <c r="B128" s="71"/>
+      <c r="A128" s="121"/>
+      <c r="B128" s="136"/>
       <c r="C128" s="47" t="s">
         <v>209</v>
       </c>
@@ -6579,17 +6579,17 @@
       <c r="F128" s="47"/>
       <c r="G128" s="47"/>
       <c r="H128" s="22"/>
-      <c r="I128" s="117"/>
-      <c r="J128" s="117"/>
-      <c r="K128" s="117"/>
-      <c r="L128" s="117"/>
-      <c r="M128" s="117"/>
-      <c r="N128" s="117"/>
+      <c r="I128" s="83"/>
+      <c r="J128" s="83"/>
+      <c r="K128" s="83"/>
+      <c r="L128" s="83"/>
+      <c r="M128" s="83"/>
+      <c r="N128" s="83"/>
       <c r="O128" s="14"/>
-      <c r="P128" s="148"/>
+      <c r="P128" s="76"/>
     </row>
     <row r="129" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="106"/>
+      <c r="A129" s="121"/>
       <c r="B129" s="47" t="s">
         <v>210</v>
       </c>
@@ -6619,11 +6619,11 @@
       <c r="P129" s="48"/>
     </row>
     <row r="130" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="106"/>
-      <c r="B130" s="95" t="s">
+      <c r="A130" s="121"/>
+      <c r="B130" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="C130" s="95" t="s">
+      <c r="C130" s="130" t="s">
         <v>214</v>
       </c>
       <c r="D130" s="34" t="s">
@@ -6635,25 +6635,25 @@
       </c>
       <c r="G130" s="34"/>
       <c r="H130" s="22"/>
-      <c r="I130" s="115"/>
-      <c r="J130" s="115">
+      <c r="I130" s="82"/>
+      <c r="J130" s="82">
         <v>5</v>
       </c>
-      <c r="K130" s="115">
+      <c r="K130" s="82">
         <v>14</v>
       </c>
-      <c r="L130" s="115"/>
-      <c r="M130" s="115"/>
-      <c r="N130" s="115">
+      <c r="L130" s="82"/>
+      <c r="M130" s="82"/>
+      <c r="N130" s="82">
         <v>15</v>
       </c>
       <c r="O130" s="14"/>
-      <c r="P130" s="152"/>
+      <c r="P130" s="80"/>
     </row>
     <row r="131" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="106"/>
-      <c r="B131" s="95"/>
-      <c r="C131" s="95"/>
+      <c r="A131" s="121"/>
+      <c r="B131" s="130"/>
+      <c r="C131" s="130"/>
       <c r="D131" s="34" t="s">
         <v>53</v>
       </c>
@@ -6663,20 +6663,20 @@
       </c>
       <c r="G131" s="34"/>
       <c r="H131" s="22"/>
-      <c r="I131" s="116"/>
-      <c r="J131" s="116"/>
-      <c r="K131" s="116"/>
-      <c r="L131" s="116"/>
-      <c r="M131" s="116"/>
-      <c r="N131" s="116"/>
+      <c r="I131" s="88"/>
+      <c r="J131" s="88"/>
+      <c r="K131" s="88"/>
+      <c r="L131" s="88"/>
+      <c r="M131" s="88"/>
+      <c r="N131" s="88"/>
       <c r="O131" s="14"/>
-      <c r="P131" s="148"/>
+      <c r="P131" s="76"/>
     </row>
     <row r="132" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="106"/>
-      <c r="B132" s="95"/>
-      <c r="C132" s="95"/>
-      <c r="D132" s="96" t="s">
+      <c r="A132" s="121"/>
+      <c r="B132" s="130"/>
+      <c r="C132" s="130"/>
+      <c r="D132" s="126" t="s">
         <v>218</v>
       </c>
       <c r="E132" s="34" t="s">
@@ -6687,20 +6687,20 @@
       </c>
       <c r="G132" s="34"/>
       <c r="H132" s="22"/>
-      <c r="I132" s="116"/>
-      <c r="J132" s="116"/>
-      <c r="K132" s="116"/>
-      <c r="L132" s="116"/>
-      <c r="M132" s="116"/>
-      <c r="N132" s="116"/>
+      <c r="I132" s="88"/>
+      <c r="J132" s="88"/>
+      <c r="K132" s="88"/>
+      <c r="L132" s="88"/>
+      <c r="M132" s="88"/>
+      <c r="N132" s="88"/>
       <c r="O132" s="14"/>
-      <c r="P132" s="148"/>
+      <c r="P132" s="76"/>
     </row>
     <row r="133" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="106"/>
-      <c r="B133" s="95"/>
-      <c r="C133" s="95"/>
-      <c r="D133" s="97"/>
+      <c r="A133" s="121"/>
+      <c r="B133" s="130"/>
+      <c r="C133" s="130"/>
+      <c r="D133" s="133"/>
       <c r="E133" s="34" t="s">
         <v>221</v>
       </c>
@@ -6709,20 +6709,20 @@
       </c>
       <c r="G133" s="34"/>
       <c r="H133" s="22"/>
-      <c r="I133" s="116"/>
-      <c r="J133" s="116"/>
-      <c r="K133" s="116"/>
-      <c r="L133" s="116"/>
-      <c r="M133" s="116"/>
-      <c r="N133" s="116"/>
+      <c r="I133" s="88"/>
+      <c r="J133" s="88"/>
+      <c r="K133" s="88"/>
+      <c r="L133" s="88"/>
+      <c r="M133" s="88"/>
+      <c r="N133" s="88"/>
       <c r="O133" s="14"/>
-      <c r="P133" s="148"/>
+      <c r="P133" s="76"/>
     </row>
     <row r="134" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="106"/>
-      <c r="B134" s="95"/>
-      <c r="C134" s="95"/>
-      <c r="D134" s="97"/>
+      <c r="A134" s="121"/>
+      <c r="B134" s="130"/>
+      <c r="C134" s="130"/>
+      <c r="D134" s="133"/>
       <c r="E134" s="34" t="s">
         <v>223</v>
       </c>
@@ -6731,20 +6731,20 @@
       </c>
       <c r="G134" s="34"/>
       <c r="H134" s="22"/>
-      <c r="I134" s="116"/>
-      <c r="J134" s="116"/>
-      <c r="K134" s="116"/>
-      <c r="L134" s="116"/>
-      <c r="M134" s="116"/>
-      <c r="N134" s="116"/>
+      <c r="I134" s="88"/>
+      <c r="J134" s="88"/>
+      <c r="K134" s="88"/>
+      <c r="L134" s="88"/>
+      <c r="M134" s="88"/>
+      <c r="N134" s="88"/>
       <c r="O134" s="14"/>
-      <c r="P134" s="148"/>
+      <c r="P134" s="76"/>
     </row>
     <row r="135" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="106"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="95"/>
-      <c r="D135" s="97"/>
+      <c r="A135" s="121"/>
+      <c r="B135" s="130"/>
+      <c r="C135" s="130"/>
+      <c r="D135" s="133"/>
       <c r="E135" s="34" t="s">
         <v>225</v>
       </c>
@@ -6753,20 +6753,20 @@
       </c>
       <c r="G135" s="34"/>
       <c r="H135" s="22"/>
-      <c r="I135" s="116"/>
-      <c r="J135" s="116"/>
-      <c r="K135" s="116"/>
-      <c r="L135" s="116"/>
-      <c r="M135" s="116"/>
-      <c r="N135" s="116"/>
+      <c r="I135" s="88"/>
+      <c r="J135" s="88"/>
+      <c r="K135" s="88"/>
+      <c r="L135" s="88"/>
+      <c r="M135" s="88"/>
+      <c r="N135" s="88"/>
       <c r="O135" s="14"/>
-      <c r="P135" s="148"/>
+      <c r="P135" s="76"/>
     </row>
     <row r="136" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="106"/>
-      <c r="B136" s="95"/>
-      <c r="C136" s="95"/>
-      <c r="D136" s="91"/>
+      <c r="A136" s="121"/>
+      <c r="B136" s="130"/>
+      <c r="C136" s="130"/>
+      <c r="D136" s="128"/>
       <c r="E136" s="34" t="s">
         <v>227</v>
       </c>
@@ -6775,20 +6775,20 @@
       </c>
       <c r="G136" s="34"/>
       <c r="H136" s="22"/>
-      <c r="I136" s="116"/>
-      <c r="J136" s="116"/>
-      <c r="K136" s="116"/>
-      <c r="L136" s="116"/>
-      <c r="M136" s="116"/>
-      <c r="N136" s="116"/>
+      <c r="I136" s="88"/>
+      <c r="J136" s="88"/>
+      <c r="K136" s="88"/>
+      <c r="L136" s="88"/>
+      <c r="M136" s="88"/>
+      <c r="N136" s="88"/>
       <c r="O136" s="14"/>
-      <c r="P136" s="148"/>
+      <c r="P136" s="76"/>
     </row>
     <row r="137" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="106"/>
-      <c r="B137" s="95"/>
-      <c r="C137" s="95"/>
-      <c r="D137" s="91"/>
+      <c r="A137" s="121"/>
+      <c r="B137" s="130"/>
+      <c r="C137" s="130"/>
+      <c r="D137" s="128"/>
       <c r="E137" s="34" t="s">
         <v>51</v>
       </c>
@@ -6797,21 +6797,21 @@
       </c>
       <c r="G137" s="34"/>
       <c r="H137" s="22"/>
-      <c r="I137" s="116"/>
-      <c r="J137" s="116"/>
-      <c r="K137" s="116"/>
-      <c r="L137" s="116"/>
-      <c r="M137" s="116"/>
-      <c r="N137" s="116"/>
+      <c r="I137" s="88"/>
+      <c r="J137" s="88"/>
+      <c r="K137" s="88"/>
+      <c r="L137" s="88"/>
+      <c r="M137" s="88"/>
+      <c r="N137" s="88"/>
       <c r="O137" s="14"/>
-      <c r="P137" s="148"/>
+      <c r="P137" s="76"/>
     </row>
     <row r="138" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="106"/>
-      <c r="B138" s="95"/>
-      <c r="C138" s="95"/>
-      <c r="D138" s="91"/>
-      <c r="E138" s="95" t="s">
+      <c r="A138" s="121"/>
+      <c r="B138" s="130"/>
+      <c r="C138" s="130"/>
+      <c r="D138" s="128"/>
+      <c r="E138" s="130" t="s">
         <v>230</v>
       </c>
       <c r="F138" s="34" t="s">
@@ -6819,60 +6819,60 @@
       </c>
       <c r="G138" s="34"/>
       <c r="H138" s="22"/>
-      <c r="I138" s="116"/>
-      <c r="J138" s="116"/>
-      <c r="K138" s="116"/>
-      <c r="L138" s="116"/>
-      <c r="M138" s="116"/>
-      <c r="N138" s="116"/>
+      <c r="I138" s="88"/>
+      <c r="J138" s="88"/>
+      <c r="K138" s="88"/>
+      <c r="L138" s="88"/>
+      <c r="M138" s="88"/>
+      <c r="N138" s="88"/>
       <c r="O138" s="14"/>
-      <c r="P138" s="148"/>
+      <c r="P138" s="76"/>
     </row>
     <row r="139" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="106"/>
-      <c r="B139" s="95"/>
-      <c r="C139" s="95"/>
-      <c r="D139" s="91"/>
-      <c r="E139" s="95"/>
+      <c r="A139" s="121"/>
+      <c r="B139" s="130"/>
+      <c r="C139" s="130"/>
+      <c r="D139" s="128"/>
+      <c r="E139" s="130"/>
       <c r="F139" s="34" t="s">
         <v>232</v>
       </c>
       <c r="G139" s="34"/>
       <c r="H139" s="22"/>
-      <c r="I139" s="116"/>
-      <c r="J139" s="116"/>
-      <c r="K139" s="116"/>
-      <c r="L139" s="116"/>
-      <c r="M139" s="116"/>
-      <c r="N139" s="116"/>
+      <c r="I139" s="88"/>
+      <c r="J139" s="88"/>
+      <c r="K139" s="88"/>
+      <c r="L139" s="88"/>
+      <c r="M139" s="88"/>
+      <c r="N139" s="88"/>
       <c r="O139" s="14"/>
-      <c r="P139" s="148"/>
+      <c r="P139" s="76"/>
     </row>
     <row r="140" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="106"/>
-      <c r="B140" s="95"/>
-      <c r="C140" s="95"/>
-      <c r="D140" s="91"/>
-      <c r="E140" s="95"/>
+      <c r="A140" s="121"/>
+      <c r="B140" s="130"/>
+      <c r="C140" s="130"/>
+      <c r="D140" s="128"/>
+      <c r="E140" s="130"/>
       <c r="F140" s="34" t="s">
         <v>233</v>
       </c>
       <c r="G140" s="34"/>
       <c r="H140" s="22"/>
-      <c r="I140" s="116"/>
-      <c r="J140" s="116"/>
-      <c r="K140" s="116"/>
-      <c r="L140" s="116"/>
-      <c r="M140" s="116"/>
-      <c r="N140" s="116"/>
+      <c r="I140" s="88"/>
+      <c r="J140" s="88"/>
+      <c r="K140" s="88"/>
+      <c r="L140" s="88"/>
+      <c r="M140" s="88"/>
+      <c r="N140" s="88"/>
       <c r="O140" s="14"/>
-      <c r="P140" s="148"/>
+      <c r="P140" s="76"/>
     </row>
     <row r="141" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="106"/>
-      <c r="B141" s="95"/>
-      <c r="C141" s="95"/>
-      <c r="D141" s="91"/>
+      <c r="A141" s="121"/>
+      <c r="B141" s="130"/>
+      <c r="C141" s="130"/>
+      <c r="D141" s="128"/>
       <c r="E141" s="35" t="s">
         <v>234</v>
       </c>
@@ -6881,21 +6881,21 @@
       </c>
       <c r="G141" s="34"/>
       <c r="H141" s="22"/>
-      <c r="I141" s="116"/>
-      <c r="J141" s="116"/>
-      <c r="K141" s="116"/>
-      <c r="L141" s="116"/>
-      <c r="M141" s="116"/>
-      <c r="N141" s="116"/>
+      <c r="I141" s="88"/>
+      <c r="J141" s="88"/>
+      <c r="K141" s="88"/>
+      <c r="L141" s="88"/>
+      <c r="M141" s="88"/>
+      <c r="N141" s="88"/>
       <c r="O141" s="14"/>
-      <c r="P141" s="148"/>
+      <c r="P141" s="76"/>
     </row>
     <row r="142" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="106"/>
-      <c r="B142" s="95"/>
-      <c r="C142" s="95"/>
-      <c r="D142" s="91"/>
-      <c r="E142" s="95" t="s">
+      <c r="A142" s="121"/>
+      <c r="B142" s="130"/>
+      <c r="C142" s="130"/>
+      <c r="D142" s="128"/>
+      <c r="E142" s="130" t="s">
         <v>235</v>
       </c>
       <c r="F142" s="34" t="s">
@@ -6903,101 +6903,101 @@
       </c>
       <c r="G142" s="34"/>
       <c r="H142" s="22"/>
-      <c r="I142" s="116"/>
-      <c r="J142" s="116"/>
-      <c r="K142" s="116"/>
-      <c r="L142" s="116"/>
-      <c r="M142" s="116"/>
-      <c r="N142" s="116"/>
+      <c r="I142" s="88"/>
+      <c r="J142" s="88"/>
+      <c r="K142" s="88"/>
+      <c r="L142" s="88"/>
+      <c r="M142" s="88"/>
+      <c r="N142" s="88"/>
       <c r="O142" s="14"/>
-      <c r="P142" s="148"/>
+      <c r="P142" s="76"/>
     </row>
     <row r="143" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="106"/>
-      <c r="B143" s="95"/>
-      <c r="C143" s="95"/>
-      <c r="D143" s="91"/>
-      <c r="E143" s="95"/>
+      <c r="A143" s="121"/>
+      <c r="B143" s="130"/>
+      <c r="C143" s="130"/>
+      <c r="D143" s="128"/>
+      <c r="E143" s="130"/>
       <c r="F143" s="34" t="s">
         <v>237</v>
       </c>
       <c r="G143" s="34"/>
       <c r="H143" s="22"/>
-      <c r="I143" s="116"/>
-      <c r="J143" s="116"/>
-      <c r="K143" s="116"/>
-      <c r="L143" s="116"/>
-      <c r="M143" s="116"/>
-      <c r="N143" s="116"/>
+      <c r="I143" s="88"/>
+      <c r="J143" s="88"/>
+      <c r="K143" s="88"/>
+      <c r="L143" s="88"/>
+      <c r="M143" s="88"/>
+      <c r="N143" s="88"/>
       <c r="O143" s="14"/>
-      <c r="P143" s="148"/>
+      <c r="P143" s="76"/>
     </row>
     <row r="144" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="106"/>
-      <c r="B144" s="95"/>
-      <c r="C144" s="95"/>
-      <c r="D144" s="91"/>
-      <c r="E144" s="95"/>
+      <c r="A144" s="121"/>
+      <c r="B144" s="130"/>
+      <c r="C144" s="130"/>
+      <c r="D144" s="128"/>
+      <c r="E144" s="130"/>
       <c r="F144" s="34" t="s">
         <v>238</v>
       </c>
       <c r="G144" s="34"/>
       <c r="H144" s="22"/>
-      <c r="I144" s="116"/>
-      <c r="J144" s="116"/>
-      <c r="K144" s="116"/>
-      <c r="L144" s="116"/>
-      <c r="M144" s="116"/>
-      <c r="N144" s="116"/>
+      <c r="I144" s="88"/>
+      <c r="J144" s="88"/>
+      <c r="K144" s="88"/>
+      <c r="L144" s="88"/>
+      <c r="M144" s="88"/>
+      <c r="N144" s="88"/>
       <c r="O144" s="14"/>
-      <c r="P144" s="148"/>
+      <c r="P144" s="76"/>
     </row>
     <row r="145" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="106"/>
-      <c r="B145" s="95"/>
-      <c r="C145" s="95"/>
-      <c r="D145" s="91"/>
-      <c r="E145" s="95"/>
+      <c r="A145" s="121"/>
+      <c r="B145" s="130"/>
+      <c r="C145" s="130"/>
+      <c r="D145" s="128"/>
+      <c r="E145" s="130"/>
       <c r="F145" s="34" t="s">
         <v>239</v>
       </c>
       <c r="G145" s="34"/>
       <c r="H145" s="22"/>
-      <c r="I145" s="116"/>
-      <c r="J145" s="116"/>
-      <c r="K145" s="116"/>
-      <c r="L145" s="116"/>
-      <c r="M145" s="116"/>
-      <c r="N145" s="116"/>
+      <c r="I145" s="88"/>
+      <c r="J145" s="88"/>
+      <c r="K145" s="88"/>
+      <c r="L145" s="88"/>
+      <c r="M145" s="88"/>
+      <c r="N145" s="88"/>
       <c r="O145" s="14"/>
-      <c r="P145" s="148"/>
+      <c r="P145" s="76"/>
     </row>
     <row r="146" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="106"/>
-      <c r="B146" s="95"/>
-      <c r="C146" s="95"/>
-      <c r="D146" s="91"/>
-      <c r="E146" s="95"/>
+      <c r="A146" s="121"/>
+      <c r="B146" s="130"/>
+      <c r="C146" s="130"/>
+      <c r="D146" s="128"/>
+      <c r="E146" s="130"/>
       <c r="F146" s="34" t="s">
         <v>240</v>
       </c>
       <c r="G146" s="34"/>
       <c r="H146" s="22"/>
-      <c r="I146" s="116"/>
-      <c r="J146" s="116"/>
-      <c r="K146" s="116"/>
-      <c r="L146" s="116"/>
-      <c r="M146" s="116"/>
-      <c r="N146" s="116"/>
+      <c r="I146" s="88"/>
+      <c r="J146" s="88"/>
+      <c r="K146" s="88"/>
+      <c r="L146" s="88"/>
+      <c r="M146" s="88"/>
+      <c r="N146" s="88"/>
       <c r="O146" s="14"/>
-      <c r="P146" s="148"/>
+      <c r="P146" s="76"/>
     </row>
     <row r="147" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="106"/>
-      <c r="B147" s="95"/>
-      <c r="C147" s="95"/>
-      <c r="D147" s="91"/>
-      <c r="E147" s="95" t="s">
+      <c r="A147" s="121"/>
+      <c r="B147" s="130"/>
+      <c r="C147" s="130"/>
+      <c r="D147" s="128"/>
+      <c r="E147" s="130" t="s">
         <v>241</v>
       </c>
       <c r="F147" s="34" t="s">
@@ -7005,101 +7005,101 @@
       </c>
       <c r="G147" s="34"/>
       <c r="H147" s="22"/>
-      <c r="I147" s="116"/>
-      <c r="J147" s="116"/>
-      <c r="K147" s="116"/>
-      <c r="L147" s="116"/>
-      <c r="M147" s="116"/>
-      <c r="N147" s="116"/>
+      <c r="I147" s="88"/>
+      <c r="J147" s="88"/>
+      <c r="K147" s="88"/>
+      <c r="L147" s="88"/>
+      <c r="M147" s="88"/>
+      <c r="N147" s="88"/>
       <c r="O147" s="14"/>
-      <c r="P147" s="148"/>
+      <c r="P147" s="76"/>
     </row>
     <row r="148" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="106"/>
-      <c r="B148" s="95"/>
-      <c r="C148" s="95"/>
-      <c r="D148" s="91"/>
-      <c r="E148" s="95"/>
+      <c r="A148" s="121"/>
+      <c r="B148" s="130"/>
+      <c r="C148" s="130"/>
+      <c r="D148" s="128"/>
+      <c r="E148" s="130"/>
       <c r="F148" s="34" t="s">
         <v>237</v>
       </c>
       <c r="G148" s="34"/>
       <c r="H148" s="22"/>
-      <c r="I148" s="116"/>
-      <c r="J148" s="116"/>
-      <c r="K148" s="116"/>
-      <c r="L148" s="116"/>
-      <c r="M148" s="116"/>
-      <c r="N148" s="116"/>
+      <c r="I148" s="88"/>
+      <c r="J148" s="88"/>
+      <c r="K148" s="88"/>
+      <c r="L148" s="88"/>
+      <c r="M148" s="88"/>
+      <c r="N148" s="88"/>
       <c r="O148" s="14"/>
-      <c r="P148" s="148"/>
+      <c r="P148" s="76"/>
     </row>
     <row r="149" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="106"/>
-      <c r="B149" s="95"/>
-      <c r="C149" s="95"/>
-      <c r="D149" s="91"/>
-      <c r="E149" s="95"/>
+      <c r="A149" s="121"/>
+      <c r="B149" s="130"/>
+      <c r="C149" s="130"/>
+      <c r="D149" s="128"/>
+      <c r="E149" s="130"/>
       <c r="F149" s="34" t="s">
         <v>238</v>
       </c>
       <c r="G149" s="34"/>
       <c r="H149" s="22"/>
-      <c r="I149" s="116"/>
-      <c r="J149" s="116"/>
-      <c r="K149" s="116"/>
-      <c r="L149" s="116"/>
-      <c r="M149" s="116"/>
-      <c r="N149" s="116"/>
+      <c r="I149" s="88"/>
+      <c r="J149" s="88"/>
+      <c r="K149" s="88"/>
+      <c r="L149" s="88"/>
+      <c r="M149" s="88"/>
+      <c r="N149" s="88"/>
       <c r="O149" s="14"/>
-      <c r="P149" s="148"/>
+      <c r="P149" s="76"/>
     </row>
     <row r="150" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="106"/>
-      <c r="B150" s="95"/>
-      <c r="C150" s="95"/>
-      <c r="D150" s="91"/>
-      <c r="E150" s="95"/>
+      <c r="A150" s="121"/>
+      <c r="B150" s="130"/>
+      <c r="C150" s="130"/>
+      <c r="D150" s="128"/>
+      <c r="E150" s="130"/>
       <c r="F150" s="34" t="s">
         <v>239</v>
       </c>
       <c r="G150" s="34"/>
       <c r="H150" s="22"/>
-      <c r="I150" s="116"/>
-      <c r="J150" s="116"/>
-      <c r="K150" s="116"/>
-      <c r="L150" s="116"/>
-      <c r="M150" s="116"/>
-      <c r="N150" s="116"/>
+      <c r="I150" s="88"/>
+      <c r="J150" s="88"/>
+      <c r="K150" s="88"/>
+      <c r="L150" s="88"/>
+      <c r="M150" s="88"/>
+      <c r="N150" s="88"/>
       <c r="O150" s="14"/>
-      <c r="P150" s="148"/>
+      <c r="P150" s="76"/>
     </row>
     <row r="151" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="106"/>
-      <c r="B151" s="95"/>
-      <c r="C151" s="95"/>
-      <c r="D151" s="91"/>
-      <c r="E151" s="95"/>
+      <c r="A151" s="121"/>
+      <c r="B151" s="130"/>
+      <c r="C151" s="130"/>
+      <c r="D151" s="128"/>
+      <c r="E151" s="130"/>
       <c r="F151" s="34" t="s">
         <v>240</v>
       </c>
       <c r="G151" s="34"/>
       <c r="H151" s="21"/>
-      <c r="I151" s="116"/>
-      <c r="J151" s="116"/>
-      <c r="K151" s="116"/>
-      <c r="L151" s="116"/>
-      <c r="M151" s="116"/>
-      <c r="N151" s="116"/>
+      <c r="I151" s="88"/>
+      <c r="J151" s="88"/>
+      <c r="K151" s="88"/>
+      <c r="L151" s="88"/>
+      <c r="M151" s="88"/>
+      <c r="N151" s="88"/>
       <c r="O151" s="14"/>
-      <c r="P151" s="148"/>
+      <c r="P151" s="76"/>
     </row>
     <row r="152" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="106"/>
-      <c r="B152" s="95"/>
-      <c r="C152" s="95"/>
-      <c r="D152" s="91"/>
-      <c r="E152" s="95" t="s">
+      <c r="A152" s="121"/>
+      <c r="B152" s="130"/>
+      <c r="C152" s="130"/>
+      <c r="D152" s="128"/>
+      <c r="E152" s="130" t="s">
         <v>242</v>
       </c>
       <c r="F152" s="34" t="s">
@@ -7107,60 +7107,60 @@
       </c>
       <c r="G152" s="34"/>
       <c r="H152" s="22"/>
-      <c r="I152" s="116"/>
-      <c r="J152" s="116"/>
-      <c r="K152" s="116"/>
-      <c r="L152" s="116"/>
-      <c r="M152" s="116"/>
-      <c r="N152" s="116"/>
+      <c r="I152" s="88"/>
+      <c r="J152" s="88"/>
+      <c r="K152" s="88"/>
+      <c r="L152" s="88"/>
+      <c r="M152" s="88"/>
+      <c r="N152" s="88"/>
       <c r="O152" s="14"/>
-      <c r="P152" s="148"/>
+      <c r="P152" s="76"/>
     </row>
     <row r="153" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="106"/>
-      <c r="B153" s="95"/>
-      <c r="C153" s="95"/>
-      <c r="D153" s="91"/>
-      <c r="E153" s="95"/>
+      <c r="A153" s="121"/>
+      <c r="B153" s="130"/>
+      <c r="C153" s="130"/>
+      <c r="D153" s="128"/>
+      <c r="E153" s="130"/>
       <c r="F153" s="34" t="s">
         <v>232</v>
       </c>
       <c r="G153" s="34"/>
       <c r="H153" s="22"/>
-      <c r="I153" s="116"/>
-      <c r="J153" s="116"/>
-      <c r="K153" s="116"/>
-      <c r="L153" s="116"/>
-      <c r="M153" s="116"/>
-      <c r="N153" s="116"/>
+      <c r="I153" s="88"/>
+      <c r="J153" s="88"/>
+      <c r="K153" s="88"/>
+      <c r="L153" s="88"/>
+      <c r="M153" s="88"/>
+      <c r="N153" s="88"/>
       <c r="O153" s="14"/>
-      <c r="P153" s="148"/>
+      <c r="P153" s="76"/>
     </row>
     <row r="154" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="106"/>
-      <c r="B154" s="95"/>
-      <c r="C154" s="95"/>
-      <c r="D154" s="91"/>
-      <c r="E154" s="95"/>
+      <c r="A154" s="121"/>
+      <c r="B154" s="130"/>
+      <c r="C154" s="130"/>
+      <c r="D154" s="128"/>
+      <c r="E154" s="130"/>
       <c r="F154" s="34" t="s">
         <v>233</v>
       </c>
       <c r="G154" s="34"/>
       <c r="H154" s="22"/>
-      <c r="I154" s="116"/>
-      <c r="J154" s="116"/>
-      <c r="K154" s="116"/>
-      <c r="L154" s="116"/>
-      <c r="M154" s="116"/>
-      <c r="N154" s="116"/>
+      <c r="I154" s="88"/>
+      <c r="J154" s="88"/>
+      <c r="K154" s="88"/>
+      <c r="L154" s="88"/>
+      <c r="M154" s="88"/>
+      <c r="N154" s="88"/>
       <c r="O154" s="14"/>
-      <c r="P154" s="148"/>
+      <c r="P154" s="76"/>
     </row>
     <row r="155" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="106"/>
-      <c r="B155" s="95"/>
-      <c r="C155" s="95"/>
-      <c r="D155" s="91"/>
+      <c r="A155" s="121"/>
+      <c r="B155" s="130"/>
+      <c r="C155" s="130"/>
+      <c r="D155" s="128"/>
       <c r="E155" s="35" t="s">
         <v>243</v>
       </c>
@@ -7169,21 +7169,21 @@
       </c>
       <c r="G155" s="34"/>
       <c r="H155" s="22"/>
-      <c r="I155" s="116"/>
-      <c r="J155" s="116"/>
-      <c r="K155" s="116"/>
-      <c r="L155" s="116"/>
-      <c r="M155" s="116"/>
-      <c r="N155" s="116"/>
+      <c r="I155" s="88"/>
+      <c r="J155" s="88"/>
+      <c r="K155" s="88"/>
+      <c r="L155" s="88"/>
+      <c r="M155" s="88"/>
+      <c r="N155" s="88"/>
       <c r="O155" s="14"/>
-      <c r="P155" s="148"/>
+      <c r="P155" s="76"/>
     </row>
     <row r="156" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="106"/>
-      <c r="B156" s="95"/>
-      <c r="C156" s="95"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="95" t="s">
+      <c r="A156" s="121"/>
+      <c r="B156" s="130"/>
+      <c r="C156" s="130"/>
+      <c r="D156" s="128"/>
+      <c r="E156" s="130" t="s">
         <v>244</v>
       </c>
       <c r="F156" s="34" t="s">
@@ -7191,101 +7191,101 @@
       </c>
       <c r="G156" s="34"/>
       <c r="H156" s="22"/>
-      <c r="I156" s="116"/>
-      <c r="J156" s="116"/>
-      <c r="K156" s="116"/>
-      <c r="L156" s="116"/>
-      <c r="M156" s="116"/>
-      <c r="N156" s="116"/>
+      <c r="I156" s="88"/>
+      <c r="J156" s="88"/>
+      <c r="K156" s="88"/>
+      <c r="L156" s="88"/>
+      <c r="M156" s="88"/>
+      <c r="N156" s="88"/>
       <c r="O156" s="14"/>
-      <c r="P156" s="148"/>
+      <c r="P156" s="76"/>
     </row>
     <row r="157" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="106"/>
-      <c r="B157" s="95"/>
-      <c r="C157" s="95"/>
-      <c r="D157" s="91"/>
-      <c r="E157" s="95"/>
+      <c r="A157" s="121"/>
+      <c r="B157" s="130"/>
+      <c r="C157" s="130"/>
+      <c r="D157" s="128"/>
+      <c r="E157" s="130"/>
       <c r="F157" s="34" t="s">
         <v>237</v>
       </c>
       <c r="G157" s="34"/>
       <c r="H157" s="22"/>
-      <c r="I157" s="116"/>
-      <c r="J157" s="116"/>
-      <c r="K157" s="116"/>
-      <c r="L157" s="116"/>
-      <c r="M157" s="116"/>
-      <c r="N157" s="116"/>
+      <c r="I157" s="88"/>
+      <c r="J157" s="88"/>
+      <c r="K157" s="88"/>
+      <c r="L157" s="88"/>
+      <c r="M157" s="88"/>
+      <c r="N157" s="88"/>
       <c r="O157" s="14"/>
-      <c r="P157" s="148"/>
+      <c r="P157" s="76"/>
     </row>
     <row r="158" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="106"/>
-      <c r="B158" s="95"/>
-      <c r="C158" s="95"/>
-      <c r="D158" s="91"/>
-      <c r="E158" s="95"/>
+      <c r="A158" s="121"/>
+      <c r="B158" s="130"/>
+      <c r="C158" s="130"/>
+      <c r="D158" s="128"/>
+      <c r="E158" s="130"/>
       <c r="F158" s="34" t="s">
         <v>246</v>
       </c>
       <c r="G158" s="34"/>
       <c r="H158" s="22"/>
-      <c r="I158" s="116"/>
-      <c r="J158" s="116"/>
-      <c r="K158" s="116"/>
-      <c r="L158" s="116"/>
-      <c r="M158" s="116"/>
-      <c r="N158" s="116"/>
+      <c r="I158" s="88"/>
+      <c r="J158" s="88"/>
+      <c r="K158" s="88"/>
+      <c r="L158" s="88"/>
+      <c r="M158" s="88"/>
+      <c r="N158" s="88"/>
       <c r="O158" s="14"/>
-      <c r="P158" s="148"/>
+      <c r="P158" s="76"/>
     </row>
     <row r="159" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="106"/>
-      <c r="B159" s="95"/>
-      <c r="C159" s="95"/>
-      <c r="D159" s="91"/>
-      <c r="E159" s="95"/>
+      <c r="A159" s="121"/>
+      <c r="B159" s="130"/>
+      <c r="C159" s="130"/>
+      <c r="D159" s="128"/>
+      <c r="E159" s="130"/>
       <c r="F159" s="34" t="s">
         <v>247</v>
       </c>
       <c r="G159" s="34"/>
       <c r="H159" s="22"/>
-      <c r="I159" s="116"/>
-      <c r="J159" s="116"/>
-      <c r="K159" s="116"/>
-      <c r="L159" s="116"/>
-      <c r="M159" s="116"/>
-      <c r="N159" s="116"/>
+      <c r="I159" s="88"/>
+      <c r="J159" s="88"/>
+      <c r="K159" s="88"/>
+      <c r="L159" s="88"/>
+      <c r="M159" s="88"/>
+      <c r="N159" s="88"/>
       <c r="O159" s="14"/>
-      <c r="P159" s="148"/>
+      <c r="P159" s="76"/>
     </row>
     <row r="160" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="106"/>
-      <c r="B160" s="95"/>
-      <c r="C160" s="95"/>
-      <c r="D160" s="91"/>
-      <c r="E160" s="95"/>
+      <c r="A160" s="121"/>
+      <c r="B160" s="130"/>
+      <c r="C160" s="130"/>
+      <c r="D160" s="128"/>
+      <c r="E160" s="130"/>
       <c r="F160" s="34" t="s">
         <v>248</v>
       </c>
       <c r="G160" s="34"/>
       <c r="H160" s="22"/>
-      <c r="I160" s="116"/>
-      <c r="J160" s="116"/>
-      <c r="K160" s="116"/>
-      <c r="L160" s="116"/>
-      <c r="M160" s="116"/>
-      <c r="N160" s="116"/>
+      <c r="I160" s="88"/>
+      <c r="J160" s="88"/>
+      <c r="K160" s="88"/>
+      <c r="L160" s="88"/>
+      <c r="M160" s="88"/>
+      <c r="N160" s="88"/>
       <c r="O160" s="14"/>
-      <c r="P160" s="148"/>
+      <c r="P160" s="76"/>
     </row>
     <row r="161" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="106"/>
-      <c r="B161" s="95"/>
-      <c r="C161" s="95"/>
-      <c r="D161" s="91"/>
-      <c r="E161" s="95" t="s">
+      <c r="A161" s="121"/>
+      <c r="B161" s="130"/>
+      <c r="C161" s="130"/>
+      <c r="D161" s="128"/>
+      <c r="E161" s="130" t="s">
         <v>249</v>
       </c>
       <c r="F161" s="34" t="s">
@@ -7293,80 +7293,80 @@
       </c>
       <c r="G161" s="34"/>
       <c r="H161" s="22"/>
-      <c r="I161" s="116"/>
-      <c r="J161" s="116"/>
-      <c r="K161" s="116"/>
-      <c r="L161" s="116"/>
-      <c r="M161" s="116"/>
-      <c r="N161" s="116"/>
+      <c r="I161" s="88"/>
+      <c r="J161" s="88"/>
+      <c r="K161" s="88"/>
+      <c r="L161" s="88"/>
+      <c r="M161" s="88"/>
+      <c r="N161" s="88"/>
       <c r="O161" s="14"/>
-      <c r="P161" s="148"/>
+      <c r="P161" s="76"/>
     </row>
     <row r="162" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="106"/>
-      <c r="B162" s="95"/>
-      <c r="C162" s="95"/>
-      <c r="D162" s="91"/>
-      <c r="E162" s="95"/>
+      <c r="A162" s="121"/>
+      <c r="B162" s="130"/>
+      <c r="C162" s="130"/>
+      <c r="D162" s="128"/>
+      <c r="E162" s="130"/>
       <c r="F162" s="34" t="s">
         <v>246</v>
       </c>
       <c r="G162" s="34"/>
       <c r="H162" s="22"/>
-      <c r="I162" s="116"/>
-      <c r="J162" s="116"/>
-      <c r="K162" s="116"/>
-      <c r="L162" s="116"/>
-      <c r="M162" s="116"/>
-      <c r="N162" s="116"/>
+      <c r="I162" s="88"/>
+      <c r="J162" s="88"/>
+      <c r="K162" s="88"/>
+      <c r="L162" s="88"/>
+      <c r="M162" s="88"/>
+      <c r="N162" s="88"/>
       <c r="O162" s="14"/>
-      <c r="P162" s="148"/>
+      <c r="P162" s="76"/>
     </row>
     <row r="163" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="106"/>
-      <c r="B163" s="95"/>
-      <c r="C163" s="95"/>
-      <c r="D163" s="91"/>
-      <c r="E163" s="95"/>
+      <c r="A163" s="121"/>
+      <c r="B163" s="130"/>
+      <c r="C163" s="130"/>
+      <c r="D163" s="128"/>
+      <c r="E163" s="130"/>
       <c r="F163" s="34" t="s">
         <v>247</v>
       </c>
       <c r="G163" s="34"/>
       <c r="H163" s="22"/>
-      <c r="I163" s="116"/>
-      <c r="J163" s="116"/>
-      <c r="K163" s="116"/>
-      <c r="L163" s="116"/>
-      <c r="M163" s="116"/>
-      <c r="N163" s="116"/>
+      <c r="I163" s="88"/>
+      <c r="J163" s="88"/>
+      <c r="K163" s="88"/>
+      <c r="L163" s="88"/>
+      <c r="M163" s="88"/>
+      <c r="N163" s="88"/>
       <c r="O163" s="14"/>
-      <c r="P163" s="148"/>
+      <c r="P163" s="76"/>
     </row>
     <row r="164" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="106"/>
-      <c r="B164" s="95"/>
-      <c r="C164" s="95"/>
-      <c r="D164" s="94"/>
-      <c r="E164" s="95"/>
+      <c r="A164" s="121"/>
+      <c r="B164" s="130"/>
+      <c r="C164" s="130"/>
+      <c r="D164" s="129"/>
+      <c r="E164" s="130"/>
       <c r="F164" s="34" t="s">
         <v>248</v>
       </c>
       <c r="G164" s="34"/>
       <c r="H164" s="22"/>
-      <c r="I164" s="116"/>
-      <c r="J164" s="116"/>
-      <c r="K164" s="116"/>
-      <c r="L164" s="116"/>
-      <c r="M164" s="116"/>
-      <c r="N164" s="116"/>
+      <c r="I164" s="88"/>
+      <c r="J164" s="88"/>
+      <c r="K164" s="88"/>
+      <c r="L164" s="88"/>
+      <c r="M164" s="88"/>
+      <c r="N164" s="88"/>
       <c r="O164" s="14"/>
-      <c r="P164" s="148"/>
+      <c r="P164" s="76"/>
     </row>
     <row r="165" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="106"/>
-      <c r="B165" s="95"/>
-      <c r="C165" s="95"/>
-      <c r="D165" s="95" t="s">
+      <c r="A165" s="121"/>
+      <c r="B165" s="130"/>
+      <c r="C165" s="130"/>
+      <c r="D165" s="130" t="s">
         <v>250</v>
       </c>
       <c r="E165" s="34" t="s">
@@ -7375,40 +7375,40 @@
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
       <c r="H165" s="22"/>
-      <c r="I165" s="116"/>
-      <c r="J165" s="116"/>
-      <c r="K165" s="116"/>
-      <c r="L165" s="116"/>
-      <c r="M165" s="116"/>
-      <c r="N165" s="116"/>
+      <c r="I165" s="88"/>
+      <c r="J165" s="88"/>
+      <c r="K165" s="88"/>
+      <c r="L165" s="88"/>
+      <c r="M165" s="88"/>
+      <c r="N165" s="88"/>
       <c r="O165" s="14"/>
-      <c r="P165" s="148"/>
+      <c r="P165" s="76"/>
     </row>
     <row r="166" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="106"/>
-      <c r="B166" s="95"/>
-      <c r="C166" s="95"/>
-      <c r="D166" s="95"/>
+      <c r="A166" s="121"/>
+      <c r="B166" s="130"/>
+      <c r="C166" s="130"/>
+      <c r="D166" s="130"/>
       <c r="E166" s="34" t="s">
         <v>51</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="34"/>
       <c r="H166" s="22"/>
-      <c r="I166" s="116"/>
-      <c r="J166" s="116"/>
-      <c r="K166" s="116"/>
-      <c r="L166" s="116"/>
-      <c r="M166" s="116"/>
-      <c r="N166" s="116"/>
+      <c r="I166" s="88"/>
+      <c r="J166" s="88"/>
+      <c r="K166" s="88"/>
+      <c r="L166" s="88"/>
+      <c r="M166" s="88"/>
+      <c r="N166" s="88"/>
       <c r="O166" s="14"/>
-      <c r="P166" s="148"/>
+      <c r="P166" s="76"/>
     </row>
     <row r="167" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="106"/>
-      <c r="B167" s="95"/>
-      <c r="C167" s="95"/>
-      <c r="D167" s="95"/>
+      <c r="A167" s="121"/>
+      <c r="B167" s="130"/>
+      <c r="C167" s="130"/>
+      <c r="D167" s="130"/>
       <c r="E167" s="34" t="s">
         <v>251</v>
       </c>
@@ -7417,20 +7417,20 @@
       </c>
       <c r="G167" s="34"/>
       <c r="H167" s="22"/>
-      <c r="I167" s="116"/>
-      <c r="J167" s="116"/>
-      <c r="K167" s="116"/>
-      <c r="L167" s="116"/>
-      <c r="M167" s="116"/>
-      <c r="N167" s="116"/>
+      <c r="I167" s="88"/>
+      <c r="J167" s="88"/>
+      <c r="K167" s="88"/>
+      <c r="L167" s="88"/>
+      <c r="M167" s="88"/>
+      <c r="N167" s="88"/>
       <c r="O167" s="14"/>
-      <c r="P167" s="148"/>
+      <c r="P167" s="76"/>
     </row>
     <row r="168" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="106"/>
-      <c r="B168" s="95"/>
-      <c r="C168" s="95"/>
-      <c r="D168" s="95"/>
+      <c r="A168" s="121"/>
+      <c r="B168" s="130"/>
+      <c r="C168" s="130"/>
+      <c r="D168" s="130"/>
       <c r="E168" s="34" t="s">
         <v>253</v>
       </c>
@@ -7439,20 +7439,20 @@
       </c>
       <c r="G168" s="34"/>
       <c r="H168" s="21"/>
-      <c r="I168" s="116"/>
-      <c r="J168" s="116"/>
-      <c r="K168" s="116"/>
-      <c r="L168" s="116"/>
-      <c r="M168" s="116"/>
-      <c r="N168" s="116"/>
+      <c r="I168" s="88"/>
+      <c r="J168" s="88"/>
+      <c r="K168" s="88"/>
+      <c r="L168" s="88"/>
+      <c r="M168" s="88"/>
+      <c r="N168" s="88"/>
       <c r="O168" s="14"/>
-      <c r="P168" s="148"/>
+      <c r="P168" s="76"/>
     </row>
     <row r="169" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A169" s="106"/>
-      <c r="B169" s="95"/>
-      <c r="C169" s="95"/>
-      <c r="D169" s="95"/>
+      <c r="A169" s="121"/>
+      <c r="B169" s="130"/>
+      <c r="C169" s="130"/>
+      <c r="D169" s="130"/>
       <c r="E169" s="34" t="s">
         <v>255</v>
       </c>
@@ -7461,20 +7461,20 @@
       </c>
       <c r="G169" s="34"/>
       <c r="H169" s="22"/>
-      <c r="I169" s="116"/>
-      <c r="J169" s="116"/>
-      <c r="K169" s="116"/>
-      <c r="L169" s="116"/>
-      <c r="M169" s="116"/>
-      <c r="N169" s="116"/>
+      <c r="I169" s="88"/>
+      <c r="J169" s="88"/>
+      <c r="K169" s="88"/>
+      <c r="L169" s="88"/>
+      <c r="M169" s="88"/>
+      <c r="N169" s="88"/>
       <c r="O169" s="14"/>
-      <c r="P169" s="148"/>
+      <c r="P169" s="76"/>
     </row>
     <row r="170" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="106"/>
-      <c r="B170" s="95"/>
-      <c r="C170" s="95"/>
-      <c r="D170" s="95"/>
+      <c r="A170" s="121"/>
+      <c r="B170" s="130"/>
+      <c r="C170" s="130"/>
+      <c r="D170" s="130"/>
       <c r="E170" s="34" t="s">
         <v>257</v>
       </c>
@@ -7483,20 +7483,20 @@
       </c>
       <c r="G170" s="34"/>
       <c r="H170" s="22"/>
-      <c r="I170" s="116"/>
-      <c r="J170" s="116"/>
-      <c r="K170" s="116"/>
-      <c r="L170" s="116"/>
-      <c r="M170" s="116"/>
-      <c r="N170" s="116"/>
+      <c r="I170" s="88"/>
+      <c r="J170" s="88"/>
+      <c r="K170" s="88"/>
+      <c r="L170" s="88"/>
+      <c r="M170" s="88"/>
+      <c r="N170" s="88"/>
       <c r="O170" s="14"/>
-      <c r="P170" s="148"/>
+      <c r="P170" s="76"/>
     </row>
     <row r="171" spans="1:16" s="16" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A171" s="106"/>
-      <c r="B171" s="95"/>
-      <c r="C171" s="95"/>
-      <c r="D171" s="95"/>
+      <c r="A171" s="121"/>
+      <c r="B171" s="130"/>
+      <c r="C171" s="130"/>
+      <c r="D171" s="130"/>
       <c r="E171" s="34" t="s">
         <v>259</v>
       </c>
@@ -7505,20 +7505,20 @@
       </c>
       <c r="G171" s="34"/>
       <c r="H171" s="22"/>
-      <c r="I171" s="116"/>
-      <c r="J171" s="116"/>
-      <c r="K171" s="116"/>
-      <c r="L171" s="116"/>
-      <c r="M171" s="116"/>
-      <c r="N171" s="116"/>
+      <c r="I171" s="88"/>
+      <c r="J171" s="88"/>
+      <c r="K171" s="88"/>
+      <c r="L171" s="88"/>
+      <c r="M171" s="88"/>
+      <c r="N171" s="88"/>
       <c r="O171" s="14"/>
-      <c r="P171" s="148"/>
+      <c r="P171" s="76"/>
     </row>
     <row r="172" spans="1:16" s="16" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A172" s="106"/>
-      <c r="B172" s="95"/>
-      <c r="C172" s="95"/>
-      <c r="D172" s="95"/>
+      <c r="A172" s="121"/>
+      <c r="B172" s="130"/>
+      <c r="C172" s="130"/>
+      <c r="D172" s="130"/>
       <c r="E172" s="34" t="s">
         <v>261</v>
       </c>
@@ -7527,19 +7527,19 @@
       </c>
       <c r="G172" s="34"/>
       <c r="H172" s="22"/>
-      <c r="I172" s="116"/>
-      <c r="J172" s="116"/>
-      <c r="K172" s="116"/>
-      <c r="L172" s="116"/>
-      <c r="M172" s="116"/>
-      <c r="N172" s="116"/>
+      <c r="I172" s="88"/>
+      <c r="J172" s="88"/>
+      <c r="K172" s="88"/>
+      <c r="L172" s="88"/>
+      <c r="M172" s="88"/>
+      <c r="N172" s="88"/>
       <c r="O172" s="14"/>
-      <c r="P172" s="148"/>
+      <c r="P172" s="76"/>
     </row>
     <row r="173" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A173" s="106"/>
-      <c r="B173" s="95"/>
-      <c r="C173" s="95"/>
+      <c r="A173" s="121"/>
+      <c r="B173" s="130"/>
+      <c r="C173" s="130"/>
       <c r="D173" s="34" t="s">
         <v>263</v>
       </c>
@@ -7549,19 +7549,19 @@
       </c>
       <c r="G173" s="34"/>
       <c r="H173" s="22"/>
-      <c r="I173" s="117"/>
-      <c r="J173" s="117"/>
-      <c r="K173" s="117"/>
-      <c r="L173" s="117"/>
-      <c r="M173" s="117"/>
-      <c r="N173" s="117"/>
+      <c r="I173" s="83"/>
+      <c r="J173" s="83"/>
+      <c r="K173" s="83"/>
+      <c r="L173" s="83"/>
+      <c r="M173" s="83"/>
+      <c r="N173" s="83"/>
       <c r="O173" s="14"/>
-      <c r="P173" s="148"/>
+      <c r="P173" s="76"/>
     </row>
     <row r="174" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="106"/>
-      <c r="B174" s="95"/>
-      <c r="C174" s="95" t="s">
+      <c r="A174" s="121"/>
+      <c r="B174" s="130"/>
+      <c r="C174" s="130" t="s">
         <v>265</v>
       </c>
       <c r="D174" s="34" t="s">
@@ -7573,25 +7573,25 @@
       </c>
       <c r="G174" s="34"/>
       <c r="H174" s="22"/>
-      <c r="I174" s="115"/>
-      <c r="J174" s="115">
+      <c r="I174" s="82"/>
+      <c r="J174" s="82">
         <v>3</v>
       </c>
-      <c r="K174" s="115">
+      <c r="K174" s="82">
         <v>10</v>
       </c>
-      <c r="L174" s="115"/>
-      <c r="M174" s="115"/>
-      <c r="N174" s="115">
+      <c r="L174" s="82"/>
+      <c r="M174" s="82"/>
+      <c r="N174" s="82">
         <v>14</v>
       </c>
       <c r="O174" s="14"/>
-      <c r="P174" s="152"/>
+      <c r="P174" s="80"/>
     </row>
     <row r="175" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="106"/>
-      <c r="B175" s="95"/>
-      <c r="C175" s="95"/>
+      <c r="A175" s="121"/>
+      <c r="B175" s="130"/>
+      <c r="C175" s="130"/>
       <c r="D175" s="34" t="s">
         <v>266</v>
       </c>
@@ -7601,19 +7601,19 @@
       </c>
       <c r="G175" s="34"/>
       <c r="H175" s="22"/>
-      <c r="I175" s="116"/>
-      <c r="J175" s="116"/>
-      <c r="K175" s="116"/>
-      <c r="L175" s="116"/>
-      <c r="M175" s="116"/>
-      <c r="N175" s="116"/>
+      <c r="I175" s="88"/>
+      <c r="J175" s="88"/>
+      <c r="K175" s="88"/>
+      <c r="L175" s="88"/>
+      <c r="M175" s="88"/>
+      <c r="N175" s="88"/>
       <c r="O175" s="14"/>
-      <c r="P175" s="148"/>
+      <c r="P175" s="76"/>
     </row>
     <row r="176" spans="1:16" s="16" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A176" s="106"/>
-      <c r="B176" s="95"/>
-      <c r="C176" s="95"/>
+      <c r="A176" s="121"/>
+      <c r="B176" s="130"/>
+      <c r="C176" s="130"/>
       <c r="D176" s="35" t="s">
         <v>268</v>
       </c>
@@ -7625,19 +7625,19 @@
         <v>270</v>
       </c>
       <c r="H176" s="22"/>
-      <c r="I176" s="116"/>
-      <c r="J176" s="116"/>
-      <c r="K176" s="116"/>
-      <c r="L176" s="116"/>
-      <c r="M176" s="116"/>
-      <c r="N176" s="116"/>
+      <c r="I176" s="88"/>
+      <c r="J176" s="88"/>
+      <c r="K176" s="88"/>
+      <c r="L176" s="88"/>
+      <c r="M176" s="88"/>
+      <c r="N176" s="88"/>
       <c r="O176" s="14"/>
-      <c r="P176" s="148"/>
+      <c r="P176" s="76"/>
     </row>
     <row r="177" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A177" s="106"/>
-      <c r="B177" s="95"/>
-      <c r="C177" s="95"/>
+      <c r="A177" s="121"/>
+      <c r="B177" s="130"/>
+      <c r="C177" s="130"/>
       <c r="D177" s="34" t="s">
         <v>271</v>
       </c>
@@ -7647,21 +7647,21 @@
       </c>
       <c r="G177" s="34"/>
       <c r="H177" s="22"/>
-      <c r="I177" s="117"/>
-      <c r="J177" s="117"/>
-      <c r="K177" s="117"/>
-      <c r="L177" s="117"/>
-      <c r="M177" s="117"/>
-      <c r="N177" s="117"/>
+      <c r="I177" s="83"/>
+      <c r="J177" s="83"/>
+      <c r="K177" s="83"/>
+      <c r="L177" s="83"/>
+      <c r="M177" s="83"/>
+      <c r="N177" s="83"/>
       <c r="O177" s="14"/>
-      <c r="P177" s="148"/>
+      <c r="P177" s="76"/>
     </row>
     <row r="178" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="106"/>
-      <c r="B178" s="96" t="s">
+      <c r="A178" s="121"/>
+      <c r="B178" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="C178" s="96" t="s">
+      <c r="C178" s="126" t="s">
         <v>274</v>
       </c>
       <c r="D178" s="34" t="s">
@@ -7671,25 +7671,25 @@
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
       <c r="H178" s="22"/>
-      <c r="I178" s="115"/>
-      <c r="J178" s="115">
+      <c r="I178" s="82"/>
+      <c r="J178" s="82">
         <v>2</v>
       </c>
-      <c r="K178" s="115">
+      <c r="K178" s="82">
         <v>2</v>
       </c>
-      <c r="L178" s="115"/>
-      <c r="M178" s="115"/>
-      <c r="N178" s="115">
+      <c r="L178" s="82"/>
+      <c r="M178" s="82"/>
+      <c r="N178" s="82">
         <v>2</v>
       </c>
       <c r="O178" s="14"/>
       <c r="P178" s="48"/>
     </row>
     <row r="179" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="106"/>
-      <c r="B179" s="97"/>
-      <c r="C179" s="97"/>
+      <c r="A179" s="121"/>
+      <c r="B179" s="133"/>
+      <c r="C179" s="133"/>
       <c r="D179" s="34" t="s">
         <v>276</v>
       </c>
@@ -7697,19 +7697,19 @@
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
       <c r="H179" s="22"/>
-      <c r="I179" s="116"/>
-      <c r="J179" s="116"/>
-      <c r="K179" s="116"/>
-      <c r="L179" s="116"/>
-      <c r="M179" s="116"/>
-      <c r="N179" s="116"/>
+      <c r="I179" s="88"/>
+      <c r="J179" s="88"/>
+      <c r="K179" s="88"/>
+      <c r="L179" s="88"/>
+      <c r="M179" s="88"/>
+      <c r="N179" s="88"/>
       <c r="O179" s="14"/>
       <c r="P179" s="48"/>
     </row>
     <row r="180" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="106"/>
-      <c r="B180" s="97"/>
-      <c r="C180" s="98"/>
+      <c r="A180" s="121"/>
+      <c r="B180" s="133"/>
+      <c r="C180" s="134"/>
       <c r="D180" s="34" t="s">
         <v>277</v>
       </c>
@@ -7717,19 +7717,19 @@
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
       <c r="H180" s="22"/>
-      <c r="I180" s="116"/>
-      <c r="J180" s="116"/>
-      <c r="K180" s="116"/>
-      <c r="L180" s="116"/>
-      <c r="M180" s="116"/>
-      <c r="N180" s="116"/>
+      <c r="I180" s="88"/>
+      <c r="J180" s="88"/>
+      <c r="K180" s="88"/>
+      <c r="L180" s="88"/>
+      <c r="M180" s="88"/>
+      <c r="N180" s="88"/>
       <c r="O180" s="14"/>
       <c r="P180" s="48"/>
     </row>
     <row r="181" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="106"/>
-      <c r="B181" s="97"/>
-      <c r="C181" s="96" t="s">
+      <c r="A181" s="121"/>
+      <c r="B181" s="133"/>
+      <c r="C181" s="126" t="s">
         <v>278</v>
       </c>
       <c r="D181" s="34" t="s">
@@ -7741,19 +7741,19 @@
       </c>
       <c r="G181" s="34"/>
       <c r="H181" s="22"/>
-      <c r="I181" s="116"/>
-      <c r="J181" s="116"/>
-      <c r="K181" s="116"/>
-      <c r="L181" s="116"/>
-      <c r="M181" s="116"/>
-      <c r="N181" s="116"/>
+      <c r="I181" s="88"/>
+      <c r="J181" s="88"/>
+      <c r="K181" s="88"/>
+      <c r="L181" s="88"/>
+      <c r="M181" s="88"/>
+      <c r="N181" s="88"/>
       <c r="O181" s="14"/>
       <c r="P181" s="48"/>
     </row>
     <row r="182" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="106"/>
-      <c r="B182" s="97"/>
-      <c r="C182" s="98"/>
+      <c r="A182" s="121"/>
+      <c r="B182" s="133"/>
+      <c r="C182" s="134"/>
       <c r="D182" s="34" t="s">
         <v>281</v>
       </c>
@@ -7763,19 +7763,19 @@
       </c>
       <c r="G182" s="34"/>
       <c r="H182" s="22"/>
-      <c r="I182" s="116"/>
-      <c r="J182" s="116"/>
-      <c r="K182" s="116"/>
-      <c r="L182" s="116"/>
-      <c r="M182" s="116"/>
-      <c r="N182" s="116"/>
+      <c r="I182" s="88"/>
+      <c r="J182" s="88"/>
+      <c r="K182" s="88"/>
+      <c r="L182" s="88"/>
+      <c r="M182" s="88"/>
+      <c r="N182" s="88"/>
       <c r="O182" s="14"/>
       <c r="P182" s="48"/>
     </row>
     <row r="183" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="106"/>
-      <c r="B183" s="97"/>
-      <c r="C183" s="96" t="s">
+      <c r="A183" s="121"/>
+      <c r="B183" s="133"/>
+      <c r="C183" s="126" t="s">
         <v>283</v>
       </c>
       <c r="D183" s="34" t="s">
@@ -7787,19 +7787,19 @@
       </c>
       <c r="G183" s="34"/>
       <c r="H183" s="22"/>
-      <c r="I183" s="116"/>
-      <c r="J183" s="116"/>
-      <c r="K183" s="116"/>
-      <c r="L183" s="116"/>
-      <c r="M183" s="116"/>
-      <c r="N183" s="116"/>
+      <c r="I183" s="88"/>
+      <c r="J183" s="88"/>
+      <c r="K183" s="88"/>
+      <c r="L183" s="88"/>
+      <c r="M183" s="88"/>
+      <c r="N183" s="88"/>
       <c r="O183" s="14"/>
       <c r="P183" s="48"/>
     </row>
     <row r="184" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="106"/>
-      <c r="B184" s="97"/>
-      <c r="C184" s="97"/>
+      <c r="A184" s="121"/>
+      <c r="B184" s="133"/>
+      <c r="C184" s="133"/>
       <c r="D184" s="34" t="s">
         <v>276</v>
       </c>
@@ -7807,19 +7807,19 @@
       <c r="F184" s="34"/>
       <c r="G184" s="34"/>
       <c r="H184" s="22"/>
-      <c r="I184" s="116"/>
-      <c r="J184" s="116"/>
-      <c r="K184" s="116"/>
-      <c r="L184" s="116"/>
-      <c r="M184" s="116"/>
-      <c r="N184" s="116"/>
+      <c r="I184" s="88"/>
+      <c r="J184" s="88"/>
+      <c r="K184" s="88"/>
+      <c r="L184" s="88"/>
+      <c r="M184" s="88"/>
+      <c r="N184" s="88"/>
       <c r="O184" s="14"/>
       <c r="P184" s="48"/>
     </row>
     <row r="185" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="106"/>
-      <c r="B185" s="98"/>
-      <c r="C185" s="98"/>
+      <c r="A185" s="121"/>
+      <c r="B185" s="134"/>
+      <c r="C185" s="134"/>
       <c r="D185" s="34" t="s">
         <v>277</v>
       </c>
@@ -7827,18 +7827,18 @@
       <c r="F185" s="34"/>
       <c r="G185" s="34"/>
       <c r="H185" s="22"/>
-      <c r="I185" s="117"/>
-      <c r="J185" s="117"/>
-      <c r="K185" s="117"/>
-      <c r="L185" s="117"/>
-      <c r="M185" s="117"/>
-      <c r="N185" s="117"/>
+      <c r="I185" s="83"/>
+      <c r="J185" s="83"/>
+      <c r="K185" s="83"/>
+      <c r="L185" s="83"/>
+      <c r="M185" s="83"/>
+      <c r="N185" s="83"/>
       <c r="O185" s="14"/>
       <c r="P185" s="48"/>
     </row>
     <row r="186" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A186" s="106"/>
-      <c r="B186" s="96" t="s">
+      <c r="A186" s="121"/>
+      <c r="B186" s="126" t="s">
         <v>285</v>
       </c>
       <c r="C186" s="34" t="s">
@@ -7849,25 +7849,25 @@
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
       <c r="H186" s="22"/>
-      <c r="I186" s="115"/>
-      <c r="J186" s="115">
+      <c r="I186" s="82"/>
+      <c r="J186" s="82">
         <v>0.5</v>
       </c>
-      <c r="K186" s="115">
+      <c r="K186" s="82">
         <v>1</v>
       </c>
-      <c r="L186" s="115"/>
-      <c r="M186" s="115"/>
-      <c r="N186" s="115">
+      <c r="L186" s="82"/>
+      <c r="M186" s="82"/>
+      <c r="N186" s="82">
         <v>1</v>
       </c>
       <c r="O186" s="14"/>
       <c r="P186" s="48"/>
     </row>
     <row r="187" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="106"/>
-      <c r="B187" s="112"/>
-      <c r="C187" s="95" t="s">
+      <c r="A187" s="121"/>
+      <c r="B187" s="127"/>
+      <c r="C187" s="130" t="s">
         <v>287</v>
       </c>
       <c r="D187" s="34" t="s">
@@ -7879,19 +7879,19 @@
       </c>
       <c r="G187" s="34"/>
       <c r="H187" s="22"/>
-      <c r="I187" s="116"/>
-      <c r="J187" s="116"/>
-      <c r="K187" s="116"/>
-      <c r="L187" s="116"/>
-      <c r="M187" s="116"/>
-      <c r="N187" s="116"/>
+      <c r="I187" s="88"/>
+      <c r="J187" s="88"/>
+      <c r="K187" s="88"/>
+      <c r="L187" s="88"/>
+      <c r="M187" s="88"/>
+      <c r="N187" s="88"/>
       <c r="O187" s="14"/>
       <c r="P187" s="48"/>
     </row>
     <row r="188" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="106"/>
-      <c r="B188" s="91"/>
-      <c r="C188" s="95"/>
+      <c r="A188" s="121"/>
+      <c r="B188" s="128"/>
+      <c r="C188" s="130"/>
       <c r="D188" s="34" t="s">
         <v>290</v>
       </c>
@@ -7901,19 +7901,19 @@
       </c>
       <c r="G188" s="34"/>
       <c r="H188" s="22"/>
-      <c r="I188" s="116"/>
-      <c r="J188" s="116"/>
-      <c r="K188" s="116"/>
-      <c r="L188" s="116"/>
-      <c r="M188" s="116"/>
-      <c r="N188" s="116"/>
+      <c r="I188" s="88"/>
+      <c r="J188" s="88"/>
+      <c r="K188" s="88"/>
+      <c r="L188" s="88"/>
+      <c r="M188" s="88"/>
+      <c r="N188" s="88"/>
       <c r="O188" s="14"/>
       <c r="P188" s="48"/>
     </row>
     <row r="189" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A189" s="106"/>
-      <c r="B189" s="91"/>
-      <c r="C189" s="95"/>
+      <c r="A189" s="121"/>
+      <c r="B189" s="128"/>
+      <c r="C189" s="130"/>
       <c r="D189" s="34" t="s">
         <v>31</v>
       </c>
@@ -7923,19 +7923,19 @@
       </c>
       <c r="G189" s="34"/>
       <c r="H189" s="22"/>
-      <c r="I189" s="116"/>
-      <c r="J189" s="116"/>
-      <c r="K189" s="116"/>
-      <c r="L189" s="116"/>
-      <c r="M189" s="116"/>
-      <c r="N189" s="116"/>
+      <c r="I189" s="88"/>
+      <c r="J189" s="88"/>
+      <c r="K189" s="88"/>
+      <c r="L189" s="88"/>
+      <c r="M189" s="88"/>
+      <c r="N189" s="88"/>
       <c r="O189" s="14"/>
       <c r="P189" s="48"/>
     </row>
     <row r="190" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="106"/>
-      <c r="B190" s="91"/>
-      <c r="C190" s="95" t="s">
+      <c r="A190" s="121"/>
+      <c r="B190" s="128"/>
+      <c r="C190" s="130" t="s">
         <v>292</v>
       </c>
       <c r="D190" s="34" t="s">
@@ -7947,19 +7947,19 @@
       </c>
       <c r="G190" s="34"/>
       <c r="H190" s="22"/>
-      <c r="I190" s="116"/>
-      <c r="J190" s="116"/>
-      <c r="K190" s="116"/>
-      <c r="L190" s="116"/>
-      <c r="M190" s="116"/>
-      <c r="N190" s="116"/>
+      <c r="I190" s="88"/>
+      <c r="J190" s="88"/>
+      <c r="K190" s="88"/>
+      <c r="L190" s="88"/>
+      <c r="M190" s="88"/>
+      <c r="N190" s="88"/>
       <c r="O190" s="14"/>
       <c r="P190" s="48"/>
     </row>
     <row r="191" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="106"/>
-      <c r="B191" s="91"/>
-      <c r="C191" s="95"/>
+      <c r="A191" s="121"/>
+      <c r="B191" s="128"/>
+      <c r="C191" s="130"/>
       <c r="D191" s="34" t="s">
         <v>295</v>
       </c>
@@ -7969,19 +7969,19 @@
       </c>
       <c r="G191" s="34"/>
       <c r="H191" s="22"/>
-      <c r="I191" s="116"/>
-      <c r="J191" s="116"/>
-      <c r="K191" s="116"/>
-      <c r="L191" s="116"/>
-      <c r="M191" s="116"/>
-      <c r="N191" s="116"/>
+      <c r="I191" s="88"/>
+      <c r="J191" s="88"/>
+      <c r="K191" s="88"/>
+      <c r="L191" s="88"/>
+      <c r="M191" s="88"/>
+      <c r="N191" s="88"/>
       <c r="O191" s="14"/>
       <c r="P191" s="48"/>
     </row>
     <row r="192" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="106"/>
-      <c r="B192" s="91"/>
-      <c r="C192" s="95" t="s">
+      <c r="A192" s="121"/>
+      <c r="B192" s="128"/>
+      <c r="C192" s="130" t="s">
         <v>296</v>
       </c>
       <c r="D192" s="34" t="s">
@@ -7993,19 +7993,19 @@
       </c>
       <c r="G192" s="34"/>
       <c r="H192" s="22"/>
-      <c r="I192" s="116"/>
-      <c r="J192" s="116"/>
-      <c r="K192" s="116"/>
-      <c r="L192" s="116"/>
-      <c r="M192" s="116"/>
-      <c r="N192" s="116"/>
+      <c r="I192" s="88"/>
+      <c r="J192" s="88"/>
+      <c r="K192" s="88"/>
+      <c r="L192" s="88"/>
+      <c r="M192" s="88"/>
+      <c r="N192" s="88"/>
       <c r="O192" s="14"/>
       <c r="P192" s="48"/>
     </row>
     <row r="193" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="106"/>
-      <c r="B193" s="94"/>
-      <c r="C193" s="95"/>
+      <c r="A193" s="121"/>
+      <c r="B193" s="129"/>
+      <c r="C193" s="130"/>
       <c r="D193" s="34" t="s">
         <v>299</v>
       </c>
@@ -8015,21 +8015,21 @@
       </c>
       <c r="G193" s="34"/>
       <c r="H193" s="22"/>
-      <c r="I193" s="117"/>
-      <c r="J193" s="117"/>
-      <c r="K193" s="117"/>
-      <c r="L193" s="117"/>
-      <c r="M193" s="117"/>
-      <c r="N193" s="117"/>
+      <c r="I193" s="83"/>
+      <c r="J193" s="83"/>
+      <c r="K193" s="83"/>
+      <c r="L193" s="83"/>
+      <c r="M193" s="83"/>
+      <c r="N193" s="83"/>
       <c r="O193" s="14"/>
       <c r="P193" s="48"/>
     </row>
     <row r="194" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="106"/>
-      <c r="B194" s="95" t="s">
+      <c r="A194" s="121"/>
+      <c r="B194" s="130" t="s">
         <v>300</v>
       </c>
-      <c r="C194" s="95" t="s">
+      <c r="C194" s="130" t="s">
         <v>301</v>
       </c>
       <c r="D194" s="34" t="s">
@@ -8043,25 +8043,25 @@
       </c>
       <c r="G194" s="34"/>
       <c r="H194" s="22"/>
-      <c r="I194" s="115"/>
-      <c r="J194" s="115">
+      <c r="I194" s="82"/>
+      <c r="J194" s="82">
         <v>0.75</v>
       </c>
-      <c r="K194" s="115">
+      <c r="K194" s="82">
         <v>0.75</v>
       </c>
-      <c r="L194" s="115"/>
-      <c r="M194" s="115"/>
-      <c r="N194" s="115">
+      <c r="L194" s="82"/>
+      <c r="M194" s="82"/>
+      <c r="N194" s="82">
         <v>0.75</v>
       </c>
       <c r="O194" s="14"/>
       <c r="P194" s="48"/>
     </row>
     <row r="195" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="106"/>
-      <c r="B195" s="95"/>
-      <c r="C195" s="95"/>
+      <c r="A195" s="121"/>
+      <c r="B195" s="130"/>
+      <c r="C195" s="130"/>
       <c r="D195" s="34"/>
       <c r="E195" s="34" t="s">
         <v>304</v>
@@ -8071,21 +8071,21 @@
       </c>
       <c r="G195" s="34"/>
       <c r="H195" s="22"/>
-      <c r="I195" s="117"/>
-      <c r="J195" s="117"/>
-      <c r="K195" s="117"/>
-      <c r="L195" s="117"/>
-      <c r="M195" s="117"/>
-      <c r="N195" s="117"/>
+      <c r="I195" s="83"/>
+      <c r="J195" s="83"/>
+      <c r="K195" s="83"/>
+      <c r="L195" s="83"/>
+      <c r="M195" s="83"/>
+      <c r="N195" s="83"/>
       <c r="O195" s="14"/>
       <c r="P195" s="48"/>
     </row>
     <row r="196" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="106"/>
-      <c r="B196" s="104" t="s">
+      <c r="A196" s="121"/>
+      <c r="B196" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="C196" s="104" t="s">
+      <c r="C196" s="119" t="s">
         <v>306</v>
       </c>
       <c r="D196" s="53" t="s">
@@ -8099,19 +8099,19 @@
         <v>309</v>
       </c>
       <c r="H196" s="54"/>
-      <c r="I196" s="134"/>
-      <c r="J196" s="134"/>
-      <c r="K196" s="134"/>
-      <c r="L196" s="134"/>
-      <c r="M196" s="134"/>
-      <c r="N196" s="134"/>
+      <c r="I196" s="84"/>
+      <c r="J196" s="84"/>
+      <c r="K196" s="84"/>
+      <c r="L196" s="84"/>
+      <c r="M196" s="84"/>
+      <c r="N196" s="84"/>
       <c r="O196" s="55"/>
       <c r="P196"/>
     </row>
     <row r="197" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="106"/>
-      <c r="B197" s="104"/>
-      <c r="C197" s="104"/>
+      <c r="A197" s="121"/>
+      <c r="B197" s="119"/>
+      <c r="C197" s="119"/>
       <c r="D197" s="53" t="s">
         <v>310</v>
       </c>
@@ -8121,19 +8121,19 @@
       </c>
       <c r="G197" s="53"/>
       <c r="H197" s="54"/>
-      <c r="I197" s="135"/>
-      <c r="J197" s="135"/>
-      <c r="K197" s="135"/>
-      <c r="L197" s="135"/>
-      <c r="M197" s="135"/>
-      <c r="N197" s="135"/>
+      <c r="I197" s="85"/>
+      <c r="J197" s="85"/>
+      <c r="K197" s="85"/>
+      <c r="L197" s="85"/>
+      <c r="M197" s="85"/>
+      <c r="N197" s="85"/>
       <c r="O197" s="55"/>
       <c r="P197"/>
     </row>
     <row r="198" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="106"/>
-      <c r="B198" s="104"/>
-      <c r="C198" s="104"/>
+      <c r="A198" s="121"/>
+      <c r="B198" s="119"/>
+      <c r="C198" s="119"/>
       <c r="D198" s="53" t="s">
         <v>311</v>
       </c>
@@ -8143,17 +8143,17 @@
       </c>
       <c r="G198" s="53"/>
       <c r="H198" s="54"/>
-      <c r="I198" s="136"/>
-      <c r="J198" s="136"/>
-      <c r="K198" s="136"/>
-      <c r="L198" s="136"/>
-      <c r="M198" s="136"/>
-      <c r="N198" s="136"/>
+      <c r="I198" s="86"/>
+      <c r="J198" s="86"/>
+      <c r="K198" s="86"/>
+      <c r="L198" s="86"/>
+      <c r="M198" s="86"/>
+      <c r="N198" s="86"/>
       <c r="O198" s="55"/>
       <c r="P198"/>
     </row>
     <row r="199" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A199" s="114"/>
+      <c r="A199" s="132"/>
       <c r="B199" s="70" t="s">
         <v>439</v>
       </c>
@@ -8185,13 +8185,13 @@
       <c r="P199"/>
     </row>
     <row r="200" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="105" t="s">
+      <c r="A200" s="120" t="s">
         <v>438</v>
       </c>
-      <c r="B200" s="108" t="s">
+      <c r="B200" s="104" t="s">
         <v>312</v>
       </c>
-      <c r="C200" s="111" t="s">
+      <c r="C200" s="125" t="s">
         <v>313</v>
       </c>
       <c r="D200" s="36" t="s">
@@ -8205,21 +8205,21 @@
       <c r="H200" s="22"/>
       <c r="I200" s="41"/>
       <c r="J200" s="37"/>
-      <c r="K200" s="115">
+      <c r="K200" s="82">
         <v>10</v>
       </c>
-      <c r="L200" s="115"/>
-      <c r="M200" s="115"/>
-      <c r="N200" s="115">
+      <c r="L200" s="82"/>
+      <c r="M200" s="82"/>
+      <c r="N200" s="82">
         <v>0</v>
       </c>
       <c r="O200" s="14"/>
       <c r="P200" s="50"/>
     </row>
     <row r="201" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A201" s="106"/>
-      <c r="B201" s="109"/>
-      <c r="C201" s="111"/>
+      <c r="A201" s="121"/>
+      <c r="B201" s="123"/>
+      <c r="C201" s="125"/>
       <c r="D201" s="36" t="s">
         <v>316</v>
       </c>
@@ -8231,17 +8231,17 @@
       <c r="H201" s="22"/>
       <c r="I201" s="39"/>
       <c r="J201" s="29"/>
-      <c r="K201" s="116"/>
-      <c r="L201" s="116"/>
-      <c r="M201" s="116"/>
-      <c r="N201" s="116"/>
+      <c r="K201" s="88"/>
+      <c r="L201" s="88"/>
+      <c r="M201" s="88"/>
+      <c r="N201" s="88"/>
       <c r="O201" s="14"/>
       <c r="P201" s="48"/>
     </row>
     <row r="202" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A202" s="106"/>
-      <c r="B202" s="109"/>
-      <c r="C202" s="111"/>
+      <c r="A202" s="121"/>
+      <c r="B202" s="123"/>
+      <c r="C202" s="125"/>
       <c r="D202" s="36" t="s">
         <v>318</v>
       </c>
@@ -8253,17 +8253,17 @@
       <c r="H202" s="22"/>
       <c r="I202" s="39"/>
       <c r="J202" s="29"/>
-      <c r="K202" s="116"/>
-      <c r="L202" s="116"/>
-      <c r="M202" s="116"/>
-      <c r="N202" s="116"/>
+      <c r="K202" s="88"/>
+      <c r="L202" s="88"/>
+      <c r="M202" s="88"/>
+      <c r="N202" s="88"/>
       <c r="O202" s="14"/>
       <c r="P202" s="48"/>
     </row>
     <row r="203" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="106"/>
-      <c r="B203" s="109"/>
-      <c r="C203" s="111"/>
+      <c r="A203" s="121"/>
+      <c r="B203" s="123"/>
+      <c r="C203" s="125"/>
       <c r="D203" s="36" t="s">
         <v>320</v>
       </c>
@@ -8275,18 +8275,18 @@
       <c r="H203" s="22"/>
       <c r="I203" s="39"/>
       <c r="J203" s="29"/>
-      <c r="K203" s="116"/>
-      <c r="L203" s="116"/>
-      <c r="M203" s="116"/>
-      <c r="N203" s="116"/>
+      <c r="K203" s="88"/>
+      <c r="L203" s="88"/>
+      <c r="M203" s="88"/>
+      <c r="N203" s="88"/>
       <c r="O203" s="14"/>
       <c r="P203" s="48"/>
     </row>
     <row r="204" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="106"/>
-      <c r="B204" s="109"/>
-      <c r="C204" s="111"/>
-      <c r="D204" s="108" t="s">
+      <c r="A204" s="121"/>
+      <c r="B204" s="123"/>
+      <c r="C204" s="125"/>
+      <c r="D204" s="104" t="s">
         <v>322</v>
       </c>
       <c r="E204" s="36" t="s">
@@ -8299,18 +8299,18 @@
       <c r="H204" s="22"/>
       <c r="I204" s="39"/>
       <c r="J204" s="29"/>
-      <c r="K204" s="116"/>
-      <c r="L204" s="116"/>
-      <c r="M204" s="116"/>
-      <c r="N204" s="116"/>
+      <c r="K204" s="88"/>
+      <c r="L204" s="88"/>
+      <c r="M204" s="88"/>
+      <c r="N204" s="88"/>
       <c r="O204" s="14"/>
       <c r="P204" s="48"/>
     </row>
     <row r="205" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A205" s="106"/>
-      <c r="B205" s="109"/>
-      <c r="C205" s="111"/>
-      <c r="D205" s="124"/>
+      <c r="A205" s="121"/>
+      <c r="B205" s="123"/>
+      <c r="C205" s="125"/>
+      <c r="D205" s="108"/>
       <c r="E205" s="36" t="s">
         <v>325</v>
       </c>
@@ -8321,18 +8321,18 @@
       <c r="H205" s="22"/>
       <c r="I205" s="39"/>
       <c r="J205" s="29"/>
-      <c r="K205" s="116"/>
-      <c r="L205" s="116"/>
-      <c r="M205" s="116"/>
-      <c r="N205" s="116"/>
+      <c r="K205" s="88"/>
+      <c r="L205" s="88"/>
+      <c r="M205" s="88"/>
+      <c r="N205" s="88"/>
       <c r="O205" s="14"/>
       <c r="P205" s="48"/>
     </row>
     <row r="206" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A206" s="106"/>
-      <c r="B206" s="109"/>
-      <c r="C206" s="111"/>
-      <c r="D206" s="124"/>
+      <c r="A206" s="121"/>
+      <c r="B206" s="123"/>
+      <c r="C206" s="125"/>
+      <c r="D206" s="108"/>
       <c r="E206" s="36" t="s">
         <v>174</v>
       </c>
@@ -8343,18 +8343,18 @@
       <c r="H206" s="22"/>
       <c r="I206" s="39"/>
       <c r="J206" s="29"/>
-      <c r="K206" s="116"/>
-      <c r="L206" s="116"/>
-      <c r="M206" s="116"/>
-      <c r="N206" s="116"/>
+      <c r="K206" s="88"/>
+      <c r="L206" s="88"/>
+      <c r="M206" s="88"/>
+      <c r="N206" s="88"/>
       <c r="O206" s="14"/>
       <c r="P206" s="48"/>
     </row>
     <row r="207" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A207" s="106"/>
-      <c r="B207" s="109"/>
-      <c r="C207" s="111"/>
-      <c r="D207" s="125"/>
+      <c r="A207" s="121"/>
+      <c r="B207" s="123"/>
+      <c r="C207" s="125"/>
+      <c r="D207" s="109"/>
       <c r="E207" s="36" t="s">
         <v>176</v>
       </c>
@@ -8365,17 +8365,17 @@
       <c r="H207" s="22"/>
       <c r="I207" s="39"/>
       <c r="J207" s="29"/>
-      <c r="K207" s="116"/>
-      <c r="L207" s="116"/>
-      <c r="M207" s="116"/>
-      <c r="N207" s="116"/>
+      <c r="K207" s="88"/>
+      <c r="L207" s="88"/>
+      <c r="M207" s="88"/>
+      <c r="N207" s="88"/>
       <c r="O207" s="14"/>
       <c r="P207" s="48"/>
     </row>
     <row r="208" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A208" s="106"/>
-      <c r="B208" s="109"/>
-      <c r="C208" s="111"/>
+      <c r="A208" s="121"/>
+      <c r="B208" s="123"/>
+      <c r="C208" s="125"/>
       <c r="D208" s="36" t="s">
         <v>329</v>
       </c>
@@ -8387,17 +8387,17 @@
       <c r="H208" s="22"/>
       <c r="I208" s="39"/>
       <c r="J208" s="29"/>
-      <c r="K208" s="116"/>
-      <c r="L208" s="116"/>
-      <c r="M208" s="116"/>
-      <c r="N208" s="116"/>
+      <c r="K208" s="88"/>
+      <c r="L208" s="88"/>
+      <c r="M208" s="88"/>
+      <c r="N208" s="88"/>
       <c r="O208" s="14"/>
       <c r="P208" s="48"/>
     </row>
     <row r="209" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A209" s="106"/>
-      <c r="B209" s="109"/>
-      <c r="C209" s="111"/>
+      <c r="A209" s="121"/>
+      <c r="B209" s="123"/>
+      <c r="C209" s="125"/>
       <c r="D209" s="36" t="s">
         <v>331</v>
       </c>
@@ -8409,17 +8409,17 @@
       <c r="H209" s="22"/>
       <c r="I209" s="39"/>
       <c r="J209" s="29"/>
-      <c r="K209" s="116"/>
-      <c r="L209" s="116"/>
-      <c r="M209" s="116"/>
-      <c r="N209" s="116"/>
+      <c r="K209" s="88"/>
+      <c r="L209" s="88"/>
+      <c r="M209" s="88"/>
+      <c r="N209" s="88"/>
       <c r="O209" s="14"/>
       <c r="P209" s="48"/>
     </row>
     <row r="210" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A210" s="107"/>
-      <c r="B210" s="110"/>
-      <c r="C210" s="111"/>
+      <c r="A210" s="122"/>
+      <c r="B210" s="124"/>
+      <c r="C210" s="125"/>
       <c r="D210" s="36" t="s">
         <v>333</v>
       </c>
@@ -8431,15 +8431,15 @@
       <c r="H210" s="22"/>
       <c r="I210" s="40"/>
       <c r="J210" s="38"/>
-      <c r="K210" s="117"/>
-      <c r="L210" s="117"/>
-      <c r="M210" s="117"/>
-      <c r="N210" s="117"/>
+      <c r="K210" s="83"/>
+      <c r="L210" s="83"/>
+      <c r="M210" s="83"/>
+      <c r="N210" s="83"/>
       <c r="O210" s="14"/>
       <c r="P210" s="48"/>
     </row>
     <row r="211" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A211" s="101" t="s">
+      <c r="A211" s="116" t="s">
         <v>335</v>
       </c>
       <c r="B211" s="56" t="s">
@@ -8465,7 +8465,7 @@
       <c r="P211" s="48"/>
     </row>
     <row r="212" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A212" s="102"/>
+      <c r="A212" s="117"/>
       <c r="B212" s="61" t="s">
         <v>27</v>
       </c>
@@ -8479,7 +8479,7 @@
       <c r="H212" s="57"/>
       <c r="I212" s="57"/>
       <c r="J212" s="58"/>
-      <c r="K212" s="130"/>
+      <c r="K212" s="92"/>
       <c r="L212" s="60"/>
       <c r="M212" s="60"/>
       <c r="N212" s="59"/>
@@ -8487,8 +8487,8 @@
       <c r="P212" s="48"/>
     </row>
     <row r="213" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="102"/>
-      <c r="B213" s="126" t="s">
+      <c r="A213" s="117"/>
+      <c r="B213" s="110" t="s">
         <v>29</v>
       </c>
       <c r="C213" s="61" t="s">
@@ -8501,18 +8501,18 @@
       <c r="F213" s="61"/>
       <c r="G213" s="61"/>
       <c r="H213" s="57"/>
-      <c r="I213" s="137"/>
+      <c r="I213" s="99"/>
       <c r="J213" s="58"/>
-      <c r="K213" s="130"/>
-      <c r="L213" s="142"/>
-      <c r="M213" s="142"/>
-      <c r="N213" s="142"/>
+      <c r="K213" s="92"/>
+      <c r="L213" s="87"/>
+      <c r="M213" s="87"/>
+      <c r="N213" s="87"/>
       <c r="O213" s="60"/>
       <c r="P213" s="48"/>
     </row>
     <row r="214" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="102"/>
-      <c r="B214" s="126"/>
+      <c r="A214" s="117"/>
+      <c r="B214" s="110"/>
       <c r="C214" s="61" t="s">
         <v>342</v>
       </c>
@@ -8523,24 +8523,24 @@
       <c r="F214" s="61"/>
       <c r="G214" s="61"/>
       <c r="H214" s="57"/>
-      <c r="I214" s="138"/>
+      <c r="I214" s="100"/>
       <c r="J214" s="58"/>
-      <c r="K214" s="130"/>
-      <c r="L214" s="142"/>
-      <c r="M214" s="142"/>
-      <c r="N214" s="142"/>
+      <c r="K214" s="92"/>
+      <c r="L214" s="87"/>
+      <c r="M214" s="87"/>
+      <c r="N214" s="87"/>
       <c r="O214" s="60"/>
       <c r="P214" s="48"/>
     </row>
     <row r="215" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="102"/>
-      <c r="B215" s="126" t="s">
+      <c r="A215" s="117"/>
+      <c r="B215" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="C215" s="126" t="s">
+      <c r="C215" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="D215" s="99" t="s">
+      <c r="D215" s="111" t="s">
         <v>345</v>
       </c>
       <c r="E215" s="63" t="s">
@@ -8549,20 +8549,20 @@
       <c r="F215" s="61"/>
       <c r="G215" s="61"/>
       <c r="H215" s="57"/>
-      <c r="I215" s="139"/>
+      <c r="I215" s="89"/>
       <c r="J215" s="64"/>
-      <c r="K215" s="139"/>
-      <c r="L215" s="139"/>
-      <c r="M215" s="139"/>
-      <c r="N215" s="139"/>
+      <c r="K215" s="89"/>
+      <c r="L215" s="89"/>
+      <c r="M215" s="89"/>
+      <c r="N215" s="89"/>
       <c r="O215" s="60"/>
       <c r="P215" s="48"/>
     </row>
     <row r="216" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A216" s="102"/>
-      <c r="B216" s="126"/>
-      <c r="C216" s="126"/>
-      <c r="D216" s="127"/>
+      <c r="A216" s="117"/>
+      <c r="B216" s="110"/>
+      <c r="C216" s="110"/>
+      <c r="D216" s="112"/>
       <c r="E216" s="61" t="s">
         <v>347</v>
       </c>
@@ -8571,20 +8571,20 @@
       </c>
       <c r="G216" s="61"/>
       <c r="H216" s="57"/>
-      <c r="I216" s="140"/>
+      <c r="I216" s="90"/>
       <c r="J216" s="65"/>
-      <c r="K216" s="140"/>
-      <c r="L216" s="140"/>
-      <c r="M216" s="140"/>
-      <c r="N216" s="140"/>
+      <c r="K216" s="90"/>
+      <c r="L216" s="90"/>
+      <c r="M216" s="90"/>
+      <c r="N216" s="90"/>
       <c r="O216" s="60"/>
       <c r="P216" s="48"/>
     </row>
     <row r="217" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="102"/>
-      <c r="B217" s="126"/>
-      <c r="C217" s="126"/>
-      <c r="D217" s="127"/>
+      <c r="A217" s="117"/>
+      <c r="B217" s="110"/>
+      <c r="C217" s="110"/>
+      <c r="D217" s="112"/>
       <c r="E217" s="61" t="s">
         <v>349</v>
       </c>
@@ -8593,20 +8593,20 @@
       </c>
       <c r="G217" s="61"/>
       <c r="H217" s="57"/>
-      <c r="I217" s="140"/>
+      <c r="I217" s="90"/>
       <c r="J217" s="65"/>
-      <c r="K217" s="140"/>
-      <c r="L217" s="140"/>
-      <c r="M217" s="140"/>
-      <c r="N217" s="140"/>
+      <c r="K217" s="90"/>
+      <c r="L217" s="90"/>
+      <c r="M217" s="90"/>
+      <c r="N217" s="90"/>
       <c r="O217" s="60"/>
       <c r="P217" s="48"/>
     </row>
     <row r="218" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="102"/>
-      <c r="B218" s="126"/>
-      <c r="C218" s="126"/>
-      <c r="D218" s="100"/>
+      <c r="A218" s="117"/>
+      <c r="B218" s="110"/>
+      <c r="C218" s="110"/>
+      <c r="D218" s="113"/>
       <c r="E218" s="61" t="s">
         <v>351</v>
       </c>
@@ -8615,20 +8615,20 @@
       </c>
       <c r="G218" s="61"/>
       <c r="H218" s="57"/>
-      <c r="I218" s="140"/>
+      <c r="I218" s="90"/>
       <c r="J218" s="65"/>
-      <c r="K218" s="140"/>
-      <c r="L218" s="140"/>
-      <c r="M218" s="140"/>
-      <c r="N218" s="140"/>
+      <c r="K218" s="90"/>
+      <c r="L218" s="90"/>
+      <c r="M218" s="90"/>
+      <c r="N218" s="90"/>
       <c r="O218" s="60"/>
       <c r="P218" s="48"/>
     </row>
     <row r="219" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A219" s="102"/>
-      <c r="B219" s="126"/>
-      <c r="C219" s="126"/>
-      <c r="D219" s="128" t="s">
+      <c r="A219" s="117"/>
+      <c r="B219" s="110"/>
+      <c r="C219" s="110"/>
+      <c r="D219" s="114" t="s">
         <v>353</v>
       </c>
       <c r="E219" s="61" t="s">
@@ -8639,20 +8639,20 @@
       </c>
       <c r="G219" s="61"/>
       <c r="H219" s="57"/>
-      <c r="I219" s="140"/>
+      <c r="I219" s="90"/>
       <c r="J219" s="65"/>
-      <c r="K219" s="140"/>
-      <c r="L219" s="140"/>
-      <c r="M219" s="140"/>
-      <c r="N219" s="140"/>
+      <c r="K219" s="90"/>
+      <c r="L219" s="90"/>
+      <c r="M219" s="90"/>
+      <c r="N219" s="90"/>
       <c r="O219" s="60"/>
       <c r="P219" s="48"/>
     </row>
     <row r="220" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="102"/>
-      <c r="B220" s="126"/>
-      <c r="C220" s="126"/>
-      <c r="D220" s="127"/>
+      <c r="A220" s="117"/>
+      <c r="B220" s="110"/>
+      <c r="C220" s="110"/>
+      <c r="D220" s="112"/>
       <c r="E220" s="63" t="s">
         <v>349</v>
       </c>
@@ -8661,20 +8661,20 @@
       </c>
       <c r="G220" s="61"/>
       <c r="H220" s="57"/>
-      <c r="I220" s="140"/>
+      <c r="I220" s="90"/>
       <c r="J220" s="65"/>
-      <c r="K220" s="140"/>
-      <c r="L220" s="140"/>
-      <c r="M220" s="140"/>
-      <c r="N220" s="140"/>
+      <c r="K220" s="90"/>
+      <c r="L220" s="90"/>
+      <c r="M220" s="90"/>
+      <c r="N220" s="90"/>
       <c r="O220" s="60"/>
       <c r="P220" s="48"/>
     </row>
     <row r="221" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A221" s="102"/>
-      <c r="B221" s="126"/>
-      <c r="C221" s="126"/>
-      <c r="D221" s="127"/>
+      <c r="A221" s="117"/>
+      <c r="B221" s="110"/>
+      <c r="C221" s="110"/>
+      <c r="D221" s="112"/>
       <c r="E221" s="61" t="s">
         <v>357</v>
       </c>
@@ -8683,20 +8683,20 @@
       </c>
       <c r="G221" s="61"/>
       <c r="H221" s="57"/>
-      <c r="I221" s="140"/>
+      <c r="I221" s="90"/>
       <c r="J221" s="65"/>
-      <c r="K221" s="140"/>
-      <c r="L221" s="140"/>
-      <c r="M221" s="140"/>
-      <c r="N221" s="140"/>
+      <c r="K221" s="90"/>
+      <c r="L221" s="90"/>
+      <c r="M221" s="90"/>
+      <c r="N221" s="90"/>
       <c r="O221" s="60"/>
       <c r="P221" s="48"/>
     </row>
     <row r="222" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A222" s="102"/>
-      <c r="B222" s="126"/>
-      <c r="C222" s="126"/>
-      <c r="D222" s="100"/>
+      <c r="A222" s="117"/>
+      <c r="B222" s="110"/>
+      <c r="C222" s="110"/>
+      <c r="D222" s="113"/>
       <c r="E222" s="61" t="s">
         <v>344</v>
       </c>
@@ -8705,19 +8705,19 @@
       </c>
       <c r="G222" s="61"/>
       <c r="H222" s="57"/>
-      <c r="I222" s="141"/>
+      <c r="I222" s="91"/>
       <c r="J222" s="65"/>
-      <c r="K222" s="141"/>
-      <c r="L222" s="141"/>
-      <c r="M222" s="141"/>
-      <c r="N222" s="141"/>
+      <c r="K222" s="91"/>
+      <c r="L222" s="91"/>
+      <c r="M222" s="91"/>
+      <c r="N222" s="91"/>
       <c r="O222" s="60"/>
       <c r="P222" s="49"/>
     </row>
     <row r="223" spans="1:16" s="17" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A223" s="102"/>
-      <c r="B223" s="126"/>
-      <c r="C223" s="99" t="s">
+      <c r="A223" s="117"/>
+      <c r="B223" s="110"/>
+      <c r="C223" s="111" t="s">
         <v>359</v>
       </c>
       <c r="D223" s="61" t="s">
@@ -8729,19 +8729,19 @@
       </c>
       <c r="G223" s="61"/>
       <c r="H223" s="57"/>
-      <c r="I223" s="139"/>
+      <c r="I223" s="89"/>
       <c r="J223" s="65"/>
-      <c r="K223" s="139"/>
-      <c r="L223" s="139"/>
-      <c r="M223" s="139"/>
-      <c r="N223" s="139"/>
+      <c r="K223" s="89"/>
+      <c r="L223" s="89"/>
+      <c r="M223" s="89"/>
+      <c r="N223" s="89"/>
       <c r="O223" s="60"/>
       <c r="P223" s="49"/>
     </row>
     <row r="224" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="102"/>
-      <c r="B224" s="126"/>
-      <c r="C224" s="100"/>
+      <c r="A224" s="117"/>
+      <c r="B224" s="110"/>
+      <c r="C224" s="113"/>
       <c r="D224" s="61" t="s">
         <v>362</v>
       </c>
@@ -8751,19 +8751,19 @@
       </c>
       <c r="G224" s="61"/>
       <c r="H224" s="57"/>
-      <c r="I224" s="140"/>
+      <c r="I224" s="90"/>
       <c r="J224" s="65"/>
-      <c r="K224" s="140"/>
-      <c r="L224" s="140"/>
-      <c r="M224" s="140"/>
-      <c r="N224" s="140"/>
+      <c r="K224" s="90"/>
+      <c r="L224" s="90"/>
+      <c r="M224" s="90"/>
+      <c r="N224" s="90"/>
       <c r="O224" s="60"/>
       <c r="P224" s="49"/>
     </row>
     <row r="225" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A225" s="102"/>
-      <c r="B225" s="126"/>
-      <c r="C225" s="126" t="s">
+      <c r="A225" s="117"/>
+      <c r="B225" s="110"/>
+      <c r="C225" s="110" t="s">
         <v>364</v>
       </c>
       <c r="D225" s="61" t="s">
@@ -8775,19 +8775,19 @@
       </c>
       <c r="G225" s="61"/>
       <c r="H225" s="57"/>
-      <c r="I225" s="140"/>
+      <c r="I225" s="90"/>
       <c r="J225" s="65"/>
-      <c r="K225" s="140"/>
-      <c r="L225" s="140"/>
-      <c r="M225" s="140"/>
-      <c r="N225" s="140"/>
+      <c r="K225" s="90"/>
+      <c r="L225" s="90"/>
+      <c r="M225" s="90"/>
+      <c r="N225" s="90"/>
       <c r="O225" s="60"/>
       <c r="P225" s="49"/>
     </row>
     <row r="226" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="102"/>
-      <c r="B226" s="126"/>
-      <c r="C226" s="126"/>
+      <c r="A226" s="117"/>
+      <c r="B226" s="110"/>
+      <c r="C226" s="110"/>
       <c r="D226" s="61" t="s">
         <v>367</v>
       </c>
@@ -8795,19 +8795,19 @@
       <c r="F226" s="61"/>
       <c r="G226" s="61"/>
       <c r="H226" s="57"/>
-      <c r="I226" s="140"/>
+      <c r="I226" s="90"/>
       <c r="J226" s="65"/>
-      <c r="K226" s="140"/>
-      <c r="L226" s="140"/>
-      <c r="M226" s="140"/>
-      <c r="N226" s="140"/>
+      <c r="K226" s="90"/>
+      <c r="L226" s="90"/>
+      <c r="M226" s="90"/>
+      <c r="N226" s="90"/>
       <c r="O226" s="60"/>
       <c r="P226" s="49"/>
     </row>
     <row r="227" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="102"/>
-      <c r="B227" s="126"/>
-      <c r="C227" s="126"/>
+      <c r="A227" s="117"/>
+      <c r="B227" s="110"/>
+      <c r="C227" s="110"/>
       <c r="D227" s="61" t="s">
         <v>368</v>
       </c>
@@ -8815,18 +8815,18 @@
       <c r="F227" s="61"/>
       <c r="G227" s="61"/>
       <c r="H227" s="57"/>
-      <c r="I227" s="141"/>
+      <c r="I227" s="91"/>
       <c r="J227" s="66"/>
-      <c r="K227" s="141"/>
-      <c r="L227" s="141"/>
-      <c r="M227" s="141"/>
-      <c r="N227" s="141"/>
+      <c r="K227" s="91"/>
+      <c r="L227" s="91"/>
+      <c r="M227" s="91"/>
+      <c r="N227" s="91"/>
       <c r="O227" s="60"/>
       <c r="P227" s="49"/>
     </row>
     <row r="228" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A228" s="102"/>
-      <c r="B228" s="99" t="s">
+      <c r="A228" s="117"/>
+      <c r="B228" s="111" t="s">
         <v>369</v>
       </c>
       <c r="C228" s="61" t="s">
@@ -8839,18 +8839,18 @@
       </c>
       <c r="G228" s="61"/>
       <c r="H228" s="57"/>
-      <c r="I228" s="130"/>
+      <c r="I228" s="92"/>
       <c r="J228" s="64"/>
-      <c r="K228" s="139"/>
-      <c r="L228" s="130"/>
-      <c r="M228" s="130"/>
-      <c r="N228" s="130"/>
+      <c r="K228" s="89"/>
+      <c r="L228" s="92"/>
+      <c r="M228" s="92"/>
+      <c r="N228" s="92"/>
       <c r="O228" s="60"/>
-      <c r="P228" s="143"/>
+      <c r="P228" s="71"/>
     </row>
     <row r="229" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="102"/>
-      <c r="B229" s="129"/>
+      <c r="A229" s="117"/>
+      <c r="B229" s="115"/>
       <c r="C229" s="61" t="s">
         <v>372</v>
       </c>
@@ -8861,19 +8861,19 @@
       </c>
       <c r="G229" s="61"/>
       <c r="H229" s="57"/>
-      <c r="I229" s="130"/>
+      <c r="I229" s="92"/>
       <c r="J229" s="65"/>
-      <c r="K229" s="140"/>
-      <c r="L229" s="130"/>
-      <c r="M229" s="130"/>
-      <c r="N229" s="130"/>
+      <c r="K229" s="90"/>
+      <c r="L229" s="92"/>
+      <c r="M229" s="92"/>
+      <c r="N229" s="92"/>
       <c r="O229" s="60"/>
-      <c r="P229" s="144"/>
+      <c r="P229" s="72"/>
     </row>
     <row r="230" spans="1:16" s="17" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A230" s="102"/>
-      <c r="B230" s="127"/>
-      <c r="C230" s="99" t="s">
+      <c r="A230" s="117"/>
+      <c r="B230" s="112"/>
+      <c r="C230" s="111" t="s">
         <v>374</v>
       </c>
       <c r="D230" s="61" t="s">
@@ -8885,19 +8885,19 @@
       </c>
       <c r="G230" s="61"/>
       <c r="H230" s="57"/>
-      <c r="I230" s="130"/>
+      <c r="I230" s="92"/>
       <c r="J230" s="65"/>
-      <c r="K230" s="140"/>
-      <c r="L230" s="130"/>
-      <c r="M230" s="130"/>
-      <c r="N230" s="130"/>
+      <c r="K230" s="90"/>
+      <c r="L230" s="92"/>
+      <c r="M230" s="92"/>
+      <c r="N230" s="92"/>
       <c r="O230" s="60"/>
-      <c r="P230" s="144"/>
+      <c r="P230" s="72"/>
     </row>
     <row r="231" spans="1:16" s="17" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A231" s="102"/>
-      <c r="B231" s="127"/>
-      <c r="C231" s="100"/>
+      <c r="A231" s="117"/>
+      <c r="B231" s="112"/>
+      <c r="C231" s="113"/>
       <c r="D231" s="61" t="s">
         <v>377</v>
       </c>
@@ -8907,19 +8907,19 @@
       </c>
       <c r="G231" s="61"/>
       <c r="H231" s="57"/>
-      <c r="I231" s="130"/>
+      <c r="I231" s="92"/>
       <c r="J231" s="65"/>
-      <c r="K231" s="140"/>
-      <c r="L231" s="130"/>
-      <c r="M231" s="130"/>
-      <c r="N231" s="130"/>
+      <c r="K231" s="90"/>
+      <c r="L231" s="92"/>
+      <c r="M231" s="92"/>
+      <c r="N231" s="92"/>
       <c r="O231" s="60"/>
-      <c r="P231" s="144"/>
+      <c r="P231" s="72"/>
     </row>
     <row r="232" spans="1:16" s="17" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A232" s="102"/>
-      <c r="B232" s="127"/>
-      <c r="C232" s="126" t="s">
+      <c r="A232" s="117"/>
+      <c r="B232" s="112"/>
+      <c r="C232" s="110" t="s">
         <v>379</v>
       </c>
       <c r="D232" s="61" t="s">
@@ -8931,19 +8931,19 @@
       </c>
       <c r="G232" s="61"/>
       <c r="H232" s="57"/>
-      <c r="I232" s="130"/>
+      <c r="I232" s="92"/>
       <c r="J232" s="65"/>
-      <c r="K232" s="140"/>
-      <c r="L232" s="130"/>
-      <c r="M232" s="130"/>
-      <c r="N232" s="130"/>
+      <c r="K232" s="90"/>
+      <c r="L232" s="92"/>
+      <c r="M232" s="92"/>
+      <c r="N232" s="92"/>
       <c r="O232" s="60"/>
-      <c r="P232" s="144"/>
+      <c r="P232" s="72"/>
     </row>
     <row r="233" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="102"/>
-      <c r="B233" s="127"/>
-      <c r="C233" s="126"/>
+      <c r="A233" s="117"/>
+      <c r="B233" s="112"/>
+      <c r="C233" s="110"/>
       <c r="D233" s="61" t="s">
         <v>382</v>
       </c>
@@ -8953,19 +8953,19 @@
       </c>
       <c r="G233" s="61"/>
       <c r="H233" s="57"/>
-      <c r="I233" s="130"/>
+      <c r="I233" s="92"/>
       <c r="J233" s="65"/>
-      <c r="K233" s="140"/>
-      <c r="L233" s="130"/>
-      <c r="M233" s="130"/>
-      <c r="N233" s="130"/>
+      <c r="K233" s="90"/>
+      <c r="L233" s="92"/>
+      <c r="M233" s="92"/>
+      <c r="N233" s="92"/>
       <c r="O233" s="60"/>
-      <c r="P233" s="144"/>
+      <c r="P233" s="72"/>
     </row>
     <row r="234" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="102"/>
-      <c r="B234" s="127"/>
-      <c r="C234" s="126"/>
+      <c r="A234" s="117"/>
+      <c r="B234" s="112"/>
+      <c r="C234" s="110"/>
       <c r="D234" s="61" t="s">
         <v>384</v>
       </c>
@@ -8975,18 +8975,18 @@
       </c>
       <c r="G234" s="61"/>
       <c r="H234" s="57"/>
-      <c r="I234" s="130"/>
+      <c r="I234" s="92"/>
       <c r="J234" s="65"/>
-      <c r="K234" s="140"/>
-      <c r="L234" s="130"/>
-      <c r="M234" s="130"/>
-      <c r="N234" s="130"/>
+      <c r="K234" s="90"/>
+      <c r="L234" s="92"/>
+      <c r="M234" s="92"/>
+      <c r="N234" s="92"/>
       <c r="O234" s="60"/>
-      <c r="P234" s="144"/>
+      <c r="P234" s="72"/>
     </row>
     <row r="235" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A235" s="102"/>
-      <c r="B235" s="100"/>
+      <c r="A235" s="117"/>
+      <c r="B235" s="113"/>
       <c r="C235" s="61" t="s">
         <v>386</v>
       </c>
@@ -8999,21 +8999,21 @@
       </c>
       <c r="G235" s="61"/>
       <c r="H235" s="57"/>
-      <c r="I235" s="130"/>
+      <c r="I235" s="92"/>
       <c r="J235" s="65"/>
-      <c r="K235" s="140"/>
-      <c r="L235" s="130"/>
-      <c r="M235" s="130"/>
-      <c r="N235" s="130"/>
+      <c r="K235" s="90"/>
+      <c r="L235" s="92"/>
+      <c r="M235" s="92"/>
+      <c r="N235" s="92"/>
       <c r="O235" s="60"/>
-      <c r="P235" s="144"/>
+      <c r="P235" s="72"/>
     </row>
     <row r="236" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="102"/>
-      <c r="B236" s="128" t="s">
+      <c r="A236" s="117"/>
+      <c r="B236" s="114" t="s">
         <v>436</v>
       </c>
-      <c r="C236" s="99" t="s">
+      <c r="C236" s="111" t="s">
         <v>389</v>
       </c>
       <c r="D236" s="61" t="s">
@@ -9025,19 +9025,19 @@
       </c>
       <c r="G236" s="61"/>
       <c r="H236" s="57"/>
-      <c r="I236" s="130"/>
+      <c r="I236" s="92"/>
       <c r="J236" s="65"/>
-      <c r="K236" s="140"/>
-      <c r="L236" s="130"/>
-      <c r="M236" s="130"/>
-      <c r="N236" s="130"/>
+      <c r="K236" s="90"/>
+      <c r="L236" s="92"/>
+      <c r="M236" s="92"/>
+      <c r="N236" s="92"/>
       <c r="O236" s="60"/>
       <c r="P236" s="49"/>
     </row>
     <row r="237" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="102"/>
-      <c r="B237" s="100"/>
-      <c r="C237" s="100"/>
+      <c r="A237" s="117"/>
+      <c r="B237" s="113"/>
+      <c r="C237" s="113"/>
       <c r="D237" s="61" t="s">
         <v>392</v>
       </c>
@@ -9047,17 +9047,17 @@
       </c>
       <c r="G237" s="61"/>
       <c r="H237" s="57"/>
-      <c r="I237" s="130"/>
+      <c r="I237" s="92"/>
       <c r="J237" s="66"/>
-      <c r="K237" s="141"/>
-      <c r="L237" s="130"/>
-      <c r="M237" s="130"/>
-      <c r="N237" s="130"/>
+      <c r="K237" s="91"/>
+      <c r="L237" s="92"/>
+      <c r="M237" s="92"/>
+      <c r="N237" s="92"/>
       <c r="O237" s="60"/>
       <c r="P237" s="49"/>
     </row>
     <row r="238" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="103"/>
+      <c r="A238" s="118"/>
       <c r="B238" s="67" t="s">
         <v>437</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="P238" s="52"/>
     </row>
     <row r="239" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A239" s="118" t="s">
+      <c r="A239" s="101" t="s">
         <v>394</v>
       </c>
       <c r="B239" s="27" t="s">
@@ -9103,7 +9103,7 @@
       <c r="P239" s="49"/>
     </row>
     <row r="240" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="119"/>
+      <c r="A240" s="102"/>
       <c r="B240" s="26" t="s">
         <v>395</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="P240" s="49"/>
     </row>
     <row r="241" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="119"/>
+      <c r="A241" s="102"/>
       <c r="B241" s="26" t="s">
         <v>210</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="P241" s="49"/>
     </row>
     <row r="242" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="119"/>
+      <c r="A242" s="102"/>
       <c r="B242" s="26" t="s">
         <v>396</v>
       </c>
@@ -9179,8 +9179,8 @@
       <c r="P242" s="49"/>
     </row>
     <row r="243" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="119"/>
-      <c r="B243" s="108" t="s">
+      <c r="A243" s="102"/>
+      <c r="B243" s="104" t="s">
         <v>398</v>
       </c>
       <c r="C243" s="26" t="s">
@@ -9198,15 +9198,15 @@
       <c r="K243" s="3"/>
       <c r="L243" s="32"/>
       <c r="M243" s="32"/>
-      <c r="N243" s="131">
+      <c r="N243" s="96">
         <v>5</v>
       </c>
       <c r="O243" s="3"/>
       <c r="P243" s="49"/>
     </row>
     <row r="244" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A244" s="119"/>
-      <c r="B244" s="121"/>
+      <c r="A244" s="102"/>
+      <c r="B244" s="105"/>
       <c r="C244" s="26" t="s">
         <v>401</v>
       </c>
@@ -9222,13 +9222,13 @@
       <c r="K244" s="3"/>
       <c r="L244" s="30"/>
       <c r="M244" s="30"/>
-      <c r="N244" s="132"/>
+      <c r="N244" s="97"/>
       <c r="O244" s="3"/>
       <c r="P244" s="49"/>
     </row>
     <row r="245" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="119"/>
-      <c r="B245" s="121"/>
+      <c r="A245" s="102"/>
+      <c r="B245" s="105"/>
       <c r="C245" s="26" t="s">
         <v>403</v>
       </c>
@@ -9244,13 +9244,13 @@
       <c r="K245" s="3"/>
       <c r="L245" s="30"/>
       <c r="M245" s="30"/>
-      <c r="N245" s="132"/>
+      <c r="N245" s="97"/>
       <c r="O245" s="3"/>
       <c r="P245" s="49"/>
     </row>
     <row r="246" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="119"/>
-      <c r="B246" s="121"/>
+      <c r="A246" s="102"/>
+      <c r="B246" s="105"/>
       <c r="C246" s="26" t="s">
         <v>405</v>
       </c>
@@ -9266,13 +9266,13 @@
       <c r="K246" s="3"/>
       <c r="L246" s="30"/>
       <c r="M246" s="30"/>
-      <c r="N246" s="132"/>
+      <c r="N246" s="97"/>
       <c r="O246" s="3"/>
       <c r="P246" s="49"/>
     </row>
     <row r="247" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="119"/>
-      <c r="B247" s="121"/>
+      <c r="A247" s="102"/>
+      <c r="B247" s="105"/>
       <c r="C247" s="26" t="s">
         <v>407</v>
       </c>
@@ -9288,13 +9288,13 @@
       <c r="K247" s="3"/>
       <c r="L247" s="30"/>
       <c r="M247" s="30"/>
-      <c r="N247" s="132"/>
+      <c r="N247" s="97"/>
       <c r="O247" s="3"/>
       <c r="P247" s="49"/>
     </row>
     <row r="248" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A248" s="119"/>
-      <c r="B248" s="121"/>
+      <c r="A248" s="102"/>
+      <c r="B248" s="105"/>
       <c r="C248" s="26" t="s">
         <v>409</v>
       </c>
@@ -9310,13 +9310,13 @@
       <c r="K248" s="3"/>
       <c r="L248" s="30"/>
       <c r="M248" s="30"/>
-      <c r="N248" s="132"/>
+      <c r="N248" s="97"/>
       <c r="O248" s="3"/>
       <c r="P248" s="49"/>
     </row>
     <row r="249" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="119"/>
-      <c r="B249" s="122"/>
+      <c r="A249" s="102"/>
+      <c r="B249" s="106"/>
       <c r="C249" s="26" t="s">
         <v>411</v>
       </c>
@@ -9332,13 +9332,13 @@
       <c r="K249" s="3"/>
       <c r="L249" s="31"/>
       <c r="M249" s="31"/>
-      <c r="N249" s="133"/>
+      <c r="N249" s="98"/>
       <c r="O249" s="3"/>
       <c r="P249" s="49"/>
     </row>
     <row r="250" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="119"/>
-      <c r="B250" s="123" t="s">
+      <c r="A250" s="102"/>
+      <c r="B250" s="107" t="s">
         <v>413</v>
       </c>
       <c r="C250" s="28" t="s">
@@ -9358,16 +9358,16 @@
       <c r="K250" s="3"/>
       <c r="L250" s="32"/>
       <c r="M250" s="32"/>
-      <c r="N250" s="131">
+      <c r="N250" s="96">
         <v>1.25</v>
       </c>
       <c r="O250" s="3"/>
       <c r="P250" s="49"/>
     </row>
     <row r="251" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="119"/>
-      <c r="B251" s="123"/>
-      <c r="C251" s="123" t="s">
+      <c r="A251" s="102"/>
+      <c r="B251" s="107"/>
+      <c r="C251" s="107" t="s">
         <v>416</v>
       </c>
       <c r="D251" s="28" t="s">
@@ -9384,14 +9384,14 @@
       <c r="K251" s="3"/>
       <c r="L251" s="30"/>
       <c r="M251" s="30"/>
-      <c r="N251" s="132"/>
+      <c r="N251" s="97"/>
       <c r="O251" s="3"/>
       <c r="P251" s="49"/>
     </row>
     <row r="252" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="119"/>
-      <c r="B252" s="123"/>
-      <c r="C252" s="123"/>
+      <c r="A252" s="102"/>
+      <c r="B252" s="107"/>
+      <c r="C252" s="107"/>
       <c r="D252" s="28" t="s">
         <v>276</v>
       </c>
@@ -9404,14 +9404,14 @@
       <c r="K252" s="3"/>
       <c r="L252" s="30"/>
       <c r="M252" s="30"/>
-      <c r="N252" s="132"/>
+      <c r="N252" s="97"/>
       <c r="O252" s="3"/>
       <c r="P252" s="49"/>
     </row>
     <row r="253" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="119"/>
-      <c r="B253" s="123"/>
-      <c r="C253" s="123"/>
+      <c r="A253" s="102"/>
+      <c r="B253" s="107"/>
+      <c r="C253" s="107"/>
       <c r="D253" s="28" t="s">
         <v>277</v>
       </c>
@@ -9424,13 +9424,13 @@
       <c r="K253" s="3"/>
       <c r="L253" s="31"/>
       <c r="M253" s="31"/>
-      <c r="N253" s="133"/>
+      <c r="N253" s="98"/>
       <c r="O253" s="3"/>
       <c r="P253" s="49"/>
     </row>
     <row r="254" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A254" s="119"/>
-      <c r="B254" s="108" t="s">
+      <c r="A254" s="102"/>
+      <c r="B254" s="104" t="s">
         <v>418</v>
       </c>
       <c r="C254" s="26" t="s">
@@ -9448,15 +9448,15 @@
       <c r="K254" s="3"/>
       <c r="L254" s="32"/>
       <c r="M254" s="32"/>
-      <c r="N254" s="131">
+      <c r="N254" s="96">
         <v>2.5</v>
       </c>
       <c r="O254" s="3"/>
       <c r="P254" s="49"/>
     </row>
     <row r="255" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="119"/>
-      <c r="B255" s="121"/>
+      <c r="A255" s="102"/>
+      <c r="B255" s="105"/>
       <c r="C255" s="26" t="s">
         <v>421</v>
       </c>
@@ -9472,13 +9472,13 @@
       <c r="K255" s="3"/>
       <c r="L255" s="30"/>
       <c r="M255" s="30"/>
-      <c r="N255" s="132"/>
+      <c r="N255" s="97"/>
       <c r="O255" s="3"/>
       <c r="P255" s="49"/>
     </row>
     <row r="256" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="119"/>
-      <c r="B256" s="121"/>
+      <c r="A256" s="102"/>
+      <c r="B256" s="105"/>
       <c r="C256" s="26" t="s">
         <v>423</v>
       </c>
@@ -9492,13 +9492,13 @@
       <c r="K256" s="3"/>
       <c r="L256" s="30"/>
       <c r="M256" s="30"/>
-      <c r="N256" s="132"/>
+      <c r="N256" s="97"/>
       <c r="O256" s="3"/>
       <c r="P256" s="49"/>
     </row>
     <row r="257" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="119"/>
-      <c r="B257" s="121"/>
+      <c r="A257" s="102"/>
+      <c r="B257" s="105"/>
       <c r="C257" s="26" t="s">
         <v>424</v>
       </c>
@@ -9512,13 +9512,13 @@
       <c r="K257" s="3"/>
       <c r="L257" s="30"/>
       <c r="M257" s="30"/>
-      <c r="N257" s="132"/>
+      <c r="N257" s="97"/>
       <c r="O257" s="3"/>
       <c r="P257" s="49"/>
     </row>
     <row r="258" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="120"/>
-      <c r="B258" s="122"/>
+      <c r="A258" s="103"/>
+      <c r="B258" s="106"/>
       <c r="C258" s="26" t="s">
         <v>425</v>
       </c>
@@ -9532,7 +9532,7 @@
       <c r="K258" s="3"/>
       <c r="L258" s="31"/>
       <c r="M258" s="31"/>
-      <c r="N258" s="133"/>
+      <c r="N258" s="98"/>
       <c r="O258" s="3"/>
       <c r="P258" s="49"/>
     </row>
@@ -9904,13 +9904,13 @@
         <f t="shared" si="2"/>
         <v>8315.5992857142846</v>
       </c>
-      <c r="K272" s="86">
+      <c r="K272" s="146">
         <f>N270*1320/7+K270*1320/7</f>
         <v>38987.142857142855</v>
       </c>
-      <c r="L272" s="87"/>
-      <c r="M272" s="87"/>
-      <c r="N272" s="88"/>
+      <c r="L272" s="147"/>
+      <c r="M272" s="147"/>
+      <c r="N272" s="148"/>
       <c r="O272" s="23">
         <f>O270*1320/7</f>
         <v>2924.0357142857142</v>
@@ -9926,80 +9926,186 @@
       <c r="E273" s="4"/>
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
-      <c r="H273" s="77">
+      <c r="H273" s="137">
         <f>SUM(H271:O272)</f>
         <v>215119.52785714282</v>
       </c>
-      <c r="I273" s="77"/>
-      <c r="J273" s="77"/>
-      <c r="K273" s="77"/>
-      <c r="L273" s="77"/>
-      <c r="M273" s="77"/>
-      <c r="N273" s="77"/>
-      <c r="O273" s="77"/>
+      <c r="I273" s="137"/>
+      <c r="J273" s="137"/>
+      <c r="K273" s="137"/>
+      <c r="L273" s="137"/>
+      <c r="M273" s="137"/>
+      <c r="N273" s="137"/>
+      <c r="O273" s="137"/>
     </row>
     <row r="274" spans="1:15" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="81" t="s">
+      <c r="A274" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B274" s="82"/>
-      <c r="C274" s="82"/>
-      <c r="D274" s="82"/>
-      <c r="E274" s="82"/>
-      <c r="F274" s="82"/>
-      <c r="G274" s="82"/>
-      <c r="H274" s="82"/>
-      <c r="I274" s="82"/>
-      <c r="J274" s="82"/>
-      <c r="K274" s="82"/>
-      <c r="L274" s="82"/>
-      <c r="M274" s="82"/>
-      <c r="N274" s="82"/>
-      <c r="O274" s="82"/>
+      <c r="B274" s="142"/>
+      <c r="C274" s="142"/>
+      <c r="D274" s="142"/>
+      <c r="E274" s="142"/>
+      <c r="F274" s="142"/>
+      <c r="G274" s="142"/>
+      <c r="H274" s="142"/>
+      <c r="I274" s="142"/>
+      <c r="J274" s="142"/>
+      <c r="K274" s="142"/>
+      <c r="L274" s="142"/>
+      <c r="M274" s="142"/>
+      <c r="N274" s="142"/>
+      <c r="O274" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="212">
-    <mergeCell ref="P228:P235"/>
-    <mergeCell ref="P19:P30"/>
-    <mergeCell ref="P31:P57"/>
-    <mergeCell ref="P58:P79"/>
-    <mergeCell ref="P80:P101"/>
-    <mergeCell ref="P102:P122"/>
-    <mergeCell ref="P130:P173"/>
-    <mergeCell ref="P123:P128"/>
-    <mergeCell ref="P174:P177"/>
-    <mergeCell ref="J194:J195"/>
-    <mergeCell ref="J196:J198"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="N213:N214"/>
-    <mergeCell ref="N178:N185"/>
-    <mergeCell ref="N186:N193"/>
-    <mergeCell ref="N194:N195"/>
-    <mergeCell ref="N196:N198"/>
-    <mergeCell ref="N200:N210"/>
-    <mergeCell ref="M200:M210"/>
-    <mergeCell ref="K178:K185"/>
-    <mergeCell ref="K186:K193"/>
-    <mergeCell ref="J178:J185"/>
-    <mergeCell ref="J186:J193"/>
-    <mergeCell ref="L215:L222"/>
-    <mergeCell ref="L223:L227"/>
-    <mergeCell ref="M215:M222"/>
-    <mergeCell ref="L123:L128"/>
-    <mergeCell ref="L236:L237"/>
-    <mergeCell ref="M228:M235"/>
-    <mergeCell ref="M236:M237"/>
-    <mergeCell ref="N228:N235"/>
-    <mergeCell ref="N236:N237"/>
-    <mergeCell ref="N215:N222"/>
-    <mergeCell ref="N223:N227"/>
-    <mergeCell ref="N130:N173"/>
-    <mergeCell ref="M178:M185"/>
-    <mergeCell ref="M186:M193"/>
-    <mergeCell ref="L178:L185"/>
-    <mergeCell ref="L186:L193"/>
-    <mergeCell ref="M123:M128"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="C58:C79"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="J58:J79"/>
+    <mergeCell ref="K19:K30"/>
+    <mergeCell ref="N19:N30"/>
+    <mergeCell ref="K31:K57"/>
+    <mergeCell ref="N31:N57"/>
+    <mergeCell ref="A274:O274"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="K272:N272"/>
+    <mergeCell ref="B5:B18"/>
+    <mergeCell ref="C5:C16"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:B101"/>
+    <mergeCell ref="C31:C57"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="B130:B177"/>
+    <mergeCell ref="C130:C173"/>
+    <mergeCell ref="D132:D164"/>
+    <mergeCell ref="B102:B122"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C80:C101"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="H273:O273"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="M80:M101"/>
+    <mergeCell ref="J80:J101"/>
+    <mergeCell ref="E161:E164"/>
+    <mergeCell ref="D165:D172"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="B178:B185"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="E142:E146"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="E156:E160"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="A211:A238"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="A200:A210"/>
+    <mergeCell ref="B200:B210"/>
+    <mergeCell ref="C200:C210"/>
+    <mergeCell ref="B186:B193"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A4:A199"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C118"/>
+    <mergeCell ref="I178:I185"/>
+    <mergeCell ref="I186:I193"/>
+    <mergeCell ref="I19:I30"/>
+    <mergeCell ref="I31:I57"/>
+    <mergeCell ref="I58:I79"/>
+    <mergeCell ref="I80:I101"/>
+    <mergeCell ref="I4:I18"/>
+    <mergeCell ref="A239:A258"/>
+    <mergeCell ref="B243:B249"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="B254:B258"/>
+    <mergeCell ref="D204:D207"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B227"/>
+    <mergeCell ref="C215:C222"/>
+    <mergeCell ref="D215:D218"/>
+    <mergeCell ref="D219:D222"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="B228:B235"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="I228:I235"/>
+    <mergeCell ref="I236:I237"/>
+    <mergeCell ref="N243:N249"/>
+    <mergeCell ref="N250:N253"/>
+    <mergeCell ref="N254:N258"/>
+    <mergeCell ref="I194:I195"/>
+    <mergeCell ref="I196:I198"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="K228:K237"/>
+    <mergeCell ref="L194:L195"/>
+    <mergeCell ref="L196:L198"/>
+    <mergeCell ref="L200:L210"/>
+    <mergeCell ref="K194:K195"/>
+    <mergeCell ref="K196:K198"/>
+    <mergeCell ref="K200:K210"/>
+    <mergeCell ref="K215:K222"/>
+    <mergeCell ref="M223:M227"/>
+    <mergeCell ref="L228:L235"/>
+    <mergeCell ref="I223:I227"/>
+    <mergeCell ref="I215:I222"/>
+    <mergeCell ref="K223:K227"/>
+    <mergeCell ref="K212:K214"/>
+    <mergeCell ref="M194:M195"/>
+    <mergeCell ref="M196:M198"/>
+    <mergeCell ref="K58:K79"/>
+    <mergeCell ref="N58:N79"/>
+    <mergeCell ref="L19:L30"/>
+    <mergeCell ref="L31:L57"/>
+    <mergeCell ref="L58:L79"/>
+    <mergeCell ref="M19:M30"/>
+    <mergeCell ref="M31:M57"/>
+    <mergeCell ref="M58:M79"/>
+    <mergeCell ref="I174:I177"/>
+    <mergeCell ref="J174:J177"/>
+    <mergeCell ref="I130:I173"/>
+    <mergeCell ref="J130:J173"/>
+    <mergeCell ref="M130:M173"/>
+    <mergeCell ref="I102:I122"/>
+    <mergeCell ref="I123:I128"/>
     <mergeCell ref="K4:K18"/>
     <mergeCell ref="L4:L18"/>
     <mergeCell ref="M4:M18"/>
@@ -10024,153 +10130,47 @@
     <mergeCell ref="J123:J128"/>
     <mergeCell ref="K130:K173"/>
     <mergeCell ref="L130:L173"/>
-    <mergeCell ref="K58:K79"/>
-    <mergeCell ref="N58:N79"/>
-    <mergeCell ref="L19:L30"/>
-    <mergeCell ref="L31:L57"/>
-    <mergeCell ref="L58:L79"/>
-    <mergeCell ref="M19:M30"/>
-    <mergeCell ref="M31:M57"/>
-    <mergeCell ref="M58:M79"/>
-    <mergeCell ref="I174:I177"/>
-    <mergeCell ref="J174:J177"/>
-    <mergeCell ref="I130:I173"/>
-    <mergeCell ref="J130:J173"/>
-    <mergeCell ref="M130:M173"/>
-    <mergeCell ref="I102:I122"/>
-    <mergeCell ref="I123:I128"/>
-    <mergeCell ref="I228:I235"/>
-    <mergeCell ref="I236:I237"/>
-    <mergeCell ref="N243:N249"/>
-    <mergeCell ref="N250:N253"/>
-    <mergeCell ref="N254:N258"/>
-    <mergeCell ref="I194:I195"/>
-    <mergeCell ref="I196:I198"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="K228:K237"/>
-    <mergeCell ref="L194:L195"/>
-    <mergeCell ref="L196:L198"/>
-    <mergeCell ref="L200:L210"/>
-    <mergeCell ref="K194:K195"/>
-    <mergeCell ref="K196:K198"/>
-    <mergeCell ref="K200:K210"/>
-    <mergeCell ref="K215:K222"/>
-    <mergeCell ref="M223:M227"/>
-    <mergeCell ref="L228:L235"/>
-    <mergeCell ref="I223:I227"/>
-    <mergeCell ref="I215:I222"/>
-    <mergeCell ref="K223:K227"/>
-    <mergeCell ref="K212:K214"/>
-    <mergeCell ref="M194:M195"/>
-    <mergeCell ref="M196:M198"/>
-    <mergeCell ref="I178:I185"/>
-    <mergeCell ref="I186:I193"/>
-    <mergeCell ref="I19:I30"/>
-    <mergeCell ref="I31:I57"/>
-    <mergeCell ref="I58:I79"/>
-    <mergeCell ref="I80:I101"/>
-    <mergeCell ref="I4:I18"/>
-    <mergeCell ref="A239:A258"/>
-    <mergeCell ref="B243:B249"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="B254:B258"/>
-    <mergeCell ref="D204:D207"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B227"/>
-    <mergeCell ref="C215:C222"/>
-    <mergeCell ref="D215:D218"/>
-    <mergeCell ref="D219:D222"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="C225:C227"/>
-    <mergeCell ref="B228:B235"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="A211:A238"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="A200:A210"/>
-    <mergeCell ref="B200:B210"/>
-    <mergeCell ref="C200:C210"/>
-    <mergeCell ref="B186:B193"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A4:A199"/>
-    <mergeCell ref="E161:E164"/>
-    <mergeCell ref="D165:D172"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="B178:B185"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="E142:E146"/>
-    <mergeCell ref="E147:E151"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="E156:E160"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C118"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C80:C101"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="H273:O273"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="A274:O274"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="K272:N272"/>
-    <mergeCell ref="B5:B18"/>
-    <mergeCell ref="C5:C16"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:B101"/>
-    <mergeCell ref="C31:C57"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="B130:B177"/>
-    <mergeCell ref="C130:C173"/>
-    <mergeCell ref="D132:D164"/>
-    <mergeCell ref="B102:B122"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="C58:C79"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="M80:M101"/>
-    <mergeCell ref="J58:J79"/>
-    <mergeCell ref="J80:J101"/>
-    <mergeCell ref="K19:K30"/>
-    <mergeCell ref="N19:N30"/>
-    <mergeCell ref="K31:K57"/>
-    <mergeCell ref="N31:N57"/>
+    <mergeCell ref="L215:L222"/>
+    <mergeCell ref="L223:L227"/>
+    <mergeCell ref="M215:M222"/>
+    <mergeCell ref="L123:L128"/>
+    <mergeCell ref="L236:L237"/>
+    <mergeCell ref="M228:M235"/>
+    <mergeCell ref="M236:M237"/>
+    <mergeCell ref="N228:N235"/>
+    <mergeCell ref="N236:N237"/>
+    <mergeCell ref="N215:N222"/>
+    <mergeCell ref="N223:N227"/>
+    <mergeCell ref="N130:N173"/>
+    <mergeCell ref="M178:M185"/>
+    <mergeCell ref="M186:M193"/>
+    <mergeCell ref="L178:L185"/>
+    <mergeCell ref="L186:L193"/>
+    <mergeCell ref="M123:M128"/>
+    <mergeCell ref="J194:J195"/>
+    <mergeCell ref="J196:J198"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="N213:N214"/>
+    <mergeCell ref="N178:N185"/>
+    <mergeCell ref="N186:N193"/>
+    <mergeCell ref="N194:N195"/>
+    <mergeCell ref="N196:N198"/>
+    <mergeCell ref="N200:N210"/>
+    <mergeCell ref="M200:M210"/>
+    <mergeCell ref="K178:K185"/>
+    <mergeCell ref="K186:K193"/>
+    <mergeCell ref="J178:J185"/>
+    <mergeCell ref="J186:J193"/>
+    <mergeCell ref="P228:P235"/>
+    <mergeCell ref="P19:P30"/>
+    <mergeCell ref="P31:P57"/>
+    <mergeCell ref="P58:P79"/>
+    <mergeCell ref="P80:P101"/>
+    <mergeCell ref="P102:P122"/>
+    <mergeCell ref="P130:P173"/>
+    <mergeCell ref="P123:P128"/>
+    <mergeCell ref="P174:P177"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/输入文档/11.16程序员客栈项目开发报价单（因卓二期-整包）(移除APP端项目经理修改版).xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/输入文档/11.16程序员客栈项目开发报价单（因卓二期-整包）(移除APP端项目经理修改版).xlsx
@@ -2204,6 +2204,222 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2236,222 +2452,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3650,7 +3650,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K271" sqref="K271"/>
+      <selection pane="bottomLeft" activeCell="K272" sqref="K272:N272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -3674,44 +3674,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
     </row>
     <row r="2" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="138" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="140"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="97"/>
     </row>
     <row r="3" spans="1:16" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3761,7 +3761,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="113" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -3775,30 +3775,30 @@
       </c>
       <c r="G4" s="45"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93">
+      <c r="I4" s="74"/>
+      <c r="J4" s="74">
         <v>3</v>
       </c>
-      <c r="K4" s="93">
+      <c r="K4" s="74">
         <v>3</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93">
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74">
         <v>6</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="51"/>
     </row>
     <row r="5" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="136" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="85" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="45" t="s">
@@ -3809,19 +3809,19 @@
       </c>
       <c r="G5" s="45"/>
       <c r="H5" s="42"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
       <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="45" t="s">
         <v>34</v>
       </c>
@@ -3830,19 +3830,19 @@
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
       <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="45" t="s">
         <v>36</v>
       </c>
@@ -3851,19 +3851,19 @@
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
       <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="150"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="45" t="s">
         <v>38</v>
       </c>
@@ -3872,19 +3872,19 @@
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
       <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="45" t="s">
         <v>40</v>
       </c>
@@ -3893,19 +3893,19 @@
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
       <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="45" t="s">
         <v>42</v>
       </c>
@@ -3914,38 +3914,38 @@
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
       <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="45" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
       <c r="O11" s="42"/>
     </row>
     <row r="12" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="45" t="s">
         <v>45</v>
       </c>
@@ -3954,18 +3954,18 @@
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
       <c r="O12" s="42"/>
     </row>
     <row r="13" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="149"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="45" t="s">
         <v>47</v>
       </c>
@@ -3975,18 +3975,18 @@
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
       <c r="O13" s="42"/>
     </row>
     <row r="14" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="149"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="45" t="s">
         <v>49</v>
       </c>
@@ -3996,18 +3996,18 @@
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
       <c r="O14" s="42"/>
     </row>
     <row r="15" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="149"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="45" t="s">
         <v>51</v>
       </c>
@@ -4017,18 +4017,18 @@
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="149"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="25" t="s">
         <v>53</v>
       </c>
@@ -4038,18 +4038,18 @@
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
       <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
-      <c r="B17" s="136"/>
-      <c r="C17" s="149" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="45" t="s">
@@ -4061,18 +4061,18 @@
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
       <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="121"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="150"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="45" t="s">
         <v>58</v>
       </c>
@@ -4082,23 +4082,23 @@
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
       <c r="O18" s="42"/>
     </row>
     <row r="19" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
-      <c r="B19" s="128" t="s">
+      <c r="A19" s="106"/>
+      <c r="B19" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="88" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="47" t="s">
@@ -4109,26 +4109,26 @@
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93">
+      <c r="I19" s="74"/>
+      <c r="J19" s="74">
         <v>1</v>
       </c>
-      <c r="K19" s="93">
+      <c r="K19" s="74">
         <v>2</v>
       </c>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93">
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74">
         <v>2</v>
       </c>
       <c r="O19" s="42"/>
-      <c r="P19" s="73"/>
+      <c r="P19" s="145"/>
     </row>
     <row r="20" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A20" s="121"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="129"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="47" t="s">
         <v>65</v>
       </c>
@@ -4137,19 +4137,19 @@
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
       <c r="O20" s="42"/>
-      <c r="P20" s="74"/>
+      <c r="P20" s="146"/>
     </row>
     <row r="21" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="151"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="44" t="s">
         <v>432</v>
       </c>
@@ -4159,19 +4159,19 @@
       </c>
       <c r="G21" s="47"/>
       <c r="H21" s="43"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
       <c r="O21" s="43"/>
-      <c r="P21" s="74"/>
+      <c r="P21" s="146"/>
     </row>
     <row r="22" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="121"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="151"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="44" t="s">
         <v>434</v>
       </c>
@@ -4181,19 +4181,19 @@
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
       <c r="O22" s="43"/>
-      <c r="P22" s="74"/>
+      <c r="P22" s="146"/>
     </row>
     <row r="23" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="121"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="33" t="s">
         <v>67</v>
       </c>
@@ -4201,18 +4201,18 @@
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
       <c r="O23" s="42"/>
-      <c r="P23" s="74"/>
+      <c r="P23" s="146"/>
     </row>
     <row r="24" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="47" t="s">
         <v>68</v>
       </c>
@@ -4225,22 +4225,22 @@
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
       <c r="O24" s="42"/>
-      <c r="P24" s="74"/>
+      <c r="P24" s="146"/>
     </row>
     <row r="25" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A25" s="121"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="136" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="88" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="47" t="s">
@@ -4251,20 +4251,20 @@
       </c>
       <c r="G25" s="47"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
       <c r="O25" s="42"/>
-      <c r="P25" s="74"/>
+      <c r="P25" s="146"/>
     </row>
     <row r="26" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="121"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="128"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="47" t="s">
         <v>75</v>
       </c>
@@ -4273,20 +4273,20 @@
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
       <c r="O26" s="42"/>
-      <c r="P26" s="74"/>
+      <c r="P26" s="146"/>
     </row>
     <row r="27" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="121"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="128"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="47" t="s">
         <v>77</v>
       </c>
@@ -4295,20 +4295,20 @@
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
       <c r="O27" s="42"/>
-      <c r="P27" s="74"/>
+      <c r="P27" s="146"/>
     </row>
     <row r="28" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A28" s="121"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="129"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="47" t="s">
         <v>79</v>
       </c>
@@ -4317,19 +4317,19 @@
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
       <c r="O28" s="42"/>
-      <c r="P28" s="74"/>
+      <c r="P28" s="146"/>
     </row>
     <row r="29" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="136" t="s">
+      <c r="A29" s="106"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="73" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="47" t="s">
@@ -4341,19 +4341,19 @@
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
       <c r="O29" s="42"/>
-      <c r="P29" s="74"/>
+      <c r="P29" s="146"/>
     </row>
     <row r="30" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="136"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="47" t="s">
         <v>67</v>
       </c>
@@ -4363,24 +4363,24 @@
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
       <c r="O30" s="42"/>
-      <c r="P30" s="74"/>
+      <c r="P30" s="146"/>
     </row>
     <row r="31" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="136" t="s">
+      <c r="A31" s="106"/>
+      <c r="B31" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="136" t="s">
+      <c r="C31" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="135" t="s">
+      <c r="D31" s="88" t="s">
         <v>86</v>
       </c>
       <c r="E31" s="47" t="s">
@@ -4391,26 +4391,26 @@
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93">
+      <c r="I31" s="74"/>
+      <c r="J31" s="74">
         <v>6</v>
       </c>
-      <c r="K31" s="93">
+      <c r="K31" s="74">
         <v>10</v>
       </c>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93">
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74">
         <v>12</v>
       </c>
       <c r="O31" s="42"/>
-      <c r="P31" s="75"/>
+      <c r="P31" s="147"/>
     </row>
     <row r="32" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="129"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="47" t="s">
         <v>89</v>
       </c>
@@ -4419,20 +4419,20 @@
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
       <c r="O32" s="42"/>
-      <c r="P32" s="76"/>
+      <c r="P32" s="148"/>
     </row>
     <row r="33" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136" t="s">
+      <c r="A33" s="106"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="47" t="s">
@@ -4443,20 +4443,20 @@
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
       <c r="O33" s="42"/>
-      <c r="P33" s="76"/>
+      <c r="P33" s="148"/>
     </row>
     <row r="34" spans="1:16" s="46" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="47" t="s">
         <v>94</v>
       </c>
@@ -4467,20 +4467,20 @@
         <v>96</v>
       </c>
       <c r="H34" s="42"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
       <c r="O34" s="42"/>
-      <c r="P34" s="76"/>
+      <c r="P34" s="148"/>
     </row>
     <row r="35" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="47" t="s">
         <v>97</v>
       </c>
@@ -4489,20 +4489,20 @@
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
       <c r="O35" s="42"/>
-      <c r="P35" s="76"/>
+      <c r="P35" s="148"/>
     </row>
     <row r="36" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136" t="s">
+      <c r="A36" s="106"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="47" t="s">
@@ -4513,20 +4513,20 @@
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
       <c r="O36" s="42"/>
-      <c r="P36" s="76"/>
+      <c r="P36" s="148"/>
     </row>
     <row r="37" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="47" t="s">
         <v>94</v>
       </c>
@@ -4535,20 +4535,20 @@
       </c>
       <c r="G37" s="47"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
       <c r="O37" s="42"/>
-      <c r="P37" s="76"/>
+      <c r="P37" s="148"/>
     </row>
     <row r="38" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="47" t="s">
         <v>97</v>
       </c>
@@ -4557,19 +4557,19 @@
       </c>
       <c r="G38" s="47"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
       <c r="O38" s="42"/>
-      <c r="P38" s="76"/>
+      <c r="P38" s="148"/>
     </row>
     <row r="39" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
+      <c r="A39" s="106"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="47" t="s">
         <v>100</v>
       </c>
@@ -4579,19 +4579,19 @@
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
       <c r="O39" s="42"/>
-      <c r="P39" s="76"/>
+      <c r="P39" s="148"/>
     </row>
     <row r="40" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="47" t="s">
         <v>102</v>
       </c>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
       <c r="O40" s="42"/>
-      <c r="P40" s="76"/>
+      <c r="P40" s="148"/>
     </row>
     <row r="41" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136" t="s">
+      <c r="A41" s="106"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73" t="s">
         <v>104</v>
       </c>
       <c r="E41" s="47" t="s">
@@ -4625,20 +4625,20 @@
       </c>
       <c r="G41" s="47"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
       <c r="O41" s="42"/>
-      <c r="P41" s="76"/>
+      <c r="P41" s="148"/>
     </row>
     <row r="42" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="121"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="47" t="s">
         <v>107</v>
       </c>
@@ -4647,20 +4647,20 @@
       </c>
       <c r="G42" s="47"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
       <c r="O42" s="42"/>
-      <c r="P42" s="76"/>
+      <c r="P42" s="148"/>
     </row>
     <row r="43" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="121"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136" t="s">
+      <c r="A43" s="106"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73" t="s">
         <v>109</v>
       </c>
       <c r="E43" s="47" t="s">
@@ -4671,20 +4671,20 @@
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
       <c r="O43" s="42"/>
-      <c r="P43" s="76"/>
+      <c r="P43" s="148"/>
     </row>
     <row r="44" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
+      <c r="A44" s="106"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="47" t="s">
         <v>112</v>
       </c>
@@ -4693,40 +4693,40 @@
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
       <c r="O44" s="42"/>
-      <c r="P44" s="76"/>
+      <c r="P44" s="148"/>
     </row>
     <row r="45" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A45" s="121"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
+      <c r="A45" s="106"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
       <c r="E45" s="47" t="s">
         <v>114</v>
       </c>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
       <c r="O45" s="42"/>
-      <c r="P45" s="76"/>
+      <c r="P45" s="148"/>
     </row>
     <row r="46" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A46" s="121"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
       <c r="E46" s="47" t="s">
         <v>115</v>
       </c>
@@ -4735,20 +4735,20 @@
       </c>
       <c r="G46" s="47"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="75"/>
       <c r="O46" s="42"/>
-      <c r="P46" s="76"/>
+      <c r="P46" s="148"/>
     </row>
     <row r="47" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
+      <c r="A47" s="106"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
       <c r="E47" s="47" t="s">
         <v>117</v>
       </c>
@@ -4757,20 +4757,20 @@
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="42"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
       <c r="O47" s="42"/>
-      <c r="P47" s="76"/>
+      <c r="P47" s="148"/>
     </row>
     <row r="48" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="121"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
+      <c r="A48" s="106"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
       <c r="E48" s="47" t="s">
         <v>119</v>
       </c>
@@ -4779,20 +4779,20 @@
       </c>
       <c r="G48" s="47"/>
       <c r="H48" s="42"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
       <c r="O48" s="42"/>
-      <c r="P48" s="76"/>
+      <c r="P48" s="148"/>
     </row>
     <row r="49" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A49" s="121"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136" t="s">
+      <c r="A49" s="106"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73" t="s">
         <v>121</v>
       </c>
       <c r="E49" s="47" t="s">
@@ -4801,60 +4801,60 @@
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
       <c r="H49" s="42"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="75"/>
       <c r="O49" s="42"/>
-      <c r="P49" s="76"/>
+      <c r="P49" s="148"/>
     </row>
     <row r="50" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A50" s="121"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
+      <c r="A50" s="106"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="47" t="s">
         <v>123</v>
       </c>
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
       <c r="H50" s="42"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
       <c r="O50" s="42"/>
-      <c r="P50" s="76"/>
+      <c r="P50" s="148"/>
     </row>
     <row r="51" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="121"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
+      <c r="A51" s="106"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
       <c r="E51" s="47" t="s">
         <v>124</v>
       </c>
       <c r="F51" s="47"/>
       <c r="G51" s="47"/>
       <c r="H51" s="42"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
       <c r="O51" s="42"/>
-      <c r="P51" s="76"/>
+      <c r="P51" s="148"/>
     </row>
     <row r="52" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136" t="s">
+      <c r="A52" s="106"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73" t="s">
         <v>125</v>
       </c>
       <c r="E52" s="47" t="s">
@@ -4865,20 +4865,20 @@
       </c>
       <c r="G52" s="47"/>
       <c r="H52" s="42"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="75"/>
       <c r="O52" s="42"/>
-      <c r="P52" s="76"/>
+      <c r="P52" s="148"/>
     </row>
     <row r="53" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A53" s="121"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
+      <c r="A53" s="106"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
       <c r="E53" s="47" t="s">
         <v>128</v>
       </c>
@@ -4887,20 +4887,20 @@
       </c>
       <c r="G53" s="47"/>
       <c r="H53" s="42"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
       <c r="O53" s="42"/>
-      <c r="P53" s="76"/>
+      <c r="P53" s="148"/>
     </row>
     <row r="54" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="121"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136" t="s">
+      <c r="A54" s="106"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73" t="s">
         <v>130</v>
       </c>
       <c r="E54" s="47" t="s">
@@ -4909,60 +4909,60 @@
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
       <c r="O54" s="42"/>
-      <c r="P54" s="76"/>
+      <c r="P54" s="148"/>
     </row>
     <row r="55" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
+      <c r="A55" s="106"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
       <c r="E55" s="47" t="s">
         <v>132</v>
       </c>
       <c r="F55" s="47"/>
       <c r="G55" s="47"/>
       <c r="H55" s="42"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="75"/>
       <c r="O55" s="42"/>
-      <c r="P55" s="76"/>
+      <c r="P55" s="148"/>
     </row>
     <row r="56" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="121"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
+      <c r="A56" s="106"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
       <c r="E56" s="47" t="s">
         <v>133</v>
       </c>
       <c r="F56" s="47"/>
       <c r="G56" s="47"/>
       <c r="H56" s="42"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
       <c r="O56" s="42"/>
-      <c r="P56" s="76"/>
+      <c r="P56" s="148"/>
     </row>
     <row r="57" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="121"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
+      <c r="A57" s="106"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
       <c r="E57" s="47" t="s">
         <v>134</v>
       </c>
@@ -4971,19 +4971,19 @@
       </c>
       <c r="G57" s="47"/>
       <c r="H57" s="42"/>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="95"/>
-      <c r="N57" s="95"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
       <c r="O57" s="42"/>
-      <c r="P57" s="76"/>
+      <c r="P57" s="148"/>
     </row>
     <row r="58" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136" t="s">
+      <c r="A58" s="106"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73" t="s">
         <v>136</v>
       </c>
       <c r="D58" s="47" t="s">
@@ -4995,26 +4995,26 @@
       </c>
       <c r="G58" s="47"/>
       <c r="H58" s="42"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="93">
+      <c r="I58" s="74"/>
+      <c r="J58" s="74">
         <v>3</v>
       </c>
-      <c r="K58" s="93">
+      <c r="K58" s="74">
         <v>5</v>
       </c>
-      <c r="L58" s="93"/>
-      <c r="M58" s="93"/>
-      <c r="N58" s="93">
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74">
         <v>6</v>
       </c>
       <c r="O58" s="42"/>
-      <c r="P58" s="75"/>
+      <c r="P58" s="147"/>
     </row>
     <row r="59" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A59" s="121"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136" t="s">
+      <c r="A59" s="106"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73" t="s">
         <v>138</v>
       </c>
       <c r="E59" s="47" t="s">
@@ -5025,20 +5025,20 @@
       </c>
       <c r="G59" s="47"/>
       <c r="H59" s="42"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="94"/>
-      <c r="N59" s="94"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="75"/>
+      <c r="N59" s="75"/>
       <c r="O59" s="42"/>
-      <c r="P59" s="76"/>
+      <c r="P59" s="148"/>
     </row>
     <row r="60" spans="1:16" s="46" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="121"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
+      <c r="A60" s="106"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
       <c r="E60" s="47" t="s">
         <v>94</v>
       </c>
@@ -5049,20 +5049,20 @@
         <v>141</v>
       </c>
       <c r="H60" s="42"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="94"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="94"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="75"/>
       <c r="O60" s="42"/>
-      <c r="P60" s="76"/>
+      <c r="P60" s="148"/>
     </row>
     <row r="61" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="121"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="47" t="s">
         <v>142</v>
       </c>
@@ -5071,20 +5071,20 @@
       </c>
       <c r="G61" s="47"/>
       <c r="H61" s="42"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="94"/>
-      <c r="N61" s="94"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
       <c r="O61" s="42"/>
-      <c r="P61" s="76"/>
+      <c r="P61" s="148"/>
     </row>
     <row r="62" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A62" s="121"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136" t="s">
+      <c r="A62" s="106"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73" t="s">
         <v>143</v>
       </c>
       <c r="E62" s="47" t="s">
@@ -5095,20 +5095,20 @@
       </c>
       <c r="G62" s="47"/>
       <c r="H62" s="42"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="94"/>
-      <c r="M62" s="94"/>
-      <c r="N62" s="94"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
       <c r="O62" s="42"/>
-      <c r="P62" s="76"/>
+      <c r="P62" s="148"/>
     </row>
     <row r="63" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A63" s="121"/>
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
+      <c r="A63" s="106"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
       <c r="E63" s="47" t="s">
         <v>94</v>
       </c>
@@ -5117,20 +5117,20 @@
       </c>
       <c r="G63" s="47"/>
       <c r="H63" s="42"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="94"/>
-      <c r="K63" s="94"/>
-      <c r="L63" s="94"/>
-      <c r="M63" s="94"/>
-      <c r="N63" s="94"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
       <c r="O63" s="42"/>
-      <c r="P63" s="76"/>
+      <c r="P63" s="148"/>
     </row>
     <row r="64" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="121"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
+      <c r="A64" s="106"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
       <c r="E64" s="47" t="s">
         <v>142</v>
       </c>
@@ -5139,19 +5139,19 @@
       </c>
       <c r="G64" s="47"/>
       <c r="H64" s="42"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="94"/>
-      <c r="K64" s="94"/>
-      <c r="L64" s="94"/>
-      <c r="M64" s="94"/>
-      <c r="N64" s="94"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
       <c r="O64" s="42"/>
-      <c r="P64" s="76"/>
+      <c r="P64" s="148"/>
     </row>
     <row r="65" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="121"/>
-      <c r="B65" s="136"/>
-      <c r="C65" s="136"/>
+      <c r="A65" s="106"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
       <c r="D65" s="47" t="s">
         <v>144</v>
       </c>
@@ -5161,19 +5161,19 @@
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="42"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="94"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="94"/>
-      <c r="M65" s="94"/>
-      <c r="N65" s="94"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="75"/>
       <c r="O65" s="42"/>
-      <c r="P65" s="76"/>
+      <c r="P65" s="148"/>
     </row>
     <row r="66" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="121"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="136"/>
+      <c r="A66" s="106"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="47" t="s">
         <v>102</v>
       </c>
@@ -5183,20 +5183,20 @@
       </c>
       <c r="G66" s="47"/>
       <c r="H66" s="42"/>
-      <c r="I66" s="94"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="94"/>
-      <c r="M66" s="94"/>
-      <c r="N66" s="94"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="75"/>
       <c r="O66" s="42"/>
-      <c r="P66" s="76"/>
+      <c r="P66" s="148"/>
     </row>
     <row r="67" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A67" s="121"/>
-      <c r="B67" s="136"/>
-      <c r="C67" s="136"/>
-      <c r="D67" s="136" t="s">
+      <c r="A67" s="106"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="47" t="s">
@@ -5207,20 +5207,20 @@
       </c>
       <c r="G67" s="47"/>
       <c r="H67" s="42"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="94"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
       <c r="O67" s="42"/>
-      <c r="P67" s="76"/>
+      <c r="P67" s="148"/>
     </row>
     <row r="68" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="121"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
+      <c r="A68" s="106"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
       <c r="E68" s="47" t="s">
         <v>107</v>
       </c>
@@ -5229,20 +5229,20 @@
       </c>
       <c r="G68" s="47"/>
       <c r="H68" s="42"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="94"/>
-      <c r="L68" s="94"/>
-      <c r="M68" s="94"/>
-      <c r="N68" s="94"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
       <c r="O68" s="42"/>
-      <c r="P68" s="76"/>
+      <c r="P68" s="148"/>
     </row>
     <row r="69" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A69" s="121"/>
-      <c r="B69" s="136"/>
-      <c r="C69" s="136"/>
-      <c r="D69" s="136" t="s">
+      <c r="A69" s="106"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73" t="s">
         <v>109</v>
       </c>
       <c r="E69" s="47" t="s">
@@ -5253,20 +5253,20 @@
       </c>
       <c r="G69" s="47"/>
       <c r="H69" s="42"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="94"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="94"/>
-      <c r="M69" s="94"/>
-      <c r="N69" s="94"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
       <c r="O69" s="42"/>
-      <c r="P69" s="76"/>
+      <c r="P69" s="148"/>
     </row>
     <row r="70" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="121"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="136"/>
-      <c r="D70" s="136"/>
+      <c r="A70" s="106"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
       <c r="E70" s="47" t="s">
         <v>112</v>
       </c>
@@ -5275,40 +5275,40 @@
       </c>
       <c r="G70" s="47"/>
       <c r="H70" s="42"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="94"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="94"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="94"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="75"/>
       <c r="O70" s="42"/>
-      <c r="P70" s="76"/>
+      <c r="P70" s="148"/>
     </row>
     <row r="71" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A71" s="121"/>
-      <c r="B71" s="136"/>
-      <c r="C71" s="136"/>
-      <c r="D71" s="136"/>
+      <c r="A71" s="106"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
       <c r="E71" s="47" t="s">
         <v>114</v>
       </c>
       <c r="F71" s="47"/>
       <c r="G71" s="47"/>
       <c r="H71" s="42"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="94"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="75"/>
       <c r="O71" s="42"/>
-      <c r="P71" s="76"/>
+      <c r="P71" s="148"/>
     </row>
     <row r="72" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A72" s="121"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="136"/>
-      <c r="D72" s="136"/>
+      <c r="A72" s="106"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
       <c r="E72" s="47" t="s">
         <v>115</v>
       </c>
@@ -5317,20 +5317,20 @@
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="42"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="75"/>
+      <c r="N72" s="75"/>
       <c r="O72" s="42"/>
-      <c r="P72" s="76"/>
+      <c r="P72" s="148"/>
     </row>
     <row r="73" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="121"/>
-      <c r="B73" s="136"/>
-      <c r="C73" s="136"/>
-      <c r="D73" s="136"/>
+      <c r="A73" s="106"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
       <c r="E73" s="47" t="s">
         <v>149</v>
       </c>
@@ -5339,20 +5339,20 @@
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="42"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="94"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
       <c r="O73" s="42"/>
-      <c r="P73" s="76"/>
+      <c r="P73" s="148"/>
     </row>
     <row r="74" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="121"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="136"/>
-      <c r="D74" s="136"/>
+      <c r="A74" s="106"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
       <c r="E74" s="47" t="s">
         <v>119</v>
       </c>
@@ -5361,20 +5361,20 @@
       </c>
       <c r="G74" s="47"/>
       <c r="H74" s="42"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="94"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="94"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="94"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="75"/>
+      <c r="K74" s="75"/>
+      <c r="L74" s="75"/>
+      <c r="M74" s="75"/>
+      <c r="N74" s="75"/>
       <c r="O74" s="42"/>
-      <c r="P74" s="76"/>
+      <c r="P74" s="148"/>
     </row>
     <row r="75" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A75" s="121"/>
-      <c r="B75" s="136"/>
-      <c r="C75" s="136"/>
-      <c r="D75" s="136" t="s">
+      <c r="A75" s="106"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73" t="s">
         <v>121</v>
       </c>
       <c r="E75" s="47" t="s">
@@ -5383,60 +5383,60 @@
       <c r="F75" s="47"/>
       <c r="G75" s="47"/>
       <c r="H75" s="42"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="94"/>
-      <c r="M75" s="94"/>
-      <c r="N75" s="94"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="75"/>
       <c r="O75" s="42"/>
-      <c r="P75" s="76"/>
+      <c r="P75" s="148"/>
     </row>
     <row r="76" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A76" s="121"/>
-      <c r="B76" s="136"/>
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
+      <c r="A76" s="106"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="73"/>
       <c r="E76" s="47" t="s">
         <v>123</v>
       </c>
       <c r="F76" s="47"/>
       <c r="G76" s="47"/>
       <c r="H76" s="42"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="94"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="94"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="75"/>
       <c r="O76" s="42"/>
-      <c r="P76" s="76"/>
+      <c r="P76" s="148"/>
     </row>
     <row r="77" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="121"/>
-      <c r="B77" s="136"/>
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
+      <c r="A77" s="106"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
       <c r="E77" s="47" t="s">
         <v>124</v>
       </c>
       <c r="F77" s="47"/>
       <c r="G77" s="47"/>
       <c r="H77" s="42"/>
-      <c r="I77" s="94"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="94"/>
-      <c r="L77" s="94"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="75"/>
       <c r="O77" s="42"/>
-      <c r="P77" s="76"/>
+      <c r="P77" s="148"/>
     </row>
     <row r="78" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="121"/>
-      <c r="B78" s="136"/>
-      <c r="C78" s="136"/>
-      <c r="D78" s="136" t="s">
+      <c r="A78" s="106"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73" t="s">
         <v>125</v>
       </c>
       <c r="E78" s="47" t="s">
@@ -5447,20 +5447,20 @@
       </c>
       <c r="G78" s="47"/>
       <c r="H78" s="42"/>
-      <c r="I78" s="94"/>
-      <c r="J78" s="94"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="94"/>
-      <c r="M78" s="94"/>
-      <c r="N78" s="94"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="75"/>
       <c r="O78" s="42"/>
-      <c r="P78" s="76"/>
+      <c r="P78" s="148"/>
     </row>
     <row r="79" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A79" s="121"/>
-      <c r="B79" s="136"/>
-      <c r="C79" s="136"/>
-      <c r="D79" s="136"/>
+      <c r="A79" s="106"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="73"/>
       <c r="E79" s="47" t="s">
         <v>128</v>
       </c>
@@ -5469,19 +5469,19 @@
       </c>
       <c r="G79" s="47"/>
       <c r="H79" s="42"/>
-      <c r="I79" s="95"/>
-      <c r="J79" s="95"/>
-      <c r="K79" s="95"/>
-      <c r="L79" s="95"/>
-      <c r="M79" s="95"/>
-      <c r="N79" s="95"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="76"/>
+      <c r="M79" s="76"/>
+      <c r="N79" s="76"/>
       <c r="O79" s="42"/>
-      <c r="P79" s="76"/>
+      <c r="P79" s="148"/>
     </row>
     <row r="80" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A80" s="121"/>
-      <c r="B80" s="136"/>
-      <c r="C80" s="136" t="s">
+      <c r="A80" s="106"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73" t="s">
         <v>150</v>
       </c>
       <c r="D80" s="47" t="s">
@@ -5493,26 +5493,26 @@
       </c>
       <c r="G80" s="47"/>
       <c r="H80" s="42"/>
-      <c r="I80" s="93"/>
-      <c r="J80" s="93">
+      <c r="I80" s="74"/>
+      <c r="J80" s="74">
         <v>3</v>
       </c>
-      <c r="K80" s="93">
+      <c r="K80" s="74">
         <v>5</v>
       </c>
-      <c r="L80" s="93"/>
-      <c r="M80" s="93"/>
-      <c r="N80" s="93">
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="74">
         <v>6</v>
       </c>
       <c r="O80" s="42"/>
-      <c r="P80" s="77"/>
+      <c r="P80" s="149"/>
     </row>
     <row r="81" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A81" s="121"/>
-      <c r="B81" s="136"/>
-      <c r="C81" s="136"/>
-      <c r="D81" s="136" t="s">
+      <c r="A81" s="106"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73" t="s">
         <v>151</v>
       </c>
       <c r="E81" s="47" t="s">
@@ -5523,20 +5523,20 @@
       </c>
       <c r="G81" s="47"/>
       <c r="H81" s="42"/>
-      <c r="I81" s="94"/>
-      <c r="J81" s="94"/>
-      <c r="K81" s="94"/>
-      <c r="L81" s="94"/>
-      <c r="M81" s="94"/>
-      <c r="N81" s="94"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="75"/>
+      <c r="L81" s="75"/>
+      <c r="M81" s="75"/>
+      <c r="N81" s="75"/>
       <c r="O81" s="42"/>
-      <c r="P81" s="78"/>
+      <c r="P81" s="150"/>
     </row>
     <row r="82" spans="1:16" s="46" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="121"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
+      <c r="A82" s="106"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
       <c r="E82" s="47" t="s">
         <v>94</v>
       </c>
@@ -5547,20 +5547,20 @@
         <v>141</v>
       </c>
       <c r="H82" s="42"/>
-      <c r="I82" s="94"/>
-      <c r="J82" s="94"/>
-      <c r="K82" s="94"/>
-      <c r="L82" s="94"/>
-      <c r="M82" s="94"/>
-      <c r="N82" s="94"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
+      <c r="K82" s="75"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="75"/>
+      <c r="N82" s="75"/>
       <c r="O82" s="42"/>
-      <c r="P82" s="78"/>
+      <c r="P82" s="150"/>
     </row>
     <row r="83" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="121"/>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
+      <c r="A83" s="106"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
       <c r="E83" s="47" t="s">
         <v>142</v>
       </c>
@@ -5569,20 +5569,20 @@
       </c>
       <c r="G83" s="47"/>
       <c r="H83" s="42"/>
-      <c r="I83" s="94"/>
-      <c r="J83" s="94"/>
-      <c r="K83" s="94"/>
-      <c r="L83" s="94"/>
-      <c r="M83" s="94"/>
-      <c r="N83" s="94"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="75"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="75"/>
+      <c r="N83" s="75"/>
       <c r="O83" s="42"/>
-      <c r="P83" s="78"/>
+      <c r="P83" s="150"/>
     </row>
     <row r="84" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A84" s="121"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136" t="s">
+      <c r="A84" s="106"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73" t="s">
         <v>152</v>
       </c>
       <c r="E84" s="47" t="s">
@@ -5593,20 +5593,20 @@
       </c>
       <c r="G84" s="47"/>
       <c r="H84" s="42"/>
-      <c r="I84" s="94"/>
-      <c r="J84" s="94"/>
-      <c r="K84" s="94"/>
-      <c r="L84" s="94"/>
-      <c r="M84" s="94"/>
-      <c r="N84" s="94"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
       <c r="O84" s="42"/>
-      <c r="P84" s="78"/>
+      <c r="P84" s="150"/>
     </row>
     <row r="85" spans="1:16" s="46" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A85" s="121"/>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
+      <c r="A85" s="106"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
       <c r="E85" s="47" t="s">
         <v>94</v>
       </c>
@@ -5615,20 +5615,20 @@
       </c>
       <c r="G85" s="47"/>
       <c r="H85" s="42"/>
-      <c r="I85" s="94"/>
-      <c r="J85" s="94"/>
-      <c r="K85" s="94"/>
-      <c r="L85" s="94"/>
-      <c r="M85" s="94"/>
-      <c r="N85" s="94"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
       <c r="O85" s="42"/>
-      <c r="P85" s="78"/>
+      <c r="P85" s="150"/>
     </row>
     <row r="86" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="121"/>
-      <c r="B86" s="136"/>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
+      <c r="A86" s="106"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
       <c r="E86" s="47" t="s">
         <v>142</v>
       </c>
@@ -5637,19 +5637,19 @@
       </c>
       <c r="G86" s="47"/>
       <c r="H86" s="42"/>
-      <c r="I86" s="94"/>
-      <c r="J86" s="94"/>
-      <c r="K86" s="94"/>
-      <c r="L86" s="94"/>
-      <c r="M86" s="94"/>
-      <c r="N86" s="94"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="75"/>
       <c r="O86" s="42"/>
-      <c r="P86" s="78"/>
+      <c r="P86" s="150"/>
     </row>
     <row r="87" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="121"/>
-      <c r="B87" s="136"/>
-      <c r="C87" s="136"/>
+      <c r="A87" s="106"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
       <c r="D87" s="47" t="s">
         <v>153</v>
       </c>
@@ -5659,19 +5659,19 @@
       </c>
       <c r="G87" s="47"/>
       <c r="H87" s="42"/>
-      <c r="I87" s="94"/>
-      <c r="J87" s="94"/>
-      <c r="K87" s="94"/>
-      <c r="L87" s="94"/>
-      <c r="M87" s="94"/>
-      <c r="N87" s="94"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="75"/>
+      <c r="N87" s="75"/>
       <c r="O87" s="42"/>
-      <c r="P87" s="78"/>
+      <c r="P87" s="150"/>
     </row>
     <row r="88" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="121"/>
-      <c r="B88" s="136"/>
-      <c r="C88" s="136"/>
+      <c r="A88" s="106"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="73"/>
       <c r="D88" s="47" t="s">
         <v>102</v>
       </c>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="G88" s="47"/>
       <c r="H88" s="42"/>
-      <c r="I88" s="94"/>
-      <c r="J88" s="94"/>
-      <c r="K88" s="94"/>
-      <c r="L88" s="94"/>
-      <c r="M88" s="94"/>
-      <c r="N88" s="94"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+      <c r="K88" s="75"/>
+      <c r="L88" s="75"/>
+      <c r="M88" s="75"/>
+      <c r="N88" s="75"/>
       <c r="O88" s="42"/>
-      <c r="P88" s="78"/>
+      <c r="P88" s="150"/>
     </row>
     <row r="89" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A89" s="121"/>
-      <c r="B89" s="136"/>
-      <c r="C89" s="136"/>
-      <c r="D89" s="136" t="s">
+      <c r="A89" s="106"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73" t="s">
         <v>104</v>
       </c>
       <c r="E89" s="47" t="s">
@@ -5705,20 +5705,20 @@
       </c>
       <c r="G89" s="47"/>
       <c r="H89" s="42"/>
-      <c r="I89" s="94"/>
-      <c r="J89" s="94"/>
-      <c r="K89" s="94"/>
-      <c r="L89" s="94"/>
-      <c r="M89" s="94"/>
-      <c r="N89" s="94"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="75"/>
       <c r="O89" s="42"/>
-      <c r="P89" s="78"/>
+      <c r="P89" s="150"/>
     </row>
     <row r="90" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="121"/>
-      <c r="B90" s="136"/>
-      <c r="C90" s="136"/>
-      <c r="D90" s="136"/>
+      <c r="A90" s="106"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="73"/>
       <c r="E90" s="47" t="s">
         <v>107</v>
       </c>
@@ -5727,20 +5727,20 @@
       </c>
       <c r="G90" s="47"/>
       <c r="H90" s="42"/>
-      <c r="I90" s="94"/>
-      <c r="J90" s="94"/>
-      <c r="K90" s="94"/>
-      <c r="L90" s="94"/>
-      <c r="M90" s="94"/>
-      <c r="N90" s="94"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="75"/>
       <c r="O90" s="42"/>
-      <c r="P90" s="78"/>
+      <c r="P90" s="150"/>
     </row>
     <row r="91" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A91" s="121"/>
-      <c r="B91" s="136"/>
-      <c r="C91" s="136"/>
-      <c r="D91" s="136" t="s">
+      <c r="A91" s="106"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73" t="s">
         <v>109</v>
       </c>
       <c r="E91" s="47" t="s">
@@ -5751,20 +5751,20 @@
       </c>
       <c r="G91" s="47"/>
       <c r="H91" s="42"/>
-      <c r="I91" s="94"/>
-      <c r="J91" s="94"/>
-      <c r="K91" s="94"/>
-      <c r="L91" s="94"/>
-      <c r="M91" s="94"/>
-      <c r="N91" s="94"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
+      <c r="K91" s="75"/>
+      <c r="L91" s="75"/>
+      <c r="M91" s="75"/>
+      <c r="N91" s="75"/>
       <c r="O91" s="42"/>
-      <c r="P91" s="78"/>
+      <c r="P91" s="150"/>
     </row>
     <row r="92" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="121"/>
-      <c r="B92" s="136"/>
-      <c r="C92" s="136"/>
-      <c r="D92" s="136"/>
+      <c r="A92" s="106"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
       <c r="E92" s="47" t="s">
         <v>112</v>
       </c>
@@ -5773,40 +5773,40 @@
       </c>
       <c r="G92" s="47"/>
       <c r="H92" s="42"/>
-      <c r="I92" s="94"/>
-      <c r="J92" s="94"/>
-      <c r="K92" s="94"/>
-      <c r="L92" s="94"/>
-      <c r="M92" s="94"/>
-      <c r="N92" s="94"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
+      <c r="K92" s="75"/>
+      <c r="L92" s="75"/>
+      <c r="M92" s="75"/>
+      <c r="N92" s="75"/>
       <c r="O92" s="42"/>
-      <c r="P92" s="78"/>
+      <c r="P92" s="150"/>
     </row>
     <row r="93" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A93" s="121"/>
-      <c r="B93" s="136"/>
-      <c r="C93" s="136"/>
-      <c r="D93" s="136"/>
+      <c r="A93" s="106"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
       <c r="E93" s="47" t="s">
         <v>114</v>
       </c>
       <c r="F93" s="47"/>
       <c r="G93" s="47"/>
       <c r="H93" s="42"/>
-      <c r="I93" s="94"/>
-      <c r="J93" s="94"/>
-      <c r="K93" s="94"/>
-      <c r="L93" s="94"/>
-      <c r="M93" s="94"/>
-      <c r="N93" s="94"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="75"/>
       <c r="O93" s="42"/>
-      <c r="P93" s="78"/>
+      <c r="P93" s="150"/>
     </row>
     <row r="94" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A94" s="121"/>
-      <c r="B94" s="136"/>
-      <c r="C94" s="136"/>
-      <c r="D94" s="136"/>
+      <c r="A94" s="106"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73"/>
       <c r="E94" s="47" t="s">
         <v>115</v>
       </c>
@@ -5815,20 +5815,20 @@
       </c>
       <c r="G94" s="47"/>
       <c r="H94" s="42"/>
-      <c r="I94" s="94"/>
-      <c r="J94" s="94"/>
-      <c r="K94" s="94"/>
-      <c r="L94" s="94"/>
-      <c r="M94" s="94"/>
-      <c r="N94" s="94"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="75"/>
       <c r="O94" s="42"/>
-      <c r="P94" s="78"/>
+      <c r="P94" s="150"/>
     </row>
     <row r="95" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="121"/>
-      <c r="B95" s="136"/>
-      <c r="C95" s="136"/>
-      <c r="D95" s="136"/>
+      <c r="A95" s="106"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="73"/>
       <c r="E95" s="47" t="s">
         <v>117</v>
       </c>
@@ -5837,20 +5837,20 @@
       </c>
       <c r="G95" s="47"/>
       <c r="H95" s="42"/>
-      <c r="I95" s="94"/>
-      <c r="J95" s="94"/>
-      <c r="K95" s="94"/>
-      <c r="L95" s="94"/>
-      <c r="M95" s="94"/>
-      <c r="N95" s="94"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="75"/>
+      <c r="M95" s="75"/>
+      <c r="N95" s="75"/>
       <c r="O95" s="42"/>
-      <c r="P95" s="78"/>
+      <c r="P95" s="150"/>
     </row>
     <row r="96" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="121"/>
-      <c r="B96" s="136"/>
-      <c r="C96" s="136"/>
-      <c r="D96" s="136"/>
+      <c r="A96" s="106"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="73"/>
       <c r="E96" s="47" t="s">
         <v>119</v>
       </c>
@@ -5859,20 +5859,20 @@
       </c>
       <c r="G96" s="47"/>
       <c r="H96" s="42"/>
-      <c r="I96" s="94"/>
-      <c r="J96" s="94"/>
-      <c r="K96" s="94"/>
-      <c r="L96" s="94"/>
-      <c r="M96" s="94"/>
-      <c r="N96" s="94"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="75"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="75"/>
+      <c r="M96" s="75"/>
+      <c r="N96" s="75"/>
       <c r="O96" s="42"/>
-      <c r="P96" s="78"/>
+      <c r="P96" s="150"/>
     </row>
     <row r="97" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A97" s="121"/>
-      <c r="B97" s="136"/>
-      <c r="C97" s="136"/>
-      <c r="D97" s="136" t="s">
+      <c r="A97" s="106"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="73" t="s">
         <v>121</v>
       </c>
       <c r="E97" s="47" t="s">
@@ -5881,60 +5881,60 @@
       <c r="F97" s="47"/>
       <c r="G97" s="47"/>
       <c r="H97" s="42"/>
-      <c r="I97" s="94"/>
-      <c r="J97" s="94"/>
-      <c r="K97" s="94"/>
-      <c r="L97" s="94"/>
-      <c r="M97" s="94"/>
-      <c r="N97" s="94"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="75"/>
+      <c r="M97" s="75"/>
+      <c r="N97" s="75"/>
       <c r="O97" s="42"/>
-      <c r="P97" s="78"/>
+      <c r="P97" s="150"/>
     </row>
     <row r="98" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A98" s="121"/>
-      <c r="B98" s="136"/>
-      <c r="C98" s="136"/>
-      <c r="D98" s="136"/>
+      <c r="A98" s="106"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="73"/>
       <c r="E98" s="47" t="s">
         <v>123</v>
       </c>
       <c r="F98" s="47"/>
       <c r="G98" s="47"/>
       <c r="H98" s="42"/>
-      <c r="I98" s="94"/>
-      <c r="J98" s="94"/>
-      <c r="K98" s="94"/>
-      <c r="L98" s="94"/>
-      <c r="M98" s="94"/>
-      <c r="N98" s="94"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="75"/>
+      <c r="K98" s="75"/>
+      <c r="L98" s="75"/>
+      <c r="M98" s="75"/>
+      <c r="N98" s="75"/>
       <c r="O98" s="42"/>
-      <c r="P98" s="78"/>
+      <c r="P98" s="150"/>
     </row>
     <row r="99" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="121"/>
-      <c r="B99" s="136"/>
-      <c r="C99" s="136"/>
-      <c r="D99" s="136"/>
+      <c r="A99" s="106"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
       <c r="E99" s="47" t="s">
         <v>124</v>
       </c>
       <c r="F99" s="47"/>
       <c r="G99" s="47"/>
       <c r="H99" s="42"/>
-      <c r="I99" s="94"/>
-      <c r="J99" s="94"/>
-      <c r="K99" s="94"/>
-      <c r="L99" s="94"/>
-      <c r="M99" s="94"/>
-      <c r="N99" s="94"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
+      <c r="M99" s="75"/>
+      <c r="N99" s="75"/>
       <c r="O99" s="42"/>
-      <c r="P99" s="78"/>
+      <c r="P99" s="150"/>
     </row>
     <row r="100" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="121"/>
-      <c r="B100" s="136"/>
-      <c r="C100" s="136"/>
-      <c r="D100" s="136" t="s">
+      <c r="A100" s="106"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73" t="s">
         <v>125</v>
       </c>
       <c r="E100" s="47" t="s">
@@ -5945,20 +5945,20 @@
       </c>
       <c r="G100" s="47"/>
       <c r="H100" s="42"/>
-      <c r="I100" s="94"/>
-      <c r="J100" s="94"/>
-      <c r="K100" s="94"/>
-      <c r="L100" s="94"/>
-      <c r="M100" s="94"/>
-      <c r="N100" s="94"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="75"/>
+      <c r="M100" s="75"/>
+      <c r="N100" s="75"/>
       <c r="O100" s="42"/>
-      <c r="P100" s="78"/>
+      <c r="P100" s="150"/>
     </row>
     <row r="101" spans="1:16" s="46" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A101" s="121"/>
-      <c r="B101" s="136"/>
-      <c r="C101" s="136"/>
-      <c r="D101" s="136"/>
+      <c r="A101" s="106"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
       <c r="E101" s="47" t="s">
         <v>128</v>
       </c>
@@ -5967,21 +5967,21 @@
       </c>
       <c r="G101" s="47"/>
       <c r="H101" s="42"/>
-      <c r="I101" s="95"/>
-      <c r="J101" s="95"/>
-      <c r="K101" s="95"/>
-      <c r="L101" s="95"/>
-      <c r="M101" s="95"/>
-      <c r="N101" s="95"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="76"/>
+      <c r="L101" s="76"/>
+      <c r="M101" s="76"/>
+      <c r="N101" s="76"/>
       <c r="O101" s="42"/>
-      <c r="P101" s="79"/>
+      <c r="P101" s="151"/>
     </row>
     <row r="102" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="121"/>
-      <c r="B102" s="135" t="s">
+      <c r="A102" s="106"/>
+      <c r="B102" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="C102" s="135" t="s">
+      <c r="C102" s="88" t="s">
         <v>158</v>
       </c>
       <c r="D102" s="47" t="s">
@@ -5993,25 +5993,25 @@
       </c>
       <c r="G102" s="47"/>
       <c r="H102" s="42"/>
-      <c r="I102" s="93"/>
-      <c r="J102" s="93">
+      <c r="I102" s="74"/>
+      <c r="J102" s="74">
         <v>4</v>
       </c>
-      <c r="K102" s="93">
+      <c r="K102" s="74">
         <v>8</v>
       </c>
-      <c r="L102" s="93"/>
-      <c r="M102" s="93"/>
-      <c r="N102" s="93">
+      <c r="L102" s="74"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74">
         <v>2</v>
       </c>
       <c r="O102" s="42"/>
-      <c r="P102" s="77"/>
+      <c r="P102" s="149"/>
     </row>
     <row r="103" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="121"/>
-      <c r="B103" s="128"/>
-      <c r="C103" s="129"/>
+      <c r="A103" s="106"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="90"/>
       <c r="D103" s="47" t="s">
         <v>159</v>
       </c>
@@ -6021,19 +6021,19 @@
       </c>
       <c r="G103" s="47"/>
       <c r="H103" s="42"/>
-      <c r="I103" s="94"/>
-      <c r="J103" s="94"/>
-      <c r="K103" s="94"/>
-      <c r="L103" s="94"/>
-      <c r="M103" s="94"/>
-      <c r="N103" s="94"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="75"/>
+      <c r="K103" s="75"/>
+      <c r="L103" s="75"/>
+      <c r="M103" s="75"/>
+      <c r="N103" s="75"/>
       <c r="O103" s="42"/>
-      <c r="P103" s="78"/>
+      <c r="P103" s="150"/>
     </row>
     <row r="104" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="121"/>
-      <c r="B104" s="128"/>
-      <c r="C104" s="130" t="s">
+      <c r="A104" s="106"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="91" t="s">
         <v>161</v>
       </c>
       <c r="D104" s="34" t="s">
@@ -6043,19 +6043,19 @@
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
       <c r="H104" s="42"/>
-      <c r="I104" s="94"/>
-      <c r="J104" s="94"/>
-      <c r="K104" s="94"/>
-      <c r="L104" s="94"/>
-      <c r="M104" s="94"/>
-      <c r="N104" s="94"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="75"/>
       <c r="O104" s="42"/>
-      <c r="P104" s="78"/>
+      <c r="P104" s="150"/>
     </row>
     <row r="105" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="121"/>
-      <c r="B105" s="128"/>
-      <c r="C105" s="130"/>
+      <c r="A105" s="106"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="91"/>
       <c r="D105" s="34" t="s">
         <v>163</v>
       </c>
@@ -6063,19 +6063,19 @@
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
       <c r="H105" s="42"/>
-      <c r="I105" s="94"/>
-      <c r="J105" s="94"/>
-      <c r="K105" s="94"/>
-      <c r="L105" s="94"/>
-      <c r="M105" s="94"/>
-      <c r="N105" s="94"/>
+      <c r="I105" s="75"/>
+      <c r="J105" s="75"/>
+      <c r="K105" s="75"/>
+      <c r="L105" s="75"/>
+      <c r="M105" s="75"/>
+      <c r="N105" s="75"/>
       <c r="O105" s="42"/>
-      <c r="P105" s="78"/>
+      <c r="P105" s="150"/>
     </row>
     <row r="106" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="121"/>
-      <c r="B106" s="128"/>
-      <c r="C106" s="130" t="s">
+      <c r="A106" s="106"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="91" t="s">
         <v>164</v>
       </c>
       <c r="D106" s="34" t="s">
@@ -6085,19 +6085,19 @@
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
       <c r="H106" s="42"/>
-      <c r="I106" s="94"/>
-      <c r="J106" s="94"/>
-      <c r="K106" s="94"/>
-      <c r="L106" s="94"/>
-      <c r="M106" s="94"/>
-      <c r="N106" s="94"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="75"/>
+      <c r="K106" s="75"/>
+      <c r="L106" s="75"/>
+      <c r="M106" s="75"/>
+      <c r="N106" s="75"/>
       <c r="O106" s="42"/>
-      <c r="P106" s="78"/>
+      <c r="P106" s="150"/>
     </row>
     <row r="107" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A107" s="121"/>
-      <c r="B107" s="128"/>
-      <c r="C107" s="130"/>
+      <c r="A107" s="106"/>
+      <c r="B107" s="87"/>
+      <c r="C107" s="91"/>
       <c r="D107" s="34" t="s">
         <v>165</v>
       </c>
@@ -6107,20 +6107,20 @@
       </c>
       <c r="G107" s="34"/>
       <c r="H107" s="42"/>
-      <c r="I107" s="94"/>
-      <c r="J107" s="94"/>
-      <c r="K107" s="94"/>
-      <c r="L107" s="94"/>
-      <c r="M107" s="94"/>
-      <c r="N107" s="94"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="75"/>
+      <c r="K107" s="75"/>
+      <c r="L107" s="75"/>
+      <c r="M107" s="75"/>
+      <c r="N107" s="75"/>
       <c r="O107" s="42"/>
-      <c r="P107" s="78"/>
+      <c r="P107" s="150"/>
     </row>
     <row r="108" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="121"/>
-      <c r="B108" s="128"/>
-      <c r="C108" s="130"/>
-      <c r="D108" s="130" t="s">
+      <c r="A108" s="106"/>
+      <c r="B108" s="87"/>
+      <c r="C108" s="91"/>
+      <c r="D108" s="91" t="s">
         <v>167</v>
       </c>
       <c r="E108" s="34" t="s">
@@ -6131,20 +6131,20 @@
       </c>
       <c r="G108" s="34"/>
       <c r="H108" s="42"/>
-      <c r="I108" s="94"/>
-      <c r="J108" s="94"/>
-      <c r="K108" s="94"/>
-      <c r="L108" s="94"/>
-      <c r="M108" s="94"/>
-      <c r="N108" s="94"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="75"/>
+      <c r="K108" s="75"/>
+      <c r="L108" s="75"/>
+      <c r="M108" s="75"/>
+      <c r="N108" s="75"/>
       <c r="O108" s="42"/>
-      <c r="P108" s="78"/>
+      <c r="P108" s="150"/>
     </row>
     <row r="109" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A109" s="121"/>
-      <c r="B109" s="128"/>
-      <c r="C109" s="130"/>
-      <c r="D109" s="130"/>
+      <c r="A109" s="106"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="91"/>
+      <c r="D109" s="91"/>
       <c r="E109" s="34" t="s">
         <v>170</v>
       </c>
@@ -6153,20 +6153,20 @@
       </c>
       <c r="G109" s="34"/>
       <c r="H109" s="42"/>
-      <c r="I109" s="94"/>
-      <c r="J109" s="94"/>
-      <c r="K109" s="94"/>
-      <c r="L109" s="94"/>
-      <c r="M109" s="94"/>
-      <c r="N109" s="94"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="75"/>
+      <c r="M109" s="75"/>
+      <c r="N109" s="75"/>
       <c r="O109" s="42"/>
-      <c r="P109" s="78"/>
+      <c r="P109" s="150"/>
     </row>
     <row r="110" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A110" s="121"/>
-      <c r="B110" s="128"/>
-      <c r="C110" s="130"/>
-      <c r="D110" s="130"/>
+      <c r="A110" s="106"/>
+      <c r="B110" s="87"/>
+      <c r="C110" s="91"/>
+      <c r="D110" s="91"/>
       <c r="E110" s="34" t="s">
         <v>172</v>
       </c>
@@ -6175,20 +6175,20 @@
       </c>
       <c r="G110" s="34"/>
       <c r="H110" s="42"/>
-      <c r="I110" s="94"/>
-      <c r="J110" s="94"/>
-      <c r="K110" s="94"/>
-      <c r="L110" s="94"/>
-      <c r="M110" s="94"/>
-      <c r="N110" s="94"/>
+      <c r="I110" s="75"/>
+      <c r="J110" s="75"/>
+      <c r="K110" s="75"/>
+      <c r="L110" s="75"/>
+      <c r="M110" s="75"/>
+      <c r="N110" s="75"/>
       <c r="O110" s="42"/>
-      <c r="P110" s="78"/>
+      <c r="P110" s="150"/>
     </row>
     <row r="111" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A111" s="121"/>
-      <c r="B111" s="128"/>
-      <c r="C111" s="130"/>
-      <c r="D111" s="130"/>
+      <c r="A111" s="106"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="91"/>
+      <c r="D111" s="91"/>
       <c r="E111" s="34" t="s">
         <v>174</v>
       </c>
@@ -6197,20 +6197,20 @@
       </c>
       <c r="G111" s="34"/>
       <c r="H111" s="42"/>
-      <c r="I111" s="94"/>
-      <c r="J111" s="94"/>
-      <c r="K111" s="94"/>
-      <c r="L111" s="94"/>
-      <c r="M111" s="94"/>
-      <c r="N111" s="94"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="75"/>
+      <c r="K111" s="75"/>
+      <c r="L111" s="75"/>
+      <c r="M111" s="75"/>
+      <c r="N111" s="75"/>
       <c r="O111" s="42"/>
-      <c r="P111" s="78"/>
+      <c r="P111" s="150"/>
     </row>
     <row r="112" spans="1:16" s="46" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="121"/>
-      <c r="B112" s="128"/>
-      <c r="C112" s="130"/>
-      <c r="D112" s="130"/>
+      <c r="A112" s="106"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="91"/>
+      <c r="D112" s="91"/>
       <c r="E112" s="34" t="s">
         <v>176</v>
       </c>
@@ -6219,20 +6219,20 @@
       </c>
       <c r="G112" s="34"/>
       <c r="H112" s="42"/>
-      <c r="I112" s="94"/>
-      <c r="J112" s="94"/>
-      <c r="K112" s="94"/>
-      <c r="L112" s="94"/>
-      <c r="M112" s="94"/>
-      <c r="N112" s="94"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="75"/>
+      <c r="K112" s="75"/>
+      <c r="L112" s="75"/>
+      <c r="M112" s="75"/>
+      <c r="N112" s="75"/>
       <c r="O112" s="42"/>
-      <c r="P112" s="78"/>
+      <c r="P112" s="150"/>
     </row>
     <row r="113" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="121"/>
-      <c r="B113" s="128"/>
-      <c r="C113" s="130"/>
-      <c r="D113" s="130"/>
+      <c r="A113" s="106"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="91"/>
       <c r="E113" s="34" t="s">
         <v>178</v>
       </c>
@@ -6241,20 +6241,20 @@
       </c>
       <c r="G113" s="34"/>
       <c r="H113" s="42"/>
-      <c r="I113" s="94"/>
-      <c r="J113" s="94"/>
-      <c r="K113" s="94"/>
-      <c r="L113" s="94"/>
-      <c r="M113" s="94"/>
-      <c r="N113" s="94"/>
+      <c r="I113" s="75"/>
+      <c r="J113" s="75"/>
+      <c r="K113" s="75"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="75"/>
+      <c r="N113" s="75"/>
       <c r="O113" s="42"/>
-      <c r="P113" s="78"/>
+      <c r="P113" s="150"/>
     </row>
     <row r="114" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A114" s="121"/>
-      <c r="B114" s="128"/>
-      <c r="C114" s="130"/>
-      <c r="D114" s="130"/>
+      <c r="A114" s="106"/>
+      <c r="B114" s="87"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="91"/>
       <c r="E114" s="34" t="s">
         <v>180</v>
       </c>
@@ -6263,40 +6263,40 @@
       </c>
       <c r="G114" s="34"/>
       <c r="H114" s="42"/>
-      <c r="I114" s="94"/>
-      <c r="J114" s="94"/>
-      <c r="K114" s="94"/>
-      <c r="L114" s="94"/>
-      <c r="M114" s="94"/>
-      <c r="N114" s="94"/>
+      <c r="I114" s="75"/>
+      <c r="J114" s="75"/>
+      <c r="K114" s="75"/>
+      <c r="L114" s="75"/>
+      <c r="M114" s="75"/>
+      <c r="N114" s="75"/>
       <c r="O114" s="42"/>
-      <c r="P114" s="78"/>
+      <c r="P114" s="150"/>
     </row>
     <row r="115" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A115" s="121"/>
-      <c r="B115" s="128"/>
-      <c r="C115" s="130"/>
-      <c r="D115" s="130"/>
+      <c r="A115" s="106"/>
+      <c r="B115" s="87"/>
+      <c r="C115" s="91"/>
+      <c r="D115" s="91"/>
       <c r="E115" s="34" t="s">
         <v>182</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
       <c r="H115" s="42"/>
-      <c r="I115" s="94"/>
-      <c r="J115" s="94"/>
-      <c r="K115" s="94"/>
-      <c r="L115" s="94"/>
-      <c r="M115" s="94"/>
-      <c r="N115" s="94"/>
+      <c r="I115" s="75"/>
+      <c r="J115" s="75"/>
+      <c r="K115" s="75"/>
+      <c r="L115" s="75"/>
+      <c r="M115" s="75"/>
+      <c r="N115" s="75"/>
       <c r="O115" s="42"/>
-      <c r="P115" s="78"/>
+      <c r="P115" s="150"/>
     </row>
     <row r="116" spans="1:16" s="46" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A116" s="121"/>
-      <c r="B116" s="128"/>
-      <c r="C116" s="130"/>
-      <c r="D116" s="130"/>
+      <c r="A116" s="106"/>
+      <c r="B116" s="87"/>
+      <c r="C116" s="91"/>
+      <c r="D116" s="91"/>
       <c r="E116" s="34" t="s">
         <v>183</v>
       </c>
@@ -6305,19 +6305,19 @@
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="42"/>
-      <c r="I116" s="94"/>
-      <c r="J116" s="94"/>
-      <c r="K116" s="94"/>
-      <c r="L116" s="94"/>
-      <c r="M116" s="94"/>
-      <c r="N116" s="94"/>
+      <c r="I116" s="75"/>
+      <c r="J116" s="75"/>
+      <c r="K116" s="75"/>
+      <c r="L116" s="75"/>
+      <c r="M116" s="75"/>
+      <c r="N116" s="75"/>
       <c r="O116" s="42"/>
-      <c r="P116" s="78"/>
+      <c r="P116" s="150"/>
     </row>
     <row r="117" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="121"/>
-      <c r="B117" s="128"/>
-      <c r="C117" s="130"/>
+      <c r="A117" s="106"/>
+      <c r="B117" s="87"/>
+      <c r="C117" s="91"/>
       <c r="D117" s="34" t="s">
         <v>185</v>
       </c>
@@ -6327,19 +6327,19 @@
       </c>
       <c r="G117" s="34"/>
       <c r="H117" s="21"/>
-      <c r="I117" s="94"/>
-      <c r="J117" s="94"/>
-      <c r="K117" s="94"/>
-      <c r="L117" s="94"/>
-      <c r="M117" s="94"/>
-      <c r="N117" s="94"/>
+      <c r="I117" s="75"/>
+      <c r="J117" s="75"/>
+      <c r="K117" s="75"/>
+      <c r="L117" s="75"/>
+      <c r="M117" s="75"/>
+      <c r="N117" s="75"/>
       <c r="O117" s="14"/>
-      <c r="P117" s="78"/>
+      <c r="P117" s="150"/>
     </row>
     <row r="118" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="121"/>
-      <c r="B118" s="128"/>
-      <c r="C118" s="130"/>
+      <c r="A118" s="106"/>
+      <c r="B118" s="87"/>
+      <c r="C118" s="91"/>
       <c r="D118" s="34" t="s">
         <v>187</v>
       </c>
@@ -6349,19 +6349,19 @@
       </c>
       <c r="G118" s="34"/>
       <c r="H118" s="22"/>
-      <c r="I118" s="94"/>
-      <c r="J118" s="94"/>
-      <c r="K118" s="94"/>
-      <c r="L118" s="94"/>
-      <c r="M118" s="94"/>
-      <c r="N118" s="94"/>
+      <c r="I118" s="75"/>
+      <c r="J118" s="75"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="75"/>
+      <c r="N118" s="75"/>
       <c r="O118" s="14"/>
-      <c r="P118" s="78"/>
+      <c r="P118" s="150"/>
     </row>
     <row r="119" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="121"/>
-      <c r="B119" s="128"/>
-      <c r="C119" s="130" t="s">
+      <c r="A119" s="106"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="91" t="s">
         <v>189</v>
       </c>
       <c r="D119" s="34" t="s">
@@ -6373,19 +6373,19 @@
       </c>
       <c r="G119" s="34"/>
       <c r="H119" s="22"/>
-      <c r="I119" s="94"/>
-      <c r="J119" s="94"/>
-      <c r="K119" s="94"/>
-      <c r="L119" s="94"/>
-      <c r="M119" s="94"/>
-      <c r="N119" s="94"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="75"/>
+      <c r="K119" s="75"/>
+      <c r="L119" s="75"/>
+      <c r="M119" s="75"/>
+      <c r="N119" s="75"/>
       <c r="O119" s="14"/>
-      <c r="P119" s="78"/>
+      <c r="P119" s="150"/>
     </row>
     <row r="120" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="121"/>
-      <c r="B120" s="128"/>
-      <c r="C120" s="130"/>
+      <c r="A120" s="106"/>
+      <c r="B120" s="87"/>
+      <c r="C120" s="91"/>
       <c r="D120" s="34" t="s">
         <v>192</v>
       </c>
@@ -6393,19 +6393,19 @@
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
       <c r="H120" s="22"/>
-      <c r="I120" s="94"/>
-      <c r="J120" s="94"/>
-      <c r="K120" s="94"/>
-      <c r="L120" s="94"/>
-      <c r="M120" s="94"/>
-      <c r="N120" s="94"/>
+      <c r="I120" s="75"/>
+      <c r="J120" s="75"/>
+      <c r="K120" s="75"/>
+      <c r="L120" s="75"/>
+      <c r="M120" s="75"/>
+      <c r="N120" s="75"/>
       <c r="O120" s="14"/>
-      <c r="P120" s="78"/>
+      <c r="P120" s="150"/>
     </row>
     <row r="121" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="121"/>
-      <c r="B121" s="128"/>
-      <c r="C121" s="130"/>
+      <c r="A121" s="106"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="91"/>
       <c r="D121" s="34" t="s">
         <v>193</v>
       </c>
@@ -6413,19 +6413,19 @@
       <c r="F121" s="34"/>
       <c r="G121" s="34"/>
       <c r="H121" s="22"/>
-      <c r="I121" s="94"/>
-      <c r="J121" s="94"/>
-      <c r="K121" s="94"/>
-      <c r="L121" s="94"/>
-      <c r="M121" s="94"/>
-      <c r="N121" s="94"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
+      <c r="K121" s="75"/>
+      <c r="L121" s="75"/>
+      <c r="M121" s="75"/>
+      <c r="N121" s="75"/>
       <c r="O121" s="14"/>
-      <c r="P121" s="78"/>
+      <c r="P121" s="150"/>
     </row>
     <row r="122" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="121"/>
-      <c r="B122" s="129"/>
-      <c r="C122" s="130"/>
+      <c r="A122" s="106"/>
+      <c r="B122" s="90"/>
+      <c r="C122" s="91"/>
       <c r="D122" s="34" t="s">
         <v>194</v>
       </c>
@@ -6435,21 +6435,21 @@
       </c>
       <c r="G122" s="34"/>
       <c r="H122" s="22"/>
-      <c r="I122" s="95"/>
-      <c r="J122" s="95"/>
-      <c r="K122" s="95"/>
-      <c r="L122" s="95"/>
-      <c r="M122" s="95"/>
-      <c r="N122" s="95"/>
+      <c r="I122" s="76"/>
+      <c r="J122" s="76"/>
+      <c r="K122" s="76"/>
+      <c r="L122" s="76"/>
+      <c r="M122" s="76"/>
+      <c r="N122" s="76"/>
       <c r="O122" s="14"/>
-      <c r="P122" s="79"/>
+      <c r="P122" s="151"/>
     </row>
     <row r="123" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="121"/>
-      <c r="B123" s="136" t="s">
+      <c r="A123" s="106"/>
+      <c r="B123" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="C123" s="136" t="s">
+      <c r="C123" s="73" t="s">
         <v>197</v>
       </c>
       <c r="D123" s="47" t="s">
@@ -6461,25 +6461,25 @@
       </c>
       <c r="G123" s="47"/>
       <c r="H123" s="22"/>
-      <c r="I123" s="82"/>
-      <c r="J123" s="82">
+      <c r="I123" s="115"/>
+      <c r="J123" s="115">
         <v>1</v>
       </c>
-      <c r="K123" s="82">
+      <c r="K123" s="115">
         <v>2</v>
       </c>
-      <c r="L123" s="82"/>
-      <c r="M123" s="82"/>
-      <c r="N123" s="82">
+      <c r="L123" s="115"/>
+      <c r="M123" s="115"/>
+      <c r="N123" s="115">
         <v>4</v>
       </c>
       <c r="O123" s="14"/>
-      <c r="P123" s="81"/>
+      <c r="P123" s="153"/>
     </row>
     <row r="124" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="121"/>
-      <c r="B124" s="136"/>
-      <c r="C124" s="136"/>
+      <c r="A124" s="106"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="73"/>
       <c r="D124" s="47" t="s">
         <v>199</v>
       </c>
@@ -6491,19 +6491,19 @@
         <v>201</v>
       </c>
       <c r="H124" s="22"/>
-      <c r="I124" s="88"/>
-      <c r="J124" s="88"/>
-      <c r="K124" s="88"/>
-      <c r="L124" s="88"/>
-      <c r="M124" s="88"/>
-      <c r="N124" s="88"/>
+      <c r="I124" s="116"/>
+      <c r="J124" s="116"/>
+      <c r="K124" s="116"/>
+      <c r="L124" s="116"/>
+      <c r="M124" s="116"/>
+      <c r="N124" s="116"/>
       <c r="O124" s="14"/>
-      <c r="P124" s="76"/>
+      <c r="P124" s="148"/>
     </row>
     <row r="125" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="121"/>
-      <c r="B125" s="136"/>
-      <c r="C125" s="136"/>
+      <c r="A125" s="106"/>
+      <c r="B125" s="73"/>
+      <c r="C125" s="73"/>
       <c r="D125" s="47" t="s">
         <v>202</v>
       </c>
@@ -6515,19 +6515,19 @@
         <v>204</v>
       </c>
       <c r="H125" s="22"/>
-      <c r="I125" s="88"/>
-      <c r="J125" s="88"/>
-      <c r="K125" s="88"/>
-      <c r="L125" s="88"/>
-      <c r="M125" s="88"/>
-      <c r="N125" s="88"/>
+      <c r="I125" s="116"/>
+      <c r="J125" s="116"/>
+      <c r="K125" s="116"/>
+      <c r="L125" s="116"/>
+      <c r="M125" s="116"/>
+      <c r="N125" s="116"/>
       <c r="O125" s="14"/>
-      <c r="P125" s="76"/>
+      <c r="P125" s="148"/>
     </row>
     <row r="126" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="121"/>
-      <c r="B126" s="136"/>
-      <c r="C126" s="136"/>
+      <c r="A126" s="106"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="73"/>
       <c r="D126" s="47" t="s">
         <v>205</v>
       </c>
@@ -6537,18 +6537,18 @@
       </c>
       <c r="G126" s="47"/>
       <c r="H126" s="22"/>
-      <c r="I126" s="88"/>
-      <c r="J126" s="88"/>
-      <c r="K126" s="88"/>
-      <c r="L126" s="88"/>
-      <c r="M126" s="88"/>
-      <c r="N126" s="88"/>
+      <c r="I126" s="116"/>
+      <c r="J126" s="116"/>
+      <c r="K126" s="116"/>
+      <c r="L126" s="116"/>
+      <c r="M126" s="116"/>
+      <c r="N126" s="116"/>
       <c r="O126" s="14"/>
-      <c r="P126" s="76"/>
+      <c r="P126" s="148"/>
     </row>
     <row r="127" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="121"/>
-      <c r="B127" s="136"/>
+      <c r="A127" s="106"/>
+      <c r="B127" s="73"/>
       <c r="C127" s="47" t="s">
         <v>207</v>
       </c>
@@ -6559,18 +6559,18 @@
       </c>
       <c r="G127" s="47"/>
       <c r="H127" s="22"/>
-      <c r="I127" s="88"/>
-      <c r="J127" s="88"/>
-      <c r="K127" s="88"/>
-      <c r="L127" s="88"/>
-      <c r="M127" s="88"/>
-      <c r="N127" s="88"/>
+      <c r="I127" s="116"/>
+      <c r="J127" s="116"/>
+      <c r="K127" s="116"/>
+      <c r="L127" s="116"/>
+      <c r="M127" s="116"/>
+      <c r="N127" s="116"/>
       <c r="O127" s="14"/>
-      <c r="P127" s="76"/>
+      <c r="P127" s="148"/>
     </row>
     <row r="128" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="121"/>
-      <c r="B128" s="136"/>
+      <c r="A128" s="106"/>
+      <c r="B128" s="73"/>
       <c r="C128" s="47" t="s">
         <v>209</v>
       </c>
@@ -6579,17 +6579,17 @@
       <c r="F128" s="47"/>
       <c r="G128" s="47"/>
       <c r="H128" s="22"/>
-      <c r="I128" s="83"/>
-      <c r="J128" s="83"/>
-      <c r="K128" s="83"/>
-      <c r="L128" s="83"/>
-      <c r="M128" s="83"/>
-      <c r="N128" s="83"/>
+      <c r="I128" s="117"/>
+      <c r="J128" s="117"/>
+      <c r="K128" s="117"/>
+      <c r="L128" s="117"/>
+      <c r="M128" s="117"/>
+      <c r="N128" s="117"/>
       <c r="O128" s="14"/>
-      <c r="P128" s="76"/>
+      <c r="P128" s="148"/>
     </row>
     <row r="129" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="121"/>
+      <c r="A129" s="106"/>
       <c r="B129" s="47" t="s">
         <v>210</v>
       </c>
@@ -6619,11 +6619,11 @@
       <c r="P129" s="48"/>
     </row>
     <row r="130" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="121"/>
-      <c r="B130" s="130" t="s">
+      <c r="A130" s="106"/>
+      <c r="B130" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="C130" s="130" t="s">
+      <c r="C130" s="91" t="s">
         <v>214</v>
       </c>
       <c r="D130" s="34" t="s">
@@ -6635,25 +6635,25 @@
       </c>
       <c r="G130" s="34"/>
       <c r="H130" s="22"/>
-      <c r="I130" s="82"/>
-      <c r="J130" s="82">
+      <c r="I130" s="115"/>
+      <c r="J130" s="115">
         <v>5</v>
       </c>
-      <c r="K130" s="82">
+      <c r="K130" s="115">
         <v>14</v>
       </c>
-      <c r="L130" s="82"/>
-      <c r="M130" s="82"/>
-      <c r="N130" s="82">
+      <c r="L130" s="115"/>
+      <c r="M130" s="115"/>
+      <c r="N130" s="115">
         <v>15</v>
       </c>
       <c r="O130" s="14"/>
-      <c r="P130" s="80"/>
+      <c r="P130" s="152"/>
     </row>
     <row r="131" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="121"/>
-      <c r="B131" s="130"/>
-      <c r="C131" s="130"/>
+      <c r="A131" s="106"/>
+      <c r="B131" s="91"/>
+      <c r="C131" s="91"/>
       <c r="D131" s="34" t="s">
         <v>53</v>
       </c>
@@ -6663,20 +6663,20 @@
       </c>
       <c r="G131" s="34"/>
       <c r="H131" s="22"/>
-      <c r="I131" s="88"/>
-      <c r="J131" s="88"/>
-      <c r="K131" s="88"/>
-      <c r="L131" s="88"/>
-      <c r="M131" s="88"/>
-      <c r="N131" s="88"/>
+      <c r="I131" s="116"/>
+      <c r="J131" s="116"/>
+      <c r="K131" s="116"/>
+      <c r="L131" s="116"/>
+      <c r="M131" s="116"/>
+      <c r="N131" s="116"/>
       <c r="O131" s="14"/>
-      <c r="P131" s="76"/>
+      <c r="P131" s="148"/>
     </row>
     <row r="132" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="121"/>
-      <c r="B132" s="130"/>
-      <c r="C132" s="130"/>
-      <c r="D132" s="126" t="s">
+      <c r="A132" s="106"/>
+      <c r="B132" s="91"/>
+      <c r="C132" s="91"/>
+      <c r="D132" s="92" t="s">
         <v>218</v>
       </c>
       <c r="E132" s="34" t="s">
@@ -6687,20 +6687,20 @@
       </c>
       <c r="G132" s="34"/>
       <c r="H132" s="22"/>
-      <c r="I132" s="88"/>
-      <c r="J132" s="88"/>
-      <c r="K132" s="88"/>
-      <c r="L132" s="88"/>
-      <c r="M132" s="88"/>
-      <c r="N132" s="88"/>
+      <c r="I132" s="116"/>
+      <c r="J132" s="116"/>
+      <c r="K132" s="116"/>
+      <c r="L132" s="116"/>
+      <c r="M132" s="116"/>
+      <c r="N132" s="116"/>
       <c r="O132" s="14"/>
-      <c r="P132" s="76"/>
+      <c r="P132" s="148"/>
     </row>
     <row r="133" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="121"/>
-      <c r="B133" s="130"/>
-      <c r="C133" s="130"/>
-      <c r="D133" s="133"/>
+      <c r="A133" s="106"/>
+      <c r="B133" s="91"/>
+      <c r="C133" s="91"/>
+      <c r="D133" s="93"/>
       <c r="E133" s="34" t="s">
         <v>221</v>
       </c>
@@ -6709,20 +6709,20 @@
       </c>
       <c r="G133" s="34"/>
       <c r="H133" s="22"/>
-      <c r="I133" s="88"/>
-      <c r="J133" s="88"/>
-      <c r="K133" s="88"/>
-      <c r="L133" s="88"/>
-      <c r="M133" s="88"/>
-      <c r="N133" s="88"/>
+      <c r="I133" s="116"/>
+      <c r="J133" s="116"/>
+      <c r="K133" s="116"/>
+      <c r="L133" s="116"/>
+      <c r="M133" s="116"/>
+      <c r="N133" s="116"/>
       <c r="O133" s="14"/>
-      <c r="P133" s="76"/>
+      <c r="P133" s="148"/>
     </row>
     <row r="134" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="121"/>
-      <c r="B134" s="130"/>
-      <c r="C134" s="130"/>
-      <c r="D134" s="133"/>
+      <c r="A134" s="106"/>
+      <c r="B134" s="91"/>
+      <c r="C134" s="91"/>
+      <c r="D134" s="93"/>
       <c r="E134" s="34" t="s">
         <v>223</v>
       </c>
@@ -6731,20 +6731,20 @@
       </c>
       <c r="G134" s="34"/>
       <c r="H134" s="22"/>
-      <c r="I134" s="88"/>
-      <c r="J134" s="88"/>
-      <c r="K134" s="88"/>
-      <c r="L134" s="88"/>
-      <c r="M134" s="88"/>
-      <c r="N134" s="88"/>
+      <c r="I134" s="116"/>
+      <c r="J134" s="116"/>
+      <c r="K134" s="116"/>
+      <c r="L134" s="116"/>
+      <c r="M134" s="116"/>
+      <c r="N134" s="116"/>
       <c r="O134" s="14"/>
-      <c r="P134" s="76"/>
+      <c r="P134" s="148"/>
     </row>
     <row r="135" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="121"/>
-      <c r="B135" s="130"/>
-      <c r="C135" s="130"/>
-      <c r="D135" s="133"/>
+      <c r="A135" s="106"/>
+      <c r="B135" s="91"/>
+      <c r="C135" s="91"/>
+      <c r="D135" s="93"/>
       <c r="E135" s="34" t="s">
         <v>225</v>
       </c>
@@ -6753,20 +6753,20 @@
       </c>
       <c r="G135" s="34"/>
       <c r="H135" s="22"/>
-      <c r="I135" s="88"/>
-      <c r="J135" s="88"/>
-      <c r="K135" s="88"/>
-      <c r="L135" s="88"/>
-      <c r="M135" s="88"/>
-      <c r="N135" s="88"/>
+      <c r="I135" s="116"/>
+      <c r="J135" s="116"/>
+      <c r="K135" s="116"/>
+      <c r="L135" s="116"/>
+      <c r="M135" s="116"/>
+      <c r="N135" s="116"/>
       <c r="O135" s="14"/>
-      <c r="P135" s="76"/>
+      <c r="P135" s="148"/>
     </row>
     <row r="136" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="121"/>
-      <c r="B136" s="130"/>
-      <c r="C136" s="130"/>
-      <c r="D136" s="128"/>
+      <c r="A136" s="106"/>
+      <c r="B136" s="91"/>
+      <c r="C136" s="91"/>
+      <c r="D136" s="87"/>
       <c r="E136" s="34" t="s">
         <v>227</v>
       </c>
@@ -6775,20 +6775,20 @@
       </c>
       <c r="G136" s="34"/>
       <c r="H136" s="22"/>
-      <c r="I136" s="88"/>
-      <c r="J136" s="88"/>
-      <c r="K136" s="88"/>
-      <c r="L136" s="88"/>
-      <c r="M136" s="88"/>
-      <c r="N136" s="88"/>
+      <c r="I136" s="116"/>
+      <c r="J136" s="116"/>
+      <c r="K136" s="116"/>
+      <c r="L136" s="116"/>
+      <c r="M136" s="116"/>
+      <c r="N136" s="116"/>
       <c r="O136" s="14"/>
-      <c r="P136" s="76"/>
+      <c r="P136" s="148"/>
     </row>
     <row r="137" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="121"/>
-      <c r="B137" s="130"/>
-      <c r="C137" s="130"/>
-      <c r="D137" s="128"/>
+      <c r="A137" s="106"/>
+      <c r="B137" s="91"/>
+      <c r="C137" s="91"/>
+      <c r="D137" s="87"/>
       <c r="E137" s="34" t="s">
         <v>51</v>
       </c>
@@ -6797,21 +6797,21 @@
       </c>
       <c r="G137" s="34"/>
       <c r="H137" s="22"/>
-      <c r="I137" s="88"/>
-      <c r="J137" s="88"/>
-      <c r="K137" s="88"/>
-      <c r="L137" s="88"/>
-      <c r="M137" s="88"/>
-      <c r="N137" s="88"/>
+      <c r="I137" s="116"/>
+      <c r="J137" s="116"/>
+      <c r="K137" s="116"/>
+      <c r="L137" s="116"/>
+      <c r="M137" s="116"/>
+      <c r="N137" s="116"/>
       <c r="O137" s="14"/>
-      <c r="P137" s="76"/>
+      <c r="P137" s="148"/>
     </row>
     <row r="138" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="121"/>
-      <c r="B138" s="130"/>
-      <c r="C138" s="130"/>
-      <c r="D138" s="128"/>
-      <c r="E138" s="130" t="s">
+      <c r="A138" s="106"/>
+      <c r="B138" s="91"/>
+      <c r="C138" s="91"/>
+      <c r="D138" s="87"/>
+      <c r="E138" s="91" t="s">
         <v>230</v>
       </c>
       <c r="F138" s="34" t="s">
@@ -6819,60 +6819,60 @@
       </c>
       <c r="G138" s="34"/>
       <c r="H138" s="22"/>
-      <c r="I138" s="88"/>
-      <c r="J138" s="88"/>
-      <c r="K138" s="88"/>
-      <c r="L138" s="88"/>
-      <c r="M138" s="88"/>
-      <c r="N138" s="88"/>
+      <c r="I138" s="116"/>
+      <c r="J138" s="116"/>
+      <c r="K138" s="116"/>
+      <c r="L138" s="116"/>
+      <c r="M138" s="116"/>
+      <c r="N138" s="116"/>
       <c r="O138" s="14"/>
-      <c r="P138" s="76"/>
+      <c r="P138" s="148"/>
     </row>
     <row r="139" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="121"/>
-      <c r="B139" s="130"/>
-      <c r="C139" s="130"/>
-      <c r="D139" s="128"/>
-      <c r="E139" s="130"/>
+      <c r="A139" s="106"/>
+      <c r="B139" s="91"/>
+      <c r="C139" s="91"/>
+      <c r="D139" s="87"/>
+      <c r="E139" s="91"/>
       <c r="F139" s="34" t="s">
         <v>232</v>
       </c>
       <c r="G139" s="34"/>
       <c r="H139" s="22"/>
-      <c r="I139" s="88"/>
-      <c r="J139" s="88"/>
-      <c r="K139" s="88"/>
-      <c r="L139" s="88"/>
-      <c r="M139" s="88"/>
-      <c r="N139" s="88"/>
+      <c r="I139" s="116"/>
+      <c r="J139" s="116"/>
+      <c r="K139" s="116"/>
+      <c r="L139" s="116"/>
+      <c r="M139" s="116"/>
+      <c r="N139" s="116"/>
       <c r="O139" s="14"/>
-      <c r="P139" s="76"/>
+      <c r="P139" s="148"/>
     </row>
     <row r="140" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="121"/>
-      <c r="B140" s="130"/>
-      <c r="C140" s="130"/>
-      <c r="D140" s="128"/>
-      <c r="E140" s="130"/>
+      <c r="A140" s="106"/>
+      <c r="B140" s="91"/>
+      <c r="C140" s="91"/>
+      <c r="D140" s="87"/>
+      <c r="E140" s="91"/>
       <c r="F140" s="34" t="s">
         <v>233</v>
       </c>
       <c r="G140" s="34"/>
       <c r="H140" s="22"/>
-      <c r="I140" s="88"/>
-      <c r="J140" s="88"/>
-      <c r="K140" s="88"/>
-      <c r="L140" s="88"/>
-      <c r="M140" s="88"/>
-      <c r="N140" s="88"/>
+      <c r="I140" s="116"/>
+      <c r="J140" s="116"/>
+      <c r="K140" s="116"/>
+      <c r="L140" s="116"/>
+      <c r="M140" s="116"/>
+      <c r="N140" s="116"/>
       <c r="O140" s="14"/>
-      <c r="P140" s="76"/>
+      <c r="P140" s="148"/>
     </row>
     <row r="141" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="121"/>
-      <c r="B141" s="130"/>
-      <c r="C141" s="130"/>
-      <c r="D141" s="128"/>
+      <c r="A141" s="106"/>
+      <c r="B141" s="91"/>
+      <c r="C141" s="91"/>
+      <c r="D141" s="87"/>
       <c r="E141" s="35" t="s">
         <v>234</v>
       </c>
@@ -6881,21 +6881,21 @@
       </c>
       <c r="G141" s="34"/>
       <c r="H141" s="22"/>
-      <c r="I141" s="88"/>
-      <c r="J141" s="88"/>
-      <c r="K141" s="88"/>
-      <c r="L141" s="88"/>
-      <c r="M141" s="88"/>
-      <c r="N141" s="88"/>
+      <c r="I141" s="116"/>
+      <c r="J141" s="116"/>
+      <c r="K141" s="116"/>
+      <c r="L141" s="116"/>
+      <c r="M141" s="116"/>
+      <c r="N141" s="116"/>
       <c r="O141" s="14"/>
-      <c r="P141" s="76"/>
+      <c r="P141" s="148"/>
     </row>
     <row r="142" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="121"/>
-      <c r="B142" s="130"/>
-      <c r="C142" s="130"/>
-      <c r="D142" s="128"/>
-      <c r="E142" s="130" t="s">
+      <c r="A142" s="106"/>
+      <c r="B142" s="91"/>
+      <c r="C142" s="91"/>
+      <c r="D142" s="87"/>
+      <c r="E142" s="91" t="s">
         <v>235</v>
       </c>
       <c r="F142" s="34" t="s">
@@ -6903,101 +6903,101 @@
       </c>
       <c r="G142" s="34"/>
       <c r="H142" s="22"/>
-      <c r="I142" s="88"/>
-      <c r="J142" s="88"/>
-      <c r="K142" s="88"/>
-      <c r="L142" s="88"/>
-      <c r="M142" s="88"/>
-      <c r="N142" s="88"/>
+      <c r="I142" s="116"/>
+      <c r="J142" s="116"/>
+      <c r="K142" s="116"/>
+      <c r="L142" s="116"/>
+      <c r="M142" s="116"/>
+      <c r="N142" s="116"/>
       <c r="O142" s="14"/>
-      <c r="P142" s="76"/>
+      <c r="P142" s="148"/>
     </row>
     <row r="143" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="121"/>
-      <c r="B143" s="130"/>
-      <c r="C143" s="130"/>
-      <c r="D143" s="128"/>
-      <c r="E143" s="130"/>
+      <c r="A143" s="106"/>
+      <c r="B143" s="91"/>
+      <c r="C143" s="91"/>
+      <c r="D143" s="87"/>
+      <c r="E143" s="91"/>
       <c r="F143" s="34" t="s">
         <v>237</v>
       </c>
       <c r="G143" s="34"/>
       <c r="H143" s="22"/>
-      <c r="I143" s="88"/>
-      <c r="J143" s="88"/>
-      <c r="K143" s="88"/>
-      <c r="L143" s="88"/>
-      <c r="M143" s="88"/>
-      <c r="N143" s="88"/>
+      <c r="I143" s="116"/>
+      <c r="J143" s="116"/>
+      <c r="K143" s="116"/>
+      <c r="L143" s="116"/>
+      <c r="M143" s="116"/>
+      <c r="N143" s="116"/>
       <c r="O143" s="14"/>
-      <c r="P143" s="76"/>
+      <c r="P143" s="148"/>
     </row>
     <row r="144" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="121"/>
-      <c r="B144" s="130"/>
-      <c r="C144" s="130"/>
-      <c r="D144" s="128"/>
-      <c r="E144" s="130"/>
+      <c r="A144" s="106"/>
+      <c r="B144" s="91"/>
+      <c r="C144" s="91"/>
+      <c r="D144" s="87"/>
+      <c r="E144" s="91"/>
       <c r="F144" s="34" t="s">
         <v>238</v>
       </c>
       <c r="G144" s="34"/>
       <c r="H144" s="22"/>
-      <c r="I144" s="88"/>
-      <c r="J144" s="88"/>
-      <c r="K144" s="88"/>
-      <c r="L144" s="88"/>
-      <c r="M144" s="88"/>
-      <c r="N144" s="88"/>
+      <c r="I144" s="116"/>
+      <c r="J144" s="116"/>
+      <c r="K144" s="116"/>
+      <c r="L144" s="116"/>
+      <c r="M144" s="116"/>
+      <c r="N144" s="116"/>
       <c r="O144" s="14"/>
-      <c r="P144" s="76"/>
+      <c r="P144" s="148"/>
     </row>
     <row r="145" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="121"/>
-      <c r="B145" s="130"/>
-      <c r="C145" s="130"/>
-      <c r="D145" s="128"/>
-      <c r="E145" s="130"/>
+      <c r="A145" s="106"/>
+      <c r="B145" s="91"/>
+      <c r="C145" s="91"/>
+      <c r="D145" s="87"/>
+      <c r="E145" s="91"/>
       <c r="F145" s="34" t="s">
         <v>239</v>
       </c>
       <c r="G145" s="34"/>
       <c r="H145" s="22"/>
-      <c r="I145" s="88"/>
-      <c r="J145" s="88"/>
-      <c r="K145" s="88"/>
-      <c r="L145" s="88"/>
-      <c r="M145" s="88"/>
-      <c r="N145" s="88"/>
+      <c r="I145" s="116"/>
+      <c r="J145" s="116"/>
+      <c r="K145" s="116"/>
+      <c r="L145" s="116"/>
+      <c r="M145" s="116"/>
+      <c r="N145" s="116"/>
       <c r="O145" s="14"/>
-      <c r="P145" s="76"/>
+      <c r="P145" s="148"/>
     </row>
     <row r="146" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="121"/>
-      <c r="B146" s="130"/>
-      <c r="C146" s="130"/>
-      <c r="D146" s="128"/>
-      <c r="E146" s="130"/>
+      <c r="A146" s="106"/>
+      <c r="B146" s="91"/>
+      <c r="C146" s="91"/>
+      <c r="D146" s="87"/>
+      <c r="E146" s="91"/>
       <c r="F146" s="34" t="s">
         <v>240</v>
       </c>
       <c r="G146" s="34"/>
       <c r="H146" s="22"/>
-      <c r="I146" s="88"/>
-      <c r="J146" s="88"/>
-      <c r="K146" s="88"/>
-      <c r="L146" s="88"/>
-      <c r="M146" s="88"/>
-      <c r="N146" s="88"/>
+      <c r="I146" s="116"/>
+      <c r="J146" s="116"/>
+      <c r="K146" s="116"/>
+      <c r="L146" s="116"/>
+      <c r="M146" s="116"/>
+      <c r="N146" s="116"/>
       <c r="O146" s="14"/>
-      <c r="P146" s="76"/>
+      <c r="P146" s="148"/>
     </row>
     <row r="147" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="121"/>
-      <c r="B147" s="130"/>
-      <c r="C147" s="130"/>
-      <c r="D147" s="128"/>
-      <c r="E147" s="130" t="s">
+      <c r="A147" s="106"/>
+      <c r="B147" s="91"/>
+      <c r="C147" s="91"/>
+      <c r="D147" s="87"/>
+      <c r="E147" s="91" t="s">
         <v>241</v>
       </c>
       <c r="F147" s="34" t="s">
@@ -7005,101 +7005,101 @@
       </c>
       <c r="G147" s="34"/>
       <c r="H147" s="22"/>
-      <c r="I147" s="88"/>
-      <c r="J147" s="88"/>
-      <c r="K147" s="88"/>
-      <c r="L147" s="88"/>
-      <c r="M147" s="88"/>
-      <c r="N147" s="88"/>
+      <c r="I147" s="116"/>
+      <c r="J147" s="116"/>
+      <c r="K147" s="116"/>
+      <c r="L147" s="116"/>
+      <c r="M147" s="116"/>
+      <c r="N147" s="116"/>
       <c r="O147" s="14"/>
-      <c r="P147" s="76"/>
+      <c r="P147" s="148"/>
     </row>
     <row r="148" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="121"/>
-      <c r="B148" s="130"/>
-      <c r="C148" s="130"/>
-      <c r="D148" s="128"/>
-      <c r="E148" s="130"/>
+      <c r="A148" s="106"/>
+      <c r="B148" s="91"/>
+      <c r="C148" s="91"/>
+      <c r="D148" s="87"/>
+      <c r="E148" s="91"/>
       <c r="F148" s="34" t="s">
         <v>237</v>
       </c>
       <c r="G148" s="34"/>
       <c r="H148" s="22"/>
-      <c r="I148" s="88"/>
-      <c r="J148" s="88"/>
-      <c r="K148" s="88"/>
-      <c r="L148" s="88"/>
-      <c r="M148" s="88"/>
-      <c r="N148" s="88"/>
+      <c r="I148" s="116"/>
+      <c r="J148" s="116"/>
+      <c r="K148" s="116"/>
+      <c r="L148" s="116"/>
+      <c r="M148" s="116"/>
+      <c r="N148" s="116"/>
       <c r="O148" s="14"/>
-      <c r="P148" s="76"/>
+      <c r="P148" s="148"/>
     </row>
     <row r="149" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="121"/>
-      <c r="B149" s="130"/>
-      <c r="C149" s="130"/>
-      <c r="D149" s="128"/>
-      <c r="E149" s="130"/>
+      <c r="A149" s="106"/>
+      <c r="B149" s="91"/>
+      <c r="C149" s="91"/>
+      <c r="D149" s="87"/>
+      <c r="E149" s="91"/>
       <c r="F149" s="34" t="s">
         <v>238</v>
       </c>
       <c r="G149" s="34"/>
       <c r="H149" s="22"/>
-      <c r="I149" s="88"/>
-      <c r="J149" s="88"/>
-      <c r="K149" s="88"/>
-      <c r="L149" s="88"/>
-      <c r="M149" s="88"/>
-      <c r="N149" s="88"/>
+      <c r="I149" s="116"/>
+      <c r="J149" s="116"/>
+      <c r="K149" s="116"/>
+      <c r="L149" s="116"/>
+      <c r="M149" s="116"/>
+      <c r="N149" s="116"/>
       <c r="O149" s="14"/>
-      <c r="P149" s="76"/>
+      <c r="P149" s="148"/>
     </row>
     <row r="150" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="121"/>
-      <c r="B150" s="130"/>
-      <c r="C150" s="130"/>
-      <c r="D150" s="128"/>
-      <c r="E150" s="130"/>
+      <c r="A150" s="106"/>
+      <c r="B150" s="91"/>
+      <c r="C150" s="91"/>
+      <c r="D150" s="87"/>
+      <c r="E150" s="91"/>
       <c r="F150" s="34" t="s">
         <v>239</v>
       </c>
       <c r="G150" s="34"/>
       <c r="H150" s="22"/>
-      <c r="I150" s="88"/>
-      <c r="J150" s="88"/>
-      <c r="K150" s="88"/>
-      <c r="L150" s="88"/>
-      <c r="M150" s="88"/>
-      <c r="N150" s="88"/>
+      <c r="I150" s="116"/>
+      <c r="J150" s="116"/>
+      <c r="K150" s="116"/>
+      <c r="L150" s="116"/>
+      <c r="M150" s="116"/>
+      <c r="N150" s="116"/>
       <c r="O150" s="14"/>
-      <c r="P150" s="76"/>
+      <c r="P150" s="148"/>
     </row>
     <row r="151" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="121"/>
-      <c r="B151" s="130"/>
-      <c r="C151" s="130"/>
-      <c r="D151" s="128"/>
-      <c r="E151" s="130"/>
+      <c r="A151" s="106"/>
+      <c r="B151" s="91"/>
+      <c r="C151" s="91"/>
+      <c r="D151" s="87"/>
+      <c r="E151" s="91"/>
       <c r="F151" s="34" t="s">
         <v>240</v>
       </c>
       <c r="G151" s="34"/>
       <c r="H151" s="21"/>
-      <c r="I151" s="88"/>
-      <c r="J151" s="88"/>
-      <c r="K151" s="88"/>
-      <c r="L151" s="88"/>
-      <c r="M151" s="88"/>
-      <c r="N151" s="88"/>
+      <c r="I151" s="116"/>
+      <c r="J151" s="116"/>
+      <c r="K151" s="116"/>
+      <c r="L151" s="116"/>
+      <c r="M151" s="116"/>
+      <c r="N151" s="116"/>
       <c r="O151" s="14"/>
-      <c r="P151" s="76"/>
+      <c r="P151" s="148"/>
     </row>
     <row r="152" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="121"/>
-      <c r="B152" s="130"/>
-      <c r="C152" s="130"/>
-      <c r="D152" s="128"/>
-      <c r="E152" s="130" t="s">
+      <c r="A152" s="106"/>
+      <c r="B152" s="91"/>
+      <c r="C152" s="91"/>
+      <c r="D152" s="87"/>
+      <c r="E152" s="91" t="s">
         <v>242</v>
       </c>
       <c r="F152" s="34" t="s">
@@ -7107,60 +7107,60 @@
       </c>
       <c r="G152" s="34"/>
       <c r="H152" s="22"/>
-      <c r="I152" s="88"/>
-      <c r="J152" s="88"/>
-      <c r="K152" s="88"/>
-      <c r="L152" s="88"/>
-      <c r="M152" s="88"/>
-      <c r="N152" s="88"/>
+      <c r="I152" s="116"/>
+      <c r="J152" s="116"/>
+      <c r="K152" s="116"/>
+      <c r="L152" s="116"/>
+      <c r="M152" s="116"/>
+      <c r="N152" s="116"/>
       <c r="O152" s="14"/>
-      <c r="P152" s="76"/>
+      <c r="P152" s="148"/>
     </row>
     <row r="153" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="121"/>
-      <c r="B153" s="130"/>
-      <c r="C153" s="130"/>
-      <c r="D153" s="128"/>
-      <c r="E153" s="130"/>
+      <c r="A153" s="106"/>
+      <c r="B153" s="91"/>
+      <c r="C153" s="91"/>
+      <c r="D153" s="87"/>
+      <c r="E153" s="91"/>
       <c r="F153" s="34" t="s">
         <v>232</v>
       </c>
       <c r="G153" s="34"/>
       <c r="H153" s="22"/>
-      <c r="I153" s="88"/>
-      <c r="J153" s="88"/>
-      <c r="K153" s="88"/>
-      <c r="L153" s="88"/>
-      <c r="M153" s="88"/>
-      <c r="N153" s="88"/>
+      <c r="I153" s="116"/>
+      <c r="J153" s="116"/>
+      <c r="K153" s="116"/>
+      <c r="L153" s="116"/>
+      <c r="M153" s="116"/>
+      <c r="N153" s="116"/>
       <c r="O153" s="14"/>
-      <c r="P153" s="76"/>
+      <c r="P153" s="148"/>
     </row>
     <row r="154" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="121"/>
-      <c r="B154" s="130"/>
-      <c r="C154" s="130"/>
-      <c r="D154" s="128"/>
-      <c r="E154" s="130"/>
+      <c r="A154" s="106"/>
+      <c r="B154" s="91"/>
+      <c r="C154" s="91"/>
+      <c r="D154" s="87"/>
+      <c r="E154" s="91"/>
       <c r="F154" s="34" t="s">
         <v>233</v>
       </c>
       <c r="G154" s="34"/>
       <c r="H154" s="22"/>
-      <c r="I154" s="88"/>
-      <c r="J154" s="88"/>
-      <c r="K154" s="88"/>
-      <c r="L154" s="88"/>
-      <c r="M154" s="88"/>
-      <c r="N154" s="88"/>
+      <c r="I154" s="116"/>
+      <c r="J154" s="116"/>
+      <c r="K154" s="116"/>
+      <c r="L154" s="116"/>
+      <c r="M154" s="116"/>
+      <c r="N154" s="116"/>
       <c r="O154" s="14"/>
-      <c r="P154" s="76"/>
+      <c r="P154" s="148"/>
     </row>
     <row r="155" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="121"/>
-      <c r="B155" s="130"/>
-      <c r="C155" s="130"/>
-      <c r="D155" s="128"/>
+      <c r="A155" s="106"/>
+      <c r="B155" s="91"/>
+      <c r="C155" s="91"/>
+      <c r="D155" s="87"/>
       <c r="E155" s="35" t="s">
         <v>243</v>
       </c>
@@ -7169,21 +7169,21 @@
       </c>
       <c r="G155" s="34"/>
       <c r="H155" s="22"/>
-      <c r="I155" s="88"/>
-      <c r="J155" s="88"/>
-      <c r="K155" s="88"/>
-      <c r="L155" s="88"/>
-      <c r="M155" s="88"/>
-      <c r="N155" s="88"/>
+      <c r="I155" s="116"/>
+      <c r="J155" s="116"/>
+      <c r="K155" s="116"/>
+      <c r="L155" s="116"/>
+      <c r="M155" s="116"/>
+      <c r="N155" s="116"/>
       <c r="O155" s="14"/>
-      <c r="P155" s="76"/>
+      <c r="P155" s="148"/>
     </row>
     <row r="156" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="121"/>
-      <c r="B156" s="130"/>
-      <c r="C156" s="130"/>
-      <c r="D156" s="128"/>
-      <c r="E156" s="130" t="s">
+      <c r="A156" s="106"/>
+      <c r="B156" s="91"/>
+      <c r="C156" s="91"/>
+      <c r="D156" s="87"/>
+      <c r="E156" s="91" t="s">
         <v>244</v>
       </c>
       <c r="F156" s="34" t="s">
@@ -7191,101 +7191,101 @@
       </c>
       <c r="G156" s="34"/>
       <c r="H156" s="22"/>
-      <c r="I156" s="88"/>
-      <c r="J156" s="88"/>
-      <c r="K156" s="88"/>
-      <c r="L156" s="88"/>
-      <c r="M156" s="88"/>
-      <c r="N156" s="88"/>
+      <c r="I156" s="116"/>
+      <c r="J156" s="116"/>
+      <c r="K156" s="116"/>
+      <c r="L156" s="116"/>
+      <c r="M156" s="116"/>
+      <c r="N156" s="116"/>
       <c r="O156" s="14"/>
-      <c r="P156" s="76"/>
+      <c r="P156" s="148"/>
     </row>
     <row r="157" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="121"/>
-      <c r="B157" s="130"/>
-      <c r="C157" s="130"/>
-      <c r="D157" s="128"/>
-      <c r="E157" s="130"/>
+      <c r="A157" s="106"/>
+      <c r="B157" s="91"/>
+      <c r="C157" s="91"/>
+      <c r="D157" s="87"/>
+      <c r="E157" s="91"/>
       <c r="F157" s="34" t="s">
         <v>237</v>
       </c>
       <c r="G157" s="34"/>
       <c r="H157" s="22"/>
-      <c r="I157" s="88"/>
-      <c r="J157" s="88"/>
-      <c r="K157" s="88"/>
-      <c r="L157" s="88"/>
-      <c r="M157" s="88"/>
-      <c r="N157" s="88"/>
+      <c r="I157" s="116"/>
+      <c r="J157" s="116"/>
+      <c r="K157" s="116"/>
+      <c r="L157" s="116"/>
+      <c r="M157" s="116"/>
+      <c r="N157" s="116"/>
       <c r="O157" s="14"/>
-      <c r="P157" s="76"/>
+      <c r="P157" s="148"/>
     </row>
     <row r="158" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="121"/>
-      <c r="B158" s="130"/>
-      <c r="C158" s="130"/>
-      <c r="D158" s="128"/>
-      <c r="E158" s="130"/>
+      <c r="A158" s="106"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="91"/>
+      <c r="D158" s="87"/>
+      <c r="E158" s="91"/>
       <c r="F158" s="34" t="s">
         <v>246</v>
       </c>
       <c r="G158" s="34"/>
       <c r="H158" s="22"/>
-      <c r="I158" s="88"/>
-      <c r="J158" s="88"/>
-      <c r="K158" s="88"/>
-      <c r="L158" s="88"/>
-      <c r="M158" s="88"/>
-      <c r="N158" s="88"/>
+      <c r="I158" s="116"/>
+      <c r="J158" s="116"/>
+      <c r="K158" s="116"/>
+      <c r="L158" s="116"/>
+      <c r="M158" s="116"/>
+      <c r="N158" s="116"/>
       <c r="O158" s="14"/>
-      <c r="P158" s="76"/>
+      <c r="P158" s="148"/>
     </row>
     <row r="159" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="121"/>
-      <c r="B159" s="130"/>
-      <c r="C159" s="130"/>
-      <c r="D159" s="128"/>
-      <c r="E159" s="130"/>
+      <c r="A159" s="106"/>
+      <c r="B159" s="91"/>
+      <c r="C159" s="91"/>
+      <c r="D159" s="87"/>
+      <c r="E159" s="91"/>
       <c r="F159" s="34" t="s">
         <v>247</v>
       </c>
       <c r="G159" s="34"/>
       <c r="H159" s="22"/>
-      <c r="I159" s="88"/>
-      <c r="J159" s="88"/>
-      <c r="K159" s="88"/>
-      <c r="L159" s="88"/>
-      <c r="M159" s="88"/>
-      <c r="N159" s="88"/>
+      <c r="I159" s="116"/>
+      <c r="J159" s="116"/>
+      <c r="K159" s="116"/>
+      <c r="L159" s="116"/>
+      <c r="M159" s="116"/>
+      <c r="N159" s="116"/>
       <c r="O159" s="14"/>
-      <c r="P159" s="76"/>
+      <c r="P159" s="148"/>
     </row>
     <row r="160" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="121"/>
-      <c r="B160" s="130"/>
-      <c r="C160" s="130"/>
-      <c r="D160" s="128"/>
-      <c r="E160" s="130"/>
+      <c r="A160" s="106"/>
+      <c r="B160" s="91"/>
+      <c r="C160" s="91"/>
+      <c r="D160" s="87"/>
+      <c r="E160" s="91"/>
       <c r="F160" s="34" t="s">
         <v>248</v>
       </c>
       <c r="G160" s="34"/>
       <c r="H160" s="22"/>
-      <c r="I160" s="88"/>
-      <c r="J160" s="88"/>
-      <c r="K160" s="88"/>
-      <c r="L160" s="88"/>
-      <c r="M160" s="88"/>
-      <c r="N160" s="88"/>
+      <c r="I160" s="116"/>
+      <c r="J160" s="116"/>
+      <c r="K160" s="116"/>
+      <c r="L160" s="116"/>
+      <c r="M160" s="116"/>
+      <c r="N160" s="116"/>
       <c r="O160" s="14"/>
-      <c r="P160" s="76"/>
+      <c r="P160" s="148"/>
     </row>
     <row r="161" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="121"/>
-      <c r="B161" s="130"/>
-      <c r="C161" s="130"/>
-      <c r="D161" s="128"/>
-      <c r="E161" s="130" t="s">
+      <c r="A161" s="106"/>
+      <c r="B161" s="91"/>
+      <c r="C161" s="91"/>
+      <c r="D161" s="87"/>
+      <c r="E161" s="91" t="s">
         <v>249</v>
       </c>
       <c r="F161" s="34" t="s">
@@ -7293,80 +7293,80 @@
       </c>
       <c r="G161" s="34"/>
       <c r="H161" s="22"/>
-      <c r="I161" s="88"/>
-      <c r="J161" s="88"/>
-      <c r="K161" s="88"/>
-      <c r="L161" s="88"/>
-      <c r="M161" s="88"/>
-      <c r="N161" s="88"/>
+      <c r="I161" s="116"/>
+      <c r="J161" s="116"/>
+      <c r="K161" s="116"/>
+      <c r="L161" s="116"/>
+      <c r="M161" s="116"/>
+      <c r="N161" s="116"/>
       <c r="O161" s="14"/>
-      <c r="P161" s="76"/>
+      <c r="P161" s="148"/>
     </row>
     <row r="162" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="121"/>
-      <c r="B162" s="130"/>
-      <c r="C162" s="130"/>
-      <c r="D162" s="128"/>
-      <c r="E162" s="130"/>
+      <c r="A162" s="106"/>
+      <c r="B162" s="91"/>
+      <c r="C162" s="91"/>
+      <c r="D162" s="87"/>
+      <c r="E162" s="91"/>
       <c r="F162" s="34" t="s">
         <v>246</v>
       </c>
       <c r="G162" s="34"/>
       <c r="H162" s="22"/>
-      <c r="I162" s="88"/>
-      <c r="J162" s="88"/>
-      <c r="K162" s="88"/>
-      <c r="L162" s="88"/>
-      <c r="M162" s="88"/>
-      <c r="N162" s="88"/>
+      <c r="I162" s="116"/>
+      <c r="J162" s="116"/>
+      <c r="K162" s="116"/>
+      <c r="L162" s="116"/>
+      <c r="M162" s="116"/>
+      <c r="N162" s="116"/>
       <c r="O162" s="14"/>
-      <c r="P162" s="76"/>
+      <c r="P162" s="148"/>
     </row>
     <row r="163" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="121"/>
-      <c r="B163" s="130"/>
-      <c r="C163" s="130"/>
-      <c r="D163" s="128"/>
-      <c r="E163" s="130"/>
+      <c r="A163" s="106"/>
+      <c r="B163" s="91"/>
+      <c r="C163" s="91"/>
+      <c r="D163" s="87"/>
+      <c r="E163" s="91"/>
       <c r="F163" s="34" t="s">
         <v>247</v>
       </c>
       <c r="G163" s="34"/>
       <c r="H163" s="22"/>
-      <c r="I163" s="88"/>
-      <c r="J163" s="88"/>
-      <c r="K163" s="88"/>
-      <c r="L163" s="88"/>
-      <c r="M163" s="88"/>
-      <c r="N163" s="88"/>
+      <c r="I163" s="116"/>
+      <c r="J163" s="116"/>
+      <c r="K163" s="116"/>
+      <c r="L163" s="116"/>
+      <c r="M163" s="116"/>
+      <c r="N163" s="116"/>
       <c r="O163" s="14"/>
-      <c r="P163" s="76"/>
+      <c r="P163" s="148"/>
     </row>
     <row r="164" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="121"/>
-      <c r="B164" s="130"/>
-      <c r="C164" s="130"/>
-      <c r="D164" s="129"/>
-      <c r="E164" s="130"/>
+      <c r="A164" s="106"/>
+      <c r="B164" s="91"/>
+      <c r="C164" s="91"/>
+      <c r="D164" s="90"/>
+      <c r="E164" s="91"/>
       <c r="F164" s="34" t="s">
         <v>248</v>
       </c>
       <c r="G164" s="34"/>
       <c r="H164" s="22"/>
-      <c r="I164" s="88"/>
-      <c r="J164" s="88"/>
-      <c r="K164" s="88"/>
-      <c r="L164" s="88"/>
-      <c r="M164" s="88"/>
-      <c r="N164" s="88"/>
+      <c r="I164" s="116"/>
+      <c r="J164" s="116"/>
+      <c r="K164" s="116"/>
+      <c r="L164" s="116"/>
+      <c r="M164" s="116"/>
+      <c r="N164" s="116"/>
       <c r="O164" s="14"/>
-      <c r="P164" s="76"/>
+      <c r="P164" s="148"/>
     </row>
     <row r="165" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="121"/>
-      <c r="B165" s="130"/>
-      <c r="C165" s="130"/>
-      <c r="D165" s="130" t="s">
+      <c r="A165" s="106"/>
+      <c r="B165" s="91"/>
+      <c r="C165" s="91"/>
+      <c r="D165" s="91" t="s">
         <v>250</v>
       </c>
       <c r="E165" s="34" t="s">
@@ -7375,40 +7375,40 @@
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
       <c r="H165" s="22"/>
-      <c r="I165" s="88"/>
-      <c r="J165" s="88"/>
-      <c r="K165" s="88"/>
-      <c r="L165" s="88"/>
-      <c r="M165" s="88"/>
-      <c r="N165" s="88"/>
+      <c r="I165" s="116"/>
+      <c r="J165" s="116"/>
+      <c r="K165" s="116"/>
+      <c r="L165" s="116"/>
+      <c r="M165" s="116"/>
+      <c r="N165" s="116"/>
       <c r="O165" s="14"/>
-      <c r="P165" s="76"/>
+      <c r="P165" s="148"/>
     </row>
     <row r="166" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="121"/>
-      <c r="B166" s="130"/>
-      <c r="C166" s="130"/>
-      <c r="D166" s="130"/>
+      <c r="A166" s="106"/>
+      <c r="B166" s="91"/>
+      <c r="C166" s="91"/>
+      <c r="D166" s="91"/>
       <c r="E166" s="34" t="s">
         <v>51</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="34"/>
       <c r="H166" s="22"/>
-      <c r="I166" s="88"/>
-      <c r="J166" s="88"/>
-      <c r="K166" s="88"/>
-      <c r="L166" s="88"/>
-      <c r="M166" s="88"/>
-      <c r="N166" s="88"/>
+      <c r="I166" s="116"/>
+      <c r="J166" s="116"/>
+      <c r="K166" s="116"/>
+      <c r="L166" s="116"/>
+      <c r="M166" s="116"/>
+      <c r="N166" s="116"/>
       <c r="O166" s="14"/>
-      <c r="P166" s="76"/>
+      <c r="P166" s="148"/>
     </row>
     <row r="167" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="121"/>
-      <c r="B167" s="130"/>
-      <c r="C167" s="130"/>
-      <c r="D167" s="130"/>
+      <c r="A167" s="106"/>
+      <c r="B167" s="91"/>
+      <c r="C167" s="91"/>
+      <c r="D167" s="91"/>
       <c r="E167" s="34" t="s">
         <v>251</v>
       </c>
@@ -7417,20 +7417,20 @@
       </c>
       <c r="G167" s="34"/>
       <c r="H167" s="22"/>
-      <c r="I167" s="88"/>
-      <c r="J167" s="88"/>
-      <c r="K167" s="88"/>
-      <c r="L167" s="88"/>
-      <c r="M167" s="88"/>
-      <c r="N167" s="88"/>
+      <c r="I167" s="116"/>
+      <c r="J167" s="116"/>
+      <c r="K167" s="116"/>
+      <c r="L167" s="116"/>
+      <c r="M167" s="116"/>
+      <c r="N167" s="116"/>
       <c r="O167" s="14"/>
-      <c r="P167" s="76"/>
+      <c r="P167" s="148"/>
     </row>
     <row r="168" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="121"/>
-      <c r="B168" s="130"/>
-      <c r="C168" s="130"/>
-      <c r="D168" s="130"/>
+      <c r="A168" s="106"/>
+      <c r="B168" s="91"/>
+      <c r="C168" s="91"/>
+      <c r="D168" s="91"/>
       <c r="E168" s="34" t="s">
         <v>253</v>
       </c>
@@ -7439,20 +7439,20 @@
       </c>
       <c r="G168" s="34"/>
       <c r="H168" s="21"/>
-      <c r="I168" s="88"/>
-      <c r="J168" s="88"/>
-      <c r="K168" s="88"/>
-      <c r="L168" s="88"/>
-      <c r="M168" s="88"/>
-      <c r="N168" s="88"/>
+      <c r="I168" s="116"/>
+      <c r="J168" s="116"/>
+      <c r="K168" s="116"/>
+      <c r="L168" s="116"/>
+      <c r="M168" s="116"/>
+      <c r="N168" s="116"/>
       <c r="O168" s="14"/>
-      <c r="P168" s="76"/>
+      <c r="P168" s="148"/>
     </row>
     <row r="169" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A169" s="121"/>
-      <c r="B169" s="130"/>
-      <c r="C169" s="130"/>
-      <c r="D169" s="130"/>
+      <c r="A169" s="106"/>
+      <c r="B169" s="91"/>
+      <c r="C169" s="91"/>
+      <c r="D169" s="91"/>
       <c r="E169" s="34" t="s">
         <v>255</v>
       </c>
@@ -7461,20 +7461,20 @@
       </c>
       <c r="G169" s="34"/>
       <c r="H169" s="22"/>
-      <c r="I169" s="88"/>
-      <c r="J169" s="88"/>
-      <c r="K169" s="88"/>
-      <c r="L169" s="88"/>
-      <c r="M169" s="88"/>
-      <c r="N169" s="88"/>
+      <c r="I169" s="116"/>
+      <c r="J169" s="116"/>
+      <c r="K169" s="116"/>
+      <c r="L169" s="116"/>
+      <c r="M169" s="116"/>
+      <c r="N169" s="116"/>
       <c r="O169" s="14"/>
-      <c r="P169" s="76"/>
+      <c r="P169" s="148"/>
     </row>
     <row r="170" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="121"/>
-      <c r="B170" s="130"/>
-      <c r="C170" s="130"/>
-      <c r="D170" s="130"/>
+      <c r="A170" s="106"/>
+      <c r="B170" s="91"/>
+      <c r="C170" s="91"/>
+      <c r="D170" s="91"/>
       <c r="E170" s="34" t="s">
         <v>257</v>
       </c>
@@ -7483,20 +7483,20 @@
       </c>
       <c r="G170" s="34"/>
       <c r="H170" s="22"/>
-      <c r="I170" s="88"/>
-      <c r="J170" s="88"/>
-      <c r="K170" s="88"/>
-      <c r="L170" s="88"/>
-      <c r="M170" s="88"/>
-      <c r="N170" s="88"/>
+      <c r="I170" s="116"/>
+      <c r="J170" s="116"/>
+      <c r="K170" s="116"/>
+      <c r="L170" s="116"/>
+      <c r="M170" s="116"/>
+      <c r="N170" s="116"/>
       <c r="O170" s="14"/>
-      <c r="P170" s="76"/>
+      <c r="P170" s="148"/>
     </row>
     <row r="171" spans="1:16" s="16" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A171" s="121"/>
-      <c r="B171" s="130"/>
-      <c r="C171" s="130"/>
-      <c r="D171" s="130"/>
+      <c r="A171" s="106"/>
+      <c r="B171" s="91"/>
+      <c r="C171" s="91"/>
+      <c r="D171" s="91"/>
       <c r="E171" s="34" t="s">
         <v>259</v>
       </c>
@@ -7505,20 +7505,20 @@
       </c>
       <c r="G171" s="34"/>
       <c r="H171" s="22"/>
-      <c r="I171" s="88"/>
-      <c r="J171" s="88"/>
-      <c r="K171" s="88"/>
-      <c r="L171" s="88"/>
-      <c r="M171" s="88"/>
-      <c r="N171" s="88"/>
+      <c r="I171" s="116"/>
+      <c r="J171" s="116"/>
+      <c r="K171" s="116"/>
+      <c r="L171" s="116"/>
+      <c r="M171" s="116"/>
+      <c r="N171" s="116"/>
       <c r="O171" s="14"/>
-      <c r="P171" s="76"/>
+      <c r="P171" s="148"/>
     </row>
     <row r="172" spans="1:16" s="16" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A172" s="121"/>
-      <c r="B172" s="130"/>
-      <c r="C172" s="130"/>
-      <c r="D172" s="130"/>
+      <c r="A172" s="106"/>
+      <c r="B172" s="91"/>
+      <c r="C172" s="91"/>
+      <c r="D172" s="91"/>
       <c r="E172" s="34" t="s">
         <v>261</v>
       </c>
@@ -7527,19 +7527,19 @@
       </c>
       <c r="G172" s="34"/>
       <c r="H172" s="22"/>
-      <c r="I172" s="88"/>
-      <c r="J172" s="88"/>
-      <c r="K172" s="88"/>
-      <c r="L172" s="88"/>
-      <c r="M172" s="88"/>
-      <c r="N172" s="88"/>
+      <c r="I172" s="116"/>
+      <c r="J172" s="116"/>
+      <c r="K172" s="116"/>
+      <c r="L172" s="116"/>
+      <c r="M172" s="116"/>
+      <c r="N172" s="116"/>
       <c r="O172" s="14"/>
-      <c r="P172" s="76"/>
+      <c r="P172" s="148"/>
     </row>
     <row r="173" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A173" s="121"/>
-      <c r="B173" s="130"/>
-      <c r="C173" s="130"/>
+      <c r="A173" s="106"/>
+      <c r="B173" s="91"/>
+      <c r="C173" s="91"/>
       <c r="D173" s="34" t="s">
         <v>263</v>
       </c>
@@ -7549,19 +7549,19 @@
       </c>
       <c r="G173" s="34"/>
       <c r="H173" s="22"/>
-      <c r="I173" s="83"/>
-      <c r="J173" s="83"/>
-      <c r="K173" s="83"/>
-      <c r="L173" s="83"/>
-      <c r="M173" s="83"/>
-      <c r="N173" s="83"/>
+      <c r="I173" s="117"/>
+      <c r="J173" s="117"/>
+      <c r="K173" s="117"/>
+      <c r="L173" s="117"/>
+      <c r="M173" s="117"/>
+      <c r="N173" s="117"/>
       <c r="O173" s="14"/>
-      <c r="P173" s="76"/>
+      <c r="P173" s="148"/>
     </row>
     <row r="174" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="121"/>
-      <c r="B174" s="130"/>
-      <c r="C174" s="130" t="s">
+      <c r="A174" s="106"/>
+      <c r="B174" s="91"/>
+      <c r="C174" s="91" t="s">
         <v>265</v>
       </c>
       <c r="D174" s="34" t="s">
@@ -7573,25 +7573,25 @@
       </c>
       <c r="G174" s="34"/>
       <c r="H174" s="22"/>
-      <c r="I174" s="82"/>
-      <c r="J174" s="82">
+      <c r="I174" s="115"/>
+      <c r="J174" s="115">
         <v>3</v>
       </c>
-      <c r="K174" s="82">
+      <c r="K174" s="115">
         <v>10</v>
       </c>
-      <c r="L174" s="82"/>
-      <c r="M174" s="82"/>
-      <c r="N174" s="82">
+      <c r="L174" s="115"/>
+      <c r="M174" s="115"/>
+      <c r="N174" s="115">
         <v>14</v>
       </c>
       <c r="O174" s="14"/>
-      <c r="P174" s="80"/>
+      <c r="P174" s="152"/>
     </row>
     <row r="175" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="121"/>
-      <c r="B175" s="130"/>
-      <c r="C175" s="130"/>
+      <c r="A175" s="106"/>
+      <c r="B175" s="91"/>
+      <c r="C175" s="91"/>
       <c r="D175" s="34" t="s">
         <v>266</v>
       </c>
@@ -7601,19 +7601,19 @@
       </c>
       <c r="G175" s="34"/>
       <c r="H175" s="22"/>
-      <c r="I175" s="88"/>
-      <c r="J175" s="88"/>
-      <c r="K175" s="88"/>
-      <c r="L175" s="88"/>
-      <c r="M175" s="88"/>
-      <c r="N175" s="88"/>
+      <c r="I175" s="116"/>
+      <c r="J175" s="116"/>
+      <c r="K175" s="116"/>
+      <c r="L175" s="116"/>
+      <c r="M175" s="116"/>
+      <c r="N175" s="116"/>
       <c r="O175" s="14"/>
-      <c r="P175" s="76"/>
+      <c r="P175" s="148"/>
     </row>
     <row r="176" spans="1:16" s="16" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A176" s="121"/>
-      <c r="B176" s="130"/>
-      <c r="C176" s="130"/>
+      <c r="A176" s="106"/>
+      <c r="B176" s="91"/>
+      <c r="C176" s="91"/>
       <c r="D176" s="35" t="s">
         <v>268</v>
       </c>
@@ -7625,19 +7625,19 @@
         <v>270</v>
       </c>
       <c r="H176" s="22"/>
-      <c r="I176" s="88"/>
-      <c r="J176" s="88"/>
-      <c r="K176" s="88"/>
-      <c r="L176" s="88"/>
-      <c r="M176" s="88"/>
-      <c r="N176" s="88"/>
+      <c r="I176" s="116"/>
+      <c r="J176" s="116"/>
+      <c r="K176" s="116"/>
+      <c r="L176" s="116"/>
+      <c r="M176" s="116"/>
+      <c r="N176" s="116"/>
       <c r="O176" s="14"/>
-      <c r="P176" s="76"/>
+      <c r="P176" s="148"/>
     </row>
     <row r="177" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A177" s="121"/>
-      <c r="B177" s="130"/>
-      <c r="C177" s="130"/>
+      <c r="A177" s="106"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="91"/>
       <c r="D177" s="34" t="s">
         <v>271</v>
       </c>
@@ -7647,21 +7647,21 @@
       </c>
       <c r="G177" s="34"/>
       <c r="H177" s="22"/>
-      <c r="I177" s="83"/>
-      <c r="J177" s="83"/>
-      <c r="K177" s="83"/>
-      <c r="L177" s="83"/>
-      <c r="M177" s="83"/>
-      <c r="N177" s="83"/>
+      <c r="I177" s="117"/>
+      <c r="J177" s="117"/>
+      <c r="K177" s="117"/>
+      <c r="L177" s="117"/>
+      <c r="M177" s="117"/>
+      <c r="N177" s="117"/>
       <c r="O177" s="14"/>
-      <c r="P177" s="76"/>
+      <c r="P177" s="148"/>
     </row>
     <row r="178" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="121"/>
-      <c r="B178" s="126" t="s">
+      <c r="A178" s="106"/>
+      <c r="B178" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="C178" s="126" t="s">
+      <c r="C178" s="92" t="s">
         <v>274</v>
       </c>
       <c r="D178" s="34" t="s">
@@ -7671,25 +7671,25 @@
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
       <c r="H178" s="22"/>
-      <c r="I178" s="82"/>
-      <c r="J178" s="82">
+      <c r="I178" s="115"/>
+      <c r="J178" s="115">
         <v>2</v>
       </c>
-      <c r="K178" s="82">
+      <c r="K178" s="115">
         <v>2</v>
       </c>
-      <c r="L178" s="82"/>
-      <c r="M178" s="82"/>
-      <c r="N178" s="82">
+      <c r="L178" s="115"/>
+      <c r="M178" s="115"/>
+      <c r="N178" s="115">
         <v>2</v>
       </c>
       <c r="O178" s="14"/>
       <c r="P178" s="48"/>
     </row>
     <row r="179" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="121"/>
-      <c r="B179" s="133"/>
-      <c r="C179" s="133"/>
+      <c r="A179" s="106"/>
+      <c r="B179" s="93"/>
+      <c r="C179" s="93"/>
       <c r="D179" s="34" t="s">
         <v>276</v>
       </c>
@@ -7697,19 +7697,19 @@
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
       <c r="H179" s="22"/>
-      <c r="I179" s="88"/>
-      <c r="J179" s="88"/>
-      <c r="K179" s="88"/>
-      <c r="L179" s="88"/>
-      <c r="M179" s="88"/>
-      <c r="N179" s="88"/>
+      <c r="I179" s="116"/>
+      <c r="J179" s="116"/>
+      <c r="K179" s="116"/>
+      <c r="L179" s="116"/>
+      <c r="M179" s="116"/>
+      <c r="N179" s="116"/>
       <c r="O179" s="14"/>
       <c r="P179" s="48"/>
     </row>
     <row r="180" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="121"/>
-      <c r="B180" s="133"/>
-      <c r="C180" s="134"/>
+      <c r="A180" s="106"/>
+      <c r="B180" s="93"/>
+      <c r="C180" s="98"/>
       <c r="D180" s="34" t="s">
         <v>277</v>
       </c>
@@ -7717,19 +7717,19 @@
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
       <c r="H180" s="22"/>
-      <c r="I180" s="88"/>
-      <c r="J180" s="88"/>
-      <c r="K180" s="88"/>
-      <c r="L180" s="88"/>
-      <c r="M180" s="88"/>
-      <c r="N180" s="88"/>
+      <c r="I180" s="116"/>
+      <c r="J180" s="116"/>
+      <c r="K180" s="116"/>
+      <c r="L180" s="116"/>
+      <c r="M180" s="116"/>
+      <c r="N180" s="116"/>
       <c r="O180" s="14"/>
       <c r="P180" s="48"/>
     </row>
     <row r="181" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="121"/>
-      <c r="B181" s="133"/>
-      <c r="C181" s="126" t="s">
+      <c r="A181" s="106"/>
+      <c r="B181" s="93"/>
+      <c r="C181" s="92" t="s">
         <v>278</v>
       </c>
       <c r="D181" s="34" t="s">
@@ -7741,19 +7741,19 @@
       </c>
       <c r="G181" s="34"/>
       <c r="H181" s="22"/>
-      <c r="I181" s="88"/>
-      <c r="J181" s="88"/>
-      <c r="K181" s="88"/>
-      <c r="L181" s="88"/>
-      <c r="M181" s="88"/>
-      <c r="N181" s="88"/>
+      <c r="I181" s="116"/>
+      <c r="J181" s="116"/>
+      <c r="K181" s="116"/>
+      <c r="L181" s="116"/>
+      <c r="M181" s="116"/>
+      <c r="N181" s="116"/>
       <c r="O181" s="14"/>
       <c r="P181" s="48"/>
     </row>
     <row r="182" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="121"/>
-      <c r="B182" s="133"/>
-      <c r="C182" s="134"/>
+      <c r="A182" s="106"/>
+      <c r="B182" s="93"/>
+      <c r="C182" s="98"/>
       <c r="D182" s="34" t="s">
         <v>281</v>
       </c>
@@ -7763,19 +7763,19 @@
       </c>
       <c r="G182" s="34"/>
       <c r="H182" s="22"/>
-      <c r="I182" s="88"/>
-      <c r="J182" s="88"/>
-      <c r="K182" s="88"/>
-      <c r="L182" s="88"/>
-      <c r="M182" s="88"/>
-      <c r="N182" s="88"/>
+      <c r="I182" s="116"/>
+      <c r="J182" s="116"/>
+      <c r="K182" s="116"/>
+      <c r="L182" s="116"/>
+      <c r="M182" s="116"/>
+      <c r="N182" s="116"/>
       <c r="O182" s="14"/>
       <c r="P182" s="48"/>
     </row>
     <row r="183" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="121"/>
-      <c r="B183" s="133"/>
-      <c r="C183" s="126" t="s">
+      <c r="A183" s="106"/>
+      <c r="B183" s="93"/>
+      <c r="C183" s="92" t="s">
         <v>283</v>
       </c>
       <c r="D183" s="34" t="s">
@@ -7787,19 +7787,19 @@
       </c>
       <c r="G183" s="34"/>
       <c r="H183" s="22"/>
-      <c r="I183" s="88"/>
-      <c r="J183" s="88"/>
-      <c r="K183" s="88"/>
-      <c r="L183" s="88"/>
-      <c r="M183" s="88"/>
-      <c r="N183" s="88"/>
+      <c r="I183" s="116"/>
+      <c r="J183" s="116"/>
+      <c r="K183" s="116"/>
+      <c r="L183" s="116"/>
+      <c r="M183" s="116"/>
+      <c r="N183" s="116"/>
       <c r="O183" s="14"/>
       <c r="P183" s="48"/>
     </row>
     <row r="184" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="121"/>
-      <c r="B184" s="133"/>
-      <c r="C184" s="133"/>
+      <c r="A184" s="106"/>
+      <c r="B184" s="93"/>
+      <c r="C184" s="93"/>
       <c r="D184" s="34" t="s">
         <v>276</v>
       </c>
@@ -7807,19 +7807,19 @@
       <c r="F184" s="34"/>
       <c r="G184" s="34"/>
       <c r="H184" s="22"/>
-      <c r="I184" s="88"/>
-      <c r="J184" s="88"/>
-      <c r="K184" s="88"/>
-      <c r="L184" s="88"/>
-      <c r="M184" s="88"/>
-      <c r="N184" s="88"/>
+      <c r="I184" s="116"/>
+      <c r="J184" s="116"/>
+      <c r="K184" s="116"/>
+      <c r="L184" s="116"/>
+      <c r="M184" s="116"/>
+      <c r="N184" s="116"/>
       <c r="O184" s="14"/>
       <c r="P184" s="48"/>
     </row>
     <row r="185" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="121"/>
-      <c r="B185" s="134"/>
-      <c r="C185" s="134"/>
+      <c r="A185" s="106"/>
+      <c r="B185" s="98"/>
+      <c r="C185" s="98"/>
       <c r="D185" s="34" t="s">
         <v>277</v>
       </c>
@@ -7827,18 +7827,18 @@
       <c r="F185" s="34"/>
       <c r="G185" s="34"/>
       <c r="H185" s="22"/>
-      <c r="I185" s="83"/>
-      <c r="J185" s="83"/>
-      <c r="K185" s="83"/>
-      <c r="L185" s="83"/>
-      <c r="M185" s="83"/>
-      <c r="N185" s="83"/>
+      <c r="I185" s="117"/>
+      <c r="J185" s="117"/>
+      <c r="K185" s="117"/>
+      <c r="L185" s="117"/>
+      <c r="M185" s="117"/>
+      <c r="N185" s="117"/>
       <c r="O185" s="14"/>
       <c r="P185" s="48"/>
     </row>
     <row r="186" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A186" s="121"/>
-      <c r="B186" s="126" t="s">
+      <c r="A186" s="106"/>
+      <c r="B186" s="92" t="s">
         <v>285</v>
       </c>
       <c r="C186" s="34" t="s">
@@ -7849,25 +7849,25 @@
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
       <c r="H186" s="22"/>
-      <c r="I186" s="82"/>
-      <c r="J186" s="82">
+      <c r="I186" s="115"/>
+      <c r="J186" s="115">
         <v>0.5</v>
       </c>
-      <c r="K186" s="82">
+      <c r="K186" s="115">
         <v>1</v>
       </c>
-      <c r="L186" s="82"/>
-      <c r="M186" s="82"/>
-      <c r="N186" s="82">
+      <c r="L186" s="115"/>
+      <c r="M186" s="115"/>
+      <c r="N186" s="115">
         <v>1</v>
       </c>
       <c r="O186" s="14"/>
       <c r="P186" s="48"/>
     </row>
     <row r="187" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="121"/>
-      <c r="B187" s="127"/>
-      <c r="C187" s="130" t="s">
+      <c r="A187" s="106"/>
+      <c r="B187" s="112"/>
+      <c r="C187" s="91" t="s">
         <v>287</v>
       </c>
       <c r="D187" s="34" t="s">
@@ -7879,19 +7879,19 @@
       </c>
       <c r="G187" s="34"/>
       <c r="H187" s="22"/>
-      <c r="I187" s="88"/>
-      <c r="J187" s="88"/>
-      <c r="K187" s="88"/>
-      <c r="L187" s="88"/>
-      <c r="M187" s="88"/>
-      <c r="N187" s="88"/>
+      <c r="I187" s="116"/>
+      <c r="J187" s="116"/>
+      <c r="K187" s="116"/>
+      <c r="L187" s="116"/>
+      <c r="M187" s="116"/>
+      <c r="N187" s="116"/>
       <c r="O187" s="14"/>
       <c r="P187" s="48"/>
     </row>
     <row r="188" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="121"/>
-      <c r="B188" s="128"/>
-      <c r="C188" s="130"/>
+      <c r="A188" s="106"/>
+      <c r="B188" s="87"/>
+      <c r="C188" s="91"/>
       <c r="D188" s="34" t="s">
         <v>290</v>
       </c>
@@ -7901,19 +7901,19 @@
       </c>
       <c r="G188" s="34"/>
       <c r="H188" s="22"/>
-      <c r="I188" s="88"/>
-      <c r="J188" s="88"/>
-      <c r="K188" s="88"/>
-      <c r="L188" s="88"/>
-      <c r="M188" s="88"/>
-      <c r="N188" s="88"/>
+      <c r="I188" s="116"/>
+      <c r="J188" s="116"/>
+      <c r="K188" s="116"/>
+      <c r="L188" s="116"/>
+      <c r="M188" s="116"/>
+      <c r="N188" s="116"/>
       <c r="O188" s="14"/>
       <c r="P188" s="48"/>
     </row>
     <row r="189" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A189" s="121"/>
-      <c r="B189" s="128"/>
-      <c r="C189" s="130"/>
+      <c r="A189" s="106"/>
+      <c r="B189" s="87"/>
+      <c r="C189" s="91"/>
       <c r="D189" s="34" t="s">
         <v>31</v>
       </c>
@@ -7923,19 +7923,19 @@
       </c>
       <c r="G189" s="34"/>
       <c r="H189" s="22"/>
-      <c r="I189" s="88"/>
-      <c r="J189" s="88"/>
-      <c r="K189" s="88"/>
-      <c r="L189" s="88"/>
-      <c r="M189" s="88"/>
-      <c r="N189" s="88"/>
+      <c r="I189" s="116"/>
+      <c r="J189" s="116"/>
+      <c r="K189" s="116"/>
+      <c r="L189" s="116"/>
+      <c r="M189" s="116"/>
+      <c r="N189" s="116"/>
       <c r="O189" s="14"/>
       <c r="P189" s="48"/>
     </row>
     <row r="190" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="121"/>
-      <c r="B190" s="128"/>
-      <c r="C190" s="130" t="s">
+      <c r="A190" s="106"/>
+      <c r="B190" s="87"/>
+      <c r="C190" s="91" t="s">
         <v>292</v>
       </c>
       <c r="D190" s="34" t="s">
@@ -7947,19 +7947,19 @@
       </c>
       <c r="G190" s="34"/>
       <c r="H190" s="22"/>
-      <c r="I190" s="88"/>
-      <c r="J190" s="88"/>
-      <c r="K190" s="88"/>
-      <c r="L190" s="88"/>
-      <c r="M190" s="88"/>
-      <c r="N190" s="88"/>
+      <c r="I190" s="116"/>
+      <c r="J190" s="116"/>
+      <c r="K190" s="116"/>
+      <c r="L190" s="116"/>
+      <c r="M190" s="116"/>
+      <c r="N190" s="116"/>
       <c r="O190" s="14"/>
       <c r="P190" s="48"/>
     </row>
     <row r="191" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="121"/>
-      <c r="B191" s="128"/>
-      <c r="C191" s="130"/>
+      <c r="A191" s="106"/>
+      <c r="B191" s="87"/>
+      <c r="C191" s="91"/>
       <c r="D191" s="34" t="s">
         <v>295</v>
       </c>
@@ -7969,19 +7969,19 @@
       </c>
       <c r="G191" s="34"/>
       <c r="H191" s="22"/>
-      <c r="I191" s="88"/>
-      <c r="J191" s="88"/>
-      <c r="K191" s="88"/>
-      <c r="L191" s="88"/>
-      <c r="M191" s="88"/>
-      <c r="N191" s="88"/>
+      <c r="I191" s="116"/>
+      <c r="J191" s="116"/>
+      <c r="K191" s="116"/>
+      <c r="L191" s="116"/>
+      <c r="M191" s="116"/>
+      <c r="N191" s="116"/>
       <c r="O191" s="14"/>
       <c r="P191" s="48"/>
     </row>
     <row r="192" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="121"/>
-      <c r="B192" s="128"/>
-      <c r="C192" s="130" t="s">
+      <c r="A192" s="106"/>
+      <c r="B192" s="87"/>
+      <c r="C192" s="91" t="s">
         <v>296</v>
       </c>
       <c r="D192" s="34" t="s">
@@ -7993,19 +7993,19 @@
       </c>
       <c r="G192" s="34"/>
       <c r="H192" s="22"/>
-      <c r="I192" s="88"/>
-      <c r="J192" s="88"/>
-      <c r="K192" s="88"/>
-      <c r="L192" s="88"/>
-      <c r="M192" s="88"/>
-      <c r="N192" s="88"/>
+      <c r="I192" s="116"/>
+      <c r="J192" s="116"/>
+      <c r="K192" s="116"/>
+      <c r="L192" s="116"/>
+      <c r="M192" s="116"/>
+      <c r="N192" s="116"/>
       <c r="O192" s="14"/>
       <c r="P192" s="48"/>
     </row>
     <row r="193" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="121"/>
-      <c r="B193" s="129"/>
-      <c r="C193" s="130"/>
+      <c r="A193" s="106"/>
+      <c r="B193" s="90"/>
+      <c r="C193" s="91"/>
       <c r="D193" s="34" t="s">
         <v>299</v>
       </c>
@@ -8015,21 +8015,21 @@
       </c>
       <c r="G193" s="34"/>
       <c r="H193" s="22"/>
-      <c r="I193" s="83"/>
-      <c r="J193" s="83"/>
-      <c r="K193" s="83"/>
-      <c r="L193" s="83"/>
-      <c r="M193" s="83"/>
-      <c r="N193" s="83"/>
+      <c r="I193" s="117"/>
+      <c r="J193" s="117"/>
+      <c r="K193" s="117"/>
+      <c r="L193" s="117"/>
+      <c r="M193" s="117"/>
+      <c r="N193" s="117"/>
       <c r="O193" s="14"/>
       <c r="P193" s="48"/>
     </row>
     <row r="194" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="121"/>
-      <c r="B194" s="130" t="s">
+      <c r="A194" s="106"/>
+      <c r="B194" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="C194" s="130" t="s">
+      <c r="C194" s="91" t="s">
         <v>301</v>
       </c>
       <c r="D194" s="34" t="s">
@@ -8043,25 +8043,25 @@
       </c>
       <c r="G194" s="34"/>
       <c r="H194" s="22"/>
-      <c r="I194" s="82"/>
-      <c r="J194" s="82">
+      <c r="I194" s="115"/>
+      <c r="J194" s="115">
         <v>0.75</v>
       </c>
-      <c r="K194" s="82">
+      <c r="K194" s="115">
         <v>0.75</v>
       </c>
-      <c r="L194" s="82"/>
-      <c r="M194" s="82"/>
-      <c r="N194" s="82">
+      <c r="L194" s="115"/>
+      <c r="M194" s="115"/>
+      <c r="N194" s="115">
         <v>0.75</v>
       </c>
       <c r="O194" s="14"/>
       <c r="P194" s="48"/>
     </row>
     <row r="195" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="121"/>
-      <c r="B195" s="130"/>
-      <c r="C195" s="130"/>
+      <c r="A195" s="106"/>
+      <c r="B195" s="91"/>
+      <c r="C195" s="91"/>
       <c r="D195" s="34"/>
       <c r="E195" s="34" t="s">
         <v>304</v>
@@ -8071,21 +8071,21 @@
       </c>
       <c r="G195" s="34"/>
       <c r="H195" s="22"/>
-      <c r="I195" s="83"/>
-      <c r="J195" s="83"/>
-      <c r="K195" s="83"/>
-      <c r="L195" s="83"/>
-      <c r="M195" s="83"/>
-      <c r="N195" s="83"/>
+      <c r="I195" s="117"/>
+      <c r="J195" s="117"/>
+      <c r="K195" s="117"/>
+      <c r="L195" s="117"/>
+      <c r="M195" s="117"/>
+      <c r="N195" s="117"/>
       <c r="O195" s="14"/>
       <c r="P195" s="48"/>
     </row>
     <row r="196" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="121"/>
-      <c r="B196" s="119" t="s">
+      <c r="A196" s="106"/>
+      <c r="B196" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="C196" s="119" t="s">
+      <c r="C196" s="104" t="s">
         <v>306</v>
       </c>
       <c r="D196" s="53" t="s">
@@ -8099,19 +8099,19 @@
         <v>309</v>
       </c>
       <c r="H196" s="54"/>
-      <c r="I196" s="84"/>
-      <c r="J196" s="84"/>
-      <c r="K196" s="84"/>
-      <c r="L196" s="84"/>
-      <c r="M196" s="84"/>
-      <c r="N196" s="84"/>
+      <c r="I196" s="134"/>
+      <c r="J196" s="134"/>
+      <c r="K196" s="134"/>
+      <c r="L196" s="134"/>
+      <c r="M196" s="134"/>
+      <c r="N196" s="134"/>
       <c r="O196" s="55"/>
       <c r="P196"/>
     </row>
     <row r="197" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="121"/>
-      <c r="B197" s="119"/>
-      <c r="C197" s="119"/>
+      <c r="A197" s="106"/>
+      <c r="B197" s="104"/>
+      <c r="C197" s="104"/>
       <c r="D197" s="53" t="s">
         <v>310</v>
       </c>
@@ -8121,19 +8121,19 @@
       </c>
       <c r="G197" s="53"/>
       <c r="H197" s="54"/>
-      <c r="I197" s="85"/>
-      <c r="J197" s="85"/>
-      <c r="K197" s="85"/>
-      <c r="L197" s="85"/>
-      <c r="M197" s="85"/>
-      <c r="N197" s="85"/>
+      <c r="I197" s="135"/>
+      <c r="J197" s="135"/>
+      <c r="K197" s="135"/>
+      <c r="L197" s="135"/>
+      <c r="M197" s="135"/>
+      <c r="N197" s="135"/>
       <c r="O197" s="55"/>
       <c r="P197"/>
     </row>
     <row r="198" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="121"/>
-      <c r="B198" s="119"/>
-      <c r="C198" s="119"/>
+      <c r="A198" s="106"/>
+      <c r="B198" s="104"/>
+      <c r="C198" s="104"/>
       <c r="D198" s="53" t="s">
         <v>311</v>
       </c>
@@ -8143,17 +8143,17 @@
       </c>
       <c r="G198" s="53"/>
       <c r="H198" s="54"/>
-      <c r="I198" s="86"/>
-      <c r="J198" s="86"/>
-      <c r="K198" s="86"/>
-      <c r="L198" s="86"/>
-      <c r="M198" s="86"/>
-      <c r="N198" s="86"/>
+      <c r="I198" s="136"/>
+      <c r="J198" s="136"/>
+      <c r="K198" s="136"/>
+      <c r="L198" s="136"/>
+      <c r="M198" s="136"/>
+      <c r="N198" s="136"/>
       <c r="O198" s="55"/>
       <c r="P198"/>
     </row>
     <row r="199" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A199" s="132"/>
+      <c r="A199" s="114"/>
       <c r="B199" s="70" t="s">
         <v>439</v>
       </c>
@@ -8185,13 +8185,13 @@
       <c r="P199"/>
     </row>
     <row r="200" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="120" t="s">
+      <c r="A200" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="B200" s="104" t="s">
+      <c r="B200" s="108" t="s">
         <v>312</v>
       </c>
-      <c r="C200" s="125" t="s">
+      <c r="C200" s="111" t="s">
         <v>313</v>
       </c>
       <c r="D200" s="36" t="s">
@@ -8205,21 +8205,21 @@
       <c r="H200" s="22"/>
       <c r="I200" s="41"/>
       <c r="J200" s="37"/>
-      <c r="K200" s="82">
+      <c r="K200" s="115">
         <v>10</v>
       </c>
-      <c r="L200" s="82"/>
-      <c r="M200" s="82"/>
-      <c r="N200" s="82">
+      <c r="L200" s="115"/>
+      <c r="M200" s="115"/>
+      <c r="N200" s="115">
         <v>0</v>
       </c>
       <c r="O200" s="14"/>
       <c r="P200" s="50"/>
     </row>
     <row r="201" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A201" s="121"/>
-      <c r="B201" s="123"/>
-      <c r="C201" s="125"/>
+      <c r="A201" s="106"/>
+      <c r="B201" s="109"/>
+      <c r="C201" s="111"/>
       <c r="D201" s="36" t="s">
         <v>316</v>
       </c>
@@ -8231,17 +8231,17 @@
       <c r="H201" s="22"/>
       <c r="I201" s="39"/>
       <c r="J201" s="29"/>
-      <c r="K201" s="88"/>
-      <c r="L201" s="88"/>
-      <c r="M201" s="88"/>
-      <c r="N201" s="88"/>
+      <c r="K201" s="116"/>
+      <c r="L201" s="116"/>
+      <c r="M201" s="116"/>
+      <c r="N201" s="116"/>
       <c r="O201" s="14"/>
       <c r="P201" s="48"/>
     </row>
     <row r="202" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A202" s="121"/>
-      <c r="B202" s="123"/>
-      <c r="C202" s="125"/>
+      <c r="A202" s="106"/>
+      <c r="B202" s="109"/>
+      <c r="C202" s="111"/>
       <c r="D202" s="36" t="s">
         <v>318</v>
       </c>
@@ -8253,17 +8253,17 @@
       <c r="H202" s="22"/>
       <c r="I202" s="39"/>
       <c r="J202" s="29"/>
-      <c r="K202" s="88"/>
-      <c r="L202" s="88"/>
-      <c r="M202" s="88"/>
-      <c r="N202" s="88"/>
+      <c r="K202" s="116"/>
+      <c r="L202" s="116"/>
+      <c r="M202" s="116"/>
+      <c r="N202" s="116"/>
       <c r="O202" s="14"/>
       <c r="P202" s="48"/>
     </row>
     <row r="203" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="121"/>
-      <c r="B203" s="123"/>
-      <c r="C203" s="125"/>
+      <c r="A203" s="106"/>
+      <c r="B203" s="109"/>
+      <c r="C203" s="111"/>
       <c r="D203" s="36" t="s">
         <v>320</v>
       </c>
@@ -8275,18 +8275,18 @@
       <c r="H203" s="22"/>
       <c r="I203" s="39"/>
       <c r="J203" s="29"/>
-      <c r="K203" s="88"/>
-      <c r="L203" s="88"/>
-      <c r="M203" s="88"/>
-      <c r="N203" s="88"/>
+      <c r="K203" s="116"/>
+      <c r="L203" s="116"/>
+      <c r="M203" s="116"/>
+      <c r="N203" s="116"/>
       <c r="O203" s="14"/>
       <c r="P203" s="48"/>
     </row>
     <row r="204" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="121"/>
-      <c r="B204" s="123"/>
-      <c r="C204" s="125"/>
-      <c r="D204" s="104" t="s">
+      <c r="A204" s="106"/>
+      <c r="B204" s="109"/>
+      <c r="C204" s="111"/>
+      <c r="D204" s="108" t="s">
         <v>322</v>
       </c>
       <c r="E204" s="36" t="s">
@@ -8299,18 +8299,18 @@
       <c r="H204" s="22"/>
       <c r="I204" s="39"/>
       <c r="J204" s="29"/>
-      <c r="K204" s="88"/>
-      <c r="L204" s="88"/>
-      <c r="M204" s="88"/>
-      <c r="N204" s="88"/>
+      <c r="K204" s="116"/>
+      <c r="L204" s="116"/>
+      <c r="M204" s="116"/>
+      <c r="N204" s="116"/>
       <c r="O204" s="14"/>
       <c r="P204" s="48"/>
     </row>
     <row r="205" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A205" s="121"/>
-      <c r="B205" s="123"/>
-      <c r="C205" s="125"/>
-      <c r="D205" s="108"/>
+      <c r="A205" s="106"/>
+      <c r="B205" s="109"/>
+      <c r="C205" s="111"/>
+      <c r="D205" s="124"/>
       <c r="E205" s="36" t="s">
         <v>325</v>
       </c>
@@ -8321,18 +8321,18 @@
       <c r="H205" s="22"/>
       <c r="I205" s="39"/>
       <c r="J205" s="29"/>
-      <c r="K205" s="88"/>
-      <c r="L205" s="88"/>
-      <c r="M205" s="88"/>
-      <c r="N205" s="88"/>
+      <c r="K205" s="116"/>
+      <c r="L205" s="116"/>
+      <c r="M205" s="116"/>
+      <c r="N205" s="116"/>
       <c r="O205" s="14"/>
       <c r="P205" s="48"/>
     </row>
     <row r="206" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A206" s="121"/>
-      <c r="B206" s="123"/>
-      <c r="C206" s="125"/>
-      <c r="D206" s="108"/>
+      <c r="A206" s="106"/>
+      <c r="B206" s="109"/>
+      <c r="C206" s="111"/>
+      <c r="D206" s="124"/>
       <c r="E206" s="36" t="s">
         <v>174</v>
       </c>
@@ -8343,18 +8343,18 @@
       <c r="H206" s="22"/>
       <c r="I206" s="39"/>
       <c r="J206" s="29"/>
-      <c r="K206" s="88"/>
-      <c r="L206" s="88"/>
-      <c r="M206" s="88"/>
-      <c r="N206" s="88"/>
+      <c r="K206" s="116"/>
+      <c r="L206" s="116"/>
+      <c r="M206" s="116"/>
+      <c r="N206" s="116"/>
       <c r="O206" s="14"/>
       <c r="P206" s="48"/>
     </row>
     <row r="207" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A207" s="121"/>
-      <c r="B207" s="123"/>
-      <c r="C207" s="125"/>
-      <c r="D207" s="109"/>
+      <c r="A207" s="106"/>
+      <c r="B207" s="109"/>
+      <c r="C207" s="111"/>
+      <c r="D207" s="125"/>
       <c r="E207" s="36" t="s">
         <v>176</v>
       </c>
@@ -8365,17 +8365,17 @@
       <c r="H207" s="22"/>
       <c r="I207" s="39"/>
       <c r="J207" s="29"/>
-      <c r="K207" s="88"/>
-      <c r="L207" s="88"/>
-      <c r="M207" s="88"/>
-      <c r="N207" s="88"/>
+      <c r="K207" s="116"/>
+      <c r="L207" s="116"/>
+      <c r="M207" s="116"/>
+      <c r="N207" s="116"/>
       <c r="O207" s="14"/>
       <c r="P207" s="48"/>
     </row>
     <row r="208" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A208" s="121"/>
-      <c r="B208" s="123"/>
-      <c r="C208" s="125"/>
+      <c r="A208" s="106"/>
+      <c r="B208" s="109"/>
+      <c r="C208" s="111"/>
       <c r="D208" s="36" t="s">
         <v>329</v>
       </c>
@@ -8387,17 +8387,17 @@
       <c r="H208" s="22"/>
       <c r="I208" s="39"/>
       <c r="J208" s="29"/>
-      <c r="K208" s="88"/>
-      <c r="L208" s="88"/>
-      <c r="M208" s="88"/>
-      <c r="N208" s="88"/>
+      <c r="K208" s="116"/>
+      <c r="L208" s="116"/>
+      <c r="M208" s="116"/>
+      <c r="N208" s="116"/>
       <c r="O208" s="14"/>
       <c r="P208" s="48"/>
     </row>
     <row r="209" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A209" s="121"/>
-      <c r="B209" s="123"/>
-      <c r="C209" s="125"/>
+      <c r="A209" s="106"/>
+      <c r="B209" s="109"/>
+      <c r="C209" s="111"/>
       <c r="D209" s="36" t="s">
         <v>331</v>
       </c>
@@ -8409,17 +8409,17 @@
       <c r="H209" s="22"/>
       <c r="I209" s="39"/>
       <c r="J209" s="29"/>
-      <c r="K209" s="88"/>
-      <c r="L209" s="88"/>
-      <c r="M209" s="88"/>
-      <c r="N209" s="88"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+      <c r="M209" s="116"/>
+      <c r="N209" s="116"/>
       <c r="O209" s="14"/>
       <c r="P209" s="48"/>
     </row>
     <row r="210" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A210" s="122"/>
-      <c r="B210" s="124"/>
-      <c r="C210" s="125"/>
+      <c r="A210" s="107"/>
+      <c r="B210" s="110"/>
+      <c r="C210" s="111"/>
       <c r="D210" s="36" t="s">
         <v>333</v>
       </c>
@@ -8431,15 +8431,15 @@
       <c r="H210" s="22"/>
       <c r="I210" s="40"/>
       <c r="J210" s="38"/>
-      <c r="K210" s="83"/>
-      <c r="L210" s="83"/>
-      <c r="M210" s="83"/>
-      <c r="N210" s="83"/>
+      <c r="K210" s="117"/>
+      <c r="L210" s="117"/>
+      <c r="M210" s="117"/>
+      <c r="N210" s="117"/>
       <c r="O210" s="14"/>
       <c r="P210" s="48"/>
     </row>
     <row r="211" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A211" s="116" t="s">
+      <c r="A211" s="101" t="s">
         <v>335</v>
       </c>
       <c r="B211" s="56" t="s">
@@ -8465,7 +8465,7 @@
       <c r="P211" s="48"/>
     </row>
     <row r="212" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A212" s="117"/>
+      <c r="A212" s="102"/>
       <c r="B212" s="61" t="s">
         <v>27</v>
       </c>
@@ -8479,7 +8479,7 @@
       <c r="H212" s="57"/>
       <c r="I212" s="57"/>
       <c r="J212" s="58"/>
-      <c r="K212" s="92"/>
+      <c r="K212" s="130"/>
       <c r="L212" s="60"/>
       <c r="M212" s="60"/>
       <c r="N212" s="59"/>
@@ -8487,8 +8487,8 @@
       <c r="P212" s="48"/>
     </row>
     <row r="213" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="117"/>
-      <c r="B213" s="110" t="s">
+      <c r="A213" s="102"/>
+      <c r="B213" s="126" t="s">
         <v>29</v>
       </c>
       <c r="C213" s="61" t="s">
@@ -8501,18 +8501,18 @@
       <c r="F213" s="61"/>
       <c r="G213" s="61"/>
       <c r="H213" s="57"/>
-      <c r="I213" s="99"/>
+      <c r="I213" s="137"/>
       <c r="J213" s="58"/>
-      <c r="K213" s="92"/>
-      <c r="L213" s="87"/>
-      <c r="M213" s="87"/>
-      <c r="N213" s="87"/>
+      <c r="K213" s="130"/>
+      <c r="L213" s="142"/>
+      <c r="M213" s="142"/>
+      <c r="N213" s="142"/>
       <c r="O213" s="60"/>
       <c r="P213" s="48"/>
     </row>
     <row r="214" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="117"/>
-      <c r="B214" s="110"/>
+      <c r="A214" s="102"/>
+      <c r="B214" s="126"/>
       <c r="C214" s="61" t="s">
         <v>342</v>
       </c>
@@ -8523,24 +8523,24 @@
       <c r="F214" s="61"/>
       <c r="G214" s="61"/>
       <c r="H214" s="57"/>
-      <c r="I214" s="100"/>
+      <c r="I214" s="138"/>
       <c r="J214" s="58"/>
-      <c r="K214" s="92"/>
-      <c r="L214" s="87"/>
-      <c r="M214" s="87"/>
-      <c r="N214" s="87"/>
+      <c r="K214" s="130"/>
+      <c r="L214" s="142"/>
+      <c r="M214" s="142"/>
+      <c r="N214" s="142"/>
       <c r="O214" s="60"/>
       <c r="P214" s="48"/>
     </row>
     <row r="215" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="117"/>
-      <c r="B215" s="110" t="s">
+      <c r="A215" s="102"/>
+      <c r="B215" s="126" t="s">
         <v>344</v>
       </c>
-      <c r="C215" s="110" t="s">
+      <c r="C215" s="126" t="s">
         <v>344</v>
       </c>
-      <c r="D215" s="111" t="s">
+      <c r="D215" s="99" t="s">
         <v>345</v>
       </c>
       <c r="E215" s="63" t="s">
@@ -8549,20 +8549,20 @@
       <c r="F215" s="61"/>
       <c r="G215" s="61"/>
       <c r="H215" s="57"/>
-      <c r="I215" s="89"/>
+      <c r="I215" s="139"/>
       <c r="J215" s="64"/>
-      <c r="K215" s="89"/>
-      <c r="L215" s="89"/>
-      <c r="M215" s="89"/>
-      <c r="N215" s="89"/>
+      <c r="K215" s="139"/>
+      <c r="L215" s="139"/>
+      <c r="M215" s="139"/>
+      <c r="N215" s="139"/>
       <c r="O215" s="60"/>
       <c r="P215" s="48"/>
     </row>
     <row r="216" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A216" s="117"/>
-      <c r="B216" s="110"/>
-      <c r="C216" s="110"/>
-      <c r="D216" s="112"/>
+      <c r="A216" s="102"/>
+      <c r="B216" s="126"/>
+      <c r="C216" s="126"/>
+      <c r="D216" s="127"/>
       <c r="E216" s="61" t="s">
         <v>347</v>
       </c>
@@ -8571,20 +8571,20 @@
       </c>
       <c r="G216" s="61"/>
       <c r="H216" s="57"/>
-      <c r="I216" s="90"/>
+      <c r="I216" s="140"/>
       <c r="J216" s="65"/>
-      <c r="K216" s="90"/>
-      <c r="L216" s="90"/>
-      <c r="M216" s="90"/>
-      <c r="N216" s="90"/>
+      <c r="K216" s="140"/>
+      <c r="L216" s="140"/>
+      <c r="M216" s="140"/>
+      <c r="N216" s="140"/>
       <c r="O216" s="60"/>
       <c r="P216" s="48"/>
     </row>
     <row r="217" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="117"/>
-      <c r="B217" s="110"/>
-      <c r="C217" s="110"/>
-      <c r="D217" s="112"/>
+      <c r="A217" s="102"/>
+      <c r="B217" s="126"/>
+      <c r="C217" s="126"/>
+      <c r="D217" s="127"/>
       <c r="E217" s="61" t="s">
         <v>349</v>
       </c>
@@ -8593,20 +8593,20 @@
       </c>
       <c r="G217" s="61"/>
       <c r="H217" s="57"/>
-      <c r="I217" s="90"/>
+      <c r="I217" s="140"/>
       <c r="J217" s="65"/>
-      <c r="K217" s="90"/>
-      <c r="L217" s="90"/>
-      <c r="M217" s="90"/>
-      <c r="N217" s="90"/>
+      <c r="K217" s="140"/>
+      <c r="L217" s="140"/>
+      <c r="M217" s="140"/>
+      <c r="N217" s="140"/>
       <c r="O217" s="60"/>
       <c r="P217" s="48"/>
     </row>
     <row r="218" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="117"/>
-      <c r="B218" s="110"/>
-      <c r="C218" s="110"/>
-      <c r="D218" s="113"/>
+      <c r="A218" s="102"/>
+      <c r="B218" s="126"/>
+      <c r="C218" s="126"/>
+      <c r="D218" s="100"/>
       <c r="E218" s="61" t="s">
         <v>351</v>
       </c>
@@ -8615,20 +8615,20 @@
       </c>
       <c r="G218" s="61"/>
       <c r="H218" s="57"/>
-      <c r="I218" s="90"/>
+      <c r="I218" s="140"/>
       <c r="J218" s="65"/>
-      <c r="K218" s="90"/>
-      <c r="L218" s="90"/>
-      <c r="M218" s="90"/>
-      <c r="N218" s="90"/>
+      <c r="K218" s="140"/>
+      <c r="L218" s="140"/>
+      <c r="M218" s="140"/>
+      <c r="N218" s="140"/>
       <c r="O218" s="60"/>
       <c r="P218" s="48"/>
     </row>
     <row r="219" spans="1:16" s="16" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A219" s="117"/>
-      <c r="B219" s="110"/>
-      <c r="C219" s="110"/>
-      <c r="D219" s="114" t="s">
+      <c r="A219" s="102"/>
+      <c r="B219" s="126"/>
+      <c r="C219" s="126"/>
+      <c r="D219" s="128" t="s">
         <v>353</v>
       </c>
       <c r="E219" s="61" t="s">
@@ -8639,20 +8639,20 @@
       </c>
       <c r="G219" s="61"/>
       <c r="H219" s="57"/>
-      <c r="I219" s="90"/>
+      <c r="I219" s="140"/>
       <c r="J219" s="65"/>
-      <c r="K219" s="90"/>
-      <c r="L219" s="90"/>
-      <c r="M219" s="90"/>
-      <c r="N219" s="90"/>
+      <c r="K219" s="140"/>
+      <c r="L219" s="140"/>
+      <c r="M219" s="140"/>
+      <c r="N219" s="140"/>
       <c r="O219" s="60"/>
       <c r="P219" s="48"/>
     </row>
     <row r="220" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="117"/>
-      <c r="B220" s="110"/>
-      <c r="C220" s="110"/>
-      <c r="D220" s="112"/>
+      <c r="A220" s="102"/>
+      <c r="B220" s="126"/>
+      <c r="C220" s="126"/>
+      <c r="D220" s="127"/>
       <c r="E220" s="63" t="s">
         <v>349</v>
       </c>
@@ -8661,20 +8661,20 @@
       </c>
       <c r="G220" s="61"/>
       <c r="H220" s="57"/>
-      <c r="I220" s="90"/>
+      <c r="I220" s="140"/>
       <c r="J220" s="65"/>
-      <c r="K220" s="90"/>
-      <c r="L220" s="90"/>
-      <c r="M220" s="90"/>
-      <c r="N220" s="90"/>
+      <c r="K220" s="140"/>
+      <c r="L220" s="140"/>
+      <c r="M220" s="140"/>
+      <c r="N220" s="140"/>
       <c r="O220" s="60"/>
       <c r="P220" s="48"/>
     </row>
     <row r="221" spans="1:16" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A221" s="117"/>
-      <c r="B221" s="110"/>
-      <c r="C221" s="110"/>
-      <c r="D221" s="112"/>
+      <c r="A221" s="102"/>
+      <c r="B221" s="126"/>
+      <c r="C221" s="126"/>
+      <c r="D221" s="127"/>
       <c r="E221" s="61" t="s">
         <v>357</v>
       </c>
@@ -8683,20 +8683,20 @@
       </c>
       <c r="G221" s="61"/>
       <c r="H221" s="57"/>
-      <c r="I221" s="90"/>
+      <c r="I221" s="140"/>
       <c r="J221" s="65"/>
-      <c r="K221" s="90"/>
-      <c r="L221" s="90"/>
-      <c r="M221" s="90"/>
-      <c r="N221" s="90"/>
+      <c r="K221" s="140"/>
+      <c r="L221" s="140"/>
+      <c r="M221" s="140"/>
+      <c r="N221" s="140"/>
       <c r="O221" s="60"/>
       <c r="P221" s="48"/>
     </row>
     <row r="222" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A222" s="117"/>
-      <c r="B222" s="110"/>
-      <c r="C222" s="110"/>
-      <c r="D222" s="113"/>
+      <c r="A222" s="102"/>
+      <c r="B222" s="126"/>
+      <c r="C222" s="126"/>
+      <c r="D222" s="100"/>
       <c r="E222" s="61" t="s">
         <v>344</v>
       </c>
@@ -8705,19 +8705,19 @@
       </c>
       <c r="G222" s="61"/>
       <c r="H222" s="57"/>
-      <c r="I222" s="91"/>
+      <c r="I222" s="141"/>
       <c r="J222" s="65"/>
-      <c r="K222" s="91"/>
-      <c r="L222" s="91"/>
-      <c r="M222" s="91"/>
-      <c r="N222" s="91"/>
+      <c r="K222" s="141"/>
+      <c r="L222" s="141"/>
+      <c r="M222" s="141"/>
+      <c r="N222" s="141"/>
       <c r="O222" s="60"/>
       <c r="P222" s="49"/>
     </row>
     <row r="223" spans="1:16" s="17" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A223" s="117"/>
-      <c r="B223" s="110"/>
-      <c r="C223" s="111" t="s">
+      <c r="A223" s="102"/>
+      <c r="B223" s="126"/>
+      <c r="C223" s="99" t="s">
         <v>359</v>
       </c>
       <c r="D223" s="61" t="s">
@@ -8729,19 +8729,19 @@
       </c>
       <c r="G223" s="61"/>
       <c r="H223" s="57"/>
-      <c r="I223" s="89"/>
+      <c r="I223" s="139"/>
       <c r="J223" s="65"/>
-      <c r="K223" s="89"/>
-      <c r="L223" s="89"/>
-      <c r="M223" s="89"/>
-      <c r="N223" s="89"/>
+      <c r="K223" s="139"/>
+      <c r="L223" s="139"/>
+      <c r="M223" s="139"/>
+      <c r="N223" s="139"/>
       <c r="O223" s="60"/>
       <c r="P223" s="49"/>
     </row>
     <row r="224" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="117"/>
-      <c r="B224" s="110"/>
-      <c r="C224" s="113"/>
+      <c r="A224" s="102"/>
+      <c r="B224" s="126"/>
+      <c r="C224" s="100"/>
       <c r="D224" s="61" t="s">
         <v>362</v>
       </c>
@@ -8751,19 +8751,19 @@
       </c>
       <c r="G224" s="61"/>
       <c r="H224" s="57"/>
-      <c r="I224" s="90"/>
+      <c r="I224" s="140"/>
       <c r="J224" s="65"/>
-      <c r="K224" s="90"/>
-      <c r="L224" s="90"/>
-      <c r="M224" s="90"/>
-      <c r="N224" s="90"/>
+      <c r="K224" s="140"/>
+      <c r="L224" s="140"/>
+      <c r="M224" s="140"/>
+      <c r="N224" s="140"/>
       <c r="O224" s="60"/>
       <c r="P224" s="49"/>
     </row>
     <row r="225" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A225" s="117"/>
-      <c r="B225" s="110"/>
-      <c r="C225" s="110" t="s">
+      <c r="A225" s="102"/>
+      <c r="B225" s="126"/>
+      <c r="C225" s="126" t="s">
         <v>364</v>
       </c>
       <c r="D225" s="61" t="s">
@@ -8775,19 +8775,19 @@
       </c>
       <c r="G225" s="61"/>
       <c r="H225" s="57"/>
-      <c r="I225" s="90"/>
+      <c r="I225" s="140"/>
       <c r="J225" s="65"/>
-      <c r="K225" s="90"/>
-      <c r="L225" s="90"/>
-      <c r="M225" s="90"/>
-      <c r="N225" s="90"/>
+      <c r="K225" s="140"/>
+      <c r="L225" s="140"/>
+      <c r="M225" s="140"/>
+      <c r="N225" s="140"/>
       <c r="O225" s="60"/>
       <c r="P225" s="49"/>
     </row>
     <row r="226" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="117"/>
-      <c r="B226" s="110"/>
-      <c r="C226" s="110"/>
+      <c r="A226" s="102"/>
+      <c r="B226" s="126"/>
+      <c r="C226" s="126"/>
       <c r="D226" s="61" t="s">
         <v>367</v>
       </c>
@@ -8795,19 +8795,19 @@
       <c r="F226" s="61"/>
       <c r="G226" s="61"/>
       <c r="H226" s="57"/>
-      <c r="I226" s="90"/>
+      <c r="I226" s="140"/>
       <c r="J226" s="65"/>
-      <c r="K226" s="90"/>
-      <c r="L226" s="90"/>
-      <c r="M226" s="90"/>
-      <c r="N226" s="90"/>
+      <c r="K226" s="140"/>
+      <c r="L226" s="140"/>
+      <c r="M226" s="140"/>
+      <c r="N226" s="140"/>
       <c r="O226" s="60"/>
       <c r="P226" s="49"/>
     </row>
     <row r="227" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="117"/>
-      <c r="B227" s="110"/>
-      <c r="C227" s="110"/>
+      <c r="A227" s="102"/>
+      <c r="B227" s="126"/>
+      <c r="C227" s="126"/>
       <c r="D227" s="61" t="s">
         <v>368</v>
       </c>
@@ -8815,18 +8815,18 @@
       <c r="F227" s="61"/>
       <c r="G227" s="61"/>
       <c r="H227" s="57"/>
-      <c r="I227" s="91"/>
+      <c r="I227" s="141"/>
       <c r="J227" s="66"/>
-      <c r="K227" s="91"/>
-      <c r="L227" s="91"/>
-      <c r="M227" s="91"/>
-      <c r="N227" s="91"/>
+      <c r="K227" s="141"/>
+      <c r="L227" s="141"/>
+      <c r="M227" s="141"/>
+      <c r="N227" s="141"/>
       <c r="O227" s="60"/>
       <c r="P227" s="49"/>
     </row>
     <row r="228" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A228" s="117"/>
-      <c r="B228" s="111" t="s">
+      <c r="A228" s="102"/>
+      <c r="B228" s="99" t="s">
         <v>369</v>
       </c>
       <c r="C228" s="61" t="s">
@@ -8839,18 +8839,18 @@
       </c>
       <c r="G228" s="61"/>
       <c r="H228" s="57"/>
-      <c r="I228" s="92"/>
+      <c r="I228" s="130"/>
       <c r="J228" s="64"/>
-      <c r="K228" s="89"/>
-      <c r="L228" s="92"/>
-      <c r="M228" s="92"/>
-      <c r="N228" s="92"/>
+      <c r="K228" s="139"/>
+      <c r="L228" s="130"/>
+      <c r="M228" s="130"/>
+      <c r="N228" s="130"/>
       <c r="O228" s="60"/>
-      <c r="P228" s="71"/>
+      <c r="P228" s="143"/>
     </row>
     <row r="229" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="117"/>
-      <c r="B229" s="115"/>
+      <c r="A229" s="102"/>
+      <c r="B229" s="129"/>
       <c r="C229" s="61" t="s">
         <v>372</v>
       </c>
@@ -8861,19 +8861,19 @@
       </c>
       <c r="G229" s="61"/>
       <c r="H229" s="57"/>
-      <c r="I229" s="92"/>
+      <c r="I229" s="130"/>
       <c r="J229" s="65"/>
-      <c r="K229" s="90"/>
-      <c r="L229" s="92"/>
-      <c r="M229" s="92"/>
-      <c r="N229" s="92"/>
+      <c r="K229" s="140"/>
+      <c r="L229" s="130"/>
+      <c r="M229" s="130"/>
+      <c r="N229" s="130"/>
       <c r="O229" s="60"/>
-      <c r="P229" s="72"/>
+      <c r="P229" s="144"/>
     </row>
     <row r="230" spans="1:16" s="17" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A230" s="117"/>
-      <c r="B230" s="112"/>
-      <c r="C230" s="111" t="s">
+      <c r="A230" s="102"/>
+      <c r="B230" s="127"/>
+      <c r="C230" s="99" t="s">
         <v>374</v>
       </c>
       <c r="D230" s="61" t="s">
@@ -8885,19 +8885,19 @@
       </c>
       <c r="G230" s="61"/>
       <c r="H230" s="57"/>
-      <c r="I230" s="92"/>
+      <c r="I230" s="130"/>
       <c r="J230" s="65"/>
-      <c r="K230" s="90"/>
-      <c r="L230" s="92"/>
-      <c r="M230" s="92"/>
-      <c r="N230" s="92"/>
+      <c r="K230" s="140"/>
+      <c r="L230" s="130"/>
+      <c r="M230" s="130"/>
+      <c r="N230" s="130"/>
       <c r="O230" s="60"/>
-      <c r="P230" s="72"/>
+      <c r="P230" s="144"/>
     </row>
     <row r="231" spans="1:16" s="17" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A231" s="117"/>
-      <c r="B231" s="112"/>
-      <c r="C231" s="113"/>
+      <c r="A231" s="102"/>
+      <c r="B231" s="127"/>
+      <c r="C231" s="100"/>
       <c r="D231" s="61" t="s">
         <v>377</v>
       </c>
@@ -8907,19 +8907,19 @@
       </c>
       <c r="G231" s="61"/>
       <c r="H231" s="57"/>
-      <c r="I231" s="92"/>
+      <c r="I231" s="130"/>
       <c r="J231" s="65"/>
-      <c r="K231" s="90"/>
-      <c r="L231" s="92"/>
-      <c r="M231" s="92"/>
-      <c r="N231" s="92"/>
+      <c r="K231" s="140"/>
+      <c r="L231" s="130"/>
+      <c r="M231" s="130"/>
+      <c r="N231" s="130"/>
       <c r="O231" s="60"/>
-      <c r="P231" s="72"/>
+      <c r="P231" s="144"/>
     </row>
     <row r="232" spans="1:16" s="17" customFormat="1" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A232" s="117"/>
-      <c r="B232" s="112"/>
-      <c r="C232" s="110" t="s">
+      <c r="A232" s="102"/>
+      <c r="B232" s="127"/>
+      <c r="C232" s="126" t="s">
         <v>379</v>
       </c>
       <c r="D232" s="61" t="s">
@@ -8931,19 +8931,19 @@
       </c>
       <c r="G232" s="61"/>
       <c r="H232" s="57"/>
-      <c r="I232" s="92"/>
+      <c r="I232" s="130"/>
       <c r="J232" s="65"/>
-      <c r="K232" s="90"/>
-      <c r="L232" s="92"/>
-      <c r="M232" s="92"/>
-      <c r="N232" s="92"/>
+      <c r="K232" s="140"/>
+      <c r="L232" s="130"/>
+      <c r="M232" s="130"/>
+      <c r="N232" s="130"/>
       <c r="O232" s="60"/>
-      <c r="P232" s="72"/>
+      <c r="P232" s="144"/>
     </row>
     <row r="233" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="117"/>
-      <c r="B233" s="112"/>
-      <c r="C233" s="110"/>
+      <c r="A233" s="102"/>
+      <c r="B233" s="127"/>
+      <c r="C233" s="126"/>
       <c r="D233" s="61" t="s">
         <v>382</v>
       </c>
@@ -8953,19 +8953,19 @@
       </c>
       <c r="G233" s="61"/>
       <c r="H233" s="57"/>
-      <c r="I233" s="92"/>
+      <c r="I233" s="130"/>
       <c r="J233" s="65"/>
-      <c r="K233" s="90"/>
-      <c r="L233" s="92"/>
-      <c r="M233" s="92"/>
-      <c r="N233" s="92"/>
+      <c r="K233" s="140"/>
+      <c r="L233" s="130"/>
+      <c r="M233" s="130"/>
+      <c r="N233" s="130"/>
       <c r="O233" s="60"/>
-      <c r="P233" s="72"/>
+      <c r="P233" s="144"/>
     </row>
     <row r="234" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="117"/>
-      <c r="B234" s="112"/>
-      <c r="C234" s="110"/>
+      <c r="A234" s="102"/>
+      <c r="B234" s="127"/>
+      <c r="C234" s="126"/>
       <c r="D234" s="61" t="s">
         <v>384</v>
       </c>
@@ -8975,18 +8975,18 @@
       </c>
       <c r="G234" s="61"/>
       <c r="H234" s="57"/>
-      <c r="I234" s="92"/>
+      <c r="I234" s="130"/>
       <c r="J234" s="65"/>
-      <c r="K234" s="90"/>
-      <c r="L234" s="92"/>
-      <c r="M234" s="92"/>
-      <c r="N234" s="92"/>
+      <c r="K234" s="140"/>
+      <c r="L234" s="130"/>
+      <c r="M234" s="130"/>
+      <c r="N234" s="130"/>
       <c r="O234" s="60"/>
-      <c r="P234" s="72"/>
+      <c r="P234" s="144"/>
     </row>
     <row r="235" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A235" s="117"/>
-      <c r="B235" s="113"/>
+      <c r="A235" s="102"/>
+      <c r="B235" s="100"/>
       <c r="C235" s="61" t="s">
         <v>386</v>
       </c>
@@ -8999,21 +8999,21 @@
       </c>
       <c r="G235" s="61"/>
       <c r="H235" s="57"/>
-      <c r="I235" s="92"/>
+      <c r="I235" s="130"/>
       <c r="J235" s="65"/>
-      <c r="K235" s="90"/>
-      <c r="L235" s="92"/>
-      <c r="M235" s="92"/>
-      <c r="N235" s="92"/>
+      <c r="K235" s="140"/>
+      <c r="L235" s="130"/>
+      <c r="M235" s="130"/>
+      <c r="N235" s="130"/>
       <c r="O235" s="60"/>
-      <c r="P235" s="72"/>
+      <c r="P235" s="144"/>
     </row>
     <row r="236" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="117"/>
-      <c r="B236" s="114" t="s">
+      <c r="A236" s="102"/>
+      <c r="B236" s="128" t="s">
         <v>436</v>
       </c>
-      <c r="C236" s="111" t="s">
+      <c r="C236" s="99" t="s">
         <v>389</v>
       </c>
       <c r="D236" s="61" t="s">
@@ -9025,19 +9025,19 @@
       </c>
       <c r="G236" s="61"/>
       <c r="H236" s="57"/>
-      <c r="I236" s="92"/>
+      <c r="I236" s="130"/>
       <c r="J236" s="65"/>
-      <c r="K236" s="90"/>
-      <c r="L236" s="92"/>
-      <c r="M236" s="92"/>
-      <c r="N236" s="92"/>
+      <c r="K236" s="140"/>
+      <c r="L236" s="130"/>
+      <c r="M236" s="130"/>
+      <c r="N236" s="130"/>
       <c r="O236" s="60"/>
       <c r="P236" s="49"/>
     </row>
     <row r="237" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="117"/>
-      <c r="B237" s="113"/>
-      <c r="C237" s="113"/>
+      <c r="A237" s="102"/>
+      <c r="B237" s="100"/>
+      <c r="C237" s="100"/>
       <c r="D237" s="61" t="s">
         <v>392</v>
       </c>
@@ -9047,17 +9047,17 @@
       </c>
       <c r="G237" s="61"/>
       <c r="H237" s="57"/>
-      <c r="I237" s="92"/>
+      <c r="I237" s="130"/>
       <c r="J237" s="66"/>
-      <c r="K237" s="91"/>
-      <c r="L237" s="92"/>
-      <c r="M237" s="92"/>
-      <c r="N237" s="92"/>
+      <c r="K237" s="141"/>
+      <c r="L237" s="130"/>
+      <c r="M237" s="130"/>
+      <c r="N237" s="130"/>
       <c r="O237" s="60"/>
       <c r="P237" s="49"/>
     </row>
     <row r="238" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="118"/>
+      <c r="A238" s="103"/>
       <c r="B238" s="67" t="s">
         <v>437</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="P238" s="52"/>
     </row>
     <row r="239" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A239" s="101" t="s">
+      <c r="A239" s="118" t="s">
         <v>394</v>
       </c>
       <c r="B239" s="27" t="s">
@@ -9103,7 +9103,7 @@
       <c r="P239" s="49"/>
     </row>
     <row r="240" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="102"/>
+      <c r="A240" s="119"/>
       <c r="B240" s="26" t="s">
         <v>395</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="P240" s="49"/>
     </row>
     <row r="241" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="102"/>
+      <c r="A241" s="119"/>
       <c r="B241" s="26" t="s">
         <v>210</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="P241" s="49"/>
     </row>
     <row r="242" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="102"/>
+      <c r="A242" s="119"/>
       <c r="B242" s="26" t="s">
         <v>396</v>
       </c>
@@ -9179,8 +9179,8 @@
       <c r="P242" s="49"/>
     </row>
     <row r="243" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="102"/>
-      <c r="B243" s="104" t="s">
+      <c r="A243" s="119"/>
+      <c r="B243" s="108" t="s">
         <v>398</v>
       </c>
       <c r="C243" s="26" t="s">
@@ -9198,15 +9198,15 @@
       <c r="K243" s="3"/>
       <c r="L243" s="32"/>
       <c r="M243" s="32"/>
-      <c r="N243" s="96">
+      <c r="N243" s="131">
         <v>5</v>
       </c>
       <c r="O243" s="3"/>
       <c r="P243" s="49"/>
     </row>
     <row r="244" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A244" s="102"/>
-      <c r="B244" s="105"/>
+      <c r="A244" s="119"/>
+      <c r="B244" s="121"/>
       <c r="C244" s="26" t="s">
         <v>401</v>
       </c>
@@ -9222,13 +9222,13 @@
       <c r="K244" s="3"/>
       <c r="L244" s="30"/>
       <c r="M244" s="30"/>
-      <c r="N244" s="97"/>
+      <c r="N244" s="132"/>
       <c r="O244" s="3"/>
       <c r="P244" s="49"/>
     </row>
     <row r="245" spans="1:16" s="17" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="102"/>
-      <c r="B245" s="105"/>
+      <c r="A245" s="119"/>
+      <c r="B245" s="121"/>
       <c r="C245" s="26" t="s">
         <v>403</v>
       </c>
@@ -9244,13 +9244,13 @@
       <c r="K245" s="3"/>
       <c r="L245" s="30"/>
       <c r="M245" s="30"/>
-      <c r="N245" s="97"/>
+      <c r="N245" s="132"/>
       <c r="O245" s="3"/>
       <c r="P245" s="49"/>
     </row>
     <row r="246" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="102"/>
-      <c r="B246" s="105"/>
+      <c r="A246" s="119"/>
+      <c r="B246" s="121"/>
       <c r="C246" s="26" t="s">
         <v>405</v>
       </c>
@@ -9266,13 +9266,13 @@
       <c r="K246" s="3"/>
       <c r="L246" s="30"/>
       <c r="M246" s="30"/>
-      <c r="N246" s="97"/>
+      <c r="N246" s="132"/>
       <c r="O246" s="3"/>
       <c r="P246" s="49"/>
     </row>
     <row r="247" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="102"/>
-      <c r="B247" s="105"/>
+      <c r="A247" s="119"/>
+      <c r="B247" s="121"/>
       <c r="C247" s="26" t="s">
         <v>407</v>
       </c>
@@ -9288,13 +9288,13 @@
       <c r="K247" s="3"/>
       <c r="L247" s="30"/>
       <c r="M247" s="30"/>
-      <c r="N247" s="97"/>
+      <c r="N247" s="132"/>
       <c r="O247" s="3"/>
       <c r="P247" s="49"/>
     </row>
     <row r="248" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A248" s="102"/>
-      <c r="B248" s="105"/>
+      <c r="A248" s="119"/>
+      <c r="B248" s="121"/>
       <c r="C248" s="26" t="s">
         <v>409</v>
       </c>
@@ -9310,13 +9310,13 @@
       <c r="K248" s="3"/>
       <c r="L248" s="30"/>
       <c r="M248" s="30"/>
-      <c r="N248" s="97"/>
+      <c r="N248" s="132"/>
       <c r="O248" s="3"/>
       <c r="P248" s="49"/>
     </row>
     <row r="249" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="102"/>
-      <c r="B249" s="106"/>
+      <c r="A249" s="119"/>
+      <c r="B249" s="122"/>
       <c r="C249" s="26" t="s">
         <v>411</v>
       </c>
@@ -9332,13 +9332,13 @@
       <c r="K249" s="3"/>
       <c r="L249" s="31"/>
       <c r="M249" s="31"/>
-      <c r="N249" s="98"/>
+      <c r="N249" s="133"/>
       <c r="O249" s="3"/>
       <c r="P249" s="49"/>
     </row>
     <row r="250" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="102"/>
-      <c r="B250" s="107" t="s">
+      <c r="A250" s="119"/>
+      <c r="B250" s="123" t="s">
         <v>413</v>
       </c>
       <c r="C250" s="28" t="s">
@@ -9358,16 +9358,16 @@
       <c r="K250" s="3"/>
       <c r="L250" s="32"/>
       <c r="M250" s="32"/>
-      <c r="N250" s="96">
+      <c r="N250" s="131">
         <v>1.25</v>
       </c>
       <c r="O250" s="3"/>
       <c r="P250" s="49"/>
     </row>
     <row r="251" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="102"/>
-      <c r="B251" s="107"/>
-      <c r="C251" s="107" t="s">
+      <c r="A251" s="119"/>
+      <c r="B251" s="123"/>
+      <c r="C251" s="123" t="s">
         <v>416</v>
       </c>
       <c r="D251" s="28" t="s">
@@ -9384,14 +9384,14 @@
       <c r="K251" s="3"/>
       <c r="L251" s="30"/>
       <c r="M251" s="30"/>
-      <c r="N251" s="97"/>
+      <c r="N251" s="132"/>
       <c r="O251" s="3"/>
       <c r="P251" s="49"/>
     </row>
     <row r="252" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="102"/>
-      <c r="B252" s="107"/>
-      <c r="C252" s="107"/>
+      <c r="A252" s="119"/>
+      <c r="B252" s="123"/>
+      <c r="C252" s="123"/>
       <c r="D252" s="28" t="s">
         <v>276</v>
       </c>
@@ -9404,14 +9404,14 @@
       <c r="K252" s="3"/>
       <c r="L252" s="30"/>
       <c r="M252" s="30"/>
-      <c r="N252" s="97"/>
+      <c r="N252" s="132"/>
       <c r="O252" s="3"/>
       <c r="P252" s="49"/>
     </row>
     <row r="253" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="102"/>
-      <c r="B253" s="107"/>
-      <c r="C253" s="107"/>
+      <c r="A253" s="119"/>
+      <c r="B253" s="123"/>
+      <c r="C253" s="123"/>
       <c r="D253" s="28" t="s">
         <v>277</v>
       </c>
@@ -9424,13 +9424,13 @@
       <c r="K253" s="3"/>
       <c r="L253" s="31"/>
       <c r="M253" s="31"/>
-      <c r="N253" s="98"/>
+      <c r="N253" s="133"/>
       <c r="O253" s="3"/>
       <c r="P253" s="49"/>
     </row>
     <row r="254" spans="1:16" s="17" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A254" s="102"/>
-      <c r="B254" s="104" t="s">
+      <c r="A254" s="119"/>
+      <c r="B254" s="108" t="s">
         <v>418</v>
       </c>
       <c r="C254" s="26" t="s">
@@ -9448,15 +9448,15 @@
       <c r="K254" s="3"/>
       <c r="L254" s="32"/>
       <c r="M254" s="32"/>
-      <c r="N254" s="96">
+      <c r="N254" s="131">
         <v>2.5</v>
       </c>
       <c r="O254" s="3"/>
       <c r="P254" s="49"/>
     </row>
     <row r="255" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="102"/>
-      <c r="B255" s="105"/>
+      <c r="A255" s="119"/>
+      <c r="B255" s="121"/>
       <c r="C255" s="26" t="s">
         <v>421</v>
       </c>
@@ -9472,13 +9472,13 @@
       <c r="K255" s="3"/>
       <c r="L255" s="30"/>
       <c r="M255" s="30"/>
-      <c r="N255" s="97"/>
+      <c r="N255" s="132"/>
       <c r="O255" s="3"/>
       <c r="P255" s="49"/>
     </row>
     <row r="256" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="102"/>
-      <c r="B256" s="105"/>
+      <c r="A256" s="119"/>
+      <c r="B256" s="121"/>
       <c r="C256" s="26" t="s">
         <v>423</v>
       </c>
@@ -9492,13 +9492,13 @@
       <c r="K256" s="3"/>
       <c r="L256" s="30"/>
       <c r="M256" s="30"/>
-      <c r="N256" s="97"/>
+      <c r="N256" s="132"/>
       <c r="O256" s="3"/>
       <c r="P256" s="49"/>
     </row>
     <row r="257" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="102"/>
-      <c r="B257" s="105"/>
+      <c r="A257" s="119"/>
+      <c r="B257" s="121"/>
       <c r="C257" s="26" t="s">
         <v>424</v>
       </c>
@@ -9512,13 +9512,13 @@
       <c r="K257" s="3"/>
       <c r="L257" s="30"/>
       <c r="M257" s="30"/>
-      <c r="N257" s="97"/>
+      <c r="N257" s="132"/>
       <c r="O257" s="3"/>
       <c r="P257" s="49"/>
     </row>
     <row r="258" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="103"/>
-      <c r="B258" s="106"/>
+      <c r="A258" s="120"/>
+      <c r="B258" s="122"/>
       <c r="C258" s="26" t="s">
         <v>425</v>
       </c>
@@ -9532,7 +9532,7 @@
       <c r="K258" s="3"/>
       <c r="L258" s="31"/>
       <c r="M258" s="31"/>
-      <c r="N258" s="98"/>
+      <c r="N258" s="133"/>
       <c r="O258" s="3"/>
       <c r="P258" s="49"/>
     </row>
@@ -9904,13 +9904,13 @@
         <f t="shared" si="2"/>
         <v>8315.5992857142846</v>
       </c>
-      <c r="K272" s="146">
+      <c r="K272" s="82">
         <f>N270*1320/7+K270*1320/7</f>
         <v>38987.142857142855</v>
       </c>
-      <c r="L272" s="147"/>
-      <c r="M272" s="147"/>
-      <c r="N272" s="148"/>
+      <c r="L272" s="83"/>
+      <c r="M272" s="83"/>
+      <c r="N272" s="84"/>
       <c r="O272" s="23">
         <f>O270*1320/7</f>
         <v>2924.0357142857142</v>
@@ -9926,53 +9926,203 @@
       <c r="E273" s="4"/>
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
-      <c r="H273" s="137">
+      <c r="H273" s="94">
         <f>SUM(H271:O272)</f>
         <v>215119.52785714282</v>
       </c>
-      <c r="I273" s="137"/>
-      <c r="J273" s="137"/>
-      <c r="K273" s="137"/>
-      <c r="L273" s="137"/>
-      <c r="M273" s="137"/>
-      <c r="N273" s="137"/>
-      <c r="O273" s="137"/>
+      <c r="I273" s="94"/>
+      <c r="J273" s="94"/>
+      <c r="K273" s="94"/>
+      <c r="L273" s="94"/>
+      <c r="M273" s="94"/>
+      <c r="N273" s="94"/>
+      <c r="O273" s="94"/>
     </row>
     <row r="274" spans="1:15" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="141" t="s">
+      <c r="A274" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B274" s="142"/>
-      <c r="C274" s="142"/>
-      <c r="D274" s="142"/>
-      <c r="E274" s="142"/>
-      <c r="F274" s="142"/>
-      <c r="G274" s="142"/>
-      <c r="H274" s="142"/>
-      <c r="I274" s="142"/>
-      <c r="J274" s="142"/>
-      <c r="K274" s="142"/>
-      <c r="L274" s="142"/>
-      <c r="M274" s="142"/>
-      <c r="N274" s="142"/>
-      <c r="O274" s="142"/>
+      <c r="B274" s="78"/>
+      <c r="C274" s="78"/>
+      <c r="D274" s="78"/>
+      <c r="E274" s="78"/>
+      <c r="F274" s="78"/>
+      <c r="G274" s="78"/>
+      <c r="H274" s="78"/>
+      <c r="I274" s="78"/>
+      <c r="J274" s="78"/>
+      <c r="K274" s="78"/>
+      <c r="L274" s="78"/>
+      <c r="M274" s="78"/>
+      <c r="N274" s="78"/>
+      <c r="O274" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="212">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="C58:C79"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="J58:J79"/>
-    <mergeCell ref="K19:K30"/>
-    <mergeCell ref="N19:N30"/>
-    <mergeCell ref="K31:K57"/>
-    <mergeCell ref="N31:N57"/>
+    <mergeCell ref="P228:P235"/>
+    <mergeCell ref="P19:P30"/>
+    <mergeCell ref="P31:P57"/>
+    <mergeCell ref="P58:P79"/>
+    <mergeCell ref="P80:P101"/>
+    <mergeCell ref="P102:P122"/>
+    <mergeCell ref="P130:P173"/>
+    <mergeCell ref="P123:P128"/>
+    <mergeCell ref="P174:P177"/>
+    <mergeCell ref="J194:J195"/>
+    <mergeCell ref="J196:J198"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="N213:N214"/>
+    <mergeCell ref="N178:N185"/>
+    <mergeCell ref="N186:N193"/>
+    <mergeCell ref="N194:N195"/>
+    <mergeCell ref="N196:N198"/>
+    <mergeCell ref="N200:N210"/>
+    <mergeCell ref="M200:M210"/>
+    <mergeCell ref="K178:K185"/>
+    <mergeCell ref="K186:K193"/>
+    <mergeCell ref="J178:J185"/>
+    <mergeCell ref="J186:J193"/>
+    <mergeCell ref="M215:M222"/>
+    <mergeCell ref="L123:L128"/>
+    <mergeCell ref="L236:L237"/>
+    <mergeCell ref="M228:M235"/>
+    <mergeCell ref="M236:M237"/>
+    <mergeCell ref="N228:N235"/>
+    <mergeCell ref="N236:N237"/>
+    <mergeCell ref="N215:N222"/>
+    <mergeCell ref="N223:N227"/>
+    <mergeCell ref="N130:N173"/>
+    <mergeCell ref="M178:M185"/>
+    <mergeCell ref="M186:M193"/>
+    <mergeCell ref="L178:L185"/>
+    <mergeCell ref="L186:L193"/>
+    <mergeCell ref="M123:M128"/>
+    <mergeCell ref="N4:N18"/>
+    <mergeCell ref="J4:J18"/>
+    <mergeCell ref="J19:J30"/>
+    <mergeCell ref="J31:J57"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="L174:L177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="K174:K177"/>
+    <mergeCell ref="K80:K101"/>
+    <mergeCell ref="N80:N101"/>
+    <mergeCell ref="K102:K122"/>
+    <mergeCell ref="N102:N122"/>
+    <mergeCell ref="K123:K128"/>
+    <mergeCell ref="N123:N128"/>
+    <mergeCell ref="L80:L101"/>
+    <mergeCell ref="L102:L122"/>
+    <mergeCell ref="M102:M122"/>
+    <mergeCell ref="J102:J122"/>
+    <mergeCell ref="J123:J128"/>
+    <mergeCell ref="K130:K173"/>
+    <mergeCell ref="L130:L173"/>
+    <mergeCell ref="J174:J177"/>
+    <mergeCell ref="I130:I173"/>
+    <mergeCell ref="J130:J173"/>
+    <mergeCell ref="M130:M173"/>
+    <mergeCell ref="I102:I122"/>
+    <mergeCell ref="I123:I128"/>
+    <mergeCell ref="K4:K18"/>
+    <mergeCell ref="L4:L18"/>
+    <mergeCell ref="M4:M18"/>
+    <mergeCell ref="N243:N249"/>
+    <mergeCell ref="N250:N253"/>
+    <mergeCell ref="N254:N258"/>
+    <mergeCell ref="I194:I195"/>
+    <mergeCell ref="I196:I198"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="K228:K237"/>
+    <mergeCell ref="L194:L195"/>
+    <mergeCell ref="L196:L198"/>
+    <mergeCell ref="L200:L210"/>
+    <mergeCell ref="K194:K195"/>
+    <mergeCell ref="K196:K198"/>
+    <mergeCell ref="K200:K210"/>
+    <mergeCell ref="K215:K222"/>
+    <mergeCell ref="M223:M227"/>
+    <mergeCell ref="L228:L235"/>
+    <mergeCell ref="I223:I227"/>
+    <mergeCell ref="I215:I222"/>
+    <mergeCell ref="K223:K227"/>
+    <mergeCell ref="K212:K214"/>
+    <mergeCell ref="M194:M195"/>
+    <mergeCell ref="M196:M198"/>
+    <mergeCell ref="L215:L222"/>
+    <mergeCell ref="L223:L227"/>
+    <mergeCell ref="I80:I101"/>
+    <mergeCell ref="I4:I18"/>
+    <mergeCell ref="A239:A258"/>
+    <mergeCell ref="B243:B249"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="B254:B258"/>
+    <mergeCell ref="D204:D207"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B227"/>
+    <mergeCell ref="C215:C222"/>
+    <mergeCell ref="D215:D218"/>
+    <mergeCell ref="D219:D222"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="B228:B235"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="I228:I235"/>
+    <mergeCell ref="I236:I237"/>
+    <mergeCell ref="I174:I177"/>
+    <mergeCell ref="A211:A238"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="A200:A210"/>
+    <mergeCell ref="B200:B210"/>
+    <mergeCell ref="C200:C210"/>
+    <mergeCell ref="B186:B193"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A4:A199"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C118"/>
+    <mergeCell ref="B178:B185"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="E142:E146"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="E156:E160"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C80:C101"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="H273:O273"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="M80:M101"/>
+    <mergeCell ref="J80:J101"/>
+    <mergeCell ref="E161:E164"/>
+    <mergeCell ref="D165:D172"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="I178:I185"/>
+    <mergeCell ref="I186:I193"/>
+    <mergeCell ref="I19:I30"/>
     <mergeCell ref="A274:O274"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="K272:N272"/>
@@ -9997,100 +10147,22 @@
     <mergeCell ref="B102:B122"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C80:C101"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="H273:O273"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="M80:M101"/>
-    <mergeCell ref="J80:J101"/>
-    <mergeCell ref="E161:E164"/>
-    <mergeCell ref="D165:D172"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="B178:B185"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="E142:E146"/>
-    <mergeCell ref="E147:E151"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="E156:E160"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="A211:A238"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="A200:A210"/>
-    <mergeCell ref="B200:B210"/>
-    <mergeCell ref="C200:C210"/>
-    <mergeCell ref="B186:B193"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A4:A199"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C118"/>
-    <mergeCell ref="I178:I185"/>
-    <mergeCell ref="I186:I193"/>
-    <mergeCell ref="I19:I30"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="C58:C79"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="J58:J79"/>
+    <mergeCell ref="K19:K30"/>
+    <mergeCell ref="N19:N30"/>
+    <mergeCell ref="K31:K57"/>
+    <mergeCell ref="N31:N57"/>
     <mergeCell ref="I31:I57"/>
     <mergeCell ref="I58:I79"/>
-    <mergeCell ref="I80:I101"/>
-    <mergeCell ref="I4:I18"/>
-    <mergeCell ref="A239:A258"/>
-    <mergeCell ref="B243:B249"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="B254:B258"/>
-    <mergeCell ref="D204:D207"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B227"/>
-    <mergeCell ref="C215:C222"/>
-    <mergeCell ref="D215:D218"/>
-    <mergeCell ref="D219:D222"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="C225:C227"/>
-    <mergeCell ref="B228:B235"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="I228:I235"/>
-    <mergeCell ref="I236:I237"/>
-    <mergeCell ref="N243:N249"/>
-    <mergeCell ref="N250:N253"/>
-    <mergeCell ref="N254:N258"/>
-    <mergeCell ref="I194:I195"/>
-    <mergeCell ref="I196:I198"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="K228:K237"/>
-    <mergeCell ref="L194:L195"/>
-    <mergeCell ref="L196:L198"/>
-    <mergeCell ref="L200:L210"/>
-    <mergeCell ref="K194:K195"/>
-    <mergeCell ref="K196:K198"/>
-    <mergeCell ref="K200:K210"/>
-    <mergeCell ref="K215:K222"/>
-    <mergeCell ref="M223:M227"/>
-    <mergeCell ref="L228:L235"/>
-    <mergeCell ref="I223:I227"/>
-    <mergeCell ref="I215:I222"/>
-    <mergeCell ref="K223:K227"/>
-    <mergeCell ref="K212:K214"/>
-    <mergeCell ref="M194:M195"/>
-    <mergeCell ref="M196:M198"/>
     <mergeCell ref="K58:K79"/>
     <mergeCell ref="N58:N79"/>
     <mergeCell ref="L19:L30"/>
@@ -10099,78 +10171,6 @@
     <mergeCell ref="M19:M30"/>
     <mergeCell ref="M31:M57"/>
     <mergeCell ref="M58:M79"/>
-    <mergeCell ref="I174:I177"/>
-    <mergeCell ref="J174:J177"/>
-    <mergeCell ref="I130:I173"/>
-    <mergeCell ref="J130:J173"/>
-    <mergeCell ref="M130:M173"/>
-    <mergeCell ref="I102:I122"/>
-    <mergeCell ref="I123:I128"/>
-    <mergeCell ref="K4:K18"/>
-    <mergeCell ref="L4:L18"/>
-    <mergeCell ref="M4:M18"/>
-    <mergeCell ref="N4:N18"/>
-    <mergeCell ref="J4:J18"/>
-    <mergeCell ref="J19:J30"/>
-    <mergeCell ref="J31:J57"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="L174:L177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="K174:K177"/>
-    <mergeCell ref="K80:K101"/>
-    <mergeCell ref="N80:N101"/>
-    <mergeCell ref="K102:K122"/>
-    <mergeCell ref="N102:N122"/>
-    <mergeCell ref="K123:K128"/>
-    <mergeCell ref="N123:N128"/>
-    <mergeCell ref="L80:L101"/>
-    <mergeCell ref="L102:L122"/>
-    <mergeCell ref="M102:M122"/>
-    <mergeCell ref="J102:J122"/>
-    <mergeCell ref="J123:J128"/>
-    <mergeCell ref="K130:K173"/>
-    <mergeCell ref="L130:L173"/>
-    <mergeCell ref="L215:L222"/>
-    <mergeCell ref="L223:L227"/>
-    <mergeCell ref="M215:M222"/>
-    <mergeCell ref="L123:L128"/>
-    <mergeCell ref="L236:L237"/>
-    <mergeCell ref="M228:M235"/>
-    <mergeCell ref="M236:M237"/>
-    <mergeCell ref="N228:N235"/>
-    <mergeCell ref="N236:N237"/>
-    <mergeCell ref="N215:N222"/>
-    <mergeCell ref="N223:N227"/>
-    <mergeCell ref="N130:N173"/>
-    <mergeCell ref="M178:M185"/>
-    <mergeCell ref="M186:M193"/>
-    <mergeCell ref="L178:L185"/>
-    <mergeCell ref="L186:L193"/>
-    <mergeCell ref="M123:M128"/>
-    <mergeCell ref="J194:J195"/>
-    <mergeCell ref="J196:J198"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="N213:N214"/>
-    <mergeCell ref="N178:N185"/>
-    <mergeCell ref="N186:N193"/>
-    <mergeCell ref="N194:N195"/>
-    <mergeCell ref="N196:N198"/>
-    <mergeCell ref="N200:N210"/>
-    <mergeCell ref="M200:M210"/>
-    <mergeCell ref="K178:K185"/>
-    <mergeCell ref="K186:K193"/>
-    <mergeCell ref="J178:J185"/>
-    <mergeCell ref="J186:J193"/>
-    <mergeCell ref="P228:P235"/>
-    <mergeCell ref="P19:P30"/>
-    <mergeCell ref="P31:P57"/>
-    <mergeCell ref="P58:P79"/>
-    <mergeCell ref="P80:P101"/>
-    <mergeCell ref="P102:P122"/>
-    <mergeCell ref="P130:P173"/>
-    <mergeCell ref="P123:P128"/>
-    <mergeCell ref="P174:P177"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
